--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5892793-6B23-4843-9895-4E964403873A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426CCB92-C89F-8548-97B1-73F39883C564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3205,11 +3205,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3472,60 +3479,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3534,34 +3556,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3573,28 +3583,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -18693,7 +18706,7 @@
       <c r="G303" s="41">
         <f ca="1">IF($D303="Formado",(DATA.SAGA!$I303-DATA.SAGA!$B303)/365*12,
 IF(OR($D303="Pré-Inscrito",$D303="Matriculado",$D303="Pré-inscrito"),(TODAY()-DATA.SAGA!$B303)/365*12,"*"))</f>
-        <v>46.191780821917803</v>
+        <v>46.257534246575347</v>
       </c>
       <c r="H303" s="6" t="str">
         <f t="shared" si="4"/>
@@ -19036,7 +19049,7 @@
       <c r="G310" s="41">
         <f ca="1">IF($D310="Formado",(DATA.SAGA!$I310-DATA.SAGA!$B310)/365*12,
 IF(OR($D310="Pré-Inscrito",$D310="Matriculado",$D310="Pré-inscrito"),(TODAY()-DATA.SAGA!$B310)/365*12,"*"))</f>
-        <v>45.698630136986303</v>
+        <v>45.764383561643832</v>
       </c>
       <c r="H310" s="6" t="str">
         <f t="shared" si="4"/>
@@ -19477,7 +19490,7 @@
       <c r="G319" s="41">
         <f ca="1">IF($D319="Formado",(DATA.SAGA!$I319-DATA.SAGA!$B319)/365*12,
 IF(OR($D319="Pré-Inscrito",$D319="Matriculado",$D319="Pré-inscrito"),(TODAY()-DATA.SAGA!$B319)/365*12,"*"))</f>
-        <v>42.31232876712329</v>
+        <v>42.37808219178082</v>
       </c>
       <c r="H319" s="6" t="str">
         <f t="shared" si="4"/>
@@ -19526,7 +19539,7 @@
       <c r="G320" s="41">
         <f ca="1">IF($D320="Formado",(DATA.SAGA!$I320-DATA.SAGA!$B320)/365*12,
 IF(OR($D320="Pré-Inscrito",$D320="Matriculado",$D320="Pré-inscrito"),(TODAY()-DATA.SAGA!$B320)/365*12,"*"))</f>
-        <v>42.31232876712329</v>
+        <v>42.37808219178082</v>
       </c>
       <c r="H320" s="6" t="str">
         <f t="shared" si="4"/>
@@ -19575,7 +19588,7 @@
       <c r="G321" s="41">
         <f ca="1">IF($D321="Formado",(DATA.SAGA!$I321-DATA.SAGA!$B321)/365*12,
 IF(OR($D321="Pré-Inscrito",$D321="Matriculado",$D321="Pré-inscrito"),(TODAY()-DATA.SAGA!$B321)/365*12,"*"))</f>
-        <v>42.31232876712329</v>
+        <v>42.37808219178082</v>
       </c>
       <c r="H321" s="6" t="str">
         <f t="shared" si="4"/>
@@ -19624,7 +19637,7 @@
       <c r="G322" s="41">
         <f ca="1">IF($D322="Formado",(DATA.SAGA!$I322-DATA.SAGA!$B322)/365*12,
 IF(OR($D322="Pré-Inscrito",$D322="Matriculado",$D322="Pré-inscrito"),(TODAY()-DATA.SAGA!$B322)/365*12,"*"))</f>
-        <v>42.31232876712329</v>
+        <v>42.37808219178082</v>
       </c>
       <c r="H322" s="6" t="str">
         <f t="shared" si="4"/>
@@ -19673,7 +19686,7 @@
       <c r="G323" s="41">
         <f ca="1">IF($D323="Formado",(DATA.SAGA!$I323-DATA.SAGA!$B323)/365*12,
 IF(OR($D323="Pré-Inscrito",$D323="Matriculado",$D323="Pré-inscrito"),(TODAY()-DATA.SAGA!$B323)/365*12,"*"))</f>
-        <v>42.31232876712329</v>
+        <v>42.37808219178082</v>
       </c>
       <c r="H323" s="6" t="str">
         <f t="shared" ref="H323:H386" si="5">IF(AND(COUNTIF($B:$B,$B323)&gt;1,$A323="Doutorado"),"Sim","*")</f>
@@ -19722,7 +19735,7 @@
       <c r="G324" s="41">
         <f ca="1">IF($D324="Formado",(DATA.SAGA!$I324-DATA.SAGA!$B324)/365*12,
 IF(OR($D324="Pré-Inscrito",$D324="Matriculado",$D324="Pré-inscrito"),(TODAY()-DATA.SAGA!$B324)/365*12,"*"))</f>
-        <v>42.31232876712329</v>
+        <v>42.37808219178082</v>
       </c>
       <c r="H324" s="6" t="str">
         <f t="shared" si="5"/>
@@ -19771,7 +19784,7 @@
       <c r="G325" s="41">
         <f ca="1">IF($D325="Formado",(DATA.SAGA!$I325-DATA.SAGA!$B325)/365*12,
 IF(OR($D325="Pré-Inscrito",$D325="Matriculado",$D325="Pré-inscrito"),(TODAY()-DATA.SAGA!$B325)/365*12,"*"))</f>
-        <v>42.31232876712329</v>
+        <v>42.37808219178082</v>
       </c>
       <c r="H325" s="6" t="str">
         <f t="shared" si="5"/>
@@ -19869,7 +19882,7 @@
       <c r="G327" s="41">
         <f ca="1">IF($D327="Formado",(DATA.SAGA!$I327-DATA.SAGA!$B327)/365*12,
 IF(OR($D327="Pré-Inscrito",$D327="Matriculado",$D327="Pré-inscrito"),(TODAY()-DATA.SAGA!$B327)/365*12,"*"))</f>
-        <v>42.31232876712329</v>
+        <v>42.37808219178082</v>
       </c>
       <c r="H327" s="6" t="str">
         <f t="shared" si="5"/>
@@ -19918,7 +19931,7 @@
       <c r="G328" s="41">
         <f ca="1">IF($D328="Formado",(DATA.SAGA!$I328-DATA.SAGA!$B328)/365*12,
 IF(OR($D328="Pré-Inscrito",$D328="Matriculado",$D328="Pré-inscrito"),(TODAY()-DATA.SAGA!$B328)/365*12,"*"))</f>
-        <v>42.31232876712329</v>
+        <v>42.37808219178082</v>
       </c>
       <c r="H328" s="6" t="str">
         <f t="shared" si="5"/>
@@ -19967,7 +19980,7 @@
       <c r="G329" s="41">
         <f ca="1">IF($D329="Formado",(DATA.SAGA!$I329-DATA.SAGA!$B329)/365*12,
 IF(OR($D329="Pré-Inscrito",$D329="Matriculado",$D329="Pré-inscrito"),(TODAY()-DATA.SAGA!$B329)/365*12,"*"))</f>
-        <v>42.31232876712329</v>
+        <v>42.37808219178082</v>
       </c>
       <c r="H329" s="6" t="str">
         <f t="shared" si="5"/>
@@ -20408,7 +20421,7 @@
       <c r="G338" s="41">
         <f ca="1">IF($D338="Formado",(DATA.SAGA!$I338-DATA.SAGA!$B338)/365*12,
 IF(OR($D338="Pré-Inscrito",$D338="Matriculado",$D338="Pré-inscrito"),(TODAY()-DATA.SAGA!$B338)/365*12,"*"))</f>
-        <v>39.682191780821917</v>
+        <v>39.747945205479454</v>
       </c>
       <c r="H338" s="6" t="str">
         <f t="shared" si="5"/>
@@ -20702,7 +20715,7 @@
       <c r="G344" s="41">
         <f ca="1">IF($D344="Formado",(DATA.SAGA!$I344-DATA.SAGA!$B344)/365*12,
 IF(OR($D344="Pré-Inscrito",$D344="Matriculado",$D344="Pré-inscrito"),(TODAY()-DATA.SAGA!$B344)/365*12,"*"))</f>
-        <v>39.583561643835623</v>
+        <v>39.649315068493152</v>
       </c>
       <c r="H344" s="6" t="str">
         <f t="shared" si="5"/>
@@ -20898,7 +20911,7 @@
       <c r="G348" s="41">
         <f ca="1">IF($D348="Formado",(DATA.SAGA!$I348-DATA.SAGA!$B348)/365*12,
 IF(OR($D348="Pré-Inscrito",$D348="Matriculado",$D348="Pré-inscrito"),(TODAY()-DATA.SAGA!$B348)/365*12,"*"))</f>
-        <v>38.334246575342462</v>
+        <v>38.400000000000006</v>
       </c>
       <c r="H348" s="6" t="str">
         <f t="shared" si="5"/>
@@ -20947,7 +20960,7 @@
       <c r="G349" s="41">
         <f ca="1">IF($D349="Formado",(DATA.SAGA!$I349-DATA.SAGA!$B349)/365*12,
 IF(OR($D349="Pré-Inscrito",$D349="Matriculado",$D349="Pré-inscrito"),(TODAY()-DATA.SAGA!$B349)/365*12,"*"))</f>
-        <v>36.920547945205485</v>
+        <v>36.986301369863014</v>
       </c>
       <c r="H349" s="6" t="str">
         <f t="shared" si="5"/>
@@ -21486,7 +21499,7 @@
       <c r="G360" s="41">
         <f ca="1">IF($D360="Formado",(DATA.SAGA!$I360-DATA.SAGA!$B360)/365*12,
 IF(OR($D360="Pré-Inscrito",$D360="Matriculado",$D360="Pré-inscrito"),(TODAY()-DATA.SAGA!$B360)/365*12,"*"))</f>
-        <v>33.830136986301369</v>
+        <v>33.895890410958899</v>
       </c>
       <c r="H360" s="6" t="str">
         <f t="shared" si="5"/>
@@ -21535,7 +21548,7 @@
       <c r="G361" s="41">
         <f ca="1">IF($D361="Formado",(DATA.SAGA!$I361-DATA.SAGA!$B361)/365*12,
 IF(OR($D361="Pré-Inscrito",$D361="Matriculado",$D361="Pré-inscrito"),(TODAY()-DATA.SAGA!$B361)/365*12,"*"))</f>
-        <v>33.830136986301369</v>
+        <v>33.895890410958899</v>
       </c>
       <c r="H361" s="6" t="str">
         <f t="shared" si="5"/>
@@ -21878,7 +21891,7 @@
       <c r="G368" s="41">
         <f ca="1">IF($D368="Formado",(DATA.SAGA!$I368-DATA.SAGA!$B368)/365*12,
 IF(OR($D368="Pré-Inscrito",$D368="Matriculado",$D368="Pré-inscrito"),(TODAY()-DATA.SAGA!$B368)/365*12,"*"))</f>
-        <v>33.764383561643832</v>
+        <v>33.830136986301369</v>
       </c>
       <c r="H368" s="6" t="str">
         <f t="shared" si="5"/>
@@ -22466,7 +22479,7 @@
       <c r="G380" s="41">
         <f ca="1">IF($D380="Formado",(DATA.SAGA!$I380-DATA.SAGA!$B380)/365*12,
 IF(OR($D380="Pré-Inscrito",$D380="Matriculado",$D380="Pré-inscrito"),(TODAY()-DATA.SAGA!$B380)/365*12,"*"))</f>
-        <v>33.698630136986303</v>
+        <v>33.764383561643832</v>
       </c>
       <c r="H380" s="6" t="str">
         <f t="shared" si="5"/>
@@ -22613,7 +22626,7 @@
       <c r="G383" s="41">
         <f ca="1">IF($D383="Formado",(DATA.SAGA!$I383-DATA.SAGA!$B383)/365*12,
 IF(OR($D383="Pré-Inscrito",$D383="Matriculado",$D383="Pré-inscrito"),(TODAY()-DATA.SAGA!$B383)/365*12,"*"))</f>
-        <v>33.698630136986303</v>
+        <v>33.764383561643832</v>
       </c>
       <c r="H383" s="6" t="str">
         <f t="shared" si="5"/>
@@ -22662,7 +22675,7 @@
       <c r="G384" s="41">
         <f ca="1">IF($D384="Formado",(DATA.SAGA!$I384-DATA.SAGA!$B384)/365*12,
 IF(OR($D384="Pré-Inscrito",$D384="Matriculado",$D384="Pré-inscrito"),(TODAY()-DATA.SAGA!$B384)/365*12,"*"))</f>
-        <v>33.698630136986303</v>
+        <v>33.764383561643832</v>
       </c>
       <c r="H384" s="6" t="str">
         <f t="shared" si="5"/>
@@ -22858,7 +22871,7 @@
       <c r="G388" s="41">
         <f ca="1">IF($D388="Formado",(DATA.SAGA!$I388-DATA.SAGA!$B388)/365*12,
 IF(OR($D388="Pré-Inscrito",$D388="Matriculado",$D388="Pré-inscrito"),(TODAY()-DATA.SAGA!$B388)/365*12,"*"))</f>
-        <v>33.599999999999994</v>
+        <v>33.665753424657538</v>
       </c>
       <c r="H388" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23054,7 +23067,7 @@
       <c r="G392" s="41">
         <f ca="1">IF($D392="Formado",(DATA.SAGA!$I392-DATA.SAGA!$B392)/365*12,
 IF(OR($D392="Pré-Inscrito",$D392="Matriculado",$D392="Pré-inscrito"),(TODAY()-DATA.SAGA!$B392)/365*12,"*"))</f>
-        <v>29.654794520547945</v>
+        <v>29.720547945205482</v>
       </c>
       <c r="H392" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23103,7 +23116,7 @@
       <c r="G393" s="41">
         <f ca="1">IF($D393="Formado",(DATA.SAGA!$I393-DATA.SAGA!$B393)/365*12,
 IF(OR($D393="Pré-Inscrito",$D393="Matriculado",$D393="Pré-inscrito"),(TODAY()-DATA.SAGA!$B393)/365*12,"*"))</f>
-        <v>29.62191780821918</v>
+        <v>29.68767123287671</v>
       </c>
       <c r="H393" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23152,7 +23165,7 @@
       <c r="G394" s="41">
         <f ca="1">IF($D394="Formado",(DATA.SAGA!$I394-DATA.SAGA!$B394)/365*12,
 IF(OR($D394="Pré-Inscrito",$D394="Matriculado",$D394="Pré-inscrito"),(TODAY()-DATA.SAGA!$B394)/365*12,"*"))</f>
-        <v>29.62191780821918</v>
+        <v>29.68767123287671</v>
       </c>
       <c r="H394" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23201,7 +23214,7 @@
       <c r="G395" s="41">
         <f ca="1">IF($D395="Formado",(DATA.SAGA!$I395-DATA.SAGA!$B395)/365*12,
 IF(OR($D395="Pré-Inscrito",$D395="Matriculado",$D395="Pré-inscrito"),(TODAY()-DATA.SAGA!$B395)/365*12,"*"))</f>
-        <v>29.62191780821918</v>
+        <v>29.68767123287671</v>
       </c>
       <c r="H395" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23299,7 +23312,7 @@
       <c r="G397" s="41">
         <f ca="1">IF($D397="Formado",(DATA.SAGA!$I397-DATA.SAGA!$B397)/365*12,
 IF(OR($D397="Pré-Inscrito",$D397="Matriculado",$D397="Pré-inscrito"),(TODAY()-DATA.SAGA!$B397)/365*12,"*"))</f>
-        <v>29.62191780821918</v>
+        <v>29.68767123287671</v>
       </c>
       <c r="H397" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23397,7 +23410,7 @@
       <c r="G399" s="41">
         <f ca="1">IF($D399="Formado",(DATA.SAGA!$I399-DATA.SAGA!$B399)/365*12,
 IF(OR($D399="Pré-Inscrito",$D399="Matriculado",$D399="Pré-inscrito"),(TODAY()-DATA.SAGA!$B399)/365*12,"*"))</f>
-        <v>29.556164383561644</v>
+        <v>29.62191780821918</v>
       </c>
       <c r="H399" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23495,7 +23508,7 @@
       <c r="G401" s="41">
         <f ca="1">IF($D401="Formado",(DATA.SAGA!$I401-DATA.SAGA!$B401)/365*12,
 IF(OR($D401="Pré-Inscrito",$D401="Matriculado",$D401="Pré-inscrito"),(TODAY()-DATA.SAGA!$B401)/365*12,"*"))</f>
-        <v>29.556164383561644</v>
+        <v>29.62191780821918</v>
       </c>
       <c r="H401" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23544,7 +23557,7 @@
       <c r="G402" s="41">
         <f ca="1">IF($D402="Formado",(DATA.SAGA!$I402-DATA.SAGA!$B402)/365*12,
 IF(OR($D402="Pré-Inscrito",$D402="Matriculado",$D402="Pré-inscrito"),(TODAY()-DATA.SAGA!$B402)/365*12,"*"))</f>
-        <v>29.424657534246577</v>
+        <v>29.490410958904107</v>
       </c>
       <c r="H402" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23642,7 +23655,7 @@
       <c r="G404" s="41">
         <f ca="1">IF($D404="Formado",(DATA.SAGA!$I404-DATA.SAGA!$B404)/365*12,
 IF(OR($D404="Pré-Inscrito",$D404="Matriculado",$D404="Pré-inscrito"),(TODAY()-DATA.SAGA!$B404)/365*12,"*"))</f>
-        <v>27.090410958904108</v>
+        <v>27.156164383561642</v>
       </c>
       <c r="H404" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23740,7 +23753,7 @@
       <c r="G406" s="41">
         <f ca="1">IF($D406="Formado",(DATA.SAGA!$I406-DATA.SAGA!$B406)/365*12,
 IF(OR($D406="Pré-Inscrito",$D406="Matriculado",$D406="Pré-inscrito"),(TODAY()-DATA.SAGA!$B406)/365*12,"*"))</f>
-        <v>27.090410958904108</v>
+        <v>27.156164383561642</v>
       </c>
       <c r="H406" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24083,7 +24096,7 @@
       <c r="G413" s="41">
         <f ca="1">IF($D413="Formado",(DATA.SAGA!$I413-DATA.SAGA!$B413)/365*12,
 IF(OR($D413="Pré-Inscrito",$D413="Matriculado",$D413="Pré-inscrito"),(TODAY()-DATA.SAGA!$B413)/365*12,"*"))</f>
-        <v>27.057534246575344</v>
+        <v>27.12328767123288</v>
       </c>
       <c r="H413" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24230,7 +24243,7 @@
       <c r="G416" s="41">
         <f ca="1">IF($D416="Formado",(DATA.SAGA!$I416-DATA.SAGA!$B416)/365*12,
 IF(OR($D416="Pré-Inscrito",$D416="Matriculado",$D416="Pré-inscrito"),(TODAY()-DATA.SAGA!$B416)/365*12,"*"))</f>
-        <v>27.024657534246572</v>
+        <v>27.090410958904108</v>
       </c>
       <c r="H416" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24279,7 +24292,7 @@
       <c r="G417" s="41">
         <f ca="1">IF($D417="Formado",(DATA.SAGA!$I417-DATA.SAGA!$B417)/365*12,
 IF(OR($D417="Pré-Inscrito",$D417="Matriculado",$D417="Pré-inscrito"),(TODAY()-DATA.SAGA!$B417)/365*12,"*"))</f>
-        <v>27.024657534246572</v>
+        <v>27.090410958904108</v>
       </c>
       <c r="H417" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24377,7 +24390,7 @@
       <c r="G419" s="41">
         <f ca="1">IF($D419="Formado",(DATA.SAGA!$I419-DATA.SAGA!$B419)/365*12,
 IF(OR($D419="Pré-Inscrito",$D419="Matriculado",$D419="Pré-inscrito"),(TODAY()-DATA.SAGA!$B419)/365*12,"*"))</f>
-        <v>26.991780821917811</v>
+        <v>27.057534246575344</v>
       </c>
       <c r="H419" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24426,7 +24439,7 @@
       <c r="G420" s="41">
         <f ca="1">IF($D420="Formado",(DATA.SAGA!$I420-DATA.SAGA!$B420)/365*12,
 IF(OR($D420="Pré-Inscrito",$D420="Matriculado",$D420="Pré-inscrito"),(TODAY()-DATA.SAGA!$B420)/365*12,"*"))</f>
-        <v>26.991780821917811</v>
+        <v>27.057534246575344</v>
       </c>
       <c r="H420" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24475,7 +24488,7 @@
       <c r="G421" s="41">
         <f ca="1">IF($D421="Formado",(DATA.SAGA!$I421-DATA.SAGA!$B421)/365*12,
 IF(OR($D421="Pré-Inscrito",$D421="Matriculado",$D421="Pré-inscrito"),(TODAY()-DATA.SAGA!$B421)/365*12,"*"))</f>
-        <v>26.991780821917811</v>
+        <v>27.057534246575344</v>
       </c>
       <c r="H421" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24573,7 +24586,7 @@
       <c r="G423" s="41">
         <f ca="1">IF($D423="Formado",(DATA.SAGA!$I423-DATA.SAGA!$B423)/365*12,
 IF(OR($D423="Pré-Inscrito",$D423="Matriculado",$D423="Pré-inscrito"),(TODAY()-DATA.SAGA!$B423)/365*12,"*"))</f>
-        <v>26.367123287671234</v>
+        <v>26.432876712328763</v>
       </c>
       <c r="H423" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24671,7 +24684,7 @@
       <c r="G425" s="41">
         <f ca="1">IF($D425="Formado",(DATA.SAGA!$I425-DATA.SAGA!$B425)/365*12,
 IF(OR($D425="Pré-Inscrito",$D425="Matriculado",$D425="Pré-inscrito"),(TODAY()-DATA.SAGA!$B425)/365*12,"*"))</f>
-        <v>26.334246575342465</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="H425" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24720,7 +24733,7 @@
       <c r="G426" s="41">
         <f ca="1">IF($D426="Formado",(DATA.SAGA!$I426-DATA.SAGA!$B426)/365*12,
 IF(OR($D426="Pré-Inscrito",$D426="Matriculado",$D426="Pré-inscrito"),(TODAY()-DATA.SAGA!$B426)/365*12,"*"))</f>
-        <v>26.334246575342465</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="H426" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24769,7 +24782,7 @@
       <c r="G427" s="41">
         <f ca="1">IF($D427="Formado",(DATA.SAGA!$I427-DATA.SAGA!$B427)/365*12,
 IF(OR($D427="Pré-Inscrito",$D427="Matriculado",$D427="Pré-inscrito"),(TODAY()-DATA.SAGA!$B427)/365*12,"*"))</f>
-        <v>26.235616438356168</v>
+        <v>26.301369863013697</v>
       </c>
       <c r="H427" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24818,7 +24831,7 @@
       <c r="G428" s="41">
         <f ca="1">IF($D428="Formado",(DATA.SAGA!$I428-DATA.SAGA!$B428)/365*12,
 IF(OR($D428="Pré-Inscrito",$D428="Matriculado",$D428="Pré-inscrito"),(TODAY()-DATA.SAGA!$B428)/365*12,"*"))</f>
-        <v>26.235616438356168</v>
+        <v>26.301369863013697</v>
       </c>
       <c r="H428" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25001,20 +25014,20 @@
       </c>
       <c r="D432" s="5" t="str">
         <f>DATA.SAGA!$H432</f>
-        <v>Matriculado</v>
+        <v>Formado</v>
       </c>
       <c r="E432" s="5" t="str">
         <f>IF(DATA.SAGA!J432="","*",DATA.SAGA!J432)</f>
         <v>MA</v>
       </c>
-      <c r="F432" s="5" t="str">
+      <c r="F432" s="5">
         <f>IF(DATA.SAGA!$I432="","*",YEAR(DATA.SAGA!$I432))</f>
-        <v>*</v>
+        <v>2023</v>
       </c>
       <c r="G432" s="41">
         <f ca="1">IF($D432="Formado",(DATA.SAGA!$I432-DATA.SAGA!$B432)/365*12,
 IF(OR($D432="Pré-Inscrito",$D432="Matriculado",$D432="Pré-inscrito"),(TODAY()-DATA.SAGA!$B432)/365*12,"*"))</f>
-        <v>25.972602739726028</v>
+        <v>26.432876712328763</v>
       </c>
       <c r="H432" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25112,7 +25125,7 @@
       <c r="G434" s="41">
         <f ca="1">IF($D434="Formado",(DATA.SAGA!$I434-DATA.SAGA!$B434)/365*12,
 IF(OR($D434="Pré-Inscrito",$D434="Matriculado",$D434="Pré-inscrito"),(TODAY()-DATA.SAGA!$B434)/365*12,"*"))</f>
-        <v>25.939726027397263</v>
+        <v>26.005479452054793</v>
       </c>
       <c r="H434" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25161,7 +25174,7 @@
       <c r="G435" s="41">
         <f ca="1">IF($D435="Formado",(DATA.SAGA!$I435-DATA.SAGA!$B435)/365*12,
 IF(OR($D435="Pré-Inscrito",$D435="Matriculado",$D435="Pré-inscrito"),(TODAY()-DATA.SAGA!$B435)/365*12,"*"))</f>
-        <v>24.065753424657537</v>
+        <v>24.131506849315066</v>
       </c>
       <c r="H435" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25210,7 +25223,7 @@
       <c r="G436" s="41">
         <f ca="1">IF($D436="Formado",(DATA.SAGA!$I436-DATA.SAGA!$B436)/365*12,
 IF(OR($D436="Pré-Inscrito",$D436="Matriculado",$D436="Pré-inscrito"),(TODAY()-DATA.SAGA!$B436)/365*12,"*"))</f>
-        <v>21.797260273972604</v>
+        <v>21.863013698630137</v>
       </c>
       <c r="H436" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25259,7 +25272,7 @@
       <c r="G437" s="41">
         <f ca="1">IF($D437="Formado",(DATA.SAGA!$I437-DATA.SAGA!$B437)/365*12,
 IF(OR($D437="Pré-Inscrito",$D437="Matriculado",$D437="Pré-inscrito"),(TODAY()-DATA.SAGA!$B437)/365*12,"*"))</f>
-        <v>21.797260273972604</v>
+        <v>21.863013698630137</v>
       </c>
       <c r="H437" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25357,7 +25370,7 @@
       <c r="G439" s="41">
         <f ca="1">IF($D439="Formado",(DATA.SAGA!$I439-DATA.SAGA!$B439)/365*12,
 IF(OR($D439="Pré-Inscrito",$D439="Matriculado",$D439="Pré-inscrito"),(TODAY()-DATA.SAGA!$B439)/365*12,"*"))</f>
-        <v>21.797260273972604</v>
+        <v>21.863013698630137</v>
       </c>
       <c r="H439" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25406,7 +25419,7 @@
       <c r="G440" s="41">
         <f ca="1">IF($D440="Formado",(DATA.SAGA!$I440-DATA.SAGA!$B440)/365*12,
 IF(OR($D440="Pré-Inscrito",$D440="Matriculado",$D440="Pré-inscrito"),(TODAY()-DATA.SAGA!$B440)/365*12,"*"))</f>
-        <v>21.797260273972604</v>
+        <v>21.863013698630137</v>
       </c>
       <c r="H440" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25455,7 +25468,7 @@
       <c r="G441" s="41">
         <f ca="1">IF($D441="Formado",(DATA.SAGA!$I441-DATA.SAGA!$B441)/365*12,
 IF(OR($D441="Pré-Inscrito",$D441="Matriculado",$D441="Pré-inscrito"),(TODAY()-DATA.SAGA!$B441)/365*12,"*"))</f>
-        <v>21.797260273972604</v>
+        <v>21.863013698630137</v>
       </c>
       <c r="H441" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25504,7 +25517,7 @@
       <c r="G442" s="41">
         <f ca="1">IF($D442="Formado",(DATA.SAGA!$I442-DATA.SAGA!$B442)/365*12,
 IF(OR($D442="Pré-Inscrito",$D442="Matriculado",$D442="Pré-inscrito"),(TODAY()-DATA.SAGA!$B442)/365*12,"*"))</f>
-        <v>21.797260273972604</v>
+        <v>21.863013698630137</v>
       </c>
       <c r="H442" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25553,7 +25566,7 @@
       <c r="G443" s="41">
         <f ca="1">IF($D443="Formado",(DATA.SAGA!$I443-DATA.SAGA!$B443)/365*12,
 IF(OR($D443="Pré-Inscrito",$D443="Matriculado",$D443="Pré-inscrito"),(TODAY()-DATA.SAGA!$B443)/365*12,"*"))</f>
-        <v>21.797260273972604</v>
+        <v>21.863013698630137</v>
       </c>
       <c r="H443" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25651,7 +25664,7 @@
       <c r="G445" s="41">
         <f ca="1">IF($D445="Formado",(DATA.SAGA!$I445-DATA.SAGA!$B445)/365*12,
 IF(OR($D445="Pré-Inscrito",$D445="Matriculado",$D445="Pré-inscrito"),(TODAY()-DATA.SAGA!$B445)/365*12,"*"))</f>
-        <v>21.797260273972604</v>
+        <v>21.863013698630137</v>
       </c>
       <c r="H445" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25798,7 +25811,7 @@
       <c r="G448" s="41">
         <f ca="1">IF($D448="Formado",(DATA.SAGA!$I448-DATA.SAGA!$B448)/365*12,
 IF(OR($D448="Pré-Inscrito",$D448="Matriculado",$D448="Pré-inscrito"),(TODAY()-DATA.SAGA!$B448)/365*12,"*"))</f>
-        <v>21.731506849315068</v>
+        <v>21.797260273972604</v>
       </c>
       <c r="H448" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25945,7 +25958,7 @@
       <c r="G451" s="41">
         <f ca="1">IF($D451="Formado",(DATA.SAGA!$I451-DATA.SAGA!$B451)/365*12,
 IF(OR($D451="Pré-Inscrito",$D451="Matriculado",$D451="Pré-inscrito"),(TODAY()-DATA.SAGA!$B451)/365*12,"*"))</f>
-        <v>21.731506849315068</v>
+        <v>21.797260273972604</v>
       </c>
       <c r="H451" s="6" t="str">
         <f t="shared" ref="H451:H514" si="7">IF(AND(COUNTIF($B:$B,$B451)&gt;1,$A451="Doutorado"),"Sim","*")</f>
@@ -25994,7 +26007,7 @@
       <c r="G452" s="41">
         <f ca="1">IF($D452="Formado",(DATA.SAGA!$I452-DATA.SAGA!$B452)/365*12,
 IF(OR($D452="Pré-Inscrito",$D452="Matriculado",$D452="Pré-inscrito"),(TODAY()-DATA.SAGA!$B452)/365*12,"*"))</f>
-        <v>21.731506849315068</v>
+        <v>21.797260273972604</v>
       </c>
       <c r="H452" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26043,7 +26056,7 @@
       <c r="G453" s="41">
         <f ca="1">IF($D453="Formado",(DATA.SAGA!$I453-DATA.SAGA!$B453)/365*12,
 IF(OR($D453="Pré-Inscrito",$D453="Matriculado",$D453="Pré-inscrito"),(TODAY()-DATA.SAGA!$B453)/365*12,"*"))</f>
-        <v>21.731506849315068</v>
+        <v>21.797260273972604</v>
       </c>
       <c r="H453" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26092,7 +26105,7 @@
       <c r="G454" s="41">
         <f ca="1">IF($D454="Formado",(DATA.SAGA!$I454-DATA.SAGA!$B454)/365*12,
 IF(OR($D454="Pré-Inscrito",$D454="Matriculado",$D454="Pré-inscrito"),(TODAY()-DATA.SAGA!$B454)/365*12,"*"))</f>
-        <v>21.731506849315068</v>
+        <v>21.797260273972604</v>
       </c>
       <c r="H454" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26190,7 +26203,7 @@
       <c r="G456" s="41">
         <f ca="1">IF($D456="Formado",(DATA.SAGA!$I456-DATA.SAGA!$B456)/365*12,
 IF(OR($D456="Pré-Inscrito",$D456="Matriculado",$D456="Pré-inscrito"),(TODAY()-DATA.SAGA!$B456)/365*12,"*"))</f>
-        <v>16.076712328767123</v>
+        <v>16.142465753424656</v>
       </c>
       <c r="H456" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26239,7 +26252,7 @@
       <c r="G457" s="41">
         <f ca="1">IF($D457="Formado",(DATA.SAGA!$I457-DATA.SAGA!$B457)/365*12,
 IF(OR($D457="Pré-Inscrito",$D457="Matriculado",$D457="Pré-inscrito"),(TODAY()-DATA.SAGA!$B457)/365*12,"*"))</f>
-        <v>16.043835616438358</v>
+        <v>16.109589041095891</v>
       </c>
       <c r="H457" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26288,7 +26301,7 @@
       <c r="G458" s="41">
         <f ca="1">IF($D458="Formado",(DATA.SAGA!$I458-DATA.SAGA!$B458)/365*12,
 IF(OR($D458="Pré-Inscrito",$D458="Matriculado",$D458="Pré-inscrito"),(TODAY()-DATA.SAGA!$B458)/365*12,"*"))</f>
-        <v>16.043835616438358</v>
+        <v>16.109589041095891</v>
       </c>
       <c r="H458" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26386,7 +26399,7 @@
       <c r="G460" s="41">
         <f ca="1">IF($D460="Formado",(DATA.SAGA!$I460-DATA.SAGA!$B460)/365*12,
 IF(OR($D460="Pré-Inscrito",$D460="Matriculado",$D460="Pré-inscrito"),(TODAY()-DATA.SAGA!$B460)/365*12,"*"))</f>
-        <v>16.043835616438358</v>
+        <v>16.109589041095891</v>
       </c>
       <c r="H460" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26435,7 +26448,7 @@
       <c r="G461" s="41">
         <f ca="1">IF($D461="Formado",(DATA.SAGA!$I461-DATA.SAGA!$B461)/365*12,
 IF(OR($D461="Pré-Inscrito",$D461="Matriculado",$D461="Pré-inscrito"),(TODAY()-DATA.SAGA!$B461)/365*12,"*"))</f>
-        <v>16.043835616438358</v>
+        <v>16.109589041095891</v>
       </c>
       <c r="H461" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26484,7 +26497,7 @@
       <c r="G462" s="41">
         <f ca="1">IF($D462="Formado",(DATA.SAGA!$I462-DATA.SAGA!$B462)/365*12,
 IF(OR($D462="Pré-Inscrito",$D462="Matriculado",$D462="Pré-inscrito"),(TODAY()-DATA.SAGA!$B462)/365*12,"*"))</f>
-        <v>16.043835616438358</v>
+        <v>16.109589041095891</v>
       </c>
       <c r="H462" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26533,7 +26546,7 @@
       <c r="G463" s="41">
         <f ca="1">IF($D463="Formado",(DATA.SAGA!$I463-DATA.SAGA!$B463)/365*12,
 IF(OR($D463="Pré-Inscrito",$D463="Matriculado",$D463="Pré-inscrito"),(TODAY()-DATA.SAGA!$B463)/365*12,"*"))</f>
-        <v>16.043835616438358</v>
+        <v>16.109589041095891</v>
       </c>
       <c r="H463" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26582,7 +26595,7 @@
       <c r="G464" s="41">
         <f ca="1">IF($D464="Formado",(DATA.SAGA!$I464-DATA.SAGA!$B464)/365*12,
 IF(OR($D464="Pré-Inscrito",$D464="Matriculado",$D464="Pré-inscrito"),(TODAY()-DATA.SAGA!$B464)/365*12,"*"))</f>
-        <v>16.043835616438358</v>
+        <v>16.109589041095891</v>
       </c>
       <c r="H464" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26631,7 +26644,7 @@
       <c r="G465" s="41">
         <f ca="1">IF($D465="Formado",(DATA.SAGA!$I465-DATA.SAGA!$B465)/365*12,
 IF(OR($D465="Pré-Inscrito",$D465="Matriculado",$D465="Pré-inscrito"),(TODAY()-DATA.SAGA!$B465)/365*12,"*"))</f>
-        <v>16.043835616438358</v>
+        <v>16.109589041095891</v>
       </c>
       <c r="H465" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26680,7 +26693,7 @@
       <c r="G466" s="41">
         <f ca="1">IF($D466="Formado",(DATA.SAGA!$I466-DATA.SAGA!$B466)/365*12,
 IF(OR($D466="Pré-Inscrito",$D466="Matriculado",$D466="Pré-inscrito"),(TODAY()-DATA.SAGA!$B466)/365*12,"*"))</f>
-        <v>16.043835616438358</v>
+        <v>16.109589041095891</v>
       </c>
       <c r="H466" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26729,7 +26742,7 @@
       <c r="G467" s="41">
         <f ca="1">IF($D467="Formado",(DATA.SAGA!$I467-DATA.SAGA!$B467)/365*12,
 IF(OR($D467="Pré-Inscrito",$D467="Matriculado",$D467="Pré-inscrito"),(TODAY()-DATA.SAGA!$B467)/365*12,"*"))</f>
-        <v>16.043835616438358</v>
+        <v>16.109589041095891</v>
       </c>
       <c r="H467" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26778,7 +26791,7 @@
       <c r="G468" s="41">
         <f ca="1">IF($D468="Formado",(DATA.SAGA!$I468-DATA.SAGA!$B468)/365*12,
 IF(OR($D468="Pré-Inscrito",$D468="Matriculado",$D468="Pré-inscrito"),(TODAY()-DATA.SAGA!$B468)/365*12,"*"))</f>
-        <v>16.043835616438358</v>
+        <v>16.109589041095891</v>
       </c>
       <c r="H468" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26827,7 +26840,7 @@
       <c r="G469" s="41">
         <f ca="1">IF($D469="Formado",(DATA.SAGA!$I469-DATA.SAGA!$B469)/365*12,
 IF(OR($D469="Pré-Inscrito",$D469="Matriculado",$D469="Pré-inscrito"),(TODAY()-DATA.SAGA!$B469)/365*12,"*"))</f>
-        <v>16.043835616438358</v>
+        <v>16.109589041095891</v>
       </c>
       <c r="H469" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26876,7 +26889,7 @@
       <c r="G470" s="41">
         <f ca="1">IF($D470="Formado",(DATA.SAGA!$I470-DATA.SAGA!$B470)/365*12,
 IF(OR($D470="Pré-Inscrito",$D470="Matriculado",$D470="Pré-inscrito"),(TODAY()-DATA.SAGA!$B470)/365*12,"*"))</f>
-        <v>16.043835616438358</v>
+        <v>16.109589041095891</v>
       </c>
       <c r="H470" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27023,7 +27036,7 @@
       <c r="G473" s="41">
         <f ca="1">IF($D473="Formado",(DATA.SAGA!$I473-DATA.SAGA!$B473)/365*12,
 IF(OR($D473="Pré-Inscrito",$D473="Matriculado",$D473="Pré-inscrito"),(TODAY()-DATA.SAGA!$B473)/365*12,"*"))</f>
-        <v>16.043835616438358</v>
+        <v>16.109589041095891</v>
       </c>
       <c r="H473" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27072,7 +27085,7 @@
       <c r="G474" s="41">
         <f ca="1">IF($D474="Formado",(DATA.SAGA!$I474-DATA.SAGA!$B474)/365*12,
 IF(OR($D474="Pré-Inscrito",$D474="Matriculado",$D474="Pré-inscrito"),(TODAY()-DATA.SAGA!$B474)/365*12,"*"))</f>
-        <v>16.043835616438358</v>
+        <v>16.109589041095891</v>
       </c>
       <c r="H474" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27121,7 +27134,7 @@
       <c r="G475" s="41">
         <f ca="1">IF($D475="Formado",(DATA.SAGA!$I475-DATA.SAGA!$B475)/365*12,
 IF(OR($D475="Pré-Inscrito",$D475="Matriculado",$D475="Pré-inscrito"),(TODAY()-DATA.SAGA!$B475)/365*12,"*"))</f>
-        <v>15.813698630136987</v>
+        <v>15.87945205479452</v>
       </c>
       <c r="H475" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27219,7 +27232,7 @@
       <c r="G477" s="41">
         <f ca="1">IF($D477="Formado",(DATA.SAGA!$I477-DATA.SAGA!$B477)/365*12,
 IF(OR($D477="Pré-Inscrito",$D477="Matriculado",$D477="Pré-inscrito"),(TODAY()-DATA.SAGA!$B477)/365*12,"*"))</f>
-        <v>15.780821917808218</v>
+        <v>15.846575342465751</v>
       </c>
       <c r="H477" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27317,7 +27330,7 @@
       <c r="G479" s="41">
         <f ca="1">IF($D479="Formado",(DATA.SAGA!$I479-DATA.SAGA!$B479)/365*12,
 IF(OR($D479="Pré-Inscrito",$D479="Matriculado",$D479="Pré-inscrito"),(TODAY()-DATA.SAGA!$B479)/365*12,"*"))</f>
-        <v>15.747945205479454</v>
+        <v>15.813698630136987</v>
       </c>
       <c r="H479" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27464,7 +27477,7 @@
       <c r="G482" s="41">
         <f ca="1">IF($D482="Formado",(DATA.SAGA!$I482-DATA.SAGA!$B482)/365*12,
 IF(OR($D482="Pré-Inscrito",$D482="Matriculado",$D482="Pré-inscrito"),(TODAY()-DATA.SAGA!$B482)/365*12,"*"))</f>
-        <v>15.123287671232877</v>
+        <v>15.18904109589041</v>
       </c>
       <c r="H482" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27513,7 +27526,7 @@
       <c r="G483" s="41">
         <f ca="1">IF($D483="Formado",(DATA.SAGA!$I483-DATA.SAGA!$B483)/365*12,
 IF(OR($D483="Pré-Inscrito",$D483="Matriculado",$D483="Pré-inscrito"),(TODAY()-DATA.SAGA!$B483)/365*12,"*"))</f>
-        <v>9.6657534246575345</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="H483" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27562,7 +27575,7 @@
       <c r="G484" s="41">
         <f ca="1">IF($D484="Formado",(DATA.SAGA!$I484-DATA.SAGA!$B484)/365*12,
 IF(OR($D484="Pré-Inscrito",$D484="Matriculado",$D484="Pré-inscrito"),(TODAY()-DATA.SAGA!$B484)/365*12,"*"))</f>
-        <v>9.6657534246575345</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="H484" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27709,7 +27722,7 @@
       <c r="G487" s="41">
         <f ca="1">IF($D487="Formado",(DATA.SAGA!$I487-DATA.SAGA!$B487)/365*12,
 IF(OR($D487="Pré-Inscrito",$D487="Matriculado",$D487="Pré-inscrito"),(TODAY()-DATA.SAGA!$B487)/365*12,"*"))</f>
-        <v>9.6657534246575345</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="H487" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27758,7 +27771,7 @@
       <c r="G488" s="41">
         <f ca="1">IF($D488="Formado",(DATA.SAGA!$I488-DATA.SAGA!$B488)/365*12,
 IF(OR($D488="Pré-Inscrito",$D488="Matriculado",$D488="Pré-inscrito"),(TODAY()-DATA.SAGA!$B488)/365*12,"*"))</f>
-        <v>9.6657534246575345</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="H488" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27856,7 +27869,7 @@
       <c r="G490" s="41">
         <f ca="1">IF($D490="Formado",(DATA.SAGA!$I490-DATA.SAGA!$B490)/365*12,
 IF(OR($D490="Pré-Inscrito",$D490="Matriculado",$D490="Pré-inscrito"),(TODAY()-DATA.SAGA!$B490)/365*12,"*"))</f>
-        <v>9.6657534246575345</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="H490" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27905,7 +27918,7 @@
       <c r="G491" s="41">
         <f ca="1">IF($D491="Formado",(DATA.SAGA!$I491-DATA.SAGA!$B491)/365*12,
 IF(OR($D491="Pré-Inscrito",$D491="Matriculado",$D491="Pré-inscrito"),(TODAY()-DATA.SAGA!$B491)/365*12,"*"))</f>
-        <v>9.6657534246575345</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="H491" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27954,7 +27967,7 @@
       <c r="G492" s="41">
         <f ca="1">IF($D492="Formado",(DATA.SAGA!$I492-DATA.SAGA!$B492)/365*12,
 IF(OR($D492="Pré-Inscrito",$D492="Matriculado",$D492="Pré-inscrito"),(TODAY()-DATA.SAGA!$B492)/365*12,"*"))</f>
-        <v>9.6657534246575345</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="H492" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28003,7 +28016,7 @@
       <c r="G493" s="41">
         <f ca="1">IF($D493="Formado",(DATA.SAGA!$I493-DATA.SAGA!$B493)/365*12,
 IF(OR($D493="Pré-Inscrito",$D493="Matriculado",$D493="Pré-inscrito"),(TODAY()-DATA.SAGA!$B493)/365*12,"*"))</f>
-        <v>9.6657534246575345</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="H493" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28052,7 +28065,7 @@
       <c r="G494" s="41">
         <f ca="1">IF($D494="Formado",(DATA.SAGA!$I494-DATA.SAGA!$B494)/365*12,
 IF(OR($D494="Pré-Inscrito",$D494="Matriculado",$D494="Pré-inscrito"),(TODAY()-DATA.SAGA!$B494)/365*12,"*"))</f>
-        <v>9.6657534246575345</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="H494" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28101,7 +28114,7 @@
       <c r="G495" s="41">
         <f ca="1">IF($D495="Formado",(DATA.SAGA!$I495-DATA.SAGA!$B495)/365*12,
 IF(OR($D495="Pré-Inscrito",$D495="Matriculado",$D495="Pré-inscrito"),(TODAY()-DATA.SAGA!$B495)/365*12,"*"))</f>
-        <v>9.6657534246575345</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="H495" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28150,7 +28163,7 @@
       <c r="G496" s="41">
         <f ca="1">IF($D496="Formado",(DATA.SAGA!$I496-DATA.SAGA!$B496)/365*12,
 IF(OR($D496="Pré-Inscrito",$D496="Matriculado",$D496="Pré-inscrito"),(TODAY()-DATA.SAGA!$B496)/365*12,"*"))</f>
-        <v>9.6657534246575345</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="H496" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28199,7 +28212,7 @@
       <c r="G497" s="41">
         <f ca="1">IF($D497="Formado",(DATA.SAGA!$I497-DATA.SAGA!$B497)/365*12,
 IF(OR($D497="Pré-Inscrito",$D497="Matriculado",$D497="Pré-inscrito"),(TODAY()-DATA.SAGA!$B497)/365*12,"*"))</f>
-        <v>9.6657534246575345</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="H497" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28248,7 +28261,7 @@
       <c r="G498" s="41">
         <f ca="1">IF($D498="Formado",(DATA.SAGA!$I498-DATA.SAGA!$B498)/365*12,
 IF(OR($D498="Pré-Inscrito",$D498="Matriculado",$D498="Pré-inscrito"),(TODAY()-DATA.SAGA!$B498)/365*12,"*"))</f>
-        <v>9.6657534246575345</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="H498" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28297,7 +28310,7 @@
       <c r="G499" s="41">
         <f ca="1">IF($D499="Formado",(DATA.SAGA!$I499-DATA.SAGA!$B499)/365*12,
 IF(OR($D499="Pré-Inscrito",$D499="Matriculado",$D499="Pré-inscrito"),(TODAY()-DATA.SAGA!$B499)/365*12,"*"))</f>
-        <v>9.6657534246575345</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="H499" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28493,7 +28506,7 @@
       <c r="G503" s="41">
         <f ca="1">IF($D503="Formado",(DATA.SAGA!$I503-DATA.SAGA!$B503)/365*12,
 IF(OR($D503="Pré-Inscrito",$D503="Matriculado",$D503="Pré-inscrito"),(TODAY()-DATA.SAGA!$B503)/365*12,"*"))</f>
-        <v>9.6657534246575345</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="H503" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28542,7 +28555,7 @@
       <c r="G504" s="41">
         <f ca="1">IF($D504="Formado",(DATA.SAGA!$I504-DATA.SAGA!$B504)/365*12,
 IF(OR($D504="Pré-Inscrito",$D504="Matriculado",$D504="Pré-inscrito"),(TODAY()-DATA.SAGA!$B504)/365*12,"*"))</f>
-        <v>9.6657534246575345</v>
+        <v>9.7315068493150676</v>
       </c>
       <c r="H504" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28787,7 +28800,7 @@
       <c r="G509" s="41">
         <f ca="1">IF($D509="Formado",(DATA.SAGA!$I509-DATA.SAGA!$B509)/365*12,
 IF(OR($D509="Pré-Inscrito",$D509="Matriculado",$D509="Pré-inscrito"),(TODAY()-DATA.SAGA!$B509)/365*12,"*"))</f>
-        <v>5.720547945205479</v>
+        <v>5.7863013698630139</v>
       </c>
       <c r="H509" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28836,7 +28849,7 @@
       <c r="G510" s="41">
         <f ca="1">IF($D510="Formado",(DATA.SAGA!$I510-DATA.SAGA!$B510)/365*12,
 IF(OR($D510="Pré-Inscrito",$D510="Matriculado",$D510="Pré-inscrito"),(TODAY()-DATA.SAGA!$B510)/365*12,"*"))</f>
-        <v>5.6219178082191785</v>
+        <v>5.6876712328767125</v>
       </c>
       <c r="H510" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28934,7 +28947,7 @@
       <c r="G512" s="41">
         <f ca="1">IF($D512="Formado",(DATA.SAGA!$I512-DATA.SAGA!$B512)/365*12,
 IF(OR($D512="Pré-Inscrito",$D512="Matriculado",$D512="Pré-inscrito"),(TODAY()-DATA.SAGA!$B512)/365*12,"*"))</f>
-        <v>5.5890410958904102</v>
+        <v>5.6547945205479451</v>
       </c>
       <c r="H512" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28983,7 +28996,7 @@
       <c r="G513" s="41">
         <f ca="1">IF($D513="Formado",(DATA.SAGA!$I513-DATA.SAGA!$B513)/365*12,
 IF(OR($D513="Pré-Inscrito",$D513="Matriculado",$D513="Pré-inscrito"),(TODAY()-DATA.SAGA!$B513)/365*12,"*"))</f>
-        <v>5.5890410958904102</v>
+        <v>5.6547945205479451</v>
       </c>
       <c r="H513" s="6" t="str">
         <f t="shared" si="7"/>
@@ -29032,7 +29045,7 @@
       <c r="G514" s="41">
         <f ca="1">IF($D514="Formado",(DATA.SAGA!$I514-DATA.SAGA!$B514)/365*12,
 IF(OR($D514="Pré-Inscrito",$D514="Matriculado",$D514="Pré-inscrito"),(TODAY()-DATA.SAGA!$B514)/365*12,"*"))</f>
-        <v>5.5232876712328771</v>
+        <v>5.5890410958904102</v>
       </c>
       <c r="H514" s="6" t="str">
         <f t="shared" si="7"/>
@@ -29081,7 +29094,7 @@
       <c r="G515" s="41">
         <f ca="1">IF($D515="Formado",(DATA.SAGA!$I515-DATA.SAGA!$B515)/365*12,
 IF(OR($D515="Pré-Inscrito",$D515="Matriculado",$D515="Pré-inscrito"),(TODAY()-DATA.SAGA!$B515)/365*12,"*"))</f>
-        <v>5.5232876712328771</v>
+        <v>5.5890410958904102</v>
       </c>
       <c r="H515" s="6" t="str">
         <f t="shared" ref="H515:H540" si="8">IF(AND(COUNTIF($B:$B,$B515)&gt;1,$A515="Doutorado"),"Sim","*")</f>
@@ -29130,7 +29143,7 @@
       <c r="G516" s="41">
         <f ca="1">IF($D516="Formado",(DATA.SAGA!$I516-DATA.SAGA!$B516)/365*12,
 IF(OR($D516="Pré-Inscrito",$D516="Matriculado",$D516="Pré-inscrito"),(TODAY()-DATA.SAGA!$B516)/365*12,"*"))</f>
-        <v>5.4904109589041097</v>
+        <v>5.5561643835616437</v>
       </c>
       <c r="H516" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29179,7 +29192,7 @@
       <c r="G517" s="41">
         <f ca="1">IF($D517="Formado",(DATA.SAGA!$I517-DATA.SAGA!$B517)/365*12,
 IF(OR($D517="Pré-Inscrito",$D517="Matriculado",$D517="Pré-inscrito"),(TODAY()-DATA.SAGA!$B517)/365*12,"*"))</f>
-        <v>5.4904109589041097</v>
+        <v>5.5561643835616437</v>
       </c>
       <c r="H517" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29228,7 +29241,7 @@
       <c r="G518" s="41">
         <f ca="1">IF($D518="Formado",(DATA.SAGA!$I518-DATA.SAGA!$B518)/365*12,
 IF(OR($D518="Pré-Inscrito",$D518="Matriculado",$D518="Pré-inscrito"),(TODAY()-DATA.SAGA!$B518)/365*12,"*"))</f>
-        <v>5.4904109589041097</v>
+        <v>5.5561643835616437</v>
       </c>
       <c r="H518" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29277,7 +29290,7 @@
       <c r="G519" s="41">
         <f ca="1">IF($D519="Formado",(DATA.SAGA!$I519-DATA.SAGA!$B519)/365*12,
 IF(OR($D519="Pré-Inscrito",$D519="Matriculado",$D519="Pré-inscrito"),(TODAY()-DATA.SAGA!$B519)/365*12,"*"))</f>
-        <v>5.4904109589041097</v>
+        <v>5.5561643835616437</v>
       </c>
       <c r="H519" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29326,7 +29339,7 @@
       <c r="G520" s="41">
         <f ca="1">IF($D520="Formado",(DATA.SAGA!$I520-DATA.SAGA!$B520)/365*12,
 IF(OR($D520="Pré-Inscrito",$D520="Matriculado",$D520="Pré-inscrito"),(TODAY()-DATA.SAGA!$B520)/365*12,"*"))</f>
-        <v>5.4904109589041097</v>
+        <v>5.5561643835616437</v>
       </c>
       <c r="H520" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29424,7 +29437,7 @@
       <c r="G522" s="41">
         <f ca="1">IF($D522="Formado",(DATA.SAGA!$I522-DATA.SAGA!$B522)/365*12,
 IF(OR($D522="Pré-Inscrito",$D522="Matriculado",$D522="Pré-inscrito"),(TODAY()-DATA.SAGA!$B522)/365*12,"*"))</f>
-        <v>5.4575342465753423</v>
+        <v>5.5232876712328771</v>
       </c>
       <c r="H522" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29473,7 +29486,7 @@
       <c r="G523" s="41">
         <f ca="1">IF($D523="Formado",(DATA.SAGA!$I523-DATA.SAGA!$B523)/365*12,
 IF(OR($D523="Pré-Inscrito",$D523="Matriculado",$D523="Pré-inscrito"),(TODAY()-DATA.SAGA!$B523)/365*12,"*"))</f>
-        <v>5.4246575342465748</v>
+        <v>5.4904109589041097</v>
       </c>
       <c r="H523" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29522,7 +29535,7 @@
       <c r="G524" s="41">
         <f ca="1">IF($D524="Formado",(DATA.SAGA!$I524-DATA.SAGA!$B524)/365*12,
 IF(OR($D524="Pré-Inscrito",$D524="Matriculado",$D524="Pré-inscrito"),(TODAY()-DATA.SAGA!$B524)/365*12,"*"))</f>
-        <v>5.161643835616438</v>
+        <v>5.2273972602739729</v>
       </c>
       <c r="H524" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29620,7 +29633,7 @@
       <c r="G526" s="41">
         <f ca="1">IF($D526="Formado",(DATA.SAGA!$I526-DATA.SAGA!$B526)/365*12,
 IF(OR($D526="Pré-Inscrito",$D526="Matriculado",$D526="Pré-inscrito"),(TODAY()-DATA.SAGA!$B526)/365*12,"*"))</f>
-        <v>3.6493150684931512</v>
+        <v>3.7150684931506852</v>
       </c>
       <c r="H526" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29669,7 +29682,7 @@
       <c r="G527" s="41">
         <f ca="1">IF($D527="Formado",(DATA.SAGA!$I527-DATA.SAGA!$B527)/365*12,
 IF(OR($D527="Pré-Inscrito",$D527="Matriculado",$D527="Pré-inscrito"),(TODAY()-DATA.SAGA!$B527)/365*12,"*"))</f>
-        <v>3.6493150684931512</v>
+        <v>3.7150684931506852</v>
       </c>
       <c r="H527" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29718,7 +29731,7 @@
       <c r="G528" s="41">
         <f ca="1">IF($D528="Formado",(DATA.SAGA!$I528-DATA.SAGA!$B528)/365*12,
 IF(OR($D528="Pré-Inscrito",$D528="Matriculado",$D528="Pré-inscrito"),(TODAY()-DATA.SAGA!$B528)/365*12,"*"))</f>
-        <v>3.5506849315068494</v>
+        <v>3.6164383561643834</v>
       </c>
       <c r="H528" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29816,7 +29829,7 @@
       <c r="G530" s="41">
         <f ca="1">IF($D530="Formado",(DATA.SAGA!$I530-DATA.SAGA!$B530)/365*12,
 IF(OR($D530="Pré-Inscrito",$D530="Matriculado",$D530="Pré-inscrito"),(TODAY()-DATA.SAGA!$B530)/365*12,"*"))</f>
-        <v>3.3863013698630136</v>
+        <v>3.4520547945205475</v>
       </c>
       <c r="H530" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29865,7 +29878,7 @@
       <c r="G531" s="41">
         <f ca="1">IF($D531="Formado",(DATA.SAGA!$I531-DATA.SAGA!$B531)/365*12,
 IF(OR($D531="Pré-Inscrito",$D531="Matriculado",$D531="Pré-inscrito"),(TODAY()-DATA.SAGA!$B531)/365*12,"*"))</f>
-        <v>3.353424657534247</v>
+        <v>3.419178082191781</v>
       </c>
       <c r="H531" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29914,7 +29927,7 @@
       <c r="G532" s="41">
         <f ca="1">IF($D532="Formado",(DATA.SAGA!$I532-DATA.SAGA!$B532)/365*12,
 IF(OR($D532="Pré-Inscrito",$D532="Matriculado",$D532="Pré-inscrito"),(TODAY()-DATA.SAGA!$B532)/365*12,"*"))</f>
-        <v>3.3205479452054791</v>
+        <v>3.3863013698630136</v>
       </c>
       <c r="H532" s="6" t="str">
         <f t="shared" si="8"/>
@@ -30012,7 +30025,7 @@
       <c r="G534" s="41">
         <f ca="1">IF($D534="Formado",(DATA.SAGA!$I534-DATA.SAGA!$B534)/365*12,
 IF(OR($D534="Pré-Inscrito",$D534="Matriculado",$D534="Pré-inscrito"),(TODAY()-DATA.SAGA!$B534)/365*12,"*"))</f>
-        <v>3.1232876712328768</v>
+        <v>3.1890410958904112</v>
       </c>
       <c r="H534" s="6" t="str">
         <f t="shared" si="8"/>
@@ -30110,7 +30123,7 @@
       <c r="G536" s="41">
         <f ca="1">IF($D536="Formado",(DATA.SAGA!$I536-DATA.SAGA!$B536)/365*12,
 IF(OR($D536="Pré-Inscrito",$D536="Matriculado",$D536="Pré-inscrito"),(TODAY()-DATA.SAGA!$B536)/365*12,"*"))</f>
-        <v>3.1232876712328768</v>
+        <v>3.1890410958904112</v>
       </c>
       <c r="H536" s="6" t="str">
         <f t="shared" si="8"/>
@@ -30159,7 +30172,7 @@
       <c r="G537" s="41">
         <f ca="1">IF($D537="Formado",(DATA.SAGA!$I537-DATA.SAGA!$B537)/365*12,
 IF(OR($D537="Pré-Inscrito",$D537="Matriculado",$D537="Pré-inscrito"),(TODAY()-DATA.SAGA!$B537)/365*12,"*"))</f>
-        <v>2.9260273972602739</v>
+        <v>2.9917808219178084</v>
       </c>
       <c r="H537" s="6" t="str">
         <f t="shared" si="8"/>
@@ -30208,7 +30221,7 @@
       <c r="G538" s="41">
         <f ca="1">IF($D538="Formado",(DATA.SAGA!$I538-DATA.SAGA!$B538)/365*12,
 IF(OR($D538="Pré-Inscrito",$D538="Matriculado",$D538="Pré-inscrito"),(TODAY()-DATA.SAGA!$B538)/365*12,"*"))</f>
-        <v>2.4986301369863013</v>
+        <v>2.5643835616438357</v>
       </c>
       <c r="H538" s="6" t="str">
         <f t="shared" si="8"/>
@@ -30257,7 +30270,7 @@
       <c r="G539" s="41">
         <f ca="1">IF($D539="Formado",(DATA.SAGA!$I539-DATA.SAGA!$B539)/365*12,
 IF(OR($D539="Pré-Inscrito",$D539="Matriculado",$D539="Pré-inscrito"),(TODAY()-DATA.SAGA!$B539)/365*12,"*"))</f>
-        <v>2.4328767123287669</v>
+        <v>2.4986301369863013</v>
       </c>
       <c r="H539" s="6" t="str">
         <f t="shared" si="8"/>
@@ -30306,7 +30319,7 @@
       <c r="G540" s="41">
         <f ca="1">IF($D540="Formado",(DATA.SAGA!$I540-DATA.SAGA!$B540)/365*12,
 IF(OR($D540="Pré-Inscrito",$D540="Matriculado",$D540="Pré-inscrito"),(TODAY()-DATA.SAGA!$B540)/365*12,"*"))</f>
-        <v>2.1698630136986301</v>
+        <v>2.2356164383561645</v>
       </c>
       <c r="H540" s="6" t="str">
         <f t="shared" si="8"/>
@@ -53962,10 +53975,12 @@
         <v>17</v>
       </c>
       <c r="G432" s="17"/>
-      <c r="H432" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I432" s="17"/>
+      <c r="H432" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I432" s="43">
+        <v>45096</v>
+      </c>
       <c r="J432" s="17" t="s">
         <v>724</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426CCB92-C89F-8548-97B1-73F39883C564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD195FF-8BAF-904D-8589-D28011751134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3205,11 +3205,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3479,60 +3486,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3541,34 +3563,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3580,34 +3590,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -18706,7 +18716,7 @@
       <c r="G303" s="41">
         <f ca="1">IF($D303="Formado",(DATA.SAGA!$I303-DATA.SAGA!$B303)/365*12,
 IF(OR($D303="Pré-Inscrito",$D303="Matriculado",$D303="Pré-inscrito"),(TODAY()-DATA.SAGA!$B303)/365*12,"*"))</f>
-        <v>46.257534246575347</v>
+        <v>46.520547945205479</v>
       </c>
       <c r="H303" s="6" t="str">
         <f t="shared" si="4"/>
@@ -19049,7 +19059,7 @@
       <c r="G310" s="41">
         <f ca="1">IF($D310="Formado",(DATA.SAGA!$I310-DATA.SAGA!$B310)/365*12,
 IF(OR($D310="Pré-Inscrito",$D310="Matriculado",$D310="Pré-inscrito"),(TODAY()-DATA.SAGA!$B310)/365*12,"*"))</f>
-        <v>45.764383561643832</v>
+        <v>46.027397260273972</v>
       </c>
       <c r="H310" s="6" t="str">
         <f t="shared" si="4"/>
@@ -19490,7 +19500,7 @@
       <c r="G319" s="41">
         <f ca="1">IF($D319="Formado",(DATA.SAGA!$I319-DATA.SAGA!$B319)/365*12,
 IF(OR($D319="Pré-Inscrito",$D319="Matriculado",$D319="Pré-inscrito"),(TODAY()-DATA.SAGA!$B319)/365*12,"*"))</f>
-        <v>42.37808219178082</v>
+        <v>42.641095890410959</v>
       </c>
       <c r="H319" s="6" t="str">
         <f t="shared" si="4"/>
@@ -19539,7 +19549,7 @@
       <c r="G320" s="41">
         <f ca="1">IF($D320="Formado",(DATA.SAGA!$I320-DATA.SAGA!$B320)/365*12,
 IF(OR($D320="Pré-Inscrito",$D320="Matriculado",$D320="Pré-inscrito"),(TODAY()-DATA.SAGA!$B320)/365*12,"*"))</f>
-        <v>42.37808219178082</v>
+        <v>42.641095890410959</v>
       </c>
       <c r="H320" s="6" t="str">
         <f t="shared" si="4"/>
@@ -19588,7 +19598,7 @@
       <c r="G321" s="41">
         <f ca="1">IF($D321="Formado",(DATA.SAGA!$I321-DATA.SAGA!$B321)/365*12,
 IF(OR($D321="Pré-Inscrito",$D321="Matriculado",$D321="Pré-inscrito"),(TODAY()-DATA.SAGA!$B321)/365*12,"*"))</f>
-        <v>42.37808219178082</v>
+        <v>42.641095890410959</v>
       </c>
       <c r="H321" s="6" t="str">
         <f t="shared" si="4"/>
@@ -19637,7 +19647,7 @@
       <c r="G322" s="41">
         <f ca="1">IF($D322="Formado",(DATA.SAGA!$I322-DATA.SAGA!$B322)/365*12,
 IF(OR($D322="Pré-Inscrito",$D322="Matriculado",$D322="Pré-inscrito"),(TODAY()-DATA.SAGA!$B322)/365*12,"*"))</f>
-        <v>42.37808219178082</v>
+        <v>42.641095890410959</v>
       </c>
       <c r="H322" s="6" t="str">
         <f t="shared" si="4"/>
@@ -19686,7 +19696,7 @@
       <c r="G323" s="41">
         <f ca="1">IF($D323="Formado",(DATA.SAGA!$I323-DATA.SAGA!$B323)/365*12,
 IF(OR($D323="Pré-Inscrito",$D323="Matriculado",$D323="Pré-inscrito"),(TODAY()-DATA.SAGA!$B323)/365*12,"*"))</f>
-        <v>42.37808219178082</v>
+        <v>42.641095890410959</v>
       </c>
       <c r="H323" s="6" t="str">
         <f t="shared" ref="H323:H386" si="5">IF(AND(COUNTIF($B:$B,$B323)&gt;1,$A323="Doutorado"),"Sim","*")</f>
@@ -19735,7 +19745,7 @@
       <c r="G324" s="41">
         <f ca="1">IF($D324="Formado",(DATA.SAGA!$I324-DATA.SAGA!$B324)/365*12,
 IF(OR($D324="Pré-Inscrito",$D324="Matriculado",$D324="Pré-inscrito"),(TODAY()-DATA.SAGA!$B324)/365*12,"*"))</f>
-        <v>42.37808219178082</v>
+        <v>42.641095890410959</v>
       </c>
       <c r="H324" s="6" t="str">
         <f t="shared" si="5"/>
@@ -19784,7 +19794,7 @@
       <c r="G325" s="41">
         <f ca="1">IF($D325="Formado",(DATA.SAGA!$I325-DATA.SAGA!$B325)/365*12,
 IF(OR($D325="Pré-Inscrito",$D325="Matriculado",$D325="Pré-inscrito"),(TODAY()-DATA.SAGA!$B325)/365*12,"*"))</f>
-        <v>42.37808219178082</v>
+        <v>42.641095890410959</v>
       </c>
       <c r="H325" s="6" t="str">
         <f t="shared" si="5"/>
@@ -19882,7 +19892,7 @@
       <c r="G327" s="41">
         <f ca="1">IF($D327="Formado",(DATA.SAGA!$I327-DATA.SAGA!$B327)/365*12,
 IF(OR($D327="Pré-Inscrito",$D327="Matriculado",$D327="Pré-inscrito"),(TODAY()-DATA.SAGA!$B327)/365*12,"*"))</f>
-        <v>42.37808219178082</v>
+        <v>42.641095890410959</v>
       </c>
       <c r="H327" s="6" t="str">
         <f t="shared" si="5"/>
@@ -19931,7 +19941,7 @@
       <c r="G328" s="41">
         <f ca="1">IF($D328="Formado",(DATA.SAGA!$I328-DATA.SAGA!$B328)/365*12,
 IF(OR($D328="Pré-Inscrito",$D328="Matriculado",$D328="Pré-inscrito"),(TODAY()-DATA.SAGA!$B328)/365*12,"*"))</f>
-        <v>42.37808219178082</v>
+        <v>42.641095890410959</v>
       </c>
       <c r="H328" s="6" t="str">
         <f t="shared" si="5"/>
@@ -19980,7 +19990,7 @@
       <c r="G329" s="41">
         <f ca="1">IF($D329="Formado",(DATA.SAGA!$I329-DATA.SAGA!$B329)/365*12,
 IF(OR($D329="Pré-Inscrito",$D329="Matriculado",$D329="Pré-inscrito"),(TODAY()-DATA.SAGA!$B329)/365*12,"*"))</f>
-        <v>42.37808219178082</v>
+        <v>42.641095890410959</v>
       </c>
       <c r="H329" s="6" t="str">
         <f t="shared" si="5"/>
@@ -20421,7 +20431,7 @@
       <c r="G338" s="41">
         <f ca="1">IF($D338="Formado",(DATA.SAGA!$I338-DATA.SAGA!$B338)/365*12,
 IF(OR($D338="Pré-Inscrito",$D338="Matriculado",$D338="Pré-inscrito"),(TODAY()-DATA.SAGA!$B338)/365*12,"*"))</f>
-        <v>39.747945205479454</v>
+        <v>40.010958904109593</v>
       </c>
       <c r="H338" s="6" t="str">
         <f t="shared" si="5"/>
@@ -20715,7 +20725,7 @@
       <c r="G344" s="41">
         <f ca="1">IF($D344="Formado",(DATA.SAGA!$I344-DATA.SAGA!$B344)/365*12,
 IF(OR($D344="Pré-Inscrito",$D344="Matriculado",$D344="Pré-inscrito"),(TODAY()-DATA.SAGA!$B344)/365*12,"*"))</f>
-        <v>39.649315068493152</v>
+        <v>39.912328767123284</v>
       </c>
       <c r="H344" s="6" t="str">
         <f t="shared" si="5"/>
@@ -20911,7 +20921,7 @@
       <c r="G348" s="41">
         <f ca="1">IF($D348="Formado",(DATA.SAGA!$I348-DATA.SAGA!$B348)/365*12,
 IF(OR($D348="Pré-Inscrito",$D348="Matriculado",$D348="Pré-inscrito"),(TODAY()-DATA.SAGA!$B348)/365*12,"*"))</f>
-        <v>38.400000000000006</v>
+        <v>38.663013698630138</v>
       </c>
       <c r="H348" s="6" t="str">
         <f t="shared" si="5"/>
@@ -20960,7 +20970,7 @@
       <c r="G349" s="41">
         <f ca="1">IF($D349="Formado",(DATA.SAGA!$I349-DATA.SAGA!$B349)/365*12,
 IF(OR($D349="Pré-Inscrito",$D349="Matriculado",$D349="Pré-inscrito"),(TODAY()-DATA.SAGA!$B349)/365*12,"*"))</f>
-        <v>36.986301369863014</v>
+        <v>37.249315068493146</v>
       </c>
       <c r="H349" s="6" t="str">
         <f t="shared" si="5"/>
@@ -21486,20 +21496,20 @@
       </c>
       <c r="D360" s="5" t="str">
         <f>DATA.SAGA!$H360</f>
-        <v>Matriculado</v>
+        <v>Formado</v>
       </c>
       <c r="E360" s="5" t="str">
         <f>IF(DATA.SAGA!J360="","*",DATA.SAGA!J360)</f>
         <v>PR</v>
       </c>
-      <c r="F360" s="5" t="str">
+      <c r="F360" s="5">
         <f>IF(DATA.SAGA!$I360="","*",YEAR(DATA.SAGA!$I360))</f>
-        <v>*</v>
+        <v>2023</v>
       </c>
       <c r="G360" s="41">
         <f ca="1">IF($D360="Formado",(DATA.SAGA!$I360-DATA.SAGA!$B360)/365*12,
 IF(OR($D360="Pré-Inscrito",$D360="Matriculado",$D360="Pré-inscrito"),(TODAY()-DATA.SAGA!$B360)/365*12,"*"))</f>
-        <v>33.895890410958899</v>
+        <v>34.652054794520545</v>
       </c>
       <c r="H360" s="6" t="str">
         <f t="shared" si="5"/>
@@ -21548,7 +21558,7 @@
       <c r="G361" s="41">
         <f ca="1">IF($D361="Formado",(DATA.SAGA!$I361-DATA.SAGA!$B361)/365*12,
 IF(OR($D361="Pré-Inscrito",$D361="Matriculado",$D361="Pré-inscrito"),(TODAY()-DATA.SAGA!$B361)/365*12,"*"))</f>
-        <v>33.895890410958899</v>
+        <v>34.158904109589045</v>
       </c>
       <c r="H361" s="6" t="str">
         <f t="shared" si="5"/>
@@ -21891,7 +21901,7 @@
       <c r="G368" s="41">
         <f ca="1">IF($D368="Formado",(DATA.SAGA!$I368-DATA.SAGA!$B368)/365*12,
 IF(OR($D368="Pré-Inscrito",$D368="Matriculado",$D368="Pré-inscrito"),(TODAY()-DATA.SAGA!$B368)/365*12,"*"))</f>
-        <v>33.830136986301369</v>
+        <v>34.093150684931508</v>
       </c>
       <c r="H368" s="6" t="str">
         <f t="shared" si="5"/>
@@ -22479,7 +22489,7 @@
       <c r="G380" s="41">
         <f ca="1">IF($D380="Formado",(DATA.SAGA!$I380-DATA.SAGA!$B380)/365*12,
 IF(OR($D380="Pré-Inscrito",$D380="Matriculado",$D380="Pré-inscrito"),(TODAY()-DATA.SAGA!$B380)/365*12,"*"))</f>
-        <v>33.764383561643832</v>
+        <v>34.027397260273972</v>
       </c>
       <c r="H380" s="6" t="str">
         <f t="shared" si="5"/>
@@ -22626,7 +22636,7 @@
       <c r="G383" s="41">
         <f ca="1">IF($D383="Formado",(DATA.SAGA!$I383-DATA.SAGA!$B383)/365*12,
 IF(OR($D383="Pré-Inscrito",$D383="Matriculado",$D383="Pré-inscrito"),(TODAY()-DATA.SAGA!$B383)/365*12,"*"))</f>
-        <v>33.764383561643832</v>
+        <v>34.027397260273972</v>
       </c>
       <c r="H383" s="6" t="str">
         <f t="shared" si="5"/>
@@ -22675,7 +22685,7 @@
       <c r="G384" s="41">
         <f ca="1">IF($D384="Formado",(DATA.SAGA!$I384-DATA.SAGA!$B384)/365*12,
 IF(OR($D384="Pré-Inscrito",$D384="Matriculado",$D384="Pré-inscrito"),(TODAY()-DATA.SAGA!$B384)/365*12,"*"))</f>
-        <v>33.764383561643832</v>
+        <v>34.027397260273972</v>
       </c>
       <c r="H384" s="6" t="str">
         <f t="shared" si="5"/>
@@ -22871,7 +22881,7 @@
       <c r="G388" s="41">
         <f ca="1">IF($D388="Formado",(DATA.SAGA!$I388-DATA.SAGA!$B388)/365*12,
 IF(OR($D388="Pré-Inscrito",$D388="Matriculado",$D388="Pré-inscrito"),(TODAY()-DATA.SAGA!$B388)/365*12,"*"))</f>
-        <v>33.665753424657538</v>
+        <v>33.92876712328767</v>
       </c>
       <c r="H388" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23067,7 +23077,7 @@
       <c r="G392" s="41">
         <f ca="1">IF($D392="Formado",(DATA.SAGA!$I392-DATA.SAGA!$B392)/365*12,
 IF(OR($D392="Pré-Inscrito",$D392="Matriculado",$D392="Pré-inscrito"),(TODAY()-DATA.SAGA!$B392)/365*12,"*"))</f>
-        <v>29.720547945205482</v>
+        <v>29.983561643835614</v>
       </c>
       <c r="H392" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23116,7 +23126,7 @@
       <c r="G393" s="41">
         <f ca="1">IF($D393="Formado",(DATA.SAGA!$I393-DATA.SAGA!$B393)/365*12,
 IF(OR($D393="Pré-Inscrito",$D393="Matriculado",$D393="Pré-inscrito"),(TODAY()-DATA.SAGA!$B393)/365*12,"*"))</f>
-        <v>29.68767123287671</v>
+        <v>29.950684931506849</v>
       </c>
       <c r="H393" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23165,7 +23175,7 @@
       <c r="G394" s="41">
         <f ca="1">IF($D394="Formado",(DATA.SAGA!$I394-DATA.SAGA!$B394)/365*12,
 IF(OR($D394="Pré-Inscrito",$D394="Matriculado",$D394="Pré-inscrito"),(TODAY()-DATA.SAGA!$B394)/365*12,"*"))</f>
-        <v>29.68767123287671</v>
+        <v>29.950684931506849</v>
       </c>
       <c r="H394" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23214,7 +23224,7 @@
       <c r="G395" s="41">
         <f ca="1">IF($D395="Formado",(DATA.SAGA!$I395-DATA.SAGA!$B395)/365*12,
 IF(OR($D395="Pré-Inscrito",$D395="Matriculado",$D395="Pré-inscrito"),(TODAY()-DATA.SAGA!$B395)/365*12,"*"))</f>
-        <v>29.68767123287671</v>
+        <v>29.950684931506849</v>
       </c>
       <c r="H395" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23312,7 +23322,7 @@
       <c r="G397" s="41">
         <f ca="1">IF($D397="Formado",(DATA.SAGA!$I397-DATA.SAGA!$B397)/365*12,
 IF(OR($D397="Pré-Inscrito",$D397="Matriculado",$D397="Pré-inscrito"),(TODAY()-DATA.SAGA!$B397)/365*12,"*"))</f>
-        <v>29.68767123287671</v>
+        <v>29.950684931506849</v>
       </c>
       <c r="H397" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23410,7 +23420,7 @@
       <c r="G399" s="41">
         <f ca="1">IF($D399="Formado",(DATA.SAGA!$I399-DATA.SAGA!$B399)/365*12,
 IF(OR($D399="Pré-Inscrito",$D399="Matriculado",$D399="Pré-inscrito"),(TODAY()-DATA.SAGA!$B399)/365*12,"*"))</f>
-        <v>29.62191780821918</v>
+        <v>29.884931506849316</v>
       </c>
       <c r="H399" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23508,7 +23518,7 @@
       <c r="G401" s="41">
         <f ca="1">IF($D401="Formado",(DATA.SAGA!$I401-DATA.SAGA!$B401)/365*12,
 IF(OR($D401="Pré-Inscrito",$D401="Matriculado",$D401="Pré-inscrito"),(TODAY()-DATA.SAGA!$B401)/365*12,"*"))</f>
-        <v>29.62191780821918</v>
+        <v>29.884931506849316</v>
       </c>
       <c r="H401" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23557,7 +23567,7 @@
       <c r="G402" s="41">
         <f ca="1">IF($D402="Formado",(DATA.SAGA!$I402-DATA.SAGA!$B402)/365*12,
 IF(OR($D402="Pré-Inscrito",$D402="Matriculado",$D402="Pré-inscrito"),(TODAY()-DATA.SAGA!$B402)/365*12,"*"))</f>
-        <v>29.490410958904107</v>
+        <v>29.753424657534246</v>
       </c>
       <c r="H402" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23655,7 +23665,7 @@
       <c r="G404" s="41">
         <f ca="1">IF($D404="Formado",(DATA.SAGA!$I404-DATA.SAGA!$B404)/365*12,
 IF(OR($D404="Pré-Inscrito",$D404="Matriculado",$D404="Pré-inscrito"),(TODAY()-DATA.SAGA!$B404)/365*12,"*"))</f>
-        <v>27.156164383561642</v>
+        <v>27.419178082191785</v>
       </c>
       <c r="H404" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23753,7 +23763,7 @@
       <c r="G406" s="41">
         <f ca="1">IF($D406="Formado",(DATA.SAGA!$I406-DATA.SAGA!$B406)/365*12,
 IF(OR($D406="Pré-Inscrito",$D406="Matriculado",$D406="Pré-inscrito"),(TODAY()-DATA.SAGA!$B406)/365*12,"*"))</f>
-        <v>27.156164383561642</v>
+        <v>27.419178082191785</v>
       </c>
       <c r="H406" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24096,7 +24106,7 @@
       <c r="G413" s="41">
         <f ca="1">IF($D413="Formado",(DATA.SAGA!$I413-DATA.SAGA!$B413)/365*12,
 IF(OR($D413="Pré-Inscrito",$D413="Matriculado",$D413="Pré-inscrito"),(TODAY()-DATA.SAGA!$B413)/365*12,"*"))</f>
-        <v>27.12328767123288</v>
+        <v>27.386301369863013</v>
       </c>
       <c r="H413" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24243,7 +24253,7 @@
       <c r="G416" s="41">
         <f ca="1">IF($D416="Formado",(DATA.SAGA!$I416-DATA.SAGA!$B416)/365*12,
 IF(OR($D416="Pré-Inscrito",$D416="Matriculado",$D416="Pré-inscrito"),(TODAY()-DATA.SAGA!$B416)/365*12,"*"))</f>
-        <v>27.090410958904108</v>
+        <v>27.353424657534248</v>
       </c>
       <c r="H416" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24292,7 +24302,7 @@
       <c r="G417" s="41">
         <f ca="1">IF($D417="Formado",(DATA.SAGA!$I417-DATA.SAGA!$B417)/365*12,
 IF(OR($D417="Pré-Inscrito",$D417="Matriculado",$D417="Pré-inscrito"),(TODAY()-DATA.SAGA!$B417)/365*12,"*"))</f>
-        <v>27.090410958904108</v>
+        <v>27.353424657534248</v>
       </c>
       <c r="H417" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24390,7 +24400,7 @@
       <c r="G419" s="41">
         <f ca="1">IF($D419="Formado",(DATA.SAGA!$I419-DATA.SAGA!$B419)/365*12,
 IF(OR($D419="Pré-Inscrito",$D419="Matriculado",$D419="Pré-inscrito"),(TODAY()-DATA.SAGA!$B419)/365*12,"*"))</f>
-        <v>27.057534246575344</v>
+        <v>27.320547945205476</v>
       </c>
       <c r="H419" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24439,7 +24449,7 @@
       <c r="G420" s="41">
         <f ca="1">IF($D420="Formado",(DATA.SAGA!$I420-DATA.SAGA!$B420)/365*12,
 IF(OR($D420="Pré-Inscrito",$D420="Matriculado",$D420="Pré-inscrito"),(TODAY()-DATA.SAGA!$B420)/365*12,"*"))</f>
-        <v>27.057534246575344</v>
+        <v>27.320547945205476</v>
       </c>
       <c r="H420" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24488,7 +24498,7 @@
       <c r="G421" s="41">
         <f ca="1">IF($D421="Formado",(DATA.SAGA!$I421-DATA.SAGA!$B421)/365*12,
 IF(OR($D421="Pré-Inscrito",$D421="Matriculado",$D421="Pré-inscrito"),(TODAY()-DATA.SAGA!$B421)/365*12,"*"))</f>
-        <v>27.057534246575344</v>
+        <v>27.320547945205476</v>
       </c>
       <c r="H421" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24586,7 +24596,7 @@
       <c r="G423" s="41">
         <f ca="1">IF($D423="Formado",(DATA.SAGA!$I423-DATA.SAGA!$B423)/365*12,
 IF(OR($D423="Pré-Inscrito",$D423="Matriculado",$D423="Pré-inscrito"),(TODAY()-DATA.SAGA!$B423)/365*12,"*"))</f>
-        <v>26.432876712328763</v>
+        <v>26.695890410958906</v>
       </c>
       <c r="H423" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24684,7 +24694,7 @@
       <c r="G425" s="41">
         <f ca="1">IF($D425="Formado",(DATA.SAGA!$I425-DATA.SAGA!$B425)/365*12,
 IF(OR($D425="Pré-Inscrito",$D425="Matriculado",$D425="Pré-inscrito"),(TODAY()-DATA.SAGA!$B425)/365*12,"*"))</f>
-        <v>26.400000000000002</v>
+        <v>26.663013698630138</v>
       </c>
       <c r="H425" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24733,7 +24743,7 @@
       <c r="G426" s="41">
         <f ca="1">IF($D426="Formado",(DATA.SAGA!$I426-DATA.SAGA!$B426)/365*12,
 IF(OR($D426="Pré-Inscrito",$D426="Matriculado",$D426="Pré-inscrito"),(TODAY()-DATA.SAGA!$B426)/365*12,"*"))</f>
-        <v>26.400000000000002</v>
+        <v>26.663013698630138</v>
       </c>
       <c r="H426" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24782,7 +24792,7 @@
       <c r="G427" s="41">
         <f ca="1">IF($D427="Formado",(DATA.SAGA!$I427-DATA.SAGA!$B427)/365*12,
 IF(OR($D427="Pré-Inscrito",$D427="Matriculado",$D427="Pré-inscrito"),(TODAY()-DATA.SAGA!$B427)/365*12,"*"))</f>
-        <v>26.301369863013697</v>
+        <v>26.564383561643833</v>
       </c>
       <c r="H427" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24831,7 +24841,7 @@
       <c r="G428" s="41">
         <f ca="1">IF($D428="Formado",(DATA.SAGA!$I428-DATA.SAGA!$B428)/365*12,
 IF(OR($D428="Pré-Inscrito",$D428="Matriculado",$D428="Pré-inscrito"),(TODAY()-DATA.SAGA!$B428)/365*12,"*"))</f>
-        <v>26.301369863013697</v>
+        <v>26.564383561643833</v>
       </c>
       <c r="H428" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25125,7 +25135,7 @@
       <c r="G434" s="41">
         <f ca="1">IF($D434="Formado",(DATA.SAGA!$I434-DATA.SAGA!$B434)/365*12,
 IF(OR($D434="Pré-Inscrito",$D434="Matriculado",$D434="Pré-inscrito"),(TODAY()-DATA.SAGA!$B434)/365*12,"*"))</f>
-        <v>26.005479452054793</v>
+        <v>26.268493150684929</v>
       </c>
       <c r="H434" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25174,7 +25184,7 @@
       <c r="G435" s="41">
         <f ca="1">IF($D435="Formado",(DATA.SAGA!$I435-DATA.SAGA!$B435)/365*12,
 IF(OR($D435="Pré-Inscrito",$D435="Matriculado",$D435="Pré-inscrito"),(TODAY()-DATA.SAGA!$B435)/365*12,"*"))</f>
-        <v>24.131506849315066</v>
+        <v>24.394520547945206</v>
       </c>
       <c r="H435" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25223,7 +25233,7 @@
       <c r="G436" s="41">
         <f ca="1">IF($D436="Formado",(DATA.SAGA!$I436-DATA.SAGA!$B436)/365*12,
 IF(OR($D436="Pré-Inscrito",$D436="Matriculado",$D436="Pré-inscrito"),(TODAY()-DATA.SAGA!$B436)/365*12,"*"))</f>
-        <v>21.863013698630137</v>
+        <v>22.126027397260273</v>
       </c>
       <c r="H436" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25272,7 +25282,7 @@
       <c r="G437" s="41">
         <f ca="1">IF($D437="Formado",(DATA.SAGA!$I437-DATA.SAGA!$B437)/365*12,
 IF(OR($D437="Pré-Inscrito",$D437="Matriculado",$D437="Pré-inscrito"),(TODAY()-DATA.SAGA!$B437)/365*12,"*"))</f>
-        <v>21.863013698630137</v>
+        <v>22.126027397260273</v>
       </c>
       <c r="H437" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25370,7 +25380,7 @@
       <c r="G439" s="41">
         <f ca="1">IF($D439="Formado",(DATA.SAGA!$I439-DATA.SAGA!$B439)/365*12,
 IF(OR($D439="Pré-Inscrito",$D439="Matriculado",$D439="Pré-inscrito"),(TODAY()-DATA.SAGA!$B439)/365*12,"*"))</f>
-        <v>21.863013698630137</v>
+        <v>22.126027397260273</v>
       </c>
       <c r="H439" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25419,7 +25429,7 @@
       <c r="G440" s="41">
         <f ca="1">IF($D440="Formado",(DATA.SAGA!$I440-DATA.SAGA!$B440)/365*12,
 IF(OR($D440="Pré-Inscrito",$D440="Matriculado",$D440="Pré-inscrito"),(TODAY()-DATA.SAGA!$B440)/365*12,"*"))</f>
-        <v>21.863013698630137</v>
+        <v>22.126027397260273</v>
       </c>
       <c r="H440" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25468,7 +25478,7 @@
       <c r="G441" s="41">
         <f ca="1">IF($D441="Formado",(DATA.SAGA!$I441-DATA.SAGA!$B441)/365*12,
 IF(OR($D441="Pré-Inscrito",$D441="Matriculado",$D441="Pré-inscrito"),(TODAY()-DATA.SAGA!$B441)/365*12,"*"))</f>
-        <v>21.863013698630137</v>
+        <v>22.126027397260273</v>
       </c>
       <c r="H441" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25517,7 +25527,7 @@
       <c r="G442" s="41">
         <f ca="1">IF($D442="Formado",(DATA.SAGA!$I442-DATA.SAGA!$B442)/365*12,
 IF(OR($D442="Pré-Inscrito",$D442="Matriculado",$D442="Pré-inscrito"),(TODAY()-DATA.SAGA!$B442)/365*12,"*"))</f>
-        <v>21.863013698630137</v>
+        <v>22.126027397260273</v>
       </c>
       <c r="H442" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25566,7 +25576,7 @@
       <c r="G443" s="41">
         <f ca="1">IF($D443="Formado",(DATA.SAGA!$I443-DATA.SAGA!$B443)/365*12,
 IF(OR($D443="Pré-Inscrito",$D443="Matriculado",$D443="Pré-inscrito"),(TODAY()-DATA.SAGA!$B443)/365*12,"*"))</f>
-        <v>21.863013698630137</v>
+        <v>22.126027397260273</v>
       </c>
       <c r="H443" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25664,7 +25674,7 @@
       <c r="G445" s="41">
         <f ca="1">IF($D445="Formado",(DATA.SAGA!$I445-DATA.SAGA!$B445)/365*12,
 IF(OR($D445="Pré-Inscrito",$D445="Matriculado",$D445="Pré-inscrito"),(TODAY()-DATA.SAGA!$B445)/365*12,"*"))</f>
-        <v>21.863013698630137</v>
+        <v>22.126027397260273</v>
       </c>
       <c r="H445" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25811,7 +25821,7 @@
       <c r="G448" s="41">
         <f ca="1">IF($D448="Formado",(DATA.SAGA!$I448-DATA.SAGA!$B448)/365*12,
 IF(OR($D448="Pré-Inscrito",$D448="Matriculado",$D448="Pré-inscrito"),(TODAY()-DATA.SAGA!$B448)/365*12,"*"))</f>
-        <v>21.797260273972604</v>
+        <v>22.06027397260274</v>
       </c>
       <c r="H448" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25958,7 +25968,7 @@
       <c r="G451" s="41">
         <f ca="1">IF($D451="Formado",(DATA.SAGA!$I451-DATA.SAGA!$B451)/365*12,
 IF(OR($D451="Pré-Inscrito",$D451="Matriculado",$D451="Pré-inscrito"),(TODAY()-DATA.SAGA!$B451)/365*12,"*"))</f>
-        <v>21.797260273972604</v>
+        <v>22.06027397260274</v>
       </c>
       <c r="H451" s="6" t="str">
         <f t="shared" ref="H451:H514" si="7">IF(AND(COUNTIF($B:$B,$B451)&gt;1,$A451="Doutorado"),"Sim","*")</f>
@@ -26007,7 +26017,7 @@
       <c r="G452" s="41">
         <f ca="1">IF($D452="Formado",(DATA.SAGA!$I452-DATA.SAGA!$B452)/365*12,
 IF(OR($D452="Pré-Inscrito",$D452="Matriculado",$D452="Pré-inscrito"),(TODAY()-DATA.SAGA!$B452)/365*12,"*"))</f>
-        <v>21.797260273972604</v>
+        <v>22.06027397260274</v>
       </c>
       <c r="H452" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26056,7 +26066,7 @@
       <c r="G453" s="41">
         <f ca="1">IF($D453="Formado",(DATA.SAGA!$I453-DATA.SAGA!$B453)/365*12,
 IF(OR($D453="Pré-Inscrito",$D453="Matriculado",$D453="Pré-inscrito"),(TODAY()-DATA.SAGA!$B453)/365*12,"*"))</f>
-        <v>21.797260273972604</v>
+        <v>22.06027397260274</v>
       </c>
       <c r="H453" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26105,7 +26115,7 @@
       <c r="G454" s="41">
         <f ca="1">IF($D454="Formado",(DATA.SAGA!$I454-DATA.SAGA!$B454)/365*12,
 IF(OR($D454="Pré-Inscrito",$D454="Matriculado",$D454="Pré-inscrito"),(TODAY()-DATA.SAGA!$B454)/365*12,"*"))</f>
-        <v>21.797260273972604</v>
+        <v>22.06027397260274</v>
       </c>
       <c r="H454" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26203,7 +26213,7 @@
       <c r="G456" s="41">
         <f ca="1">IF($D456="Formado",(DATA.SAGA!$I456-DATA.SAGA!$B456)/365*12,
 IF(OR($D456="Pré-Inscrito",$D456="Matriculado",$D456="Pré-inscrito"),(TODAY()-DATA.SAGA!$B456)/365*12,"*"))</f>
-        <v>16.142465753424656</v>
+        <v>16.405479452054795</v>
       </c>
       <c r="H456" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26252,7 +26262,7 @@
       <c r="G457" s="41">
         <f ca="1">IF($D457="Formado",(DATA.SAGA!$I457-DATA.SAGA!$B457)/365*12,
 IF(OR($D457="Pré-Inscrito",$D457="Matriculado",$D457="Pré-inscrito"),(TODAY()-DATA.SAGA!$B457)/365*12,"*"))</f>
-        <v>16.109589041095891</v>
+        <v>16.372602739726027</v>
       </c>
       <c r="H457" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26301,7 +26311,7 @@
       <c r="G458" s="41">
         <f ca="1">IF($D458="Formado",(DATA.SAGA!$I458-DATA.SAGA!$B458)/365*12,
 IF(OR($D458="Pré-Inscrito",$D458="Matriculado",$D458="Pré-inscrito"),(TODAY()-DATA.SAGA!$B458)/365*12,"*"))</f>
-        <v>16.109589041095891</v>
+        <v>16.372602739726027</v>
       </c>
       <c r="H458" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26399,7 +26409,7 @@
       <c r="G460" s="41">
         <f ca="1">IF($D460="Formado",(DATA.SAGA!$I460-DATA.SAGA!$B460)/365*12,
 IF(OR($D460="Pré-Inscrito",$D460="Matriculado",$D460="Pré-inscrito"),(TODAY()-DATA.SAGA!$B460)/365*12,"*"))</f>
-        <v>16.109589041095891</v>
+        <v>16.372602739726027</v>
       </c>
       <c r="H460" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26448,7 +26458,7 @@
       <c r="G461" s="41">
         <f ca="1">IF($D461="Formado",(DATA.SAGA!$I461-DATA.SAGA!$B461)/365*12,
 IF(OR($D461="Pré-Inscrito",$D461="Matriculado",$D461="Pré-inscrito"),(TODAY()-DATA.SAGA!$B461)/365*12,"*"))</f>
-        <v>16.109589041095891</v>
+        <v>16.372602739726027</v>
       </c>
       <c r="H461" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26497,7 +26507,7 @@
       <c r="G462" s="41">
         <f ca="1">IF($D462="Formado",(DATA.SAGA!$I462-DATA.SAGA!$B462)/365*12,
 IF(OR($D462="Pré-Inscrito",$D462="Matriculado",$D462="Pré-inscrito"),(TODAY()-DATA.SAGA!$B462)/365*12,"*"))</f>
-        <v>16.109589041095891</v>
+        <v>16.372602739726027</v>
       </c>
       <c r="H462" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26546,7 +26556,7 @@
       <c r="G463" s="41">
         <f ca="1">IF($D463="Formado",(DATA.SAGA!$I463-DATA.SAGA!$B463)/365*12,
 IF(OR($D463="Pré-Inscrito",$D463="Matriculado",$D463="Pré-inscrito"),(TODAY()-DATA.SAGA!$B463)/365*12,"*"))</f>
-        <v>16.109589041095891</v>
+        <v>16.372602739726027</v>
       </c>
       <c r="H463" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26595,7 +26605,7 @@
       <c r="G464" s="41">
         <f ca="1">IF($D464="Formado",(DATA.SAGA!$I464-DATA.SAGA!$B464)/365*12,
 IF(OR($D464="Pré-Inscrito",$D464="Matriculado",$D464="Pré-inscrito"),(TODAY()-DATA.SAGA!$B464)/365*12,"*"))</f>
-        <v>16.109589041095891</v>
+        <v>16.372602739726027</v>
       </c>
       <c r="H464" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26644,7 +26654,7 @@
       <c r="G465" s="41">
         <f ca="1">IF($D465="Formado",(DATA.SAGA!$I465-DATA.SAGA!$B465)/365*12,
 IF(OR($D465="Pré-Inscrito",$D465="Matriculado",$D465="Pré-inscrito"),(TODAY()-DATA.SAGA!$B465)/365*12,"*"))</f>
-        <v>16.109589041095891</v>
+        <v>16.372602739726027</v>
       </c>
       <c r="H465" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26693,7 +26703,7 @@
       <c r="G466" s="41">
         <f ca="1">IF($D466="Formado",(DATA.SAGA!$I466-DATA.SAGA!$B466)/365*12,
 IF(OR($D466="Pré-Inscrito",$D466="Matriculado",$D466="Pré-inscrito"),(TODAY()-DATA.SAGA!$B466)/365*12,"*"))</f>
-        <v>16.109589041095891</v>
+        <v>16.372602739726027</v>
       </c>
       <c r="H466" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26742,7 +26752,7 @@
       <c r="G467" s="41">
         <f ca="1">IF($D467="Formado",(DATA.SAGA!$I467-DATA.SAGA!$B467)/365*12,
 IF(OR($D467="Pré-Inscrito",$D467="Matriculado",$D467="Pré-inscrito"),(TODAY()-DATA.SAGA!$B467)/365*12,"*"))</f>
-        <v>16.109589041095891</v>
+        <v>16.372602739726027</v>
       </c>
       <c r="H467" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26791,7 +26801,7 @@
       <c r="G468" s="41">
         <f ca="1">IF($D468="Formado",(DATA.SAGA!$I468-DATA.SAGA!$B468)/365*12,
 IF(OR($D468="Pré-Inscrito",$D468="Matriculado",$D468="Pré-inscrito"),(TODAY()-DATA.SAGA!$B468)/365*12,"*"))</f>
-        <v>16.109589041095891</v>
+        <v>16.372602739726027</v>
       </c>
       <c r="H468" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26840,7 +26850,7 @@
       <c r="G469" s="41">
         <f ca="1">IF($D469="Formado",(DATA.SAGA!$I469-DATA.SAGA!$B469)/365*12,
 IF(OR($D469="Pré-Inscrito",$D469="Matriculado",$D469="Pré-inscrito"),(TODAY()-DATA.SAGA!$B469)/365*12,"*"))</f>
-        <v>16.109589041095891</v>
+        <v>16.372602739726027</v>
       </c>
       <c r="H469" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26889,7 +26899,7 @@
       <c r="G470" s="41">
         <f ca="1">IF($D470="Formado",(DATA.SAGA!$I470-DATA.SAGA!$B470)/365*12,
 IF(OR($D470="Pré-Inscrito",$D470="Matriculado",$D470="Pré-inscrito"),(TODAY()-DATA.SAGA!$B470)/365*12,"*"))</f>
-        <v>16.109589041095891</v>
+        <v>16.372602739726027</v>
       </c>
       <c r="H470" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27036,7 +27046,7 @@
       <c r="G473" s="41">
         <f ca="1">IF($D473="Formado",(DATA.SAGA!$I473-DATA.SAGA!$B473)/365*12,
 IF(OR($D473="Pré-Inscrito",$D473="Matriculado",$D473="Pré-inscrito"),(TODAY()-DATA.SAGA!$B473)/365*12,"*"))</f>
-        <v>16.109589041095891</v>
+        <v>16.372602739726027</v>
       </c>
       <c r="H473" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27085,7 +27095,7 @@
       <c r="G474" s="41">
         <f ca="1">IF($D474="Formado",(DATA.SAGA!$I474-DATA.SAGA!$B474)/365*12,
 IF(OR($D474="Pré-Inscrito",$D474="Matriculado",$D474="Pré-inscrito"),(TODAY()-DATA.SAGA!$B474)/365*12,"*"))</f>
-        <v>16.109589041095891</v>
+        <v>16.372602739726027</v>
       </c>
       <c r="H474" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27134,7 +27144,7 @@
       <c r="G475" s="41">
         <f ca="1">IF($D475="Formado",(DATA.SAGA!$I475-DATA.SAGA!$B475)/365*12,
 IF(OR($D475="Pré-Inscrito",$D475="Matriculado",$D475="Pré-inscrito"),(TODAY()-DATA.SAGA!$B475)/365*12,"*"))</f>
-        <v>15.87945205479452</v>
+        <v>16.142465753424656</v>
       </c>
       <c r="H475" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27232,7 +27242,7 @@
       <c r="G477" s="41">
         <f ca="1">IF($D477="Formado",(DATA.SAGA!$I477-DATA.SAGA!$B477)/365*12,
 IF(OR($D477="Pré-Inscrito",$D477="Matriculado",$D477="Pré-inscrito"),(TODAY()-DATA.SAGA!$B477)/365*12,"*"))</f>
-        <v>15.846575342465751</v>
+        <v>16.109589041095891</v>
       </c>
       <c r="H477" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27330,7 +27340,7 @@
       <c r="G479" s="41">
         <f ca="1">IF($D479="Formado",(DATA.SAGA!$I479-DATA.SAGA!$B479)/365*12,
 IF(OR($D479="Pré-Inscrito",$D479="Matriculado",$D479="Pré-inscrito"),(TODAY()-DATA.SAGA!$B479)/365*12,"*"))</f>
-        <v>15.813698630136987</v>
+        <v>16.076712328767123</v>
       </c>
       <c r="H479" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27477,7 +27487,7 @@
       <c r="G482" s="41">
         <f ca="1">IF($D482="Formado",(DATA.SAGA!$I482-DATA.SAGA!$B482)/365*12,
 IF(OR($D482="Pré-Inscrito",$D482="Matriculado",$D482="Pré-inscrito"),(TODAY()-DATA.SAGA!$B482)/365*12,"*"))</f>
-        <v>15.18904109589041</v>
+        <v>15.452054794520549</v>
       </c>
       <c r="H482" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27526,7 +27536,7 @@
       <c r="G483" s="41">
         <f ca="1">IF($D483="Formado",(DATA.SAGA!$I483-DATA.SAGA!$B483)/365*12,
 IF(OR($D483="Pré-Inscrito",$D483="Matriculado",$D483="Pré-inscrito"),(TODAY()-DATA.SAGA!$B483)/365*12,"*"))</f>
-        <v>9.7315068493150676</v>
+        <v>9.9945205479452053</v>
       </c>
       <c r="H483" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27575,7 +27585,7 @@
       <c r="G484" s="41">
         <f ca="1">IF($D484="Formado",(DATA.SAGA!$I484-DATA.SAGA!$B484)/365*12,
 IF(OR($D484="Pré-Inscrito",$D484="Matriculado",$D484="Pré-inscrito"),(TODAY()-DATA.SAGA!$B484)/365*12,"*"))</f>
-        <v>9.7315068493150676</v>
+        <v>9.9945205479452053</v>
       </c>
       <c r="H484" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27722,7 +27732,7 @@
       <c r="G487" s="41">
         <f ca="1">IF($D487="Formado",(DATA.SAGA!$I487-DATA.SAGA!$B487)/365*12,
 IF(OR($D487="Pré-Inscrito",$D487="Matriculado",$D487="Pré-inscrito"),(TODAY()-DATA.SAGA!$B487)/365*12,"*"))</f>
-        <v>9.7315068493150676</v>
+        <v>9.9945205479452053</v>
       </c>
       <c r="H487" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27771,7 +27781,7 @@
       <c r="G488" s="41">
         <f ca="1">IF($D488="Formado",(DATA.SAGA!$I488-DATA.SAGA!$B488)/365*12,
 IF(OR($D488="Pré-Inscrito",$D488="Matriculado",$D488="Pré-inscrito"),(TODAY()-DATA.SAGA!$B488)/365*12,"*"))</f>
-        <v>9.7315068493150676</v>
+        <v>9.9945205479452053</v>
       </c>
       <c r="H488" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27869,7 +27879,7 @@
       <c r="G490" s="41">
         <f ca="1">IF($D490="Formado",(DATA.SAGA!$I490-DATA.SAGA!$B490)/365*12,
 IF(OR($D490="Pré-Inscrito",$D490="Matriculado",$D490="Pré-inscrito"),(TODAY()-DATA.SAGA!$B490)/365*12,"*"))</f>
-        <v>9.7315068493150676</v>
+        <v>9.9945205479452053</v>
       </c>
       <c r="H490" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27918,7 +27928,7 @@
       <c r="G491" s="41">
         <f ca="1">IF($D491="Formado",(DATA.SAGA!$I491-DATA.SAGA!$B491)/365*12,
 IF(OR($D491="Pré-Inscrito",$D491="Matriculado",$D491="Pré-inscrito"),(TODAY()-DATA.SAGA!$B491)/365*12,"*"))</f>
-        <v>9.7315068493150676</v>
+        <v>9.9945205479452053</v>
       </c>
       <c r="H491" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27967,7 +27977,7 @@
       <c r="G492" s="41">
         <f ca="1">IF($D492="Formado",(DATA.SAGA!$I492-DATA.SAGA!$B492)/365*12,
 IF(OR($D492="Pré-Inscrito",$D492="Matriculado",$D492="Pré-inscrito"),(TODAY()-DATA.SAGA!$B492)/365*12,"*"))</f>
-        <v>9.7315068493150676</v>
+        <v>9.9945205479452053</v>
       </c>
       <c r="H492" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28016,7 +28026,7 @@
       <c r="G493" s="41">
         <f ca="1">IF($D493="Formado",(DATA.SAGA!$I493-DATA.SAGA!$B493)/365*12,
 IF(OR($D493="Pré-Inscrito",$D493="Matriculado",$D493="Pré-inscrito"),(TODAY()-DATA.SAGA!$B493)/365*12,"*"))</f>
-        <v>9.7315068493150676</v>
+        <v>9.9945205479452053</v>
       </c>
       <c r="H493" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28065,7 +28075,7 @@
       <c r="G494" s="41">
         <f ca="1">IF($D494="Formado",(DATA.SAGA!$I494-DATA.SAGA!$B494)/365*12,
 IF(OR($D494="Pré-Inscrito",$D494="Matriculado",$D494="Pré-inscrito"),(TODAY()-DATA.SAGA!$B494)/365*12,"*"))</f>
-        <v>9.7315068493150676</v>
+        <v>9.9945205479452053</v>
       </c>
       <c r="H494" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28114,7 +28124,7 @@
       <c r="G495" s="41">
         <f ca="1">IF($D495="Formado",(DATA.SAGA!$I495-DATA.SAGA!$B495)/365*12,
 IF(OR($D495="Pré-Inscrito",$D495="Matriculado",$D495="Pré-inscrito"),(TODAY()-DATA.SAGA!$B495)/365*12,"*"))</f>
-        <v>9.7315068493150676</v>
+        <v>9.9945205479452053</v>
       </c>
       <c r="H495" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28163,7 +28173,7 @@
       <c r="G496" s="41">
         <f ca="1">IF($D496="Formado",(DATA.SAGA!$I496-DATA.SAGA!$B496)/365*12,
 IF(OR($D496="Pré-Inscrito",$D496="Matriculado",$D496="Pré-inscrito"),(TODAY()-DATA.SAGA!$B496)/365*12,"*"))</f>
-        <v>9.7315068493150676</v>
+        <v>9.9945205479452053</v>
       </c>
       <c r="H496" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28212,7 +28222,7 @@
       <c r="G497" s="41">
         <f ca="1">IF($D497="Formado",(DATA.SAGA!$I497-DATA.SAGA!$B497)/365*12,
 IF(OR($D497="Pré-Inscrito",$D497="Matriculado",$D497="Pré-inscrito"),(TODAY()-DATA.SAGA!$B497)/365*12,"*"))</f>
-        <v>9.7315068493150676</v>
+        <v>9.9945205479452053</v>
       </c>
       <c r="H497" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28261,7 +28271,7 @@
       <c r="G498" s="41">
         <f ca="1">IF($D498="Formado",(DATA.SAGA!$I498-DATA.SAGA!$B498)/365*12,
 IF(OR($D498="Pré-Inscrito",$D498="Matriculado",$D498="Pré-inscrito"),(TODAY()-DATA.SAGA!$B498)/365*12,"*"))</f>
-        <v>9.7315068493150676</v>
+        <v>9.9945205479452053</v>
       </c>
       <c r="H498" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28310,7 +28320,7 @@
       <c r="G499" s="41">
         <f ca="1">IF($D499="Formado",(DATA.SAGA!$I499-DATA.SAGA!$B499)/365*12,
 IF(OR($D499="Pré-Inscrito",$D499="Matriculado",$D499="Pré-inscrito"),(TODAY()-DATA.SAGA!$B499)/365*12,"*"))</f>
-        <v>9.7315068493150676</v>
+        <v>9.9945205479452053</v>
       </c>
       <c r="H499" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28506,7 +28516,7 @@
       <c r="G503" s="41">
         <f ca="1">IF($D503="Formado",(DATA.SAGA!$I503-DATA.SAGA!$B503)/365*12,
 IF(OR($D503="Pré-Inscrito",$D503="Matriculado",$D503="Pré-inscrito"),(TODAY()-DATA.SAGA!$B503)/365*12,"*"))</f>
-        <v>9.7315068493150676</v>
+        <v>9.9945205479452053</v>
       </c>
       <c r="H503" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28555,7 +28565,7 @@
       <c r="G504" s="41">
         <f ca="1">IF($D504="Formado",(DATA.SAGA!$I504-DATA.SAGA!$B504)/365*12,
 IF(OR($D504="Pré-Inscrito",$D504="Matriculado",$D504="Pré-inscrito"),(TODAY()-DATA.SAGA!$B504)/365*12,"*"))</f>
-        <v>9.7315068493150676</v>
+        <v>9.9945205479452053</v>
       </c>
       <c r="H504" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28800,7 +28810,7 @@
       <c r="G509" s="41">
         <f ca="1">IF($D509="Formado",(DATA.SAGA!$I509-DATA.SAGA!$B509)/365*12,
 IF(OR($D509="Pré-Inscrito",$D509="Matriculado",$D509="Pré-inscrito"),(TODAY()-DATA.SAGA!$B509)/365*12,"*"))</f>
-        <v>5.7863013698630139</v>
+        <v>6.0493150684931507</v>
       </c>
       <c r="H509" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28849,7 +28859,7 @@
       <c r="G510" s="41">
         <f ca="1">IF($D510="Formado",(DATA.SAGA!$I510-DATA.SAGA!$B510)/365*12,
 IF(OR($D510="Pré-Inscrito",$D510="Matriculado",$D510="Pré-inscrito"),(TODAY()-DATA.SAGA!$B510)/365*12,"*"))</f>
-        <v>5.6876712328767125</v>
+        <v>5.9506849315068493</v>
       </c>
       <c r="H510" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28947,7 +28957,7 @@
       <c r="G512" s="41">
         <f ca="1">IF($D512="Formado",(DATA.SAGA!$I512-DATA.SAGA!$B512)/365*12,
 IF(OR($D512="Pré-Inscrito",$D512="Matriculado",$D512="Pré-inscrito"),(TODAY()-DATA.SAGA!$B512)/365*12,"*"))</f>
-        <v>5.6547945205479451</v>
+        <v>5.9178082191780819</v>
       </c>
       <c r="H512" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28996,7 +29006,7 @@
       <c r="G513" s="41">
         <f ca="1">IF($D513="Formado",(DATA.SAGA!$I513-DATA.SAGA!$B513)/365*12,
 IF(OR($D513="Pré-Inscrito",$D513="Matriculado",$D513="Pré-inscrito"),(TODAY()-DATA.SAGA!$B513)/365*12,"*"))</f>
-        <v>5.6547945205479451</v>
+        <v>5.9178082191780819</v>
       </c>
       <c r="H513" s="6" t="str">
         <f t="shared" si="7"/>
@@ -29045,7 +29055,7 @@
       <c r="G514" s="41">
         <f ca="1">IF($D514="Formado",(DATA.SAGA!$I514-DATA.SAGA!$B514)/365*12,
 IF(OR($D514="Pré-Inscrito",$D514="Matriculado",$D514="Pré-inscrito"),(TODAY()-DATA.SAGA!$B514)/365*12,"*"))</f>
-        <v>5.5890410958904102</v>
+        <v>5.8520547945205479</v>
       </c>
       <c r="H514" s="6" t="str">
         <f t="shared" si="7"/>
@@ -29094,7 +29104,7 @@
       <c r="G515" s="41">
         <f ca="1">IF($D515="Formado",(DATA.SAGA!$I515-DATA.SAGA!$B515)/365*12,
 IF(OR($D515="Pré-Inscrito",$D515="Matriculado",$D515="Pré-inscrito"),(TODAY()-DATA.SAGA!$B515)/365*12,"*"))</f>
-        <v>5.5890410958904102</v>
+        <v>5.8520547945205479</v>
       </c>
       <c r="H515" s="6" t="str">
         <f t="shared" ref="H515:H540" si="8">IF(AND(COUNTIF($B:$B,$B515)&gt;1,$A515="Doutorado"),"Sim","*")</f>
@@ -29143,7 +29153,7 @@
       <c r="G516" s="41">
         <f ca="1">IF($D516="Formado",(DATA.SAGA!$I516-DATA.SAGA!$B516)/365*12,
 IF(OR($D516="Pré-Inscrito",$D516="Matriculado",$D516="Pré-inscrito"),(TODAY()-DATA.SAGA!$B516)/365*12,"*"))</f>
-        <v>5.5561643835616437</v>
+        <v>5.8191780821917813</v>
       </c>
       <c r="H516" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29192,7 +29202,7 @@
       <c r="G517" s="41">
         <f ca="1">IF($D517="Formado",(DATA.SAGA!$I517-DATA.SAGA!$B517)/365*12,
 IF(OR($D517="Pré-Inscrito",$D517="Matriculado",$D517="Pré-inscrito"),(TODAY()-DATA.SAGA!$B517)/365*12,"*"))</f>
-        <v>5.5561643835616437</v>
+        <v>5.8191780821917813</v>
       </c>
       <c r="H517" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29241,7 +29251,7 @@
       <c r="G518" s="41">
         <f ca="1">IF($D518="Formado",(DATA.SAGA!$I518-DATA.SAGA!$B518)/365*12,
 IF(OR($D518="Pré-Inscrito",$D518="Matriculado",$D518="Pré-inscrito"),(TODAY()-DATA.SAGA!$B518)/365*12,"*"))</f>
-        <v>5.5561643835616437</v>
+        <v>5.8191780821917813</v>
       </c>
       <c r="H518" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29290,7 +29300,7 @@
       <c r="G519" s="41">
         <f ca="1">IF($D519="Formado",(DATA.SAGA!$I519-DATA.SAGA!$B519)/365*12,
 IF(OR($D519="Pré-Inscrito",$D519="Matriculado",$D519="Pré-inscrito"),(TODAY()-DATA.SAGA!$B519)/365*12,"*"))</f>
-        <v>5.5561643835616437</v>
+        <v>5.8191780821917813</v>
       </c>
       <c r="H519" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29339,7 +29349,7 @@
       <c r="G520" s="41">
         <f ca="1">IF($D520="Formado",(DATA.SAGA!$I520-DATA.SAGA!$B520)/365*12,
 IF(OR($D520="Pré-Inscrito",$D520="Matriculado",$D520="Pré-inscrito"),(TODAY()-DATA.SAGA!$B520)/365*12,"*"))</f>
-        <v>5.5561643835616437</v>
+        <v>5.8191780821917813</v>
       </c>
       <c r="H520" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29437,7 +29447,7 @@
       <c r="G522" s="41">
         <f ca="1">IF($D522="Formado",(DATA.SAGA!$I522-DATA.SAGA!$B522)/365*12,
 IF(OR($D522="Pré-Inscrito",$D522="Matriculado",$D522="Pré-inscrito"),(TODAY()-DATA.SAGA!$B522)/365*12,"*"))</f>
-        <v>5.5232876712328771</v>
+        <v>5.7863013698630139</v>
       </c>
       <c r="H522" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29486,7 +29496,7 @@
       <c r="G523" s="41">
         <f ca="1">IF($D523="Formado",(DATA.SAGA!$I523-DATA.SAGA!$B523)/365*12,
 IF(OR($D523="Pré-Inscrito",$D523="Matriculado",$D523="Pré-inscrito"),(TODAY()-DATA.SAGA!$B523)/365*12,"*"))</f>
-        <v>5.4904109589041097</v>
+        <v>5.7534246575342465</v>
       </c>
       <c r="H523" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29535,7 +29545,7 @@
       <c r="G524" s="41">
         <f ca="1">IF($D524="Formado",(DATA.SAGA!$I524-DATA.SAGA!$B524)/365*12,
 IF(OR($D524="Pré-Inscrito",$D524="Matriculado",$D524="Pré-inscrito"),(TODAY()-DATA.SAGA!$B524)/365*12,"*"))</f>
-        <v>5.2273972602739729</v>
+        <v>5.4904109589041097</v>
       </c>
       <c r="H524" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29633,7 +29643,7 @@
       <c r="G526" s="41">
         <f ca="1">IF($D526="Formado",(DATA.SAGA!$I526-DATA.SAGA!$B526)/365*12,
 IF(OR($D526="Pré-Inscrito",$D526="Matriculado",$D526="Pré-inscrito"),(TODAY()-DATA.SAGA!$B526)/365*12,"*"))</f>
-        <v>3.7150684931506852</v>
+        <v>3.978082191780822</v>
       </c>
       <c r="H526" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29682,7 +29692,7 @@
       <c r="G527" s="41">
         <f ca="1">IF($D527="Formado",(DATA.SAGA!$I527-DATA.SAGA!$B527)/365*12,
 IF(OR($D527="Pré-Inscrito",$D527="Matriculado",$D527="Pré-inscrito"),(TODAY()-DATA.SAGA!$B527)/365*12,"*"))</f>
-        <v>3.7150684931506852</v>
+        <v>3.978082191780822</v>
       </c>
       <c r="H527" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29731,7 +29741,7 @@
       <c r="G528" s="41">
         <f ca="1">IF($D528="Formado",(DATA.SAGA!$I528-DATA.SAGA!$B528)/365*12,
 IF(OR($D528="Pré-Inscrito",$D528="Matriculado",$D528="Pré-inscrito"),(TODAY()-DATA.SAGA!$B528)/365*12,"*"))</f>
-        <v>3.6164383561643834</v>
+        <v>3.8794520547945206</v>
       </c>
       <c r="H528" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29829,7 +29839,7 @@
       <c r="G530" s="41">
         <f ca="1">IF($D530="Formado",(DATA.SAGA!$I530-DATA.SAGA!$B530)/365*12,
 IF(OR($D530="Pré-Inscrito",$D530="Matriculado",$D530="Pré-inscrito"),(TODAY()-DATA.SAGA!$B530)/365*12,"*"))</f>
-        <v>3.4520547945205475</v>
+        <v>3.7150684931506852</v>
       </c>
       <c r="H530" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29878,7 +29888,7 @@
       <c r="G531" s="41">
         <f ca="1">IF($D531="Formado",(DATA.SAGA!$I531-DATA.SAGA!$B531)/365*12,
 IF(OR($D531="Pré-Inscrito",$D531="Matriculado",$D531="Pré-inscrito"),(TODAY()-DATA.SAGA!$B531)/365*12,"*"))</f>
-        <v>3.419178082191781</v>
+        <v>3.6821917808219178</v>
       </c>
       <c r="H531" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29927,7 +29937,7 @@
       <c r="G532" s="41">
         <f ca="1">IF($D532="Formado",(DATA.SAGA!$I532-DATA.SAGA!$B532)/365*12,
 IF(OR($D532="Pré-Inscrito",$D532="Matriculado",$D532="Pré-inscrito"),(TODAY()-DATA.SAGA!$B532)/365*12,"*"))</f>
-        <v>3.3863013698630136</v>
+        <v>3.6493150684931512</v>
       </c>
       <c r="H532" s="6" t="str">
         <f t="shared" si="8"/>
@@ -30025,7 +30035,7 @@
       <c r="G534" s="41">
         <f ca="1">IF($D534="Formado",(DATA.SAGA!$I534-DATA.SAGA!$B534)/365*12,
 IF(OR($D534="Pré-Inscrito",$D534="Matriculado",$D534="Pré-inscrito"),(TODAY()-DATA.SAGA!$B534)/365*12,"*"))</f>
-        <v>3.1890410958904112</v>
+        <v>3.4520547945205475</v>
       </c>
       <c r="H534" s="6" t="str">
         <f t="shared" si="8"/>
@@ -30123,7 +30133,7 @@
       <c r="G536" s="41">
         <f ca="1">IF($D536="Formado",(DATA.SAGA!$I536-DATA.SAGA!$B536)/365*12,
 IF(OR($D536="Pré-Inscrito",$D536="Matriculado",$D536="Pré-inscrito"),(TODAY()-DATA.SAGA!$B536)/365*12,"*"))</f>
-        <v>3.1890410958904112</v>
+        <v>3.4520547945205475</v>
       </c>
       <c r="H536" s="6" t="str">
         <f t="shared" si="8"/>
@@ -30172,7 +30182,7 @@
       <c r="G537" s="41">
         <f ca="1">IF($D537="Formado",(DATA.SAGA!$I537-DATA.SAGA!$B537)/365*12,
 IF(OR($D537="Pré-Inscrito",$D537="Matriculado",$D537="Pré-inscrito"),(TODAY()-DATA.SAGA!$B537)/365*12,"*"))</f>
-        <v>2.9917808219178084</v>
+        <v>3.2547945205479452</v>
       </c>
       <c r="H537" s="6" t="str">
         <f t="shared" si="8"/>
@@ -30221,7 +30231,7 @@
       <c r="G538" s="41">
         <f ca="1">IF($D538="Formado",(DATA.SAGA!$I538-DATA.SAGA!$B538)/365*12,
 IF(OR($D538="Pré-Inscrito",$D538="Matriculado",$D538="Pré-inscrito"),(TODAY()-DATA.SAGA!$B538)/365*12,"*"))</f>
-        <v>2.5643835616438357</v>
+        <v>2.8273972602739725</v>
       </c>
       <c r="H538" s="6" t="str">
         <f t="shared" si="8"/>
@@ -30270,7 +30280,7 @@
       <c r="G539" s="41">
         <f ca="1">IF($D539="Formado",(DATA.SAGA!$I539-DATA.SAGA!$B539)/365*12,
 IF(OR($D539="Pré-Inscrito",$D539="Matriculado",$D539="Pré-inscrito"),(TODAY()-DATA.SAGA!$B539)/365*12,"*"))</f>
-        <v>2.4986301369863013</v>
+        <v>2.7616438356164386</v>
       </c>
       <c r="H539" s="6" t="str">
         <f t="shared" si="8"/>
@@ -30319,7 +30329,7 @@
       <c r="G540" s="41">
         <f ca="1">IF($D540="Formado",(DATA.SAGA!$I540-DATA.SAGA!$B540)/365*12,
 IF(OR($D540="Pré-Inscrito",$D540="Matriculado",$D540="Pré-inscrito"),(TODAY()-DATA.SAGA!$B540)/365*12,"*"))</f>
-        <v>2.2356164383561645</v>
+        <v>2.4986301369863013</v>
       </c>
       <c r="H540" s="6" t="str">
         <f t="shared" si="8"/>
@@ -51723,10 +51733,12 @@
         <v>17</v>
       </c>
       <c r="G360" s="17"/>
-      <c r="H360" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I360" s="17"/>
+      <c r="H360" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I360" s="18">
+        <v>45107</v>
+      </c>
       <c r="J360" s="17" t="s">
         <v>449</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD195FF-8BAF-904D-8589-D28011751134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4137FD-3960-3447-BB49-E2709FC85BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3205,11 +3205,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3486,78 +3507,99 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="26" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3566,55 +3608,43 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="26" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -18716,7 +18746,7 @@
       <c r="G303" s="41">
         <f ca="1">IF($D303="Formado",(DATA.SAGA!$I303-DATA.SAGA!$B303)/365*12,
 IF(OR($D303="Pré-Inscrito",$D303="Matriculado",$D303="Pré-inscrito"),(TODAY()-DATA.SAGA!$B303)/365*12,"*"))</f>
-        <v>46.520547945205479</v>
+        <v>46.717808219178082</v>
       </c>
       <c r="H303" s="6" t="str">
         <f t="shared" si="4"/>
@@ -19059,7 +19089,7 @@
       <c r="G310" s="41">
         <f ca="1">IF($D310="Formado",(DATA.SAGA!$I310-DATA.SAGA!$B310)/365*12,
 IF(OR($D310="Pré-Inscrito",$D310="Matriculado",$D310="Pré-inscrito"),(TODAY()-DATA.SAGA!$B310)/365*12,"*"))</f>
-        <v>46.027397260273972</v>
+        <v>46.224657534246575</v>
       </c>
       <c r="H310" s="6" t="str">
         <f t="shared" si="4"/>
@@ -19500,7 +19530,7 @@
       <c r="G319" s="41">
         <f ca="1">IF($D319="Formado",(DATA.SAGA!$I319-DATA.SAGA!$B319)/365*12,
 IF(OR($D319="Pré-Inscrito",$D319="Matriculado",$D319="Pré-inscrito"),(TODAY()-DATA.SAGA!$B319)/365*12,"*"))</f>
-        <v>42.641095890410959</v>
+        <v>42.838356164383562</v>
       </c>
       <c r="H319" s="6" t="str">
         <f t="shared" si="4"/>
@@ -19549,7 +19579,7 @@
       <c r="G320" s="41">
         <f ca="1">IF($D320="Formado",(DATA.SAGA!$I320-DATA.SAGA!$B320)/365*12,
 IF(OR($D320="Pré-Inscrito",$D320="Matriculado",$D320="Pré-inscrito"),(TODAY()-DATA.SAGA!$B320)/365*12,"*"))</f>
-        <v>42.641095890410959</v>
+        <v>42.838356164383562</v>
       </c>
       <c r="H320" s="6" t="str">
         <f t="shared" si="4"/>
@@ -19598,7 +19628,7 @@
       <c r="G321" s="41">
         <f ca="1">IF($D321="Formado",(DATA.SAGA!$I321-DATA.SAGA!$B321)/365*12,
 IF(OR($D321="Pré-Inscrito",$D321="Matriculado",$D321="Pré-inscrito"),(TODAY()-DATA.SAGA!$B321)/365*12,"*"))</f>
-        <v>42.641095890410959</v>
+        <v>42.838356164383562</v>
       </c>
       <c r="H321" s="6" t="str">
         <f t="shared" si="4"/>
@@ -19647,7 +19677,7 @@
       <c r="G322" s="41">
         <f ca="1">IF($D322="Formado",(DATA.SAGA!$I322-DATA.SAGA!$B322)/365*12,
 IF(OR($D322="Pré-Inscrito",$D322="Matriculado",$D322="Pré-inscrito"),(TODAY()-DATA.SAGA!$B322)/365*12,"*"))</f>
-        <v>42.641095890410959</v>
+        <v>42.838356164383562</v>
       </c>
       <c r="H322" s="6" t="str">
         <f t="shared" si="4"/>
@@ -19696,7 +19726,7 @@
       <c r="G323" s="41">
         <f ca="1">IF($D323="Formado",(DATA.SAGA!$I323-DATA.SAGA!$B323)/365*12,
 IF(OR($D323="Pré-Inscrito",$D323="Matriculado",$D323="Pré-inscrito"),(TODAY()-DATA.SAGA!$B323)/365*12,"*"))</f>
-        <v>42.641095890410959</v>
+        <v>42.838356164383562</v>
       </c>
       <c r="H323" s="6" t="str">
         <f t="shared" ref="H323:H386" si="5">IF(AND(COUNTIF($B:$B,$B323)&gt;1,$A323="Doutorado"),"Sim","*")</f>
@@ -19745,7 +19775,7 @@
       <c r="G324" s="41">
         <f ca="1">IF($D324="Formado",(DATA.SAGA!$I324-DATA.SAGA!$B324)/365*12,
 IF(OR($D324="Pré-Inscrito",$D324="Matriculado",$D324="Pré-inscrito"),(TODAY()-DATA.SAGA!$B324)/365*12,"*"))</f>
-        <v>42.641095890410959</v>
+        <v>42.838356164383562</v>
       </c>
       <c r="H324" s="6" t="str">
         <f t="shared" si="5"/>
@@ -19794,7 +19824,7 @@
       <c r="G325" s="41">
         <f ca="1">IF($D325="Formado",(DATA.SAGA!$I325-DATA.SAGA!$B325)/365*12,
 IF(OR($D325="Pré-Inscrito",$D325="Matriculado",$D325="Pré-inscrito"),(TODAY()-DATA.SAGA!$B325)/365*12,"*"))</f>
-        <v>42.641095890410959</v>
+        <v>42.838356164383562</v>
       </c>
       <c r="H325" s="6" t="str">
         <f t="shared" si="5"/>
@@ -19892,7 +19922,7 @@
       <c r="G327" s="41">
         <f ca="1">IF($D327="Formado",(DATA.SAGA!$I327-DATA.SAGA!$B327)/365*12,
 IF(OR($D327="Pré-Inscrito",$D327="Matriculado",$D327="Pré-inscrito"),(TODAY()-DATA.SAGA!$B327)/365*12,"*"))</f>
-        <v>42.641095890410959</v>
+        <v>42.838356164383562</v>
       </c>
       <c r="H327" s="6" t="str">
         <f t="shared" si="5"/>
@@ -19941,7 +19971,7 @@
       <c r="G328" s="41">
         <f ca="1">IF($D328="Formado",(DATA.SAGA!$I328-DATA.SAGA!$B328)/365*12,
 IF(OR($D328="Pré-Inscrito",$D328="Matriculado",$D328="Pré-inscrito"),(TODAY()-DATA.SAGA!$B328)/365*12,"*"))</f>
-        <v>42.641095890410959</v>
+        <v>42.838356164383562</v>
       </c>
       <c r="H328" s="6" t="str">
         <f t="shared" si="5"/>
@@ -19990,7 +20020,7 @@
       <c r="G329" s="41">
         <f ca="1">IF($D329="Formado",(DATA.SAGA!$I329-DATA.SAGA!$B329)/365*12,
 IF(OR($D329="Pré-Inscrito",$D329="Matriculado",$D329="Pré-inscrito"),(TODAY()-DATA.SAGA!$B329)/365*12,"*"))</f>
-        <v>42.641095890410959</v>
+        <v>42.838356164383562</v>
       </c>
       <c r="H329" s="6" t="str">
         <f t="shared" si="5"/>
@@ -20431,7 +20461,7 @@
       <c r="G338" s="41">
         <f ca="1">IF($D338="Formado",(DATA.SAGA!$I338-DATA.SAGA!$B338)/365*12,
 IF(OR($D338="Pré-Inscrito",$D338="Matriculado",$D338="Pré-inscrito"),(TODAY()-DATA.SAGA!$B338)/365*12,"*"))</f>
-        <v>40.010958904109593</v>
+        <v>40.208219178082189</v>
       </c>
       <c r="H338" s="6" t="str">
         <f t="shared" si="5"/>
@@ -20725,7 +20755,7 @@
       <c r="G344" s="41">
         <f ca="1">IF($D344="Formado",(DATA.SAGA!$I344-DATA.SAGA!$B344)/365*12,
 IF(OR($D344="Pré-Inscrito",$D344="Matriculado",$D344="Pré-inscrito"),(TODAY()-DATA.SAGA!$B344)/365*12,"*"))</f>
-        <v>39.912328767123284</v>
+        <v>40.109589041095887</v>
       </c>
       <c r="H344" s="6" t="str">
         <f t="shared" si="5"/>
@@ -20921,7 +20951,7 @@
       <c r="G348" s="41">
         <f ca="1">IF($D348="Formado",(DATA.SAGA!$I348-DATA.SAGA!$B348)/365*12,
 IF(OR($D348="Pré-Inscrito",$D348="Matriculado",$D348="Pré-inscrito"),(TODAY()-DATA.SAGA!$B348)/365*12,"*"))</f>
-        <v>38.663013698630138</v>
+        <v>38.860273972602741</v>
       </c>
       <c r="H348" s="6" t="str">
         <f t="shared" si="5"/>
@@ -20970,7 +21000,7 @@
       <c r="G349" s="41">
         <f ca="1">IF($D349="Formado",(DATA.SAGA!$I349-DATA.SAGA!$B349)/365*12,
 IF(OR($D349="Pré-Inscrito",$D349="Matriculado",$D349="Pré-inscrito"),(TODAY()-DATA.SAGA!$B349)/365*12,"*"))</f>
-        <v>37.249315068493146</v>
+        <v>37.446575342465749</v>
       </c>
       <c r="H349" s="6" t="str">
         <f t="shared" si="5"/>
@@ -21558,7 +21588,7 @@
       <c r="G361" s="41">
         <f ca="1">IF($D361="Formado",(DATA.SAGA!$I361-DATA.SAGA!$B361)/365*12,
 IF(OR($D361="Pré-Inscrito",$D361="Matriculado",$D361="Pré-inscrito"),(TODAY()-DATA.SAGA!$B361)/365*12,"*"))</f>
-        <v>34.158904109589045</v>
+        <v>34.356164383561641</v>
       </c>
       <c r="H361" s="6" t="str">
         <f t="shared" si="5"/>
@@ -21901,7 +21931,7 @@
       <c r="G368" s="41">
         <f ca="1">IF($D368="Formado",(DATA.SAGA!$I368-DATA.SAGA!$B368)/365*12,
 IF(OR($D368="Pré-Inscrito",$D368="Matriculado",$D368="Pré-inscrito"),(TODAY()-DATA.SAGA!$B368)/365*12,"*"))</f>
-        <v>34.093150684931508</v>
+        <v>34.290410958904111</v>
       </c>
       <c r="H368" s="6" t="str">
         <f t="shared" si="5"/>
@@ -22489,7 +22519,7 @@
       <c r="G380" s="41">
         <f ca="1">IF($D380="Formado",(DATA.SAGA!$I380-DATA.SAGA!$B380)/365*12,
 IF(OR($D380="Pré-Inscrito",$D380="Matriculado",$D380="Pré-inscrito"),(TODAY()-DATA.SAGA!$B380)/365*12,"*"))</f>
-        <v>34.027397260273972</v>
+        <v>34.224657534246575</v>
       </c>
       <c r="H380" s="6" t="str">
         <f t="shared" si="5"/>
@@ -22636,7 +22666,7 @@
       <c r="G383" s="41">
         <f ca="1">IF($D383="Formado",(DATA.SAGA!$I383-DATA.SAGA!$B383)/365*12,
 IF(OR($D383="Pré-Inscrito",$D383="Matriculado",$D383="Pré-inscrito"),(TODAY()-DATA.SAGA!$B383)/365*12,"*"))</f>
-        <v>34.027397260273972</v>
+        <v>34.224657534246575</v>
       </c>
       <c r="H383" s="6" t="str">
         <f t="shared" si="5"/>
@@ -22685,7 +22715,7 @@
       <c r="G384" s="41">
         <f ca="1">IF($D384="Formado",(DATA.SAGA!$I384-DATA.SAGA!$B384)/365*12,
 IF(OR($D384="Pré-Inscrito",$D384="Matriculado",$D384="Pré-inscrito"),(TODAY()-DATA.SAGA!$B384)/365*12,"*"))</f>
-        <v>34.027397260273972</v>
+        <v>34.224657534246575</v>
       </c>
       <c r="H384" s="6" t="str">
         <f t="shared" si="5"/>
@@ -22881,7 +22911,7 @@
       <c r="G388" s="41">
         <f ca="1">IF($D388="Formado",(DATA.SAGA!$I388-DATA.SAGA!$B388)/365*12,
 IF(OR($D388="Pré-Inscrito",$D388="Matriculado",$D388="Pré-inscrito"),(TODAY()-DATA.SAGA!$B388)/365*12,"*"))</f>
-        <v>33.92876712328767</v>
+        <v>34.126027397260273</v>
       </c>
       <c r="H388" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23077,7 +23107,7 @@
       <c r="G392" s="41">
         <f ca="1">IF($D392="Formado",(DATA.SAGA!$I392-DATA.SAGA!$B392)/365*12,
 IF(OR($D392="Pré-Inscrito",$D392="Matriculado",$D392="Pré-inscrito"),(TODAY()-DATA.SAGA!$B392)/365*12,"*"))</f>
-        <v>29.983561643835614</v>
+        <v>30.18082191780822</v>
       </c>
       <c r="H392" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23126,7 +23156,7 @@
       <c r="G393" s="41">
         <f ca="1">IF($D393="Formado",(DATA.SAGA!$I393-DATA.SAGA!$B393)/365*12,
 IF(OR($D393="Pré-Inscrito",$D393="Matriculado",$D393="Pré-inscrito"),(TODAY()-DATA.SAGA!$B393)/365*12,"*"))</f>
-        <v>29.950684931506849</v>
+        <v>30.147945205479452</v>
       </c>
       <c r="H393" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23175,7 +23205,7 @@
       <c r="G394" s="41">
         <f ca="1">IF($D394="Formado",(DATA.SAGA!$I394-DATA.SAGA!$B394)/365*12,
 IF(OR($D394="Pré-Inscrito",$D394="Matriculado",$D394="Pré-inscrito"),(TODAY()-DATA.SAGA!$B394)/365*12,"*"))</f>
-        <v>29.950684931506849</v>
+        <v>30.147945205479452</v>
       </c>
       <c r="H394" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23224,7 +23254,7 @@
       <c r="G395" s="41">
         <f ca="1">IF($D395="Formado",(DATA.SAGA!$I395-DATA.SAGA!$B395)/365*12,
 IF(OR($D395="Pré-Inscrito",$D395="Matriculado",$D395="Pré-inscrito"),(TODAY()-DATA.SAGA!$B395)/365*12,"*"))</f>
-        <v>29.950684931506849</v>
+        <v>30.147945205479452</v>
       </c>
       <c r="H395" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23322,7 +23352,7 @@
       <c r="G397" s="41">
         <f ca="1">IF($D397="Formado",(DATA.SAGA!$I397-DATA.SAGA!$B397)/365*12,
 IF(OR($D397="Pré-Inscrito",$D397="Matriculado",$D397="Pré-inscrito"),(TODAY()-DATA.SAGA!$B397)/365*12,"*"))</f>
-        <v>29.950684931506849</v>
+        <v>30.147945205479452</v>
       </c>
       <c r="H397" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23420,7 +23450,7 @@
       <c r="G399" s="41">
         <f ca="1">IF($D399="Formado",(DATA.SAGA!$I399-DATA.SAGA!$B399)/365*12,
 IF(OR($D399="Pré-Inscrito",$D399="Matriculado",$D399="Pré-inscrito"),(TODAY()-DATA.SAGA!$B399)/365*12,"*"))</f>
-        <v>29.884931506849316</v>
+        <v>30.082191780821915</v>
       </c>
       <c r="H399" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23518,7 +23548,7 @@
       <c r="G401" s="41">
         <f ca="1">IF($D401="Formado",(DATA.SAGA!$I401-DATA.SAGA!$B401)/365*12,
 IF(OR($D401="Pré-Inscrito",$D401="Matriculado",$D401="Pré-inscrito"),(TODAY()-DATA.SAGA!$B401)/365*12,"*"))</f>
-        <v>29.884931506849316</v>
+        <v>30.082191780821915</v>
       </c>
       <c r="H401" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23567,7 +23597,7 @@
       <c r="G402" s="41">
         <f ca="1">IF($D402="Formado",(DATA.SAGA!$I402-DATA.SAGA!$B402)/365*12,
 IF(OR($D402="Pré-Inscrito",$D402="Matriculado",$D402="Pré-inscrito"),(TODAY()-DATA.SAGA!$B402)/365*12,"*"))</f>
-        <v>29.753424657534246</v>
+        <v>29.950684931506849</v>
       </c>
       <c r="H402" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23665,7 +23695,7 @@
       <c r="G404" s="41">
         <f ca="1">IF($D404="Formado",(DATA.SAGA!$I404-DATA.SAGA!$B404)/365*12,
 IF(OR($D404="Pré-Inscrito",$D404="Matriculado",$D404="Pré-inscrito"),(TODAY()-DATA.SAGA!$B404)/365*12,"*"))</f>
-        <v>27.419178082191785</v>
+        <v>27.61643835616438</v>
       </c>
       <c r="H404" s="6" t="str">
         <f t="shared" si="6"/>
@@ -23763,7 +23793,7 @@
       <c r="G406" s="41">
         <f ca="1">IF($D406="Formado",(DATA.SAGA!$I406-DATA.SAGA!$B406)/365*12,
 IF(OR($D406="Pré-Inscrito",$D406="Matriculado",$D406="Pré-inscrito"),(TODAY()-DATA.SAGA!$B406)/365*12,"*"))</f>
-        <v>27.419178082191785</v>
+        <v>27.61643835616438</v>
       </c>
       <c r="H406" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24106,7 +24136,7 @@
       <c r="G413" s="41">
         <f ca="1">IF($D413="Formado",(DATA.SAGA!$I413-DATA.SAGA!$B413)/365*12,
 IF(OR($D413="Pré-Inscrito",$D413="Matriculado",$D413="Pré-inscrito"),(TODAY()-DATA.SAGA!$B413)/365*12,"*"))</f>
-        <v>27.386301369863013</v>
+        <v>27.583561643835619</v>
       </c>
       <c r="H413" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24253,7 +24283,7 @@
       <c r="G416" s="41">
         <f ca="1">IF($D416="Formado",(DATA.SAGA!$I416-DATA.SAGA!$B416)/365*12,
 IF(OR($D416="Pré-Inscrito",$D416="Matriculado",$D416="Pré-inscrito"),(TODAY()-DATA.SAGA!$B416)/365*12,"*"))</f>
-        <v>27.353424657534248</v>
+        <v>27.550684931506851</v>
       </c>
       <c r="H416" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24302,7 +24332,7 @@
       <c r="G417" s="41">
         <f ca="1">IF($D417="Formado",(DATA.SAGA!$I417-DATA.SAGA!$B417)/365*12,
 IF(OR($D417="Pré-Inscrito",$D417="Matriculado",$D417="Pré-inscrito"),(TODAY()-DATA.SAGA!$B417)/365*12,"*"))</f>
-        <v>27.353424657534248</v>
+        <v>27.550684931506851</v>
       </c>
       <c r="H417" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24400,7 +24430,7 @@
       <c r="G419" s="41">
         <f ca="1">IF($D419="Formado",(DATA.SAGA!$I419-DATA.SAGA!$B419)/365*12,
 IF(OR($D419="Pré-Inscrito",$D419="Matriculado",$D419="Pré-inscrito"),(TODAY()-DATA.SAGA!$B419)/365*12,"*"))</f>
-        <v>27.320547945205476</v>
+        <v>27.517808219178082</v>
       </c>
       <c r="H419" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24449,7 +24479,7 @@
       <c r="G420" s="41">
         <f ca="1">IF($D420="Formado",(DATA.SAGA!$I420-DATA.SAGA!$B420)/365*12,
 IF(OR($D420="Pré-Inscrito",$D420="Matriculado",$D420="Pré-inscrito"),(TODAY()-DATA.SAGA!$B420)/365*12,"*"))</f>
-        <v>27.320547945205476</v>
+        <v>27.517808219178082</v>
       </c>
       <c r="H420" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24498,7 +24528,7 @@
       <c r="G421" s="41">
         <f ca="1">IF($D421="Formado",(DATA.SAGA!$I421-DATA.SAGA!$B421)/365*12,
 IF(OR($D421="Pré-Inscrito",$D421="Matriculado",$D421="Pré-inscrito"),(TODAY()-DATA.SAGA!$B421)/365*12,"*"))</f>
-        <v>27.320547945205476</v>
+        <v>27.517808219178082</v>
       </c>
       <c r="H421" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24583,20 +24613,20 @@
       </c>
       <c r="D423" s="5" t="str">
         <f>DATA.SAGA!$H423</f>
-        <v>Matriculado</v>
+        <v>Formado</v>
       </c>
       <c r="E423" s="5" t="str">
         <f>IF(DATA.SAGA!J423="","*",DATA.SAGA!J423)</f>
         <v>RJ</v>
       </c>
-      <c r="F423" s="5" t="str">
+      <c r="F423" s="5">
         <f>IF(DATA.SAGA!$I423="","*",YEAR(DATA.SAGA!$I423))</f>
-        <v>*</v>
+        <v>2023</v>
       </c>
       <c r="G423" s="41">
         <f ca="1">IF($D423="Formado",(DATA.SAGA!$I423-DATA.SAGA!$B423)/365*12,
 IF(OR($D423="Pré-Inscrito",$D423="Matriculado",$D423="Pré-inscrito"),(TODAY()-DATA.SAGA!$B423)/365*12,"*"))</f>
-        <v>26.695890410958906</v>
+        <v>26.860273972602737</v>
       </c>
       <c r="H423" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24681,20 +24711,20 @@
       </c>
       <c r="D425" s="5" t="str">
         <f>DATA.SAGA!$H425</f>
-        <v>Matriculado</v>
+        <v>Formado</v>
       </c>
       <c r="E425" s="5" t="str">
         <f>IF(DATA.SAGA!J425="","*",DATA.SAGA!J425)</f>
         <v>MA</v>
       </c>
-      <c r="F425" s="5" t="str">
+      <c r="F425" s="5">
         <f>IF(DATA.SAGA!$I425="","*",YEAR(DATA.SAGA!$I425))</f>
-        <v>*</v>
+        <v>2023</v>
       </c>
       <c r="G425" s="41">
         <f ca="1">IF($D425="Formado",(DATA.SAGA!$I425-DATA.SAGA!$B425)/365*12,
 IF(OR($D425="Pré-Inscrito",$D425="Matriculado",$D425="Pré-inscrito"),(TODAY()-DATA.SAGA!$B425)/365*12,"*"))</f>
-        <v>26.663013698630138</v>
+        <v>27.024657534246572</v>
       </c>
       <c r="H425" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24743,7 +24773,7 @@
       <c r="G426" s="41">
         <f ca="1">IF($D426="Formado",(DATA.SAGA!$I426-DATA.SAGA!$B426)/365*12,
 IF(OR($D426="Pré-Inscrito",$D426="Matriculado",$D426="Pré-inscrito"),(TODAY()-DATA.SAGA!$B426)/365*12,"*"))</f>
-        <v>26.663013698630138</v>
+        <v>26.860273972602737</v>
       </c>
       <c r="H426" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24792,7 +24822,7 @@
       <c r="G427" s="41">
         <f ca="1">IF($D427="Formado",(DATA.SAGA!$I427-DATA.SAGA!$B427)/365*12,
 IF(OR($D427="Pré-Inscrito",$D427="Matriculado",$D427="Pré-inscrito"),(TODAY()-DATA.SAGA!$B427)/365*12,"*"))</f>
-        <v>26.564383561643833</v>
+        <v>26.761643835616439</v>
       </c>
       <c r="H427" s="6" t="str">
         <f t="shared" si="6"/>
@@ -24841,7 +24871,7 @@
       <c r="G428" s="41">
         <f ca="1">IF($D428="Formado",(DATA.SAGA!$I428-DATA.SAGA!$B428)/365*12,
 IF(OR($D428="Pré-Inscrito",$D428="Matriculado",$D428="Pré-inscrito"),(TODAY()-DATA.SAGA!$B428)/365*12,"*"))</f>
-        <v>26.564383561643833</v>
+        <v>26.761643835616439</v>
       </c>
       <c r="H428" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25135,7 +25165,7 @@
       <c r="G434" s="41">
         <f ca="1">IF($D434="Formado",(DATA.SAGA!$I434-DATA.SAGA!$B434)/365*12,
 IF(OR($D434="Pré-Inscrito",$D434="Matriculado",$D434="Pré-inscrito"),(TODAY()-DATA.SAGA!$B434)/365*12,"*"))</f>
-        <v>26.268493150684929</v>
+        <v>26.465753424657535</v>
       </c>
       <c r="H434" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25184,7 +25214,7 @@
       <c r="G435" s="41">
         <f ca="1">IF($D435="Formado",(DATA.SAGA!$I435-DATA.SAGA!$B435)/365*12,
 IF(OR($D435="Pré-Inscrito",$D435="Matriculado",$D435="Pré-inscrito"),(TODAY()-DATA.SAGA!$B435)/365*12,"*"))</f>
-        <v>24.394520547945206</v>
+        <v>24.591780821917808</v>
       </c>
       <c r="H435" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25233,7 +25263,7 @@
       <c r="G436" s="41">
         <f ca="1">IF($D436="Formado",(DATA.SAGA!$I436-DATA.SAGA!$B436)/365*12,
 IF(OR($D436="Pré-Inscrito",$D436="Matriculado",$D436="Pré-inscrito"),(TODAY()-DATA.SAGA!$B436)/365*12,"*"))</f>
-        <v>22.126027397260273</v>
+        <v>22.323287671232876</v>
       </c>
       <c r="H436" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25282,7 +25312,7 @@
       <c r="G437" s="41">
         <f ca="1">IF($D437="Formado",(DATA.SAGA!$I437-DATA.SAGA!$B437)/365*12,
 IF(OR($D437="Pré-Inscrito",$D437="Matriculado",$D437="Pré-inscrito"),(TODAY()-DATA.SAGA!$B437)/365*12,"*"))</f>
-        <v>22.126027397260273</v>
+        <v>22.323287671232876</v>
       </c>
       <c r="H437" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25380,7 +25410,7 @@
       <c r="G439" s="41">
         <f ca="1">IF($D439="Formado",(DATA.SAGA!$I439-DATA.SAGA!$B439)/365*12,
 IF(OR($D439="Pré-Inscrito",$D439="Matriculado",$D439="Pré-inscrito"),(TODAY()-DATA.SAGA!$B439)/365*12,"*"))</f>
-        <v>22.126027397260273</v>
+        <v>22.323287671232876</v>
       </c>
       <c r="H439" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25429,7 +25459,7 @@
       <c r="G440" s="41">
         <f ca="1">IF($D440="Formado",(DATA.SAGA!$I440-DATA.SAGA!$B440)/365*12,
 IF(OR($D440="Pré-Inscrito",$D440="Matriculado",$D440="Pré-inscrito"),(TODAY()-DATA.SAGA!$B440)/365*12,"*"))</f>
-        <v>22.126027397260273</v>
+        <v>22.323287671232876</v>
       </c>
       <c r="H440" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25478,7 +25508,7 @@
       <c r="G441" s="41">
         <f ca="1">IF($D441="Formado",(DATA.SAGA!$I441-DATA.SAGA!$B441)/365*12,
 IF(OR($D441="Pré-Inscrito",$D441="Matriculado",$D441="Pré-inscrito"),(TODAY()-DATA.SAGA!$B441)/365*12,"*"))</f>
-        <v>22.126027397260273</v>
+        <v>22.323287671232876</v>
       </c>
       <c r="H441" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25527,7 +25557,7 @@
       <c r="G442" s="41">
         <f ca="1">IF($D442="Formado",(DATA.SAGA!$I442-DATA.SAGA!$B442)/365*12,
 IF(OR($D442="Pré-Inscrito",$D442="Matriculado",$D442="Pré-inscrito"),(TODAY()-DATA.SAGA!$B442)/365*12,"*"))</f>
-        <v>22.126027397260273</v>
+        <v>22.323287671232876</v>
       </c>
       <c r="H442" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25576,7 +25606,7 @@
       <c r="G443" s="41">
         <f ca="1">IF($D443="Formado",(DATA.SAGA!$I443-DATA.SAGA!$B443)/365*12,
 IF(OR($D443="Pré-Inscrito",$D443="Matriculado",$D443="Pré-inscrito"),(TODAY()-DATA.SAGA!$B443)/365*12,"*"))</f>
-        <v>22.126027397260273</v>
+        <v>22.323287671232876</v>
       </c>
       <c r="H443" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25674,7 +25704,7 @@
       <c r="G445" s="41">
         <f ca="1">IF($D445="Formado",(DATA.SAGA!$I445-DATA.SAGA!$B445)/365*12,
 IF(OR($D445="Pré-Inscrito",$D445="Matriculado",$D445="Pré-inscrito"),(TODAY()-DATA.SAGA!$B445)/365*12,"*"))</f>
-        <v>22.126027397260273</v>
+        <v>22.323287671232876</v>
       </c>
       <c r="H445" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25808,20 +25838,20 @@
       </c>
       <c r="D448" s="5" t="str">
         <f>DATA.SAGA!$H448</f>
-        <v>Matriculado</v>
+        <v>Formado</v>
       </c>
       <c r="E448" s="5" t="str">
         <f>IF(DATA.SAGA!J448="","*",DATA.SAGA!J448)</f>
         <v>RJ</v>
       </c>
-      <c r="F448" s="5" t="str">
+      <c r="F448" s="5">
         <f>IF(DATA.SAGA!$I448="","*",YEAR(DATA.SAGA!$I448))</f>
-        <v>*</v>
+        <v>2023</v>
       </c>
       <c r="G448" s="41">
         <f ca="1">IF($D448="Formado",(DATA.SAGA!$I448-DATA.SAGA!$B448)/365*12,
 IF(OR($D448="Pré-Inscrito",$D448="Matriculado",$D448="Pré-inscrito"),(TODAY()-DATA.SAGA!$B448)/365*12,"*"))</f>
-        <v>22.06027397260274</v>
+        <v>22.224657534246575</v>
       </c>
       <c r="H448" s="6" t="str">
         <f t="shared" si="6"/>
@@ -25968,7 +25998,7 @@
       <c r="G451" s="41">
         <f ca="1">IF($D451="Formado",(DATA.SAGA!$I451-DATA.SAGA!$B451)/365*12,
 IF(OR($D451="Pré-Inscrito",$D451="Matriculado",$D451="Pré-inscrito"),(TODAY()-DATA.SAGA!$B451)/365*12,"*"))</f>
-        <v>22.06027397260274</v>
+        <v>22.257534246575343</v>
       </c>
       <c r="H451" s="6" t="str">
         <f t="shared" ref="H451:H514" si="7">IF(AND(COUNTIF($B:$B,$B451)&gt;1,$A451="Doutorado"),"Sim","*")</f>
@@ -26017,7 +26047,7 @@
       <c r="G452" s="41">
         <f ca="1">IF($D452="Formado",(DATA.SAGA!$I452-DATA.SAGA!$B452)/365*12,
 IF(OR($D452="Pré-Inscrito",$D452="Matriculado",$D452="Pré-inscrito"),(TODAY()-DATA.SAGA!$B452)/365*12,"*"))</f>
-        <v>22.06027397260274</v>
+        <v>22.257534246575343</v>
       </c>
       <c r="H452" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26066,7 +26096,7 @@
       <c r="G453" s="41">
         <f ca="1">IF($D453="Formado",(DATA.SAGA!$I453-DATA.SAGA!$B453)/365*12,
 IF(OR($D453="Pré-Inscrito",$D453="Matriculado",$D453="Pré-inscrito"),(TODAY()-DATA.SAGA!$B453)/365*12,"*"))</f>
-        <v>22.06027397260274</v>
+        <v>22.257534246575343</v>
       </c>
       <c r="H453" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26115,7 +26145,7 @@
       <c r="G454" s="41">
         <f ca="1">IF($D454="Formado",(DATA.SAGA!$I454-DATA.SAGA!$B454)/365*12,
 IF(OR($D454="Pré-Inscrito",$D454="Matriculado",$D454="Pré-inscrito"),(TODAY()-DATA.SAGA!$B454)/365*12,"*"))</f>
-        <v>22.06027397260274</v>
+        <v>22.257534246575343</v>
       </c>
       <c r="H454" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26213,7 +26243,7 @@
       <c r="G456" s="41">
         <f ca="1">IF($D456="Formado",(DATA.SAGA!$I456-DATA.SAGA!$B456)/365*12,
 IF(OR($D456="Pré-Inscrito",$D456="Matriculado",$D456="Pré-inscrito"),(TODAY()-DATA.SAGA!$B456)/365*12,"*"))</f>
-        <v>16.405479452054795</v>
+        <v>16.602739726027398</v>
       </c>
       <c r="H456" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26262,7 +26292,7 @@
       <c r="G457" s="41">
         <f ca="1">IF($D457="Formado",(DATA.SAGA!$I457-DATA.SAGA!$B457)/365*12,
 IF(OR($D457="Pré-Inscrito",$D457="Matriculado",$D457="Pré-inscrito"),(TODAY()-DATA.SAGA!$B457)/365*12,"*"))</f>
-        <v>16.372602739726027</v>
+        <v>16.56986301369863</v>
       </c>
       <c r="H457" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26311,7 +26341,7 @@
       <c r="G458" s="41">
         <f ca="1">IF($D458="Formado",(DATA.SAGA!$I458-DATA.SAGA!$B458)/365*12,
 IF(OR($D458="Pré-Inscrito",$D458="Matriculado",$D458="Pré-inscrito"),(TODAY()-DATA.SAGA!$B458)/365*12,"*"))</f>
-        <v>16.372602739726027</v>
+        <v>16.56986301369863</v>
       </c>
       <c r="H458" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26409,7 +26439,7 @@
       <c r="G460" s="41">
         <f ca="1">IF($D460="Formado",(DATA.SAGA!$I460-DATA.SAGA!$B460)/365*12,
 IF(OR($D460="Pré-Inscrito",$D460="Matriculado",$D460="Pré-inscrito"),(TODAY()-DATA.SAGA!$B460)/365*12,"*"))</f>
-        <v>16.372602739726027</v>
+        <v>16.56986301369863</v>
       </c>
       <c r="H460" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26458,7 +26488,7 @@
       <c r="G461" s="41">
         <f ca="1">IF($D461="Formado",(DATA.SAGA!$I461-DATA.SAGA!$B461)/365*12,
 IF(OR($D461="Pré-Inscrito",$D461="Matriculado",$D461="Pré-inscrito"),(TODAY()-DATA.SAGA!$B461)/365*12,"*"))</f>
-        <v>16.372602739726027</v>
+        <v>16.56986301369863</v>
       </c>
       <c r="H461" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26507,7 +26537,7 @@
       <c r="G462" s="41">
         <f ca="1">IF($D462="Formado",(DATA.SAGA!$I462-DATA.SAGA!$B462)/365*12,
 IF(OR($D462="Pré-Inscrito",$D462="Matriculado",$D462="Pré-inscrito"),(TODAY()-DATA.SAGA!$B462)/365*12,"*"))</f>
-        <v>16.372602739726027</v>
+        <v>16.56986301369863</v>
       </c>
       <c r="H462" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26556,7 +26586,7 @@
       <c r="G463" s="41">
         <f ca="1">IF($D463="Formado",(DATA.SAGA!$I463-DATA.SAGA!$B463)/365*12,
 IF(OR($D463="Pré-Inscrito",$D463="Matriculado",$D463="Pré-inscrito"),(TODAY()-DATA.SAGA!$B463)/365*12,"*"))</f>
-        <v>16.372602739726027</v>
+        <v>16.56986301369863</v>
       </c>
       <c r="H463" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26605,7 +26635,7 @@
       <c r="G464" s="41">
         <f ca="1">IF($D464="Formado",(DATA.SAGA!$I464-DATA.SAGA!$B464)/365*12,
 IF(OR($D464="Pré-Inscrito",$D464="Matriculado",$D464="Pré-inscrito"),(TODAY()-DATA.SAGA!$B464)/365*12,"*"))</f>
-        <v>16.372602739726027</v>
+        <v>16.56986301369863</v>
       </c>
       <c r="H464" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26654,7 +26684,7 @@
       <c r="G465" s="41">
         <f ca="1">IF($D465="Formado",(DATA.SAGA!$I465-DATA.SAGA!$B465)/365*12,
 IF(OR($D465="Pré-Inscrito",$D465="Matriculado",$D465="Pré-inscrito"),(TODAY()-DATA.SAGA!$B465)/365*12,"*"))</f>
-        <v>16.372602739726027</v>
+        <v>16.56986301369863</v>
       </c>
       <c r="H465" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26703,7 +26733,7 @@
       <c r="G466" s="41">
         <f ca="1">IF($D466="Formado",(DATA.SAGA!$I466-DATA.SAGA!$B466)/365*12,
 IF(OR($D466="Pré-Inscrito",$D466="Matriculado",$D466="Pré-inscrito"),(TODAY()-DATA.SAGA!$B466)/365*12,"*"))</f>
-        <v>16.372602739726027</v>
+        <v>16.56986301369863</v>
       </c>
       <c r="H466" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26752,7 +26782,7 @@
       <c r="G467" s="41">
         <f ca="1">IF($D467="Formado",(DATA.SAGA!$I467-DATA.SAGA!$B467)/365*12,
 IF(OR($D467="Pré-Inscrito",$D467="Matriculado",$D467="Pré-inscrito"),(TODAY()-DATA.SAGA!$B467)/365*12,"*"))</f>
-        <v>16.372602739726027</v>
+        <v>16.56986301369863</v>
       </c>
       <c r="H467" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26801,7 +26831,7 @@
       <c r="G468" s="41">
         <f ca="1">IF($D468="Formado",(DATA.SAGA!$I468-DATA.SAGA!$B468)/365*12,
 IF(OR($D468="Pré-Inscrito",$D468="Matriculado",$D468="Pré-inscrito"),(TODAY()-DATA.SAGA!$B468)/365*12,"*"))</f>
-        <v>16.372602739726027</v>
+        <v>16.56986301369863</v>
       </c>
       <c r="H468" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26850,7 +26880,7 @@
       <c r="G469" s="41">
         <f ca="1">IF($D469="Formado",(DATA.SAGA!$I469-DATA.SAGA!$B469)/365*12,
 IF(OR($D469="Pré-Inscrito",$D469="Matriculado",$D469="Pré-inscrito"),(TODAY()-DATA.SAGA!$B469)/365*12,"*"))</f>
-        <v>16.372602739726027</v>
+        <v>16.56986301369863</v>
       </c>
       <c r="H469" s="6" t="str">
         <f t="shared" si="7"/>
@@ -26899,7 +26929,7 @@
       <c r="G470" s="41">
         <f ca="1">IF($D470="Formado",(DATA.SAGA!$I470-DATA.SAGA!$B470)/365*12,
 IF(OR($D470="Pré-Inscrito",$D470="Matriculado",$D470="Pré-inscrito"),(TODAY()-DATA.SAGA!$B470)/365*12,"*"))</f>
-        <v>16.372602739726027</v>
+        <v>16.56986301369863</v>
       </c>
       <c r="H470" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27046,7 +27076,7 @@
       <c r="G473" s="41">
         <f ca="1">IF($D473="Formado",(DATA.SAGA!$I473-DATA.SAGA!$B473)/365*12,
 IF(OR($D473="Pré-Inscrito",$D473="Matriculado",$D473="Pré-inscrito"),(TODAY()-DATA.SAGA!$B473)/365*12,"*"))</f>
-        <v>16.372602739726027</v>
+        <v>16.56986301369863</v>
       </c>
       <c r="H473" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27095,7 +27125,7 @@
       <c r="G474" s="41">
         <f ca="1">IF($D474="Formado",(DATA.SAGA!$I474-DATA.SAGA!$B474)/365*12,
 IF(OR($D474="Pré-Inscrito",$D474="Matriculado",$D474="Pré-inscrito"),(TODAY()-DATA.SAGA!$B474)/365*12,"*"))</f>
-        <v>16.372602739726027</v>
+        <v>16.56986301369863</v>
       </c>
       <c r="H474" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27144,7 +27174,7 @@
       <c r="G475" s="41">
         <f ca="1">IF($D475="Formado",(DATA.SAGA!$I475-DATA.SAGA!$B475)/365*12,
 IF(OR($D475="Pré-Inscrito",$D475="Matriculado",$D475="Pré-inscrito"),(TODAY()-DATA.SAGA!$B475)/365*12,"*"))</f>
-        <v>16.142465753424656</v>
+        <v>16.339726027397262</v>
       </c>
       <c r="H475" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27242,7 +27272,7 @@
       <c r="G477" s="41">
         <f ca="1">IF($D477="Formado",(DATA.SAGA!$I477-DATA.SAGA!$B477)/365*12,
 IF(OR($D477="Pré-Inscrito",$D477="Matriculado",$D477="Pré-inscrito"),(TODAY()-DATA.SAGA!$B477)/365*12,"*"))</f>
-        <v>16.109589041095891</v>
+        <v>16.306849315068494</v>
       </c>
       <c r="H477" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27340,7 +27370,7 @@
       <c r="G479" s="41">
         <f ca="1">IF($D479="Formado",(DATA.SAGA!$I479-DATA.SAGA!$B479)/365*12,
 IF(OR($D479="Pré-Inscrito",$D479="Matriculado",$D479="Pré-inscrito"),(TODAY()-DATA.SAGA!$B479)/365*12,"*"))</f>
-        <v>16.076712328767123</v>
+        <v>16.273972602739725</v>
       </c>
       <c r="H479" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27487,7 +27517,7 @@
       <c r="G482" s="41">
         <f ca="1">IF($D482="Formado",(DATA.SAGA!$I482-DATA.SAGA!$B482)/365*12,
 IF(OR($D482="Pré-Inscrito",$D482="Matriculado",$D482="Pré-inscrito"),(TODAY()-DATA.SAGA!$B482)/365*12,"*"))</f>
-        <v>15.452054794520549</v>
+        <v>15.64931506849315</v>
       </c>
       <c r="H482" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27536,7 +27566,7 @@
       <c r="G483" s="41">
         <f ca="1">IF($D483="Formado",(DATA.SAGA!$I483-DATA.SAGA!$B483)/365*12,
 IF(OR($D483="Pré-Inscrito",$D483="Matriculado",$D483="Pré-inscrito"),(TODAY()-DATA.SAGA!$B483)/365*12,"*"))</f>
-        <v>9.9945205479452053</v>
+        <v>10.191780821917808</v>
       </c>
       <c r="H483" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27585,7 +27615,7 @@
       <c r="G484" s="41">
         <f ca="1">IF($D484="Formado",(DATA.SAGA!$I484-DATA.SAGA!$B484)/365*12,
 IF(OR($D484="Pré-Inscrito",$D484="Matriculado",$D484="Pré-inscrito"),(TODAY()-DATA.SAGA!$B484)/365*12,"*"))</f>
-        <v>9.9945205479452053</v>
+        <v>10.191780821917808</v>
       </c>
       <c r="H484" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27732,7 +27762,7 @@
       <c r="G487" s="41">
         <f ca="1">IF($D487="Formado",(DATA.SAGA!$I487-DATA.SAGA!$B487)/365*12,
 IF(OR($D487="Pré-Inscrito",$D487="Matriculado",$D487="Pré-inscrito"),(TODAY()-DATA.SAGA!$B487)/365*12,"*"))</f>
-        <v>9.9945205479452053</v>
+        <v>10.191780821917808</v>
       </c>
       <c r="H487" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27781,7 +27811,7 @@
       <c r="G488" s="41">
         <f ca="1">IF($D488="Formado",(DATA.SAGA!$I488-DATA.SAGA!$B488)/365*12,
 IF(OR($D488="Pré-Inscrito",$D488="Matriculado",$D488="Pré-inscrito"),(TODAY()-DATA.SAGA!$B488)/365*12,"*"))</f>
-        <v>9.9945205479452053</v>
+        <v>10.191780821917808</v>
       </c>
       <c r="H488" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27879,7 +27909,7 @@
       <c r="G490" s="41">
         <f ca="1">IF($D490="Formado",(DATA.SAGA!$I490-DATA.SAGA!$B490)/365*12,
 IF(OR($D490="Pré-Inscrito",$D490="Matriculado",$D490="Pré-inscrito"),(TODAY()-DATA.SAGA!$B490)/365*12,"*"))</f>
-        <v>9.9945205479452053</v>
+        <v>10.191780821917808</v>
       </c>
       <c r="H490" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27928,7 +27958,7 @@
       <c r="G491" s="41">
         <f ca="1">IF($D491="Formado",(DATA.SAGA!$I491-DATA.SAGA!$B491)/365*12,
 IF(OR($D491="Pré-Inscrito",$D491="Matriculado",$D491="Pré-inscrito"),(TODAY()-DATA.SAGA!$B491)/365*12,"*"))</f>
-        <v>9.9945205479452053</v>
+        <v>10.191780821917808</v>
       </c>
       <c r="H491" s="6" t="str">
         <f t="shared" si="7"/>
@@ -27977,7 +28007,7 @@
       <c r="G492" s="41">
         <f ca="1">IF($D492="Formado",(DATA.SAGA!$I492-DATA.SAGA!$B492)/365*12,
 IF(OR($D492="Pré-Inscrito",$D492="Matriculado",$D492="Pré-inscrito"),(TODAY()-DATA.SAGA!$B492)/365*12,"*"))</f>
-        <v>9.9945205479452053</v>
+        <v>10.191780821917808</v>
       </c>
       <c r="H492" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28026,7 +28056,7 @@
       <c r="G493" s="41">
         <f ca="1">IF($D493="Formado",(DATA.SAGA!$I493-DATA.SAGA!$B493)/365*12,
 IF(OR($D493="Pré-Inscrito",$D493="Matriculado",$D493="Pré-inscrito"),(TODAY()-DATA.SAGA!$B493)/365*12,"*"))</f>
-        <v>9.9945205479452053</v>
+        <v>10.191780821917808</v>
       </c>
       <c r="H493" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28075,7 +28105,7 @@
       <c r="G494" s="41">
         <f ca="1">IF($D494="Formado",(DATA.SAGA!$I494-DATA.SAGA!$B494)/365*12,
 IF(OR($D494="Pré-Inscrito",$D494="Matriculado",$D494="Pré-inscrito"),(TODAY()-DATA.SAGA!$B494)/365*12,"*"))</f>
-        <v>9.9945205479452053</v>
+        <v>10.191780821917808</v>
       </c>
       <c r="H494" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28124,7 +28154,7 @@
       <c r="G495" s="41">
         <f ca="1">IF($D495="Formado",(DATA.SAGA!$I495-DATA.SAGA!$B495)/365*12,
 IF(OR($D495="Pré-Inscrito",$D495="Matriculado",$D495="Pré-inscrito"),(TODAY()-DATA.SAGA!$B495)/365*12,"*"))</f>
-        <v>9.9945205479452053</v>
+        <v>10.191780821917808</v>
       </c>
       <c r="H495" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28173,7 +28203,7 @@
       <c r="G496" s="41">
         <f ca="1">IF($D496="Formado",(DATA.SAGA!$I496-DATA.SAGA!$B496)/365*12,
 IF(OR($D496="Pré-Inscrito",$D496="Matriculado",$D496="Pré-inscrito"),(TODAY()-DATA.SAGA!$B496)/365*12,"*"))</f>
-        <v>9.9945205479452053</v>
+        <v>10.191780821917808</v>
       </c>
       <c r="H496" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28222,7 +28252,7 @@
       <c r="G497" s="41">
         <f ca="1">IF($D497="Formado",(DATA.SAGA!$I497-DATA.SAGA!$B497)/365*12,
 IF(OR($D497="Pré-Inscrito",$D497="Matriculado",$D497="Pré-inscrito"),(TODAY()-DATA.SAGA!$B497)/365*12,"*"))</f>
-        <v>9.9945205479452053</v>
+        <v>10.191780821917808</v>
       </c>
       <c r="H497" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28271,7 +28301,7 @@
       <c r="G498" s="41">
         <f ca="1">IF($D498="Formado",(DATA.SAGA!$I498-DATA.SAGA!$B498)/365*12,
 IF(OR($D498="Pré-Inscrito",$D498="Matriculado",$D498="Pré-inscrito"),(TODAY()-DATA.SAGA!$B498)/365*12,"*"))</f>
-        <v>9.9945205479452053</v>
+        <v>10.191780821917808</v>
       </c>
       <c r="H498" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28320,7 +28350,7 @@
       <c r="G499" s="41">
         <f ca="1">IF($D499="Formado",(DATA.SAGA!$I499-DATA.SAGA!$B499)/365*12,
 IF(OR($D499="Pré-Inscrito",$D499="Matriculado",$D499="Pré-inscrito"),(TODAY()-DATA.SAGA!$B499)/365*12,"*"))</f>
-        <v>9.9945205479452053</v>
+        <v>10.191780821917808</v>
       </c>
       <c r="H499" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28516,7 +28546,7 @@
       <c r="G503" s="41">
         <f ca="1">IF($D503="Formado",(DATA.SAGA!$I503-DATA.SAGA!$B503)/365*12,
 IF(OR($D503="Pré-Inscrito",$D503="Matriculado",$D503="Pré-inscrito"),(TODAY()-DATA.SAGA!$B503)/365*12,"*"))</f>
-        <v>9.9945205479452053</v>
+        <v>10.191780821917808</v>
       </c>
       <c r="H503" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28565,7 +28595,7 @@
       <c r="G504" s="41">
         <f ca="1">IF($D504="Formado",(DATA.SAGA!$I504-DATA.SAGA!$B504)/365*12,
 IF(OR($D504="Pré-Inscrito",$D504="Matriculado",$D504="Pré-inscrito"),(TODAY()-DATA.SAGA!$B504)/365*12,"*"))</f>
-        <v>9.9945205479452053</v>
+        <v>10.191780821917808</v>
       </c>
       <c r="H504" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28810,7 +28840,7 @@
       <c r="G509" s="41">
         <f ca="1">IF($D509="Formado",(DATA.SAGA!$I509-DATA.SAGA!$B509)/365*12,
 IF(OR($D509="Pré-Inscrito",$D509="Matriculado",$D509="Pré-inscrito"),(TODAY()-DATA.SAGA!$B509)/365*12,"*"))</f>
-        <v>6.0493150684931507</v>
+        <v>6.2465753424657535</v>
       </c>
       <c r="H509" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28859,7 +28889,7 @@
       <c r="G510" s="41">
         <f ca="1">IF($D510="Formado",(DATA.SAGA!$I510-DATA.SAGA!$B510)/365*12,
 IF(OR($D510="Pré-Inscrito",$D510="Matriculado",$D510="Pré-inscrito"),(TODAY()-DATA.SAGA!$B510)/365*12,"*"))</f>
-        <v>5.9506849315068493</v>
+        <v>6.1479452054794521</v>
       </c>
       <c r="H510" s="6" t="str">
         <f t="shared" si="7"/>
@@ -28957,7 +28987,7 @@
       <c r="G512" s="41">
         <f ca="1">IF($D512="Formado",(DATA.SAGA!$I512-DATA.SAGA!$B512)/365*12,
 IF(OR($D512="Pré-Inscrito",$D512="Matriculado",$D512="Pré-inscrito"),(TODAY()-DATA.SAGA!$B512)/365*12,"*"))</f>
-        <v>5.9178082191780819</v>
+        <v>6.1150684931506856</v>
       </c>
       <c r="H512" s="6" t="str">
         <f t="shared" si="7"/>
@@ -29006,7 +29036,7 @@
       <c r="G513" s="41">
         <f ca="1">IF($D513="Formado",(DATA.SAGA!$I513-DATA.SAGA!$B513)/365*12,
 IF(OR($D513="Pré-Inscrito",$D513="Matriculado",$D513="Pré-inscrito"),(TODAY()-DATA.SAGA!$B513)/365*12,"*"))</f>
-        <v>5.9178082191780819</v>
+        <v>6.1150684931506856</v>
       </c>
       <c r="H513" s="6" t="str">
         <f t="shared" si="7"/>
@@ -29055,7 +29085,7 @@
       <c r="G514" s="41">
         <f ca="1">IF($D514="Formado",(DATA.SAGA!$I514-DATA.SAGA!$B514)/365*12,
 IF(OR($D514="Pré-Inscrito",$D514="Matriculado",$D514="Pré-inscrito"),(TODAY()-DATA.SAGA!$B514)/365*12,"*"))</f>
-        <v>5.8520547945205479</v>
+        <v>6.0493150684931507</v>
       </c>
       <c r="H514" s="6" t="str">
         <f t="shared" si="7"/>
@@ -29104,7 +29134,7 @@
       <c r="G515" s="41">
         <f ca="1">IF($D515="Formado",(DATA.SAGA!$I515-DATA.SAGA!$B515)/365*12,
 IF(OR($D515="Pré-Inscrito",$D515="Matriculado",$D515="Pré-inscrito"),(TODAY()-DATA.SAGA!$B515)/365*12,"*"))</f>
-        <v>5.8520547945205479</v>
+        <v>6.0493150684931507</v>
       </c>
       <c r="H515" s="6" t="str">
         <f t="shared" ref="H515:H540" si="8">IF(AND(COUNTIF($B:$B,$B515)&gt;1,$A515="Doutorado"),"Sim","*")</f>
@@ -29153,7 +29183,7 @@
       <c r="G516" s="41">
         <f ca="1">IF($D516="Formado",(DATA.SAGA!$I516-DATA.SAGA!$B516)/365*12,
 IF(OR($D516="Pré-Inscrito",$D516="Matriculado",$D516="Pré-inscrito"),(TODAY()-DATA.SAGA!$B516)/365*12,"*"))</f>
-        <v>5.8191780821917813</v>
+        <v>6.0164383561643842</v>
       </c>
       <c r="H516" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29202,7 +29232,7 @@
       <c r="G517" s="41">
         <f ca="1">IF($D517="Formado",(DATA.SAGA!$I517-DATA.SAGA!$B517)/365*12,
 IF(OR($D517="Pré-Inscrito",$D517="Matriculado",$D517="Pré-inscrito"),(TODAY()-DATA.SAGA!$B517)/365*12,"*"))</f>
-        <v>5.8191780821917813</v>
+        <v>6.0164383561643842</v>
       </c>
       <c r="H517" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29251,7 +29281,7 @@
       <c r="G518" s="41">
         <f ca="1">IF($D518="Formado",(DATA.SAGA!$I518-DATA.SAGA!$B518)/365*12,
 IF(OR($D518="Pré-Inscrito",$D518="Matriculado",$D518="Pré-inscrito"),(TODAY()-DATA.SAGA!$B518)/365*12,"*"))</f>
-        <v>5.8191780821917813</v>
+        <v>6.0164383561643842</v>
       </c>
       <c r="H518" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29300,7 +29330,7 @@
       <c r="G519" s="41">
         <f ca="1">IF($D519="Formado",(DATA.SAGA!$I519-DATA.SAGA!$B519)/365*12,
 IF(OR($D519="Pré-Inscrito",$D519="Matriculado",$D519="Pré-inscrito"),(TODAY()-DATA.SAGA!$B519)/365*12,"*"))</f>
-        <v>5.8191780821917813</v>
+        <v>6.0164383561643842</v>
       </c>
       <c r="H519" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29349,7 +29379,7 @@
       <c r="G520" s="41">
         <f ca="1">IF($D520="Formado",(DATA.SAGA!$I520-DATA.SAGA!$B520)/365*12,
 IF(OR($D520="Pré-Inscrito",$D520="Matriculado",$D520="Pré-inscrito"),(TODAY()-DATA.SAGA!$B520)/365*12,"*"))</f>
-        <v>5.8191780821917813</v>
+        <v>6.0164383561643842</v>
       </c>
       <c r="H520" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29447,7 +29477,7 @@
       <c r="G522" s="41">
         <f ca="1">IF($D522="Formado",(DATA.SAGA!$I522-DATA.SAGA!$B522)/365*12,
 IF(OR($D522="Pré-Inscrito",$D522="Matriculado",$D522="Pré-inscrito"),(TODAY()-DATA.SAGA!$B522)/365*12,"*"))</f>
-        <v>5.7863013698630139</v>
+        <v>5.9835616438356167</v>
       </c>
       <c r="H522" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29496,7 +29526,7 @@
       <c r="G523" s="41">
         <f ca="1">IF($D523="Formado",(DATA.SAGA!$I523-DATA.SAGA!$B523)/365*12,
 IF(OR($D523="Pré-Inscrito",$D523="Matriculado",$D523="Pré-inscrito"),(TODAY()-DATA.SAGA!$B523)/365*12,"*"))</f>
-        <v>5.7534246575342465</v>
+        <v>5.9506849315068493</v>
       </c>
       <c r="H523" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29545,7 +29575,7 @@
       <c r="G524" s="41">
         <f ca="1">IF($D524="Formado",(DATA.SAGA!$I524-DATA.SAGA!$B524)/365*12,
 IF(OR($D524="Pré-Inscrito",$D524="Matriculado",$D524="Pré-inscrito"),(TODAY()-DATA.SAGA!$B524)/365*12,"*"))</f>
-        <v>5.4904109589041097</v>
+        <v>5.6876712328767125</v>
       </c>
       <c r="H524" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29643,7 +29673,7 @@
       <c r="G526" s="41">
         <f ca="1">IF($D526="Formado",(DATA.SAGA!$I526-DATA.SAGA!$B526)/365*12,
 IF(OR($D526="Pré-Inscrito",$D526="Matriculado",$D526="Pré-inscrito"),(TODAY()-DATA.SAGA!$B526)/365*12,"*"))</f>
-        <v>3.978082191780822</v>
+        <v>4.1753424657534248</v>
       </c>
       <c r="H526" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29692,7 +29722,7 @@
       <c r="G527" s="41">
         <f ca="1">IF($D527="Formado",(DATA.SAGA!$I527-DATA.SAGA!$B527)/365*12,
 IF(OR($D527="Pré-Inscrito",$D527="Matriculado",$D527="Pré-inscrito"),(TODAY()-DATA.SAGA!$B527)/365*12,"*"))</f>
-        <v>3.978082191780822</v>
+        <v>4.1753424657534248</v>
       </c>
       <c r="H527" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29741,7 +29771,7 @@
       <c r="G528" s="41">
         <f ca="1">IF($D528="Formado",(DATA.SAGA!$I528-DATA.SAGA!$B528)/365*12,
 IF(OR($D528="Pré-Inscrito",$D528="Matriculado",$D528="Pré-inscrito"),(TODAY()-DATA.SAGA!$B528)/365*12,"*"))</f>
-        <v>3.8794520547945206</v>
+        <v>4.0767123287671234</v>
       </c>
       <c r="H528" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29839,7 +29869,7 @@
       <c r="G530" s="41">
         <f ca="1">IF($D530="Formado",(DATA.SAGA!$I530-DATA.SAGA!$B530)/365*12,
 IF(OR($D530="Pré-Inscrito",$D530="Matriculado",$D530="Pré-inscrito"),(TODAY()-DATA.SAGA!$B530)/365*12,"*"))</f>
-        <v>3.7150684931506852</v>
+        <v>3.9123287671232876</v>
       </c>
       <c r="H530" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29888,7 +29918,7 @@
       <c r="G531" s="41">
         <f ca="1">IF($D531="Formado",(DATA.SAGA!$I531-DATA.SAGA!$B531)/365*12,
 IF(OR($D531="Pré-Inscrito",$D531="Matriculado",$D531="Pré-inscrito"),(TODAY()-DATA.SAGA!$B531)/365*12,"*"))</f>
-        <v>3.6821917808219178</v>
+        <v>3.8794520547945206</v>
       </c>
       <c r="H531" s="6" t="str">
         <f t="shared" si="8"/>
@@ -29937,7 +29967,7 @@
       <c r="G532" s="41">
         <f ca="1">IF($D532="Formado",(DATA.SAGA!$I532-DATA.SAGA!$B532)/365*12,
 IF(OR($D532="Pré-Inscrito",$D532="Matriculado",$D532="Pré-inscrito"),(TODAY()-DATA.SAGA!$B532)/365*12,"*"))</f>
-        <v>3.6493150684931512</v>
+        <v>3.8465753424657536</v>
       </c>
       <c r="H532" s="6" t="str">
         <f t="shared" si="8"/>
@@ -30035,7 +30065,7 @@
       <c r="G534" s="41">
         <f ca="1">IF($D534="Formado",(DATA.SAGA!$I534-DATA.SAGA!$B534)/365*12,
 IF(OR($D534="Pré-Inscrito",$D534="Matriculado",$D534="Pré-inscrito"),(TODAY()-DATA.SAGA!$B534)/365*12,"*"))</f>
-        <v>3.4520547945205475</v>
+        <v>3.6493150684931512</v>
       </c>
       <c r="H534" s="6" t="str">
         <f t="shared" si="8"/>
@@ -30133,7 +30163,7 @@
       <c r="G536" s="41">
         <f ca="1">IF($D536="Formado",(DATA.SAGA!$I536-DATA.SAGA!$B536)/365*12,
 IF(OR($D536="Pré-Inscrito",$D536="Matriculado",$D536="Pré-inscrito"),(TODAY()-DATA.SAGA!$B536)/365*12,"*"))</f>
-        <v>3.4520547945205475</v>
+        <v>3.6493150684931512</v>
       </c>
       <c r="H536" s="6" t="str">
         <f t="shared" si="8"/>
@@ -30182,7 +30212,7 @@
       <c r="G537" s="41">
         <f ca="1">IF($D537="Formado",(DATA.SAGA!$I537-DATA.SAGA!$B537)/365*12,
 IF(OR($D537="Pré-Inscrito",$D537="Matriculado",$D537="Pré-inscrito"),(TODAY()-DATA.SAGA!$B537)/365*12,"*"))</f>
-        <v>3.2547945205479452</v>
+        <v>3.4520547945205475</v>
       </c>
       <c r="H537" s="6" t="str">
         <f t="shared" si="8"/>
@@ -30231,7 +30261,7 @@
       <c r="G538" s="41">
         <f ca="1">IF($D538="Formado",(DATA.SAGA!$I538-DATA.SAGA!$B538)/365*12,
 IF(OR($D538="Pré-Inscrito",$D538="Matriculado",$D538="Pré-inscrito"),(TODAY()-DATA.SAGA!$B538)/365*12,"*"))</f>
-        <v>2.8273972602739725</v>
+        <v>3.0246575342465754</v>
       </c>
       <c r="H538" s="6" t="str">
         <f t="shared" si="8"/>
@@ -30280,7 +30310,7 @@
       <c r="G539" s="41">
         <f ca="1">IF($D539="Formado",(DATA.SAGA!$I539-DATA.SAGA!$B539)/365*12,
 IF(OR($D539="Pré-Inscrito",$D539="Matriculado",$D539="Pré-inscrito"),(TODAY()-DATA.SAGA!$B539)/365*12,"*"))</f>
-        <v>2.7616438356164386</v>
+        <v>2.9589041095890409</v>
       </c>
       <c r="H539" s="6" t="str">
         <f t="shared" si="8"/>
@@ -30329,7 +30359,7 @@
       <c r="G540" s="41">
         <f ca="1">IF($D540="Formado",(DATA.SAGA!$I540-DATA.SAGA!$B540)/365*12,
 IF(OR($D540="Pré-Inscrito",$D540="Matriculado",$D540="Pré-inscrito"),(TODAY()-DATA.SAGA!$B540)/365*12,"*"))</f>
-        <v>2.4986301369863013</v>
+        <v>2.6958904109589041</v>
       </c>
       <c r="H540" s="6" t="str">
         <f t="shared" si="8"/>
@@ -53704,10 +53734,12 @@
         <v>19</v>
       </c>
       <c r="G423" s="17"/>
-      <c r="H423" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I423" s="17"/>
+      <c r="H423" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="I423" s="18">
+        <v>45097</v>
+      </c>
       <c r="J423" s="17" t="s">
         <v>50</v>
       </c>
@@ -53768,10 +53800,12 @@
         <v>12</v>
       </c>
       <c r="G425" s="17"/>
-      <c r="H425" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I425" s="17"/>
+      <c r="H425" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="I425" s="18">
+        <v>45103</v>
+      </c>
       <c r="J425" s="17" t="s">
         <v>724</v>
       </c>
@@ -54467,10 +54501,12 @@
         <v>9</v>
       </c>
       <c r="G448" s="17"/>
-      <c r="H448" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I448" s="17"/>
+      <c r="H448" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I448" s="18">
+        <v>45097</v>
+      </c>
       <c r="J448" s="17" t="s">
         <v>50</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AABC08-4481-0B4C-B83A-6DF17CB258DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F64CA1D-9C48-FE40-B896-08F1FC338A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="924">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2816,11 +2816,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3082,30 +3089,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3114,34 +3136,22 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3153,25 +3163,25 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3183,13 +3193,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3455,8 +3465,8 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A540" sqref="A540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11359,11 +11369,11 @@
       <c r="C344" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="D344" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E344" s="8" t="s">
-        <v>707</v>
+      <c r="D344" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E344" s="8">
+        <v>45110</v>
       </c>
       <c r="F344" s="7" t="s">
         <v>334</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F64CA1D-9C48-FE40-B896-08F1FC338A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91120BA9-A961-CD42-8E70-61B95D3F5657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3751" uniqueCount="924">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2816,11 +2816,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3089,30 +3096,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3121,34 +3143,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3160,25 +3170,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3190,13 +3200,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13483,11 +13493,11 @@
       <c r="C436" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="D436" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E436" s="8" t="s">
-        <v>707</v>
+      <c r="D436" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E436" s="8">
+        <v>45138</v>
       </c>
       <c r="F436" s="7" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91120BA9-A961-CD42-8E70-61B95D3F5657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A15422-96C3-A749-8931-F1D895F6A299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3751" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3750" uniqueCount="924">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2816,11 +2816,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3096,30 +3103,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3128,34 +3150,22 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3167,25 +3177,25 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3197,13 +3207,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="29" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14173,11 +14183,11 @@
       <c r="C466" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="D466" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E466" s="8" t="s">
-        <v>707</v>
+      <c r="D466" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E466" s="8">
+        <v>45181</v>
       </c>
       <c r="F466" s="7" t="s">
         <v>20</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFE68B2-B0DE-F94F-8505-18788428553F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2829FBA0-9B1A-F148-B5BC-6C6457541AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3750" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="937">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2810,17 +2810,70 @@
   </si>
   <si>
     <t>11/05/2023</t>
+  </si>
+  <si>
+    <t>Jairon Pinheiro da Silva</t>
+  </si>
+  <si>
+    <t>Aline Mendes Leal Rodrigues de Souza</t>
+  </si>
+  <si>
+    <t>Ana Paula Tavares Fernandes do Prado</t>
+  </si>
+  <si>
+    <t>Bruno Macedo Leite Reis</t>
+  </si>
+  <si>
+    <t>Cristiane Chaves Marcelino da Costa</t>
+  </si>
+  <si>
+    <t>Jennifer Maria de Almeida Aguiar</t>
+  </si>
+  <si>
+    <t>Leandro Dias da Silva</t>
+  </si>
+  <si>
+    <t>Letícia Rangel Pinheiro</t>
+  </si>
+  <si>
+    <t>Lívia Gonçalves de Sena Ferreira</t>
+  </si>
+  <si>
+    <t>Alexandre Gonçalves de Meirelles</t>
+  </si>
+  <si>
+    <t>Thiago Antunes dos Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrey Bueno Duarte de Barros </t>
+  </si>
+  <si>
+    <t>Mateus da Silva Miccichelli</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3090,42 +3143,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3134,46 +3205,34 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3182,16 +3241,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="31" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3200,36 +3259,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3268,9 +3317,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="stats3-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3485,8 +3534,8 @@
   <dimension ref="A1:G973"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A555" sqref="A555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15869,139 +15918,289 @@
       </c>
     </row>
     <row r="541" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A541" s="1"/>
-      <c r="B541" s="1"/>
-      <c r="C541" s="3"/>
-      <c r="D541" s="1"/>
+      <c r="A541" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C541" s="3">
+        <v>45145</v>
+      </c>
+      <c r="D541" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="E541" s="3"/>
       <c r="F541" s="1"/>
-      <c r="G541" s="1"/>
+      <c r="G541" s="41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="542" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A542" s="1"/>
-      <c r="B542" s="1"/>
-      <c r="C542" s="3"/>
-      <c r="D542" s="1"/>
+      <c r="A542" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C542" s="3">
+        <v>45145</v>
+      </c>
+      <c r="D542" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="E542" s="3"/>
       <c r="F542" s="1"/>
-      <c r="G542" s="1"/>
+      <c r="G542" s="41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="543" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A543" s="1"/>
-      <c r="B543" s="1"/>
-      <c r="C543" s="3"/>
-      <c r="D543" s="1"/>
+      <c r="A543" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C543" s="3">
+        <v>45145</v>
+      </c>
+      <c r="D543" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="E543" s="3"/>
       <c r="F543" s="1"/>
-      <c r="G543" s="1"/>
+      <c r="G543" s="41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="544" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A544" s="1"/>
-      <c r="B544" s="1"/>
-      <c r="C544" s="3"/>
-      <c r="D544" s="1"/>
+      <c r="A544" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C544" s="3">
+        <v>45145</v>
+      </c>
+      <c r="D544" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="E544" s="3"/>
       <c r="F544" s="1"/>
-      <c r="G544" s="1"/>
+      <c r="G544" s="41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="545" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A545" s="1"/>
-      <c r="B545" s="1"/>
-      <c r="C545" s="3"/>
-      <c r="D545" s="1"/>
+      <c r="A545" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C545" s="3">
+        <v>45145</v>
+      </c>
+      <c r="D545" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="E545" s="3"/>
       <c r="F545" s="1"/>
-      <c r="G545" s="1"/>
+      <c r="G545" s="41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="546" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A546" s="1"/>
-      <c r="B546" s="1"/>
-      <c r="C546" s="3"/>
-      <c r="D546" s="1"/>
+      <c r="A546" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C546" s="43">
+        <v>45145</v>
+      </c>
+      <c r="D546" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="E546" s="3"/>
       <c r="F546" s="1"/>
-      <c r="G546" s="1"/>
+      <c r="G546" s="41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="547" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A547" s="1"/>
-      <c r="B547" s="1"/>
-      <c r="C547" s="3"/>
-      <c r="D547" s="1"/>
+      <c r="A547" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C547" s="3">
+        <v>45145</v>
+      </c>
+      <c r="D547" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="E547" s="3"/>
       <c r="F547" s="1"/>
-      <c r="G547" s="1"/>
+      <c r="G547" s="41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="548" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A548" s="1"/>
-      <c r="B548" s="1"/>
-      <c r="C548" s="3"/>
-      <c r="D548" s="1"/>
+      <c r="A548" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C548" s="3">
+        <v>45145</v>
+      </c>
+      <c r="D548" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="E548" s="3"/>
       <c r="F548" s="1"/>
-      <c r="G548" s="1"/>
+      <c r="G548" s="41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="549" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="1"/>
-      <c r="B549" s="1"/>
-      <c r="C549" s="3"/>
-      <c r="D549" s="1"/>
+      <c r="A549" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C549" s="3">
+        <v>45146</v>
+      </c>
+      <c r="D549" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="E549" s="3"/>
       <c r="F549" s="1"/>
-      <c r="G549" s="1"/>
+      <c r="G549" s="41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="550" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A550" s="1"/>
-      <c r="B550" s="1"/>
-      <c r="C550" s="3"/>
-      <c r="D550" s="1"/>
+      <c r="A550" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C550" s="3">
+        <v>45145</v>
+      </c>
+      <c r="D550" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="E550" s="3"/>
       <c r="F550" s="1"/>
-      <c r="G550" s="1"/>
+      <c r="G550" s="41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="551" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A551" s="1"/>
-      <c r="B551" s="1"/>
-      <c r="C551" s="3"/>
-      <c r="D551" s="1"/>
+      <c r="A551" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C551" s="3">
+        <v>45145</v>
+      </c>
+      <c r="D551" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="E551" s="3"/>
       <c r="F551" s="1"/>
-      <c r="G551" s="1"/>
+      <c r="G551" s="41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="552" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A552" s="1"/>
-      <c r="B552" s="1"/>
-      <c r="C552" s="3"/>
-      <c r="D552" s="1"/>
+      <c r="A552" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C552" s="3">
+        <v>45145</v>
+      </c>
+      <c r="D552" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="E552" s="3"/>
       <c r="F552" s="1"/>
-      <c r="G552" s="1"/>
+      <c r="G552" s="41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="553" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A553" s="1"/>
-      <c r="B553" s="1"/>
-      <c r="C553" s="3"/>
-      <c r="D553" s="1"/>
+      <c r="A553" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C553" s="3">
+        <v>45145</v>
+      </c>
+      <c r="D553" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="E553" s="3"/>
       <c r="F553" s="1"/>
-      <c r="G553" s="1"/>
+      <c r="G553" s="41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="554" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A554" s="1"/>
-      <c r="B554" s="1"/>
-      <c r="C554" s="3"/>
-      <c r="D554" s="1"/>
+      <c r="A554" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C554" s="3">
+        <v>45145</v>
+      </c>
+      <c r="D554" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="E554" s="3"/>
       <c r="F554" s="1"/>
-      <c r="G554" s="1"/>
+      <c r="G554" s="41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="555" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A555" s="1"/>
-      <c r="B555" s="1"/>
-      <c r="C555" s="3"/>
-      <c r="D555" s="1"/>
+      <c r="A555" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C555" s="3">
+        <v>45145</v>
+      </c>
+      <c r="D555" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="E555" s="3"/>
       <c r="F555" s="1"/>
-      <c r="G555" s="1"/>
+      <c r="G555" s="41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="556" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
@@ -19771,7 +19970,7 @@
     <sortCondition ref="B2:B540"/>
   </sortState>
   <conditionalFormatting sqref="B521:C521">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>OR(#REF!="Ausente",#REF!="Ausente")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2829FBA0-9B1A-F148-B5BC-6C6457541AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053DA4E5-56EA-9C40-B68B-6E12A38E14D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3807" uniqueCount="937">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -1255,9 +1255,6 @@
     <t>Paulo César de Lima Andrelino</t>
   </si>
   <si>
-    <t>Wesley Ronney Aires do Souza</t>
-  </si>
-  <si>
     <t>Yuri Rodrigues Luz de Araujo</t>
   </si>
   <si>
@@ -2849,17 +2846,27 @@
   </si>
   <si>
     <t>Mateus da Silva Miccichelli</t>
+  </si>
+  <si>
+    <t>Wesley Ronney Aires de Souza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3143,24 +3150,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3169,34 +3191,22 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3208,25 +3218,25 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3238,13 +3248,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3256,22 +3266,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3534,7 +3544,7 @@
   <dimension ref="A1:G973"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A555" sqref="A555"/>
     </sheetView>
   </sheetViews>
@@ -3559,13 +3569,13 @@
         <v>8</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>9</v>
@@ -3582,13 +3592,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>13</v>
@@ -3605,13 +3615,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="35" t="s">
@@ -3626,13 +3636,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>13</v>
@@ -3649,13 +3659,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
@@ -3672,13 +3682,13 @@
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>13</v>
@@ -3695,13 +3705,13 @@
         <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>20</v>
@@ -3718,13 +3728,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>13</v>
@@ -3741,13 +3751,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>13</v>
@@ -3764,13 +3774,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>13</v>
@@ -3787,13 +3797,13 @@
         <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>13</v>
@@ -3810,13 +3820,13 @@
         <v>25</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>13</v>
@@ -3833,13 +3843,13 @@
         <v>26</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>13</v>
@@ -3856,13 +3866,13 @@
         <v>27</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>13</v>
@@ -3879,13 +3889,13 @@
         <v>28</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>13</v>
@@ -3902,13 +3912,13 @@
         <v>29</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>13</v>
@@ -3925,13 +3935,13 @@
         <v>30</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>13</v>
@@ -3948,13 +3958,13 @@
         <v>31</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>13</v>
@@ -3971,13 +3981,13 @@
         <v>32</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>33</v>
@@ -3994,13 +4004,13 @@
         <v>34</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>13</v>
@@ -4017,13 +4027,13 @@
         <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>13</v>
@@ -4040,13 +4050,13 @@
         <v>36</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>13</v>
@@ -4063,13 +4073,13 @@
         <v>37</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="35" t="s">
@@ -4084,13 +4094,13 @@
         <v>39</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>13</v>
@@ -4107,13 +4117,13 @@
         <v>40</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>13</v>
@@ -4130,13 +4140,13 @@
         <v>42</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>13</v>
@@ -4153,13 +4163,13 @@
         <v>43</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>13</v>
@@ -4176,13 +4186,13 @@
         <v>44</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>13</v>
@@ -4199,13 +4209,13 @@
         <v>45</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>13</v>
@@ -4222,13 +4232,13 @@
         <v>46</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>13</v>
@@ -4245,13 +4255,13 @@
         <v>47</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>13</v>
@@ -4268,13 +4278,13 @@
         <v>48</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>13</v>
@@ -4291,13 +4301,13 @@
         <v>49</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>50</v>
@@ -4314,13 +4324,13 @@
         <v>51</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>13</v>
@@ -4337,13 +4347,13 @@
         <v>52</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>13</v>
@@ -4360,13 +4370,13 @@
         <v>53</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>13</v>
@@ -4383,13 +4393,13 @@
         <v>54</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>13</v>
@@ -4406,13 +4416,13 @@
         <v>41</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F38" s="35" t="s">
         <v>13</v>
@@ -4429,13 +4439,13 @@
         <v>55</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>13</v>
@@ -4452,13 +4462,13 @@
         <v>57</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>13</v>
@@ -4475,13 +4485,13 @@
         <v>38</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>13</v>
@@ -4498,13 +4508,13 @@
         <v>58</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>13</v>
@@ -4521,13 +4531,13 @@
         <v>56</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>13</v>
@@ -4544,13 +4554,13 @@
         <v>59</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>13</v>
@@ -4567,13 +4577,13 @@
         <v>60</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>13</v>
@@ -4590,13 +4600,13 @@
         <v>61</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>13</v>
@@ -4613,13 +4623,13 @@
         <v>62</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>13</v>
@@ -4636,13 +4646,13 @@
         <v>64</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>13</v>
@@ -4659,13 +4669,13 @@
         <v>65</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>13</v>
@@ -4682,13 +4692,13 @@
         <v>66</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>13</v>
@@ -4705,13 +4715,13 @@
         <v>70</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>71</v>
@@ -4728,13 +4738,13 @@
         <v>76</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>13</v>
@@ -4751,13 +4761,13 @@
         <v>67</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>13</v>
@@ -4774,13 +4784,13 @@
         <v>77</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>13</v>
@@ -4797,13 +4807,13 @@
         <v>78</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>13</v>
@@ -4820,13 +4830,13 @@
         <v>79</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>13</v>
@@ -4843,13 +4853,13 @@
         <v>68</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>13</v>
@@ -4866,13 +4876,13 @@
         <v>72</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>13</v>
@@ -4889,13 +4899,13 @@
         <v>73</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>13</v>
@@ -4912,13 +4922,13 @@
         <v>69</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>13</v>
@@ -4935,13 +4945,13 @@
         <v>74</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>13</v>
@@ -4958,13 +4968,13 @@
         <v>75</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>13</v>
@@ -4981,13 +4991,13 @@
         <v>63</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>13</v>
@@ -5004,13 +5014,13 @@
         <v>80</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>13</v>
@@ -5027,13 +5037,13 @@
         <v>81</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>13</v>
@@ -5050,13 +5060,13 @@
         <v>82</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>13</v>
@@ -5073,13 +5083,13 @@
         <v>83</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>13</v>
@@ -5096,13 +5106,13 @@
         <v>84</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>13</v>
@@ -5119,13 +5129,13 @@
         <v>85</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>13</v>
@@ -5142,13 +5152,13 @@
         <v>86</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>13</v>
@@ -5165,13 +5175,13 @@
         <v>87</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>13</v>
@@ -5188,13 +5198,13 @@
         <v>88</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>13</v>
@@ -5211,13 +5221,13 @@
         <v>89</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>13</v>
@@ -5234,13 +5244,13 @@
         <v>90</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>13</v>
@@ -5257,13 +5267,13 @@
         <v>91</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>13</v>
@@ -5280,13 +5290,13 @@
         <v>92</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>13</v>
@@ -5303,13 +5313,13 @@
         <v>93</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>13</v>
@@ -5326,13 +5336,13 @@
         <v>94</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>13</v>
@@ -5349,13 +5359,13 @@
         <v>95</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>13</v>
@@ -5372,13 +5382,13 @@
         <v>96</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>13</v>
@@ -5395,13 +5405,13 @@
         <v>97</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>13</v>
@@ -5418,13 +5428,13 @@
         <v>100</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>13</v>
@@ -5441,13 +5451,13 @@
         <v>98</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>13</v>
@@ -5464,13 +5474,13 @@
         <v>101</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>13</v>
@@ -5487,13 +5497,13 @@
         <v>99</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>13</v>
@@ -5510,13 +5520,13 @@
         <v>102</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>71</v>
@@ -5533,13 +5543,13 @@
         <v>103</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>13</v>
@@ -5556,13 +5566,13 @@
         <v>104</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>13</v>
@@ -5579,13 +5589,13 @@
         <v>105</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>13</v>
@@ -5602,13 +5612,13 @@
         <v>106</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>13</v>
@@ -5625,13 +5635,13 @@
         <v>107</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>13</v>
@@ -5648,13 +5658,13 @@
         <v>108</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>13</v>
@@ -5671,13 +5681,13 @@
         <v>109</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>110</v>
@@ -5694,13 +5704,13 @@
         <v>111</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>13</v>
@@ -5717,13 +5727,13 @@
         <v>112</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>13</v>
@@ -5740,13 +5750,13 @@
         <v>113</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>13</v>
@@ -5763,13 +5773,13 @@
         <v>114</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>13</v>
@@ -5786,13 +5796,13 @@
         <v>115</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>13</v>
@@ -5809,13 +5819,13 @@
         <v>116</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>13</v>
@@ -5832,13 +5842,13 @@
         <v>117</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>71</v>
@@ -5855,13 +5865,13 @@
         <v>118</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>13</v>
@@ -5878,13 +5888,13 @@
         <v>119</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>13</v>
@@ -5901,13 +5911,13 @@
         <v>120</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>13</v>
@@ -5924,13 +5934,13 @@
         <v>121</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>13</v>
@@ -5947,13 +5957,13 @@
         <v>122</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="35" t="s">
@@ -5968,13 +5978,13 @@
         <v>123</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>13</v>
@@ -5991,13 +6001,13 @@
         <v>124</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>13</v>
@@ -6014,13 +6024,13 @@
         <v>142</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>13</v>
@@ -6037,13 +6047,13 @@
         <v>133</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>13</v>
@@ -6060,13 +6070,13 @@
         <v>134</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>13</v>
@@ -6083,13 +6093,13 @@
         <v>138</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>13</v>
@@ -6106,13 +6116,13 @@
         <v>130</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F112" s="5"/>
       <c r="G112" s="35" t="s">
@@ -6127,13 +6137,13 @@
         <v>143</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>13</v>
@@ -6150,13 +6160,13 @@
         <v>131</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>13</v>
@@ -6173,13 +6183,13 @@
         <v>144</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>13</v>
@@ -6196,13 +6206,13 @@
         <v>135</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>13</v>
@@ -6219,13 +6229,13 @@
         <v>125</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>13</v>
@@ -6242,13 +6252,13 @@
         <v>126</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>13</v>
@@ -6265,13 +6275,13 @@
         <v>136</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>71</v>
@@ -6288,13 +6298,13 @@
         <v>139</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>13</v>
@@ -6311,13 +6321,13 @@
         <v>127</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>128</v>
@@ -6334,13 +6344,13 @@
         <v>137</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>13</v>
@@ -6357,13 +6367,13 @@
         <v>145</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>13</v>
@@ -6380,13 +6390,13 @@
         <v>140</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>13</v>
@@ -6403,13 +6413,13 @@
         <v>141</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>13</v>
@@ -6426,13 +6436,13 @@
         <v>132</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>13</v>
@@ -6449,13 +6459,13 @@
         <v>146</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F127" s="35" t="s">
         <v>13</v>
@@ -6472,13 +6482,13 @@
         <v>147</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>13</v>
@@ -6495,13 +6505,13 @@
         <v>148</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>13</v>
@@ -6518,13 +6528,13 @@
         <v>149</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>13</v>
@@ -6541,13 +6551,13 @@
         <v>150</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>13</v>
@@ -6564,13 +6574,13 @@
         <v>151</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>13</v>
@@ -6587,13 +6597,13 @@
         <v>152</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>13</v>
@@ -6610,13 +6620,13 @@
         <v>153</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>13</v>
@@ -6633,13 +6643,13 @@
         <v>154</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>71</v>
@@ -6656,13 +6666,13 @@
         <v>155</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>13</v>
@@ -6679,13 +6689,13 @@
         <v>156</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>13</v>
@@ -6702,13 +6712,13 @@
         <v>157</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>13</v>
@@ -6725,13 +6735,13 @@
         <v>158</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="35" t="s">
@@ -6746,13 +6756,13 @@
         <v>159</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>71</v>
@@ -6769,13 +6779,13 @@
         <v>160</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>33</v>
@@ -6792,13 +6802,13 @@
         <v>161</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>13</v>
@@ -6815,13 +6825,13 @@
         <v>162</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>13</v>
@@ -6838,13 +6848,13 @@
         <v>163</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>13</v>
@@ -6861,13 +6871,13 @@
         <v>164</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>13</v>
@@ -6884,13 +6894,13 @@
         <v>165</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>13</v>
@@ -6907,13 +6917,13 @@
         <v>36</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>13</v>
@@ -6930,13 +6940,13 @@
         <v>167</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>13</v>
@@ -6953,13 +6963,13 @@
         <v>69</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>13</v>
@@ -6976,13 +6986,13 @@
         <v>76</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>13</v>
@@ -6999,13 +7009,13 @@
         <v>30</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>13</v>
@@ -7022,13 +7032,13 @@
         <v>44</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>13</v>
@@ -7045,13 +7055,13 @@
         <v>67</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>13</v>
@@ -7068,13 +7078,13 @@
         <v>86</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>13</v>
@@ -7091,13 +7101,13 @@
         <v>40</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>13</v>
@@ -7114,13 +7124,13 @@
         <v>59</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>13</v>
@@ -7137,13 +7147,13 @@
         <v>29</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>13</v>
@@ -7160,13 +7170,13 @@
         <v>91</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>13</v>
@@ -7183,13 +7193,13 @@
         <v>169</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>13</v>
@@ -7206,13 +7216,13 @@
         <v>176</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>13</v>
@@ -7229,13 +7239,13 @@
         <v>175</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>13</v>
@@ -7252,13 +7262,13 @@
         <v>177</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>13</v>
@@ -7275,13 +7285,13 @@
         <v>170</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>13</v>
@@ -7298,13 +7308,13 @@
         <v>178</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>13</v>
@@ -7321,13 +7331,13 @@
         <v>171</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>13</v>
@@ -7344,13 +7354,13 @@
         <v>171</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>13</v>
@@ -7367,13 +7377,13 @@
         <v>172</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>13</v>
@@ -7390,13 +7400,13 @@
         <v>172</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>13</v>
@@ -7413,13 +7423,13 @@
         <v>173</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>13</v>
@@ -7436,13 +7446,13 @@
         <v>174</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>13</v>
@@ -7459,13 +7469,13 @@
         <v>168</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>13</v>
@@ -7482,13 +7492,13 @@
         <v>168</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>13</v>
@@ -7505,13 +7515,13 @@
         <v>179</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="35" t="s">
@@ -7526,13 +7536,13 @@
         <v>180</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>13</v>
@@ -7549,13 +7559,13 @@
         <v>181</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>13</v>
@@ -7572,13 +7582,13 @@
         <v>182</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>13</v>
@@ -7595,13 +7605,13 @@
         <v>183</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>13</v>
@@ -7618,13 +7628,13 @@
         <v>184</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>13</v>
@@ -7641,13 +7651,13 @@
         <v>183</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>13</v>
@@ -7664,13 +7674,13 @@
         <v>185</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>13</v>
@@ -7687,13 +7697,13 @@
         <v>186</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F181" s="35" t="s">
         <v>13</v>
@@ -7710,13 +7720,13 @@
         <v>188</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F182" s="5" t="s">
         <v>13</v>
@@ -7733,13 +7743,13 @@
         <v>197</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F183" s="5" t="s">
         <v>198</v>
@@ -7756,13 +7766,13 @@
         <v>191</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>13</v>
@@ -7779,13 +7789,13 @@
         <v>194</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>71</v>
@@ -7802,13 +7812,13 @@
         <v>189</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>13</v>
@@ -7825,13 +7835,13 @@
         <v>195</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>13</v>
@@ -7848,13 +7858,13 @@
         <v>196</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>13</v>
@@ -7871,13 +7881,13 @@
         <v>187</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F189" s="5" t="s">
         <v>13</v>
@@ -7894,13 +7904,13 @@
         <v>190</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>13</v>
@@ -7917,13 +7927,13 @@
         <v>193</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>13</v>
@@ -7940,13 +7950,13 @@
         <v>192</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>13</v>
@@ -7963,13 +7973,13 @@
         <v>199</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>13</v>
@@ -7986,13 +7996,13 @@
         <v>200</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>13</v>
@@ -8009,13 +8019,13 @@
         <v>201</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F195" s="5" t="s">
         <v>13</v>
@@ -8032,13 +8042,13 @@
         <v>202</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>13</v>
@@ -8055,13 +8065,13 @@
         <v>203</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F197" s="5" t="s">
         <v>13</v>
@@ -8078,13 +8088,13 @@
         <v>204</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F198" s="5" t="s">
         <v>13</v>
@@ -8101,13 +8111,13 @@
         <v>205</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>13</v>
@@ -8124,13 +8134,13 @@
         <v>206</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>71</v>
@@ -8147,13 +8157,13 @@
         <v>207</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>13</v>
@@ -8170,13 +8180,13 @@
         <v>208</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>13</v>
@@ -8193,13 +8203,13 @@
         <v>209</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F203" s="5" t="s">
         <v>13</v>
@@ -8216,13 +8226,13 @@
         <v>113</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>13</v>
@@ -8239,13 +8249,13 @@
         <v>97</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F205" s="5" t="s">
         <v>13</v>
@@ -8262,13 +8272,13 @@
         <v>131</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>13</v>
@@ -8285,13 +8295,13 @@
         <v>210</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F207" s="5" t="s">
         <v>13</v>
@@ -8308,13 +8318,13 @@
         <v>211</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F208" s="5" t="s">
         <v>13</v>
@@ -8331,13 +8341,13 @@
         <v>212</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F209" s="5" t="s">
         <v>13</v>
@@ -8354,13 +8364,13 @@
         <v>213</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>13</v>
@@ -8377,13 +8387,13 @@
         <v>215</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>13</v>
@@ -8400,13 +8410,13 @@
         <v>216</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D212" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>13</v>
@@ -8423,13 +8433,13 @@
         <v>217</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>13</v>
@@ -8446,13 +8456,13 @@
         <v>218</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>219</v>
@@ -8469,13 +8479,13 @@
         <v>220</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F215" s="5" t="s">
         <v>13</v>
@@ -8492,13 +8502,13 @@
         <v>221</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F216" s="5" t="s">
         <v>13</v>
@@ -8515,13 +8525,13 @@
         <v>221</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F217" s="5" t="s">
         <v>13</v>
@@ -8538,13 +8548,13 @@
         <v>222</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F218" s="5" t="s">
         <v>13</v>
@@ -8561,13 +8571,13 @@
         <v>223</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F219" s="5" t="s">
         <v>13</v>
@@ -8584,13 +8594,13 @@
         <v>224</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>13</v>
@@ -8607,13 +8617,13 @@
         <v>225</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>13</v>
@@ -8630,13 +8640,13 @@
         <v>214</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>13</v>
@@ -8653,13 +8663,13 @@
         <v>226</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>13</v>
@@ -8676,13 +8686,13 @@
         <v>225</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>13</v>
@@ -8699,13 +8709,13 @@
         <v>227</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>13</v>
@@ -8722,13 +8732,13 @@
         <v>228</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D226" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>13</v>
@@ -8745,13 +8755,13 @@
         <v>229</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F227" s="5" t="s">
         <v>13</v>
@@ -8768,13 +8778,13 @@
         <v>230</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F228" s="5" t="s">
         <v>13</v>
@@ -8791,13 +8801,13 @@
         <v>231</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F229" s="5" t="s">
         <v>13</v>
@@ -8814,13 +8824,13 @@
         <v>232</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F230" s="5" t="s">
         <v>13</v>
@@ -8837,13 +8847,13 @@
         <v>233</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F231" s="5" t="s">
         <v>13</v>
@@ -8860,13 +8870,13 @@
         <v>234</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F232" s="5" t="s">
         <v>13</v>
@@ -8883,13 +8893,13 @@
         <v>235</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F233" s="5" t="s">
         <v>13</v>
@@ -8906,13 +8916,13 @@
         <v>236</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D234" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F234" s="5" t="s">
         <v>13</v>
@@ -8929,13 +8939,13 @@
         <v>237</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F235" s="5" t="s">
         <v>13</v>
@@ -8952,13 +8962,13 @@
         <v>238</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D236" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>13</v>
@@ -8975,13 +8985,13 @@
         <v>239</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D237" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>71</v>
@@ -8998,13 +9008,13 @@
         <v>240</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F238" s="5" t="s">
         <v>13</v>
@@ -9021,13 +9031,13 @@
         <v>241</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D239" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F239" s="5" t="s">
         <v>13</v>
@@ -9044,13 +9054,13 @@
         <v>242</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D240" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F240" s="5" t="s">
         <v>13</v>
@@ -9067,13 +9077,13 @@
         <v>243</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F241" s="5" t="s">
         <v>13</v>
@@ -9090,13 +9100,13 @@
         <v>244</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F242" s="5" t="s">
         <v>13</v>
@@ -9113,13 +9123,13 @@
         <v>245</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F243" s="5" t="s">
         <v>13</v>
@@ -9136,13 +9146,13 @@
         <v>246</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F244" s="5" t="s">
         <v>13</v>
@@ -9159,13 +9169,13 @@
         <v>247</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D245" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F245" s="5" t="s">
         <v>13</v>
@@ -9182,13 +9192,13 @@
         <v>248</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D246" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>13</v>
@@ -9205,13 +9215,13 @@
         <v>249</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F247" s="5" t="s">
         <v>13</v>
@@ -9228,13 +9238,13 @@
         <v>250</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D248" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F248" s="5" t="s">
         <v>13</v>
@@ -9251,13 +9261,13 @@
         <v>251</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D249" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F249" s="5" t="s">
         <v>13</v>
@@ -9274,13 +9284,13 @@
         <v>252</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F250" s="5" t="s">
         <v>13</v>
@@ -9297,13 +9307,13 @@
         <v>253</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D251" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F251" s="5" t="s">
         <v>13</v>
@@ -9320,13 +9330,13 @@
         <v>254</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F252" s="5" t="s">
         <v>13</v>
@@ -9343,13 +9353,13 @@
         <v>256</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F253" s="5" t="s">
         <v>13</v>
@@ -9366,13 +9376,13 @@
         <v>257</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F254" s="5" t="s">
         <v>13</v>
@@ -9389,13 +9399,13 @@
         <v>258</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F255" s="5" t="s">
         <v>13</v>
@@ -9412,13 +9422,13 @@
         <v>259</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F256" s="5" t="s">
         <v>13</v>
@@ -9435,13 +9445,13 @@
         <v>260</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D257" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F257" s="5" t="s">
         <v>13</v>
@@ -9458,13 +9468,13 @@
         <v>261</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F258" s="5" t="s">
         <v>13</v>
@@ -9481,13 +9491,13 @@
         <v>255</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D259" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F259" s="5" t="s">
         <v>13</v>
@@ -9504,13 +9514,13 @@
         <v>262</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D260" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F260" s="5" t="s">
         <v>219</v>
@@ -9527,13 +9537,13 @@
         <v>263</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F261" s="5" t="s">
         <v>219</v>
@@ -9550,13 +9560,13 @@
         <v>264</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F262" s="5" t="s">
         <v>13</v>
@@ -9573,13 +9583,13 @@
         <v>265</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D263" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F263" s="5" t="s">
         <v>219</v>
@@ -9596,13 +9606,13 @@
         <v>266</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F264" s="5" t="s">
         <v>219</v>
@@ -9619,13 +9629,13 @@
         <v>267</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F265" s="5" t="s">
         <v>219</v>
@@ -9642,13 +9652,13 @@
         <v>268</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D266" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F266" s="5" t="s">
         <v>219</v>
@@ -9665,13 +9675,13 @@
         <v>269</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F267" s="5" t="s">
         <v>219</v>
@@ -9688,13 +9698,13 @@
         <v>270</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D268" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F268" s="5" t="s">
         <v>13</v>
@@ -9711,13 +9721,13 @@
         <v>271</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D269" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F269" s="5" t="s">
         <v>219</v>
@@ -9734,13 +9744,13 @@
         <v>272</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D270" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F270" s="5" t="s">
         <v>219</v>
@@ -9757,13 +9767,13 @@
         <v>273</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D271" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F271" s="5" t="s">
         <v>13</v>
@@ -9780,13 +9790,13 @@
         <v>274</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D272" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F272" s="5" t="s">
         <v>13</v>
@@ -9803,13 +9813,13 @@
         <v>275</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D273" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F273" s="5" t="s">
         <v>13</v>
@@ -9826,13 +9836,13 @@
         <v>276</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D274" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F274" s="5" t="s">
         <v>13</v>
@@ -9849,13 +9859,13 @@
         <v>277</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D275" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F275" s="5" t="s">
         <v>13</v>
@@ -9872,13 +9882,13 @@
         <v>278</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D276" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F276" s="5" t="s">
         <v>13</v>
@@ -9895,13 +9905,13 @@
         <v>279</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D277" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F277" s="5" t="s">
         <v>13</v>
@@ -9918,13 +9928,13 @@
         <v>280</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D278" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F278" s="5" t="s">
         <v>219</v>
@@ -9941,13 +9951,13 @@
         <v>281</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D279" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F279" s="5" t="s">
         <v>219</v>
@@ -9964,13 +9974,13 @@
         <v>282</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D280" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F280" s="5" t="s">
         <v>219</v>
@@ -9987,13 +9997,13 @@
         <v>283</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D281" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F281" s="5" t="s">
         <v>13</v>
@@ -10010,13 +10020,13 @@
         <v>284</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D282" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F282" s="5" t="s">
         <v>219</v>
@@ -10033,13 +10043,13 @@
         <v>285</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D283" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F283" s="5" t="s">
         <v>13</v>
@@ -10056,13 +10066,13 @@
         <v>286</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F284" s="5" t="s">
         <v>219</v>
@@ -10079,13 +10089,13 @@
         <v>287</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D285" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F285" s="5" t="s">
         <v>13</v>
@@ -10102,13 +10112,13 @@
         <v>288</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D286" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F286" s="5" t="s">
         <v>50</v>
@@ -10125,13 +10135,13 @@
         <v>289</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D287" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F287" s="5" t="s">
         <v>13</v>
@@ -10148,13 +10158,13 @@
         <v>290</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D288" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F288" s="5" t="s">
         <v>13</v>
@@ -10171,13 +10181,13 @@
         <v>291</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D289" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F289" s="5" t="s">
         <v>13</v>
@@ -10194,13 +10204,13 @@
         <v>292</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D290" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F290" s="5" t="s">
         <v>13</v>
@@ -10217,13 +10227,13 @@
         <v>293</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D291" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F291" s="5" t="s">
         <v>13</v>
@@ -10240,13 +10250,13 @@
         <v>294</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D292" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F292" s="5" t="s">
         <v>13</v>
@@ -10263,13 +10273,13 @@
         <v>295</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D293" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F293" s="5" t="s">
         <v>13</v>
@@ -10286,13 +10296,13 @@
         <v>296</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D294" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F294" s="5" t="s">
         <v>13</v>
@@ -10309,13 +10319,13 @@
         <v>297</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D295" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F295" s="5" t="s">
         <v>13</v>
@@ -10332,13 +10342,13 @@
         <v>298</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D296" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F296" s="5" t="s">
         <v>13</v>
@@ -10355,13 +10365,13 @@
         <v>299</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D297" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F297" s="5" t="s">
         <v>300</v>
@@ -10378,13 +10388,13 @@
         <v>301</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F298" s="5" t="s">
         <v>13</v>
@@ -10401,13 +10411,13 @@
         <v>46</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D299" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F299" s="5" t="s">
         <v>13</v>
@@ -10424,13 +10434,13 @@
         <v>302</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D300" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F300" s="5" t="s">
         <v>13</v>
@@ -10447,13 +10457,13 @@
         <v>303</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D301" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F301" s="5" t="s">
         <v>13</v>
@@ -10470,13 +10480,13 @@
         <v>304</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D302" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F302" s="5" t="s">
         <v>13</v>
@@ -10493,13 +10503,13 @@
         <v>162</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D303" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E303" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F303" s="5" t="s">
         <v>13</v>
@@ -10516,13 +10526,13 @@
         <v>305</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D304" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E304" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F304" s="5" t="s">
         <v>13</v>
@@ -10539,13 +10549,13 @@
         <v>306</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D305" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F305" s="5" t="s">
         <v>13</v>
@@ -10562,13 +10572,13 @@
         <v>46</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D306" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F306" s="5" t="s">
         <v>13</v>
@@ -10585,13 +10595,13 @@
         <v>307</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D307" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F307" s="5" t="s">
         <v>13</v>
@@ -10608,13 +10618,13 @@
         <v>308</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D308" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E308" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F308" s="5" t="s">
         <v>13</v>
@@ -10631,13 +10641,13 @@
         <v>309</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D309" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F309" s="5" t="s">
         <v>13</v>
@@ -10654,13 +10664,13 @@
         <v>310</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="D310" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E310" s="6" t="s">
-        <v>707</v>
+        <v>649</v>
+      </c>
+      <c r="D310" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E310" s="6">
+        <v>45190</v>
       </c>
       <c r="F310" s="5" t="s">
         <v>13</v>
@@ -10677,13 +10687,13 @@
         <v>311</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D311" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F311" s="5" t="s">
         <v>13</v>
@@ -10700,13 +10710,13 @@
         <v>312</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D312" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F312" s="5" t="s">
         <v>13</v>
@@ -10723,13 +10733,13 @@
         <v>313</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D313" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F313" s="5" t="s">
         <v>13</v>
@@ -10746,13 +10756,13 @@
         <v>314</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D314" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F314" s="5" t="s">
         <v>13</v>
@@ -10769,13 +10779,13 @@
         <v>315</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D315" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F315" s="5" t="s">
         <v>13</v>
@@ -10792,13 +10802,13 @@
         <v>316</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D316" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F316" s="5" t="s">
         <v>13</v>
@@ -10815,13 +10825,13 @@
         <v>317</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D317" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F317" s="5" t="s">
         <v>13</v>
@@ -10838,13 +10848,13 @@
         <v>157</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D318" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F318" s="5" t="s">
         <v>13</v>
@@ -10861,13 +10871,13 @@
         <v>148</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D319" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F319" s="5" t="s">
         <v>13</v>
@@ -10884,13 +10894,13 @@
         <v>190</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D320" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F320" s="5" t="s">
         <v>13</v>
@@ -10907,13 +10917,13 @@
         <v>213</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D321" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F321" s="5" t="s">
         <v>13</v>
@@ -10930,13 +10940,13 @@
         <v>202</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D322" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F322" s="5" t="s">
         <v>13</v>
@@ -10953,13 +10963,13 @@
         <v>197</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D323" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F323" s="5" t="s">
         <v>198</v>
@@ -10976,13 +10986,13 @@
         <v>230</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D324" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F324" s="5" t="s">
         <v>13</v>
@@ -10999,13 +11009,13 @@
         <v>318</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D325" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F325" s="5" t="s">
         <v>13</v>
@@ -11022,13 +11032,13 @@
         <v>188</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D326" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F326" s="5" t="s">
         <v>13</v>
@@ -11045,13 +11055,13 @@
         <v>191</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D327" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F327" s="5" t="s">
         <v>13</v>
@@ -11068,13 +11078,13 @@
         <v>180</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D328" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F328" s="5" t="s">
         <v>13</v>
@@ -11091,13 +11101,13 @@
         <v>208</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D329" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E329" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F329" s="5" t="s">
         <v>13</v>
@@ -11114,13 +11124,13 @@
         <v>319</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D330" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F330" s="5" t="s">
         <v>13</v>
@@ -11137,13 +11147,13 @@
         <v>320</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D331" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F331" s="5" t="s">
         <v>13</v>
@@ -11160,13 +11170,13 @@
         <v>321</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D332" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F332" s="5" t="s">
         <v>13</v>
@@ -11183,13 +11193,13 @@
         <v>322</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D333" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F333" s="5" t="s">
         <v>13</v>
@@ -11206,13 +11216,13 @@
         <v>323</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D334" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F334" s="5" t="s">
         <v>110</v>
@@ -11229,13 +11239,13 @@
         <v>324</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D335" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F335" s="5" t="s">
         <v>13</v>
@@ -11252,13 +11262,13 @@
         <v>325</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D336" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F336" s="5" t="s">
         <v>13</v>
@@ -11275,13 +11285,13 @@
         <v>326</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D337" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F337" s="5" t="s">
         <v>13</v>
@@ -11298,13 +11308,13 @@
         <v>290</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D338" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F338" s="5" t="s">
         <v>13</v>
@@ -11321,13 +11331,13 @@
         <v>327</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D339" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F339" s="5" t="s">
         <v>328</v>
@@ -11344,13 +11354,13 @@
         <v>329</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D340" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F340" s="5" t="s">
         <v>13</v>
@@ -11367,13 +11377,13 @@
         <v>330</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D341" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E341" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F341" s="5" t="s">
         <v>13</v>
@@ -11390,13 +11400,13 @@
         <v>331</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D342" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F342" s="5" t="s">
         <v>13</v>
@@ -11413,13 +11423,13 @@
         <v>332</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D343" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F343" s="5" t="s">
         <v>13</v>
@@ -11436,7 +11446,7 @@
         <v>333</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D344" s="36" t="s">
         <v>2</v>
@@ -11459,13 +11469,13 @@
         <v>335</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D345" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F345" s="5" t="s">
         <v>328</v>
@@ -11482,13 +11492,13 @@
         <v>336</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D346" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F346" s="5" t="s">
         <v>33</v>
@@ -11505,13 +11515,13 @@
         <v>337</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D347" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F347" s="5" t="s">
         <v>13</v>
@@ -11528,13 +11538,13 @@
         <v>150</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D348" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F348" s="5" t="s">
         <v>13</v>
@@ -11551,13 +11561,13 @@
         <v>238</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D349" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F349" s="5" t="s">
         <v>13</v>
@@ -11574,13 +11584,13 @@
         <v>98</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D350" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F350" s="5" t="s">
         <v>13</v>
@@ -11597,13 +11607,13 @@
         <v>338</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D351" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F351" s="5" t="s">
         <v>13</v>
@@ -11620,13 +11630,13 @@
         <v>339</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D352" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F352" s="5" t="s">
         <v>13</v>
@@ -11643,13 +11653,13 @@
         <v>236</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D353" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E353" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F353" s="5" t="s">
         <v>13</v>
@@ -11666,13 +11676,13 @@
         <v>340</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D354" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E354" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F354" s="5" t="s">
         <v>13</v>
@@ -11689,13 +11699,13 @@
         <v>341</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D355" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E355" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F355" s="5" t="s">
         <v>13</v>
@@ -11712,13 +11722,13 @@
         <v>342</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D356" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E356" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F356" s="5" t="s">
         <v>13</v>
@@ -11735,13 +11745,13 @@
         <v>343</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D357" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E357" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F357" s="5" t="s">
         <v>13</v>
@@ -11758,13 +11768,13 @@
         <v>344</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D358" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E358" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F358" s="5" t="s">
         <v>13</v>
@@ -11781,13 +11791,13 @@
         <v>345</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D359" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E359" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F359" s="5" t="s">
         <v>33</v>
@@ -11804,13 +11814,13 @@
         <v>346</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D360" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E360" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F360" s="5" t="s">
         <v>219</v>
@@ -11827,13 +11837,13 @@
         <v>347</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D361" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E361" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F361" s="5" t="s">
         <v>13</v>
@@ -11850,13 +11860,13 @@
         <v>348</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D362" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E362" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F362" s="5" t="s">
         <v>13</v>
@@ -11873,13 +11883,13 @@
         <v>349</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D363" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E363" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F363" s="5" t="s">
         <v>13</v>
@@ -11896,13 +11906,13 @@
         <v>350</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D364" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E364" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F364" s="5" t="s">
         <v>351</v>
@@ -11919,13 +11929,13 @@
         <v>352</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D365" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F365" s="5" t="s">
         <v>13</v>
@@ -11942,13 +11952,13 @@
         <v>353</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D366" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E366" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F366" s="5" t="s">
         <v>13</v>
@@ -11965,13 +11975,13 @@
         <v>354</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D367" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E367" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F367" s="5" t="s">
         <v>13</v>
@@ -11988,13 +11998,13 @@
         <v>64</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D368" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E368" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F368" s="5" t="s">
         <v>13</v>
@@ -12011,13 +12021,13 @@
         <v>355</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D369" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E369" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F369" s="5" t="s">
         <v>13</v>
@@ -12034,13 +12044,13 @@
         <v>356</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D370" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E370" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F370" s="5" t="s">
         <v>357</v>
@@ -12057,13 +12067,13 @@
         <v>358</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D371" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E371" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F371" s="5" t="s">
         <v>359</v>
@@ -12080,13 +12090,13 @@
         <v>360</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D372" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E372" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F372" s="5" t="s">
         <v>328</v>
@@ -12103,13 +12113,13 @@
         <v>361</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D373" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E373" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F373" s="5" t="s">
         <v>219</v>
@@ -12126,13 +12136,13 @@
         <v>362</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D374" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E374" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F374" s="5" t="s">
         <v>33</v>
@@ -12149,13 +12159,13 @@
         <v>315</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D375" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E375" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F375" s="5" t="s">
         <v>13</v>
@@ -12172,13 +12182,13 @@
         <v>363</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D376" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E376" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F376" s="5" t="s">
         <v>13</v>
@@ -12195,13 +12205,13 @@
         <v>364</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D377" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E377" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F377" s="5" t="s">
         <v>359</v>
@@ -12218,13 +12228,13 @@
         <v>365</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D378" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E378" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F378" s="5" t="s">
         <v>334</v>
@@ -12241,13 +12251,13 @@
         <v>366</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D379" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E379" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F379" s="5" t="s">
         <v>219</v>
@@ -12264,13 +12274,13 @@
         <v>367</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D380" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E380" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F380" s="5" t="s">
         <v>219</v>
@@ -12287,13 +12297,13 @@
         <v>368</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D381" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E381" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F381" s="5" t="s">
         <v>13</v>
@@ -12310,13 +12320,13 @@
         <v>369</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D382" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E382" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F382" s="5" t="s">
         <v>13</v>
@@ -12333,13 +12343,13 @@
         <v>370</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D383" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E383" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F383" s="5" t="s">
         <v>13</v>
@@ -12356,13 +12366,13 @@
         <v>371</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D384" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E384" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F384" s="5" t="s">
         <v>13</v>
@@ -12379,13 +12389,13 @@
         <v>372</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D385" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E385" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F385" s="5" t="s">
         <v>13</v>
@@ -12402,13 +12412,13 @@
         <v>373</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D386" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E386" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F386" s="5" t="s">
         <v>328</v>
@@ -12425,13 +12435,13 @@
         <v>374</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D387" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E387" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F387" s="5" t="s">
         <v>13</v>
@@ -12448,13 +12458,13 @@
         <v>375</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D388" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E388" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F388" s="5" t="s">
         <v>300</v>
@@ -12471,13 +12481,13 @@
         <v>376</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D389" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E389" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F389" s="5" t="s">
         <v>33</v>
@@ -12494,13 +12504,13 @@
         <v>377</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D390" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E390" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F390" s="5" t="s">
         <v>219</v>
@@ -12517,13 +12527,13 @@
         <v>291</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D391" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F391" s="5" t="s">
         <v>13</v>
@@ -12540,13 +12550,13 @@
         <v>378</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D392" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E392" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F392" s="5" t="s">
         <v>219</v>
@@ -12563,13 +12573,13 @@
         <v>292</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D393" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E393" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F393" s="5" t="s">
         <v>13</v>
@@ -12586,13 +12596,13 @@
         <v>379</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D394" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E394" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F394" s="5" t="s">
         <v>380</v>
@@ -12609,13 +12619,13 @@
         <v>381</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D395" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E395" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F395" s="5" t="s">
         <v>13</v>
@@ -12632,13 +12642,13 @@
         <v>382</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D396" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E396" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F396" s="5" t="s">
         <v>219</v>
@@ -12655,13 +12665,13 @@
         <v>383</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D397" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E397" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F397" s="5" t="s">
         <v>13</v>
@@ -12678,13 +12688,13 @@
         <v>384</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D398" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E398" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F398" s="17" t="s">
         <v>13</v>
@@ -12701,13 +12711,13 @@
         <v>385</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D399" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E399" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F399" s="5" t="s">
         <v>13</v>
@@ -12724,13 +12734,13 @@
         <v>386</v>
       </c>
       <c r="C400" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D400" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E400" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F400" s="5" t="s">
         <v>13</v>
@@ -12747,13 +12757,13 @@
         <v>387</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D401" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E401" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F401" s="5" t="s">
         <v>357</v>
@@ -12770,13 +12780,13 @@
         <v>388</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D402" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E402" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F402" s="5" t="s">
         <v>13</v>
@@ -12793,13 +12803,13 @@
         <v>389</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D403" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E403" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F403" s="5" t="s">
         <v>13</v>
@@ -12816,13 +12826,13 @@
         <v>390</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D404" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E404" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F404" s="5" t="s">
         <v>13</v>
@@ -12839,13 +12849,13 @@
         <v>391</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D405" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E405" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F405" s="5" t="s">
         <v>13</v>
@@ -12862,13 +12872,13 @@
         <v>392</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D406" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E406" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F406" s="5" t="s">
         <v>13</v>
@@ -12885,13 +12895,13 @@
         <v>393</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D407" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E407" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F407" s="5" t="s">
         <v>13</v>
@@ -12908,13 +12918,13 @@
         <v>394</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D408" s="20" t="s">
         <v>2</v>
       </c>
       <c r="E408" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F408" s="5" t="s">
         <v>13</v>
@@ -12931,13 +12941,13 @@
         <v>395</v>
       </c>
       <c r="C409" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D409" s="21" t="s">
         <v>2</v>
       </c>
       <c r="E409" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F409" s="5" t="s">
         <v>13</v>
@@ -12954,13 +12964,13 @@
         <v>396</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D410" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E410" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F410" s="5" t="s">
         <v>13</v>
@@ -12977,13 +12987,13 @@
         <v>397</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D411" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E411" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F411" s="5" t="s">
         <v>13</v>
@@ -13000,13 +13010,13 @@
         <v>398</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D412" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E412" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F412" s="5" t="s">
         <v>219</v>
@@ -13023,13 +13033,13 @@
         <v>399</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D413" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E413" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F413" s="5" t="s">
         <v>33</v>
@@ -13046,13 +13056,13 @@
         <v>400</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D414" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E414" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F414" s="5" t="s">
         <v>33</v>
@@ -13069,13 +13079,13 @@
         <v>401</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D415" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E415" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F415" s="5" t="s">
         <v>13</v>
@@ -13092,13 +13102,13 @@
         <v>274</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D416" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E416" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F416" s="5" t="s">
         <v>13</v>
@@ -13115,13 +13125,13 @@
         <v>402</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D417" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E417" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F417" s="5" t="s">
         <v>50</v>
@@ -13138,13 +13148,13 @@
         <v>403</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D418" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E418" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F418" s="5" t="s">
         <v>13</v>
@@ -13161,13 +13171,13 @@
         <v>404</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D419" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E419" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F419" s="5" t="s">
         <v>33</v>
@@ -13181,16 +13191,16 @@
         <v>11</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>405</v>
+        <v>936</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="D420" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E420" s="6" t="s">
-        <v>707</v>
+        <v>684</v>
+      </c>
+      <c r="D420" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E420" s="6">
+        <v>45174</v>
       </c>
       <c r="F420" s="5" t="s">
         <v>328</v>
@@ -13204,16 +13214,16 @@
         <v>11</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D421" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E421" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F421" s="5" t="s">
         <v>13</v>
@@ -13227,16 +13237,16 @@
         <v>11</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D422" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E422" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F422" s="5" t="s">
         <v>33</v>
@@ -13250,16 +13260,16 @@
         <v>11</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D423" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E423" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F423" s="5" t="s">
         <v>13</v>
@@ -13273,16 +13283,16 @@
         <v>11</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D424" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E424" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F424" s="5" t="s">
         <v>359</v>
@@ -13296,16 +13306,16 @@
         <v>11</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D425" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E425" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F425" s="5" t="s">
         <v>359</v>
@@ -13319,16 +13329,16 @@
         <v>11</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D426" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E426" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F426" s="5" t="s">
         <v>359</v>
@@ -13342,16 +13352,16 @@
         <v>11</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D427" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E427" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F427" s="5" t="s">
         <v>359</v>
@@ -13365,16 +13375,16 @@
         <v>11</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D428" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E428" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F428" s="5"/>
       <c r="G428" s="35" t="s">
@@ -13386,16 +13396,16 @@
         <v>11</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D429" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E429" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F429" s="5" t="s">
         <v>359</v>
@@ -13409,16 +13419,16 @@
         <v>11</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D430" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E430" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F430" s="5" t="s">
         <v>359</v>
@@ -13432,16 +13442,16 @@
         <v>11</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D431" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E431" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F431" s="5" t="s">
         <v>359</v>
@@ -13455,16 +13465,16 @@
         <v>11</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D432" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E432" s="28" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F432" s="5" t="s">
         <v>359</v>
@@ -13478,16 +13488,16 @@
         <v>11</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D433" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E433" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F433" s="5" t="s">
         <v>359</v>
@@ -13501,16 +13511,16 @@
         <v>11</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D434" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E434" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F434" s="5" t="s">
         <v>359</v>
@@ -13527,13 +13537,13 @@
         <v>253</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D435" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E435" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F435" s="5" t="s">
         <v>13</v>
@@ -13547,10 +13557,10 @@
         <v>11</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D436" s="37" t="s">
         <v>2</v>
@@ -13573,13 +13583,13 @@
         <v>263</v>
       </c>
       <c r="C437" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D437" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E437" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F437" s="5" t="s">
         <v>219</v>
@@ -13593,16 +13603,16 @@
         <v>11</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D438" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E438" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F438" s="5" t="s">
         <v>13</v>
@@ -13616,16 +13626,16 @@
         <v>11</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D439" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E439" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F439" s="5" t="s">
         <v>13</v>
@@ -13642,13 +13652,13 @@
         <v>248</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D440" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E440" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F440" s="5" t="s">
         <v>13</v>
@@ -13662,16 +13672,16 @@
         <v>11</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D441" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E441" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F441" s="5"/>
       <c r="G441" s="35" t="s">
@@ -13683,16 +13693,16 @@
         <v>11</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="D442" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E442" s="6" t="s">
-        <v>707</v>
+        <v>693</v>
+      </c>
+      <c r="D442" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E442" s="6">
+        <v>45163</v>
       </c>
       <c r="F442" s="5" t="s">
         <v>13</v>
@@ -13706,16 +13716,16 @@
         <v>166</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D443" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E443" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F443" s="5" t="s">
         <v>13</v>
@@ -13729,16 +13739,16 @@
         <v>11</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D444" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E444" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F444" s="5"/>
       <c r="G444" s="35" t="s">
@@ -13750,16 +13760,16 @@
         <v>11</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D445" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E445" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F445" s="5" t="s">
         <v>13</v>
@@ -13773,16 +13783,16 @@
         <v>11</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D446" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E446" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F446" s="5" t="s">
         <v>334</v>
@@ -13796,16 +13806,16 @@
         <v>11</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D447" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E447" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F447" s="5" t="s">
         <v>13</v>
@@ -13819,16 +13829,16 @@
         <v>11</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D448" s="31" t="s">
         <v>2</v>
       </c>
       <c r="E448" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F448" s="5" t="s">
         <v>13</v>
@@ -13842,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D449" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E449" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F449" s="5" t="s">
         <v>13</v>
@@ -13865,16 +13875,16 @@
         <v>11</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D450" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E450" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F450" s="5"/>
       <c r="G450" s="35" t="s">
@@ -13889,13 +13899,13 @@
         <v>41</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D451" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E451" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F451" s="35" t="s">
         <v>13</v>
@@ -13909,16 +13919,16 @@
         <v>11</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D452" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E452" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F452" s="5" t="s">
         <v>13</v>
@@ -13932,16 +13942,16 @@
         <v>166</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D453" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E453" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F453" s="5" t="s">
         <v>13</v>
@@ -13955,16 +13965,16 @@
         <v>11</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D454" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E454" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F454" s="5" t="s">
         <v>13</v>
@@ -13978,16 +13988,16 @@
         <v>11</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D455" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E455" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F455" s="5"/>
       <c r="G455" s="35" t="s">
@@ -13999,16 +14009,16 @@
         <v>11</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D456" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E456" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F456" s="5" t="s">
         <v>13</v>
@@ -14022,16 +14032,16 @@
         <v>11</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D457" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E457" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F457" s="5" t="s">
         <v>359</v>
@@ -14045,16 +14055,16 @@
         <v>11</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D458" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E458" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F458" s="5" t="s">
         <v>359</v>
@@ -14068,16 +14078,16 @@
         <v>11</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D459" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E459" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F459" s="5" t="s">
         <v>13</v>
@@ -14091,16 +14101,16 @@
         <v>11</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D460" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E460" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F460" s="5" t="s">
         <v>198</v>
@@ -14114,16 +14124,16 @@
         <v>11</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D461" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E461" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F461" s="5" t="s">
         <v>13</v>
@@ -14137,16 +14147,16 @@
         <v>11</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D462" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E462" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F462" s="5"/>
       <c r="G462" s="35" t="s">
@@ -14161,13 +14171,13 @@
         <v>210</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D463" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E463" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F463" s="5" t="s">
         <v>13</v>
@@ -14181,16 +14191,16 @@
         <v>11</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D464" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E464" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F464" s="5" t="s">
         <v>13</v>
@@ -14204,16 +14214,16 @@
         <v>11</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D465" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E465" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F465" s="5" t="s">
         <v>13</v>
@@ -14227,10 +14237,10 @@
         <v>11</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D466" s="38" t="s">
         <v>2</v>
@@ -14250,16 +14260,16 @@
         <v>11</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D467" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E467" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F467" s="5" t="s">
         <v>13</v>
@@ -14273,16 +14283,16 @@
         <v>11</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D468" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E468" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F468" s="5" t="s">
         <v>328</v>
@@ -14296,16 +14306,16 @@
         <v>11</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D469" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E469" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F469" s="5" t="s">
         <v>13</v>
@@ -14319,16 +14329,16 @@
         <v>11</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C470" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D470" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E470" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F470" s="5" t="s">
         <v>13</v>
@@ -14342,16 +14352,16 @@
         <v>11</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C471" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D471" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E471" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F471" s="5"/>
       <c r="G471" s="35" t="s">
@@ -14363,16 +14373,16 @@
         <v>11</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D472" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E472" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F472" s="5" t="s">
         <v>13</v>
@@ -14386,16 +14396,16 @@
         <v>11</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D473" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E473" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F473" s="5" t="s">
         <v>13</v>
@@ -14409,16 +14419,16 @@
         <v>11</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D474" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E474" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F474" s="5" t="s">
         <v>13</v>
@@ -14432,16 +14442,16 @@
         <v>11</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D475" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E475" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F475" s="5" t="s">
         <v>13</v>
@@ -14455,16 +14465,16 @@
         <v>11</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E476" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F476" s="5" t="s">
         <v>13</v>
@@ -14478,16 +14488,16 @@
         <v>11</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D477" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E477" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F477" s="5" t="s">
         <v>13</v>
@@ -14501,16 +14511,16 @@
         <v>11</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D478" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E478" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F478" s="5"/>
       <c r="G478" s="35" t="s">
@@ -14522,16 +14532,16 @@
         <v>11</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D479" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E479" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F479" s="5"/>
       <c r="G479" s="35" t="s">
@@ -14543,16 +14553,16 @@
         <v>11</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D480" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E480" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F480" s="5" t="s">
         <v>13</v>
@@ -14569,13 +14579,13 @@
         <v>400</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D481" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E481" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F481" s="5" t="s">
         <v>33</v>
@@ -14589,16 +14599,16 @@
         <v>11</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C482" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D482" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E482" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F482" s="5" t="s">
         <v>13</v>
@@ -14612,16 +14622,16 @@
         <v>11</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C483" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D483" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E483" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F483" s="5" t="s">
         <v>13</v>
@@ -14635,16 +14645,16 @@
         <v>11</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C484" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D484" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E484" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F484" s="5" t="s">
         <v>13</v>
@@ -14658,16 +14668,16 @@
         <v>11</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C485" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D485" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E485" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F485" s="5" t="s">
         <v>13</v>
@@ -14681,16 +14691,16 @@
         <v>11</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C486" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D486" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E486" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F486" s="5" t="s">
         <v>13</v>
@@ -14704,16 +14714,16 @@
         <v>11</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C487" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D487" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E487" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F487" s="5" t="s">
         <v>13</v>
@@ -14727,16 +14737,16 @@
         <v>11</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C488" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D488" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E488" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F488" s="5" t="s">
         <v>13</v>
@@ -14750,16 +14760,16 @@
         <v>11</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C489" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D489" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E489" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F489" s="5" t="s">
         <v>13</v>
@@ -14773,16 +14783,16 @@
         <v>11</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C490" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D490" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E490" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F490" s="5" t="s">
         <v>300</v>
@@ -14796,16 +14806,16 @@
         <v>11</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C491" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D491" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E491" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F491" s="5" t="s">
         <v>71</v>
@@ -14822,13 +14832,13 @@
         <v>323</v>
       </c>
       <c r="C492" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D492" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E492" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F492" s="5" t="s">
         <v>110</v>
@@ -14842,16 +14852,16 @@
         <v>166</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C493" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D493" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E493" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F493" s="5" t="s">
         <v>13</v>
@@ -14865,16 +14875,16 @@
         <v>11</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C494" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D494" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E494" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F494" s="5" t="s">
         <v>13</v>
@@ -14888,16 +14898,16 @@
         <v>166</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C495" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D495" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E495" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F495" s="5" t="s">
         <v>13</v>
@@ -14914,13 +14924,13 @@
         <v>366</v>
       </c>
       <c r="C496" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D496" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E496" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F496" s="5" t="s">
         <v>219</v>
@@ -14937,13 +14947,13 @@
         <v>120</v>
       </c>
       <c r="C497" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D497" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E497" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F497" s="5" t="s">
         <v>13</v>
@@ -14957,16 +14967,16 @@
         <v>11</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C498" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D498" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E498" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F498" s="5" t="s">
         <v>13</v>
@@ -14980,16 +14990,16 @@
         <v>11</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C499" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D499" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E499" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F499" s="5" t="s">
         <v>13</v>
@@ -15003,16 +15013,16 @@
         <v>11</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C500" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D500" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E500" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F500" s="5" t="s">
         <v>13</v>
@@ -15026,16 +15036,16 @@
         <v>11</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C501" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D501" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E501" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F501" s="5"/>
       <c r="G501" s="35" t="s">
@@ -15047,16 +15057,16 @@
         <v>11</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C502" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D502" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E502" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F502" s="5"/>
       <c r="G502" s="35" t="s">
@@ -15068,16 +15078,16 @@
         <v>166</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C503" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D503" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E503" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F503" s="5" t="s">
         <v>13</v>
@@ -15091,16 +15101,16 @@
         <v>166</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C504" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D504" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E504" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F504" s="5" t="s">
         <v>13</v>
@@ -15114,16 +15124,16 @@
         <v>11</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C505" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D505" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E505" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F505" s="5" t="s">
         <v>13</v>
@@ -15137,16 +15147,16 @@
         <v>11</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C506" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D506" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E506" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F506" s="5" t="s">
         <v>13</v>
@@ -15160,16 +15170,16 @@
         <v>11</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C507" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D507" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E507" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F507" s="5"/>
       <c r="G507" s="35" t="s">
@@ -15181,16 +15191,16 @@
         <v>11</v>
       </c>
       <c r="B508" s="25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C508" s="26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D508" s="25" t="s">
         <v>4</v>
       </c>
       <c r="E508" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F508" s="25" t="s">
         <v>13</v>
@@ -15204,16 +15214,16 @@
         <v>11</v>
       </c>
       <c r="B509" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C509" s="26" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D509" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E509" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F509" s="25" t="s">
         <v>13</v>
@@ -15227,16 +15237,16 @@
         <v>11</v>
       </c>
       <c r="B510" s="25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C510" s="26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D510" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E510" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F510" s="25" t="s">
         <v>13</v>
@@ -15250,16 +15260,16 @@
         <v>11</v>
       </c>
       <c r="B511" s="25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C511" s="26" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D511" s="25" t="s">
         <v>4</v>
       </c>
       <c r="E511" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F511" s="25" t="s">
         <v>71</v>
@@ -15273,16 +15283,16 @@
         <v>11</v>
       </c>
       <c r="B512" s="25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C512" s="26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D512" s="25" t="s">
         <v>6</v>
       </c>
       <c r="E512" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F512" s="25" t="s">
         <v>13</v>
@@ -15296,16 +15306,16 @@
         <v>166</v>
       </c>
       <c r="B513" s="25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C513" s="26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D513" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E513" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F513" s="25" t="s">
         <v>50</v>
@@ -15319,16 +15329,16 @@
         <v>11</v>
       </c>
       <c r="B514" s="25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C514" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D514" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E514" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F514" s="25"/>
       <c r="G514" s="35" t="s">
@@ -15343,13 +15353,13 @@
         <v>218</v>
       </c>
       <c r="C515" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D515" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E515" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F515" s="25" t="s">
         <v>219</v>
@@ -15363,16 +15373,16 @@
         <v>11</v>
       </c>
       <c r="B516" s="25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C516" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D516" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E516" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F516" s="25" t="s">
         <v>13</v>
@@ -15386,16 +15396,16 @@
         <v>11</v>
       </c>
       <c r="B517" s="25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C517" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D517" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E517" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F517" s="25" t="s">
         <v>13</v>
@@ -15409,16 +15419,16 @@
         <v>11</v>
       </c>
       <c r="B518" s="25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C518" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D518" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E518" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F518" s="25" t="s">
         <v>13</v>
@@ -15432,16 +15442,16 @@
         <v>11</v>
       </c>
       <c r="B519" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C519" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D519" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E519" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F519" s="25" t="s">
         <v>13</v>
@@ -15455,16 +15465,16 @@
         <v>11</v>
       </c>
       <c r="B520" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C520" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D520" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E520" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F520" s="25" t="s">
         <v>13</v>
@@ -15478,16 +15488,16 @@
         <v>11</v>
       </c>
       <c r="B521" s="25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C521" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D521" s="25" t="s">
         <v>4</v>
       </c>
       <c r="E521" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F521" s="25" t="s">
         <v>13</v>
@@ -15501,16 +15511,16 @@
         <v>11</v>
       </c>
       <c r="B522" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C522" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D522" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E522" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F522" s="25" t="s">
         <v>13</v>
@@ -15524,16 +15534,16 @@
         <v>11</v>
       </c>
       <c r="B523" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C523" s="26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D523" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E523" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F523" s="25" t="s">
         <v>13</v>
@@ -15547,16 +15557,16 @@
         <v>11</v>
       </c>
       <c r="B524" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C524" s="26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D524" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E524" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F524" s="25" t="s">
         <v>13</v>
@@ -15570,16 +15580,16 @@
         <v>11</v>
       </c>
       <c r="B525" s="25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C525" s="26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D525" s="25" t="s">
         <v>4</v>
       </c>
       <c r="E525" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F525" s="25"/>
       <c r="G525" s="35" t="s">
@@ -15591,16 +15601,16 @@
         <v>11</v>
       </c>
       <c r="B526" s="25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C526" s="26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D526" s="25" t="s">
         <v>1</v>
       </c>
       <c r="E526" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F526" s="25" t="s">
         <v>13</v>
@@ -15614,16 +15624,16 @@
         <v>11</v>
       </c>
       <c r="B527" s="39" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C527" s="40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D527" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E527" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F527" s="39" t="s">
         <v>13</v>
@@ -15637,16 +15647,16 @@
         <v>11</v>
       </c>
       <c r="B528" s="39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C528" s="40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D528" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E528" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F528" s="39" t="s">
         <v>13</v>
@@ -15660,16 +15670,16 @@
         <v>11</v>
       </c>
       <c r="B529" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C529" s="40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D529" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E529" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F529" s="39"/>
       <c r="G529" s="41" t="s">
@@ -15681,16 +15691,16 @@
         <v>11</v>
       </c>
       <c r="B530" s="39" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C530" s="40" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D530" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E530" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F530" s="39" t="s">
         <v>13</v>
@@ -15704,16 +15714,16 @@
         <v>11</v>
       </c>
       <c r="B531" s="39" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C531" s="40" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D531" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E531" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F531" s="39" t="s">
         <v>13</v>
@@ -15730,13 +15740,13 @@
         <v>155</v>
       </c>
       <c r="C532" s="40" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D532" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E532" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F532" s="39" t="s">
         <v>13</v>
@@ -15750,16 +15760,16 @@
         <v>11</v>
       </c>
       <c r="B533" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C533" s="40" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D533" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E533" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F533" s="39"/>
       <c r="G533" s="41" t="s">
@@ -15771,16 +15781,16 @@
         <v>11</v>
       </c>
       <c r="B534" s="39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C534" s="40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D534" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E534" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F534" s="39"/>
       <c r="G534" s="41" t="s">
@@ -15792,16 +15802,16 @@
         <v>11</v>
       </c>
       <c r="B535" s="39" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C535" s="40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D535" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E535" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F535" s="39" t="s">
         <v>13</v>
@@ -15815,16 +15825,16 @@
         <v>11</v>
       </c>
       <c r="B536" s="39" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C536" s="40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D536" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E536" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F536" s="39"/>
       <c r="G536" s="41" t="s">
@@ -15836,16 +15846,16 @@
         <v>11</v>
       </c>
       <c r="B537" s="39" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C537" s="40" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D537" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E537" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F537" s="39"/>
       <c r="G537" s="41" t="s">
@@ -15857,16 +15867,16 @@
         <v>11</v>
       </c>
       <c r="B538" s="39" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C538" s="40" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D538" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E538" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F538" s="39"/>
       <c r="G538" s="41" t="s">
@@ -15878,16 +15888,16 @@
         <v>11</v>
       </c>
       <c r="B539" s="39" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C539" s="40" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D539" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E539" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F539" s="39" t="s">
         <v>13</v>
@@ -15901,16 +15911,16 @@
         <v>11</v>
       </c>
       <c r="B540" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C540" s="40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D540" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E540" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F540" s="39"/>
       <c r="G540" s="41" t="s">
@@ -15922,7 +15932,7 @@
         <v>166</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C541" s="3">
         <v>45145</v>
@@ -15941,7 +15951,7 @@
         <v>166</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C542" s="3">
         <v>45145</v>
@@ -15960,7 +15970,7 @@
         <v>11</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C543" s="3">
         <v>45145</v>
@@ -15979,7 +15989,7 @@
         <v>11</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C544" s="3">
         <v>45145</v>
@@ -15998,7 +16008,7 @@
         <v>11</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C545" s="3">
         <v>45145</v>
@@ -16017,7 +16027,7 @@
         <v>11</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C546" s="43">
         <v>45145</v>
@@ -16036,7 +16046,7 @@
         <v>11</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C547" s="3">
         <v>45145</v>
@@ -16055,7 +16065,7 @@
         <v>11</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C548" s="3">
         <v>45145</v>
@@ -16074,7 +16084,7 @@
         <v>11</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C549" s="3">
         <v>45146</v>
@@ -16093,7 +16103,7 @@
         <v>11</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C550" s="3">
         <v>45145</v>
@@ -16112,7 +16122,7 @@
         <v>166</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C551" s="3">
         <v>45145</v>
@@ -16131,7 +16141,7 @@
         <v>166</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C552" s="3">
         <v>45145</v>
@@ -16150,7 +16160,7 @@
         <v>166</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C553" s="3">
         <v>45145</v>
@@ -16169,7 +16179,7 @@
         <v>11</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C554" s="3">
         <v>45145</v>
@@ -16188,7 +16198,7 @@
         <v>11</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C555" s="3">
         <v>45145</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053DA4E5-56EA-9C40-B68B-6E12A38E14D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030BF2FA-FEAC-5141-BA32-74A6A0DE3D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3807" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3806" uniqueCount="937">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2855,11 +2855,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3150,24 +3157,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3176,34 +3198,22 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3215,25 +3225,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3245,13 +3255,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="33" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3263,22 +3273,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3544,7 +3554,7 @@
   <dimension ref="A1:G973"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A555" sqref="A555"/>
     </sheetView>
   </sheetViews>
@@ -10505,11 +10515,11 @@
       <c r="C303" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="D303" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E303" s="6" t="s">
-        <v>706</v>
+      <c r="D303" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E303" s="6">
+        <v>45187</v>
       </c>
       <c r="F303" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030BF2FA-FEAC-5141-BA32-74A6A0DE3D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EE45FB-E2F0-4046-8174-CB21F7161021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3806" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3804" uniqueCount="937">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2855,11 +2855,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3157,42 +3171,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3201,46 +3233,34 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3249,16 +3269,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="35" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3267,25 +3287,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13934,11 +13954,11 @@
       <c r="C452" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="D452" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E452" s="6" t="s">
-        <v>706</v>
+      <c r="D452" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E452" s="6">
+        <v>45210</v>
       </c>
       <c r="F452" s="5" t="s">
         <v>13</v>
@@ -14275,11 +14295,11 @@
       <c r="C467" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="D467" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E467" s="6" t="s">
-        <v>706</v>
+      <c r="D467" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E467" s="6">
+        <v>45208</v>
       </c>
       <c r="F467" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EE45FB-E2F0-4046-8174-CB21F7161021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A191C47-02E9-234F-8748-DFD99AA2AB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3804" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3803" uniqueCount="937">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2855,11 +2855,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3171,24 +3178,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3197,34 +3219,22 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3236,25 +3246,25 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3266,13 +3276,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="36" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="35" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3284,22 +3294,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11869,11 +11879,11 @@
       <c r="C361" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="D361" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E361" s="6" t="s">
-        <v>706</v>
+      <c r="D361" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E361" s="6">
+        <v>45216</v>
       </c>
       <c r="F361" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A191C47-02E9-234F-8748-DFD99AA2AB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7E64F2-C6C5-F14E-9E1A-D6E669B44FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3803" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3802" uniqueCount="937">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2855,11 +2855,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3178,24 +3185,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3204,34 +3226,22 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3243,25 +3253,25 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3273,13 +3283,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="37" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="36" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3291,22 +3301,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12661,11 +12671,11 @@
       <c r="C395" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="D395" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E395" s="6" t="s">
-        <v>706</v>
+      <c r="D395" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E395" s="6">
+        <v>45254</v>
       </c>
       <c r="F395" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7E64F2-C6C5-F14E-9E1A-D6E669B44FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0088C448-3D40-914B-8723-EE16463CA6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3802" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3801" uniqueCount="937">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -13684,8 +13684,8 @@
       <c r="D439" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E439" s="6" t="s">
-        <v>706</v>
+      <c r="E439" s="6">
+        <v>45264</v>
       </c>
       <c r="F439" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0088C448-3D40-914B-8723-EE16463CA6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A55210D-2E64-A34E-96B0-4A7B5E350411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3801" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="937">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2855,11 +2855,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3185,42 +3206,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3229,49 +3271,43 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="40" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3283,37 +3319,31 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="37" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10969,11 +10999,11 @@
       <c r="C321" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="D321" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E321" s="6" t="s">
-        <v>706</v>
+      <c r="D321" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E321" s="6">
+        <v>45329</v>
       </c>
       <c r="F321" s="5" t="s">
         <v>13</v>
@@ -11038,11 +11068,11 @@
       <c r="C324" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="D324" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E324" s="6" t="s">
-        <v>706</v>
+      <c r="D324" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E324" s="6">
+        <v>45271</v>
       </c>
       <c r="F324" s="5" t="s">
         <v>13</v>
@@ -11590,11 +11620,11 @@
       <c r="C348" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="D348" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E348" s="6" t="s">
-        <v>706</v>
+      <c r="D348" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E348" s="6">
+        <v>45350</v>
       </c>
       <c r="F348" s="5" t="s">
         <v>13</v>
@@ -12878,11 +12908,11 @@
       <c r="C404" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="D404" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E404" s="6" t="s">
-        <v>706</v>
+      <c r="D404" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E404" s="6">
+        <v>45258</v>
       </c>
       <c r="F404" s="5" t="s">
         <v>13</v>
@@ -14361,11 +14391,11 @@
       <c r="C469" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="D469" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E469" s="6" t="s">
-        <v>706</v>
+      <c r="D469" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E469" s="6">
+        <v>45259</v>
       </c>
       <c r="F469" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A55210D-2E64-A34E-96B0-4A7B5E350411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C4C651-4831-4B49-AAE2-AC343C065334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="937">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2855,11 +2855,39 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3206,42 +3234,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="43" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3250,46 +3302,40 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="44" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3304,16 +3350,19 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="40" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3322,19 +3371,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10930,8 +10970,8 @@
       <c r="C318" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="D318" s="10" t="s">
-        <v>6</v>
+      <c r="D318" s="53" t="s">
+        <v>1</v>
       </c>
       <c r="E318" s="6" t="s">
         <v>706</v>
@@ -12632,11 +12672,11 @@
       <c r="C392" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="D392" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E392" s="6" t="s">
-        <v>706</v>
+      <c r="D392" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E392" s="6">
+        <v>45279</v>
       </c>
       <c r="F392" s="5" t="s">
         <v>219</v>
@@ -14481,11 +14521,11 @@
       <c r="C473" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="D473" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E473" s="6" t="s">
-        <v>706</v>
+      <c r="D473" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E473" s="6">
+        <v>45281</v>
       </c>
       <c r="F473" s="5" t="s">
         <v>13</v>
@@ -14730,11 +14770,11 @@
       <c r="C484" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="D484" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E484" s="6" t="s">
-        <v>706</v>
+      <c r="D484" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E484" s="6">
+        <v>45342</v>
       </c>
       <c r="F484" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C4C651-4831-4B49-AAE2-AC343C065334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653759C4-7935-DB43-940B-3987B90FCA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3791" uniqueCount="937">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2855,11 +2855,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3234,42 +3248,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="43" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3278,46 +3310,34 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3326,16 +3346,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="46" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3344,25 +3364,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11062,11 +11082,11 @@
       <c r="C322" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="D322" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E322" s="6" t="s">
-        <v>706</v>
+      <c r="D322" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E322" s="6">
+        <v>45282</v>
       </c>
       <c r="F322" s="5" t="s">
         <v>13</v>
@@ -13339,11 +13359,11 @@
       <c r="C421" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="D421" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E421" s="6" t="s">
-        <v>706</v>
+      <c r="D421" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E421" s="6">
+        <v>45274</v>
       </c>
       <c r="F421" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653759C4-7935-DB43-940B-3987B90FCA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661F4FB7-255F-7446-AABB-66F13C9F5BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3791" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="937">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2855,11 +2855,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3248,24 +3255,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3274,34 +3296,22 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3313,25 +3323,25 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3343,13 +3353,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="47" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="46" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3361,22 +3371,22 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11197,11 +11207,11 @@
       <c r="C327" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="D327" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E327" s="6" t="s">
-        <v>706</v>
+      <c r="D327" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E327" s="6">
+        <v>45275</v>
       </c>
       <c r="F327" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661F4FB7-255F-7446-AABB-66F13C9F5BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A82A80D-BE59-D449-9C33-8241DC907EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3789" uniqueCount="937">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2855,11 +2855,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3255,24 +3262,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3281,34 +3303,22 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3320,25 +3330,25 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3350,13 +3360,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="48" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="47" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3368,22 +3378,22 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11046,11 +11056,11 @@
       <c r="C320" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="D320" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E320" s="6" t="s">
-        <v>706</v>
+      <c r="D320" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E320" s="6">
+        <v>45274</v>
       </c>
       <c r="F320" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A82A80D-BE59-D449-9C33-8241DC907EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5842DD9-D281-1548-B7AD-09E71E59B6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3789" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3788" uniqueCount="936">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2804,9 +2804,6 @@
   </si>
   <si>
     <t>19/06/2023</t>
-  </si>
-  <si>
-    <t>11/05/2023</t>
   </si>
   <si>
     <t>Jairon Pinheiro da Silva</t>
@@ -13351,7 +13348,7 @@
         <v>11</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C420" s="6" t="s">
         <v>684</v>
@@ -15181,8 +15178,8 @@
       <c r="D500" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E500" s="6" t="s">
-        <v>922</v>
+      <c r="E500" s="6">
+        <v>45356</v>
       </c>
       <c r="F500" s="5" t="s">
         <v>13</v>
@@ -16111,7 +16108,7 @@
         <v>166</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C542" s="3">
         <v>45145</v>
@@ -16130,7 +16127,7 @@
         <v>11</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C543" s="3">
         <v>45145</v>
@@ -16149,7 +16146,7 @@
         <v>11</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C544" s="3">
         <v>45145</v>
@@ -16168,7 +16165,7 @@
         <v>11</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C545" s="3">
         <v>45145</v>
@@ -16187,7 +16184,7 @@
         <v>11</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C546" s="43">
         <v>45145</v>
@@ -16206,7 +16203,7 @@
         <v>11</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C547" s="3">
         <v>45145</v>
@@ -16225,7 +16222,7 @@
         <v>11</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C548" s="3">
         <v>45145</v>
@@ -16244,7 +16241,7 @@
         <v>11</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C549" s="3">
         <v>45146</v>
@@ -16263,7 +16260,7 @@
         <v>11</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C550" s="3">
         <v>45145</v>
@@ -16282,7 +16279,7 @@
         <v>166</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C551" s="3">
         <v>45145</v>
@@ -16320,7 +16317,7 @@
         <v>166</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C553" s="3">
         <v>45145</v>
@@ -16339,7 +16336,7 @@
         <v>11</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C554" s="3">
         <v>45145</v>
@@ -16358,7 +16355,7 @@
         <v>11</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C555" s="3">
         <v>45145</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5842DD9-D281-1548-B7AD-09E71E59B6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ED9369-0272-3144-821C-D61AD9185C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3788" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3787" uniqueCount="936">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2852,11 +2852,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3259,24 +3266,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3285,34 +3307,22 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3324,25 +3334,25 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3354,13 +3364,13 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="49" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="48" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3372,22 +3382,22 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="50" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14171,11 +14181,11 @@
       <c r="C456" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="D456" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E456" s="6" t="s">
-        <v>706</v>
+      <c r="D456" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E456" s="6">
+        <v>45280</v>
       </c>
       <c r="F456" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ED9369-0272-3144-821C-D61AD9185C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CD77AB-7C70-4A4B-9604-774C404E8651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Discentes" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Discentes!$A$1:$G$526</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Discentes!$A$1:$G$511</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3787" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3794" uniqueCount="940">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2812,9 +2812,6 @@
     <t>Aline Mendes Leal Rodrigues de Souza</t>
   </si>
   <si>
-    <t>Ana Paula Tavares Fernandes do Prado</t>
-  </si>
-  <si>
     <t>Bruno Macedo Leite Reis</t>
   </si>
   <si>
@@ -2839,24 +2836,46 @@
     <t>Thiago Antunes dos Santos</t>
   </si>
   <si>
-    <t xml:space="preserve">Andrey Bueno Duarte de Barros </t>
-  </si>
-  <si>
     <t>Mateus da Silva Miccichelli</t>
   </si>
   <si>
     <t>Wesley Ronney Aires de Souza</t>
+  </si>
+  <si>
+    <t>Andrey Bueno Duarte de Barros</t>
+  </si>
+  <si>
+    <t>Glaucio Oliveira da Gama</t>
+  </si>
+  <si>
+    <t>Carla Regina Pereira da Gama</t>
+  </si>
+  <si>
+    <t>Lauro dos Santos Fernandes</t>
+  </si>
+  <si>
+    <t>Fabiana de Sousa Nitão</t>
+  </si>
+  <si>
+    <t>Thais Maria Paranhos Silveira do Nascimento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3210,7 +3229,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3221,6 +3240,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3266,24 +3291,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3292,34 +3332,22 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3331,25 +3359,25 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3361,13 +3389,13 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="50" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="49" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3379,22 +3407,22 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="50" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3442,7 +3470,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3461,8 +3498,7 @@
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
+        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -3708,11 +3744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G973"/>
+  <dimension ref="A1:G957"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A555" sqref="A555"/>
+      <pane ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A558" sqref="A558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10672,7 +10708,7 @@
       <c r="C303" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="D303" s="45" t="s">
+      <c r="D303" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E303" s="6">
@@ -10833,7 +10869,7 @@
       <c r="C310" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="D310" s="44" t="s">
+      <c r="D310" s="42" t="s">
         <v>2</v>
       </c>
       <c r="E310" s="6">
@@ -11017,7 +11053,7 @@
       <c r="C318" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="D318" s="53" t="s">
+      <c r="D318" s="51" t="s">
         <v>1</v>
       </c>
       <c r="E318" s="6" t="s">
@@ -11063,7 +11099,7 @@
       <c r="C320" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="D320" s="60" t="s">
+      <c r="D320" s="58" t="s">
         <v>2</v>
       </c>
       <c r="E320" s="6">
@@ -11086,7 +11122,7 @@
       <c r="C321" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="D321" s="52" t="s">
+      <c r="D321" s="50" t="s">
         <v>2</v>
       </c>
       <c r="E321" s="6">
@@ -11109,7 +11145,7 @@
       <c r="C322" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="D322" s="58" t="s">
+      <c r="D322" s="56" t="s">
         <v>2</v>
       </c>
       <c r="E322" s="6">
@@ -11132,11 +11168,11 @@
       <c r="C323" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="D323" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E323" s="6" t="s">
-        <v>706</v>
+      <c r="D323" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E323" s="6">
+        <v>45317</v>
       </c>
       <c r="F323" s="5" t="s">
         <v>198</v>
@@ -11155,7 +11191,7 @@
       <c r="C324" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="D324" s="52" t="s">
+      <c r="D324" s="50" t="s">
         <v>2</v>
       </c>
       <c r="E324" s="6">
@@ -11224,7 +11260,7 @@
       <c r="C327" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="D327" s="59" t="s">
+      <c r="D327" s="57" t="s">
         <v>2</v>
       </c>
       <c r="E327" s="6">
@@ -11247,11 +11283,11 @@
       <c r="C328" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="D328" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E328" s="6" t="s">
-        <v>706</v>
+      <c r="D328" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E328" s="6">
+        <v>45316</v>
       </c>
       <c r="F328" s="5" t="s">
         <v>13</v>
@@ -11707,7 +11743,7 @@
       <c r="C348" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="D348" s="52" t="s">
+      <c r="D348" s="50" t="s">
         <v>2</v>
       </c>
       <c r="E348" s="6">
@@ -12006,7 +12042,7 @@
       <c r="C361" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="D361" s="48" t="s">
+      <c r="D361" s="46" t="s">
         <v>2</v>
       </c>
       <c r="E361" s="6">
@@ -12716,10 +12752,10 @@
       <c r="B392" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C392" s="6" t="s">
+      <c r="C392" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="D392" s="54" t="s">
+      <c r="D392" s="52" t="s">
         <v>2</v>
       </c>
       <c r="E392" s="6">
@@ -12739,7 +12775,7 @@
       <c r="B393" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C393" s="6" t="s">
+      <c r="C393" s="3" t="s">
         <v>677</v>
       </c>
       <c r="D393" s="5" t="s">
@@ -12788,7 +12824,7 @@
       <c r="C395" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="D395" s="49" t="s">
+      <c r="D395" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E395" s="6">
@@ -12995,7 +13031,7 @@
       <c r="C404" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="D404" s="50" t="s">
+      <c r="D404" s="48" t="s">
         <v>2</v>
       </c>
       <c r="E404" s="6">
@@ -13358,12 +13394,12 @@
         <v>11</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C420" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="D420" s="44" t="s">
+      <c r="D420" s="42" t="s">
         <v>2</v>
       </c>
       <c r="E420" s="6">
@@ -13386,7 +13422,7 @@
       <c r="C421" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="D421" s="57" t="s">
+      <c r="D421" s="55" t="s">
         <v>2</v>
       </c>
       <c r="E421" s="6">
@@ -13865,7 +13901,7 @@
       <c r="C442" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="D442" s="44" t="s">
+      <c r="D442" s="42" t="s">
         <v>2</v>
       </c>
       <c r="E442" s="6">
@@ -13955,11 +13991,11 @@
       <c r="C446" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="D446" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E446" s="6" t="s">
-        <v>706</v>
+      <c r="D446" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E446" s="6">
+        <v>45329</v>
       </c>
       <c r="F446" s="5" t="s">
         <v>334</v>
@@ -14091,7 +14127,7 @@
       <c r="C452" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="D452" s="46" t="s">
+      <c r="D452" s="44" t="s">
         <v>2</v>
       </c>
       <c r="E452" s="6">
@@ -14181,7 +14217,7 @@
       <c r="C456" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="D456" s="61" t="s">
+      <c r="D456" s="59" t="s">
         <v>2</v>
       </c>
       <c r="E456" s="6">
@@ -14432,7 +14468,7 @@
       <c r="C467" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="D467" s="47" t="s">
+      <c r="D467" s="45" t="s">
         <v>2</v>
       </c>
       <c r="E467" s="6">
@@ -14478,7 +14514,7 @@
       <c r="C469" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="D469" s="51" t="s">
+      <c r="D469" s="49" t="s">
         <v>2</v>
       </c>
       <c r="E469" s="6">
@@ -14568,7 +14604,7 @@
       <c r="C473" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="D473" s="55" t="s">
+      <c r="D473" s="53" t="s">
         <v>2</v>
       </c>
       <c r="E473" s="6">
@@ -14817,7 +14853,7 @@
       <c r="C484" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="D484" s="56" t="s">
+      <c r="D484" s="54" t="s">
         <v>2</v>
       </c>
       <c r="E484" s="6">
@@ -15446,343 +15482,343 @@
       </c>
     </row>
     <row r="512" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A512" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B512" s="25" t="s">
+      <c r="A512" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B512" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="C512" s="26" t="s">
+      <c r="C512" s="40" t="s">
         <v>486</v>
       </c>
-      <c r="D512" s="25" t="s">
+      <c r="D512" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E512" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="F512" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G512" s="25" t="s">
+      <c r="E512" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F512" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G512" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="513" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A513" s="25" t="s">
+      <c r="A513" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="B513" s="25" t="s">
+      <c r="B513" s="39" t="s">
         <v>516</v>
       </c>
-      <c r="C513" s="26" t="s">
+      <c r="C513" s="40" t="s">
         <v>486</v>
       </c>
-      <c r="D513" s="25" t="s">
+      <c r="D513" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E513" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="F513" s="25" t="s">
+      <c r="E513" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F513" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G513" s="25" t="s">
+      <c r="G513" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="514" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A514" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B514" s="25" t="s">
+      <c r="A514" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B514" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="C514" s="26" t="s">
+      <c r="C514" s="40" t="s">
         <v>487</v>
       </c>
-      <c r="D514" s="25" t="s">
+      <c r="D514" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E514" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="F514" s="25"/>
-      <c r="G514" s="35" t="s">
+      <c r="E514" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F514" s="39"/>
+      <c r="G514" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="515" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="25" t="s">
+      <c r="A515" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="B515" s="25" t="s">
+      <c r="B515" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="C515" s="26" t="s">
+      <c r="C515" s="40" t="s">
         <v>487</v>
       </c>
-      <c r="D515" s="25" t="s">
+      <c r="D515" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E515" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="F515" s="25" t="s">
+      <c r="E515" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F515" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="G515" s="25" t="s">
+      <c r="G515" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="516" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A516" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B516" s="25" t="s">
+      <c r="A516" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B516" s="39" t="s">
         <v>421</v>
       </c>
-      <c r="C516" s="26" t="s">
+      <c r="C516" s="40" t="s">
         <v>488</v>
       </c>
-      <c r="D516" s="25" t="s">
+      <c r="D516" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E516" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="F516" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G516" s="25" t="s">
+      <c r="E516" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F516" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G516" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="517" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A517" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B517" s="25" t="s">
+      <c r="A517" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B517" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="C517" s="26" t="s">
+      <c r="C517" s="40" t="s">
         <v>488</v>
       </c>
-      <c r="D517" s="25" t="s">
+      <c r="D517" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E517" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="F517" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G517" s="25" t="s">
+      <c r="E517" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F517" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G517" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="518" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A518" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B518" s="25" t="s">
+      <c r="A518" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B518" s="39" t="s">
         <v>515</v>
       </c>
-      <c r="C518" s="26" t="s">
+      <c r="C518" s="40" t="s">
         <v>488</v>
       </c>
-      <c r="D518" s="25" t="s">
+      <c r="D518" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E518" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="F518" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G518" s="25" t="s">
+      <c r="E518" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F518" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G518" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="519" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A519" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B519" s="25" t="s">
+      <c r="A519" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B519" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="C519" s="26" t="s">
+      <c r="C519" s="40" t="s">
         <v>488</v>
       </c>
-      <c r="D519" s="25" t="s">
+      <c r="D519" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E519" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="F519" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G519" s="25" t="s">
+      <c r="E519" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F519" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G519" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="520" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A520" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B520" s="25" t="s">
+      <c r="A520" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B520" s="39" t="s">
         <v>504</v>
       </c>
-      <c r="C520" s="26" t="s">
+      <c r="C520" s="40" t="s">
         <v>488</v>
       </c>
-      <c r="D520" s="25" t="s">
+      <c r="D520" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E520" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="F520" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G520" s="25" t="s">
+      <c r="E520" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F520" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G520" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="521" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B521" s="25" t="s">
+      <c r="A521" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B521" s="39" t="s">
         <v>517</v>
       </c>
-      <c r="C521" s="26" t="s">
+      <c r="C521" s="40" t="s">
         <v>489</v>
       </c>
-      <c r="D521" s="25" t="s">
+      <c r="D521" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E521" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="F521" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G521" s="25" t="s">
+      <c r="E521" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F521" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G521" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="522" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A522" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B522" s="25" t="s">
+      <c r="A522" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B522" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="C522" s="26" t="s">
+      <c r="C522" s="40" t="s">
         <v>489</v>
       </c>
-      <c r="D522" s="25" t="s">
+      <c r="D522" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E522" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="F522" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G522" s="25" t="s">
+      <c r="E522" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F522" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G522" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="523" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A523" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B523" s="25" t="s">
+      <c r="A523" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B523" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="C523" s="26" t="s">
+      <c r="C523" s="40" t="s">
         <v>490</v>
       </c>
-      <c r="D523" s="25" t="s">
+      <c r="D523" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E523" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="F523" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G523" s="25" t="s">
+      <c r="E523" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F523" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G523" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="524" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B524" s="25" t="s">
+      <c r="A524" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B524" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="C524" s="26" t="s">
+      <c r="C524" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="D524" s="25" t="s">
+      <c r="D524" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E524" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="F524" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G524" s="25" t="s">
+      <c r="E524" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F524" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G524" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="525" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B525" s="25" t="s">
+      <c r="A525" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B525" s="39" t="s">
         <v>524</v>
       </c>
-      <c r="C525" s="26" t="s">
+      <c r="C525" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="D525" s="25" t="s">
+      <c r="D525" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E525" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="F525" s="25"/>
-      <c r="G525" s="35" t="s">
+      <c r="E525" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F525" s="39"/>
+      <c r="G525" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="526" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A526" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B526" s="25" t="s">
+      <c r="A526" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B526" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="C526" s="26" t="s">
+      <c r="C526" s="40" t="s">
         <v>492</v>
       </c>
-      <c r="D526" s="25" t="s">
+      <c r="D526" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E526" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="F526" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G526" s="25" t="s">
+      <c r="E526" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F526" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G526" s="39" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15927,18 +15963,18 @@
         <v>11</v>
       </c>
       <c r="B533" s="39" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C533" s="40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D533" s="39" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E533" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="F533" s="39"/>
+      <c r="F533" s="60"/>
       <c r="G533" s="41" t="s">
         <v>14</v>
       </c>
@@ -15948,19 +15984,21 @@
         <v>11</v>
       </c>
       <c r="B534" s="39" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="C534" s="40" t="s">
         <v>496</v>
       </c>
       <c r="D534" s="39" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E534" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="F534" s="39"/>
-      <c r="G534" s="41" t="s">
+      <c r="F534" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G534" s="39" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15969,21 +16007,19 @@
         <v>11</v>
       </c>
       <c r="B535" s="39" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C535" s="40" t="s">
         <v>496</v>
       </c>
       <c r="D535" s="39" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E535" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="F535" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G535" s="39" t="s">
+      <c r="F535" s="39"/>
+      <c r="G535" s="41" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15992,10 +16028,10 @@
         <v>11</v>
       </c>
       <c r="B536" s="39" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="C536" s="40" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="D536" s="39" t="s">
         <v>1</v>
@@ -16003,7 +16039,7 @@
       <c r="E536" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="F536" s="39"/>
+      <c r="F536" s="60"/>
       <c r="G536" s="41" t="s">
         <v>14</v>
       </c>
@@ -16013,10 +16049,10 @@
         <v>11</v>
       </c>
       <c r="B537" s="39" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C537" s="40" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D537" s="39" t="s">
         <v>1</v>
@@ -16024,7 +16060,7 @@
       <c r="E537" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="F537" s="39"/>
+      <c r="F537" s="60"/>
       <c r="G537" s="41" t="s">
         <v>14</v>
       </c>
@@ -16034,10 +16070,10 @@
         <v>11</v>
       </c>
       <c r="B538" s="39" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C538" s="40" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D538" s="39" t="s">
         <v>1</v>
@@ -16045,8 +16081,10 @@
       <c r="E538" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="F538" s="39"/>
-      <c r="G538" s="41" t="s">
+      <c r="F538" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G538" s="39" t="s">
         <v>14</v>
       </c>
     </row>
@@ -16055,10 +16093,10 @@
         <v>11</v>
       </c>
       <c r="B539" s="39" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C539" s="40" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D539" s="39" t="s">
         <v>1</v>
@@ -16066,345 +16104,371 @@
       <c r="E539" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="F539" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G539" s="39" t="s">
+      <c r="F539" s="60"/>
+      <c r="G539" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="540" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A540" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B540" s="39" t="s">
-        <v>518</v>
-      </c>
-      <c r="C540" s="40" t="s">
-        <v>530</v>
-      </c>
-      <c r="D540" s="39" t="s">
+      <c r="A540" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B540" s="60" t="s">
+        <v>924</v>
+      </c>
+      <c r="C540" s="61">
+        <v>45090</v>
+      </c>
+      <c r="D540" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E540" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="F540" s="39"/>
+      <c r="E540" s="3"/>
+      <c r="F540" s="63"/>
       <c r="G540" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="541" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A541" s="1" t="s">
+      <c r="A541" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B541" s="60" t="s">
+        <v>925</v>
+      </c>
+      <c r="C541" s="61">
+        <v>45092</v>
+      </c>
+      <c r="D541" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E541" s="3"/>
+      <c r="F541" s="63"/>
+      <c r="G541" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A542" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B542" s="60" t="s">
+        <v>923</v>
+      </c>
+      <c r="C542" s="61">
+        <v>45093</v>
+      </c>
+      <c r="D542" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E542" s="3"/>
+      <c r="F542" s="63"/>
+      <c r="G542" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A543" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="B541" s="1" t="s">
+      <c r="B543" s="60" t="s">
+        <v>922</v>
+      </c>
+      <c r="C543" s="61">
+        <v>45096</v>
+      </c>
+      <c r="D543" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E543" s="3"/>
+      <c r="F543" s="63"/>
+      <c r="G543" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A544" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B544" s="60" t="s">
+        <v>927</v>
+      </c>
+      <c r="C544" s="61">
+        <v>45096</v>
+      </c>
+      <c r="D544" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E544" s="3"/>
+      <c r="F544" s="63"/>
+      <c r="G544" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A545" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B545" s="60" t="s">
+        <v>926</v>
+      </c>
+      <c r="C545" s="61">
+        <v>45097</v>
+      </c>
+      <c r="D545" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E545" s="3"/>
+      <c r="F545" s="63"/>
+      <c r="G545" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A546" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B546" s="60" t="s">
+        <v>929</v>
+      </c>
+      <c r="C546" s="61">
+        <v>45117</v>
+      </c>
+      <c r="D546" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E546" s="3"/>
+      <c r="F546" s="63"/>
+      <c r="G546" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A547" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B547" s="60" t="s">
+        <v>409</v>
+      </c>
+      <c r="C547" s="61">
+        <v>45128</v>
+      </c>
+      <c r="D547" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E547" s="3"/>
+      <c r="F547" s="63"/>
+      <c r="G547" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A548" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B548" s="60" t="s">
+        <v>932</v>
+      </c>
+      <c r="C548" s="61">
+        <v>45128</v>
+      </c>
+      <c r="D548" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E548" s="3"/>
+      <c r="F548" s="63"/>
+      <c r="G548" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B549" s="60" t="s">
+        <v>934</v>
+      </c>
+      <c r="C549" s="61">
+        <v>45133</v>
+      </c>
+      <c r="D549" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E549" s="3"/>
+      <c r="F549" s="63"/>
+      <c r="G549" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A550" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B550" s="60" t="s">
+        <v>930</v>
+      </c>
+      <c r="C550" s="61">
+        <v>45145</v>
+      </c>
+      <c r="D550" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E550" s="3"/>
+      <c r="F550" s="63"/>
+      <c r="G550" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A551" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B551" s="60" t="s">
         <v>420</v>
       </c>
-      <c r="C541" s="3">
+      <c r="C551" s="61">
         <v>45145</v>
       </c>
-      <c r="D541" s="42" t="s">
+      <c r="D551" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E541" s="3"/>
-      <c r="F541" s="1"/>
-      <c r="G541" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="542" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A542" s="1" t="s">
+      <c r="E551" s="3"/>
+      <c r="F551" s="63"/>
+      <c r="G551" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B552" s="60" t="s">
+        <v>928</v>
+      </c>
+      <c r="C552" s="61">
+        <v>45146</v>
+      </c>
+      <c r="D552" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E552" s="3"/>
+      <c r="F552" s="63"/>
+      <c r="G552" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A553" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="B542" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="C542" s="3">
-        <v>45145</v>
-      </c>
-      <c r="D542" s="42" t="s">
+      <c r="B553" s="60" t="s">
+        <v>931</v>
+      </c>
+      <c r="C553" s="61">
+        <v>45146</v>
+      </c>
+      <c r="D553" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E542" s="3"/>
-      <c r="F542" s="1"/>
-      <c r="G542" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="543" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A543" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="C543" s="3">
-        <v>45145</v>
-      </c>
-      <c r="D543" s="42" t="s">
+      <c r="E553" s="3"/>
+      <c r="F553" s="63"/>
+      <c r="G553" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A554" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B554" s="60" t="s">
+        <v>936</v>
+      </c>
+      <c r="C554" s="61">
+        <v>45160</v>
+      </c>
+      <c r="D554" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E543" s="3"/>
-      <c r="F543" s="1"/>
-      <c r="G543" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="544" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A544" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="C544" s="3">
-        <v>45145</v>
-      </c>
-      <c r="D544" s="42" t="s">
+      <c r="E554" s="3"/>
+      <c r="F554" s="63"/>
+      <c r="G554" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B555" s="60" t="s">
+        <v>935</v>
+      </c>
+      <c r="C555" s="61">
+        <v>45160</v>
+      </c>
+      <c r="D555" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E544" s="3"/>
-      <c r="F544" s="1"/>
-      <c r="G544" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A545" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B545" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="C545" s="3">
-        <v>45145</v>
-      </c>
-      <c r="D545" s="42" t="s">
+      <c r="E555" s="3"/>
+      <c r="F555" s="63"/>
+      <c r="G555" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B556" s="60" t="s">
+        <v>937</v>
+      </c>
+      <c r="C556" s="61">
+        <v>45161</v>
+      </c>
+      <c r="D556" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E545" s="3"/>
-      <c r="F545" s="1"/>
-      <c r="G545" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="546" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A546" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B546" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="C546" s="43">
-        <v>45145</v>
-      </c>
-      <c r="D546" s="42" t="s">
+      <c r="E556" s="3"/>
+      <c r="F556" s="63"/>
+      <c r="G556" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B557" s="60" t="s">
+        <v>938</v>
+      </c>
+      <c r="C557" s="61">
+        <v>45189</v>
+      </c>
+      <c r="D557" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E546" s="3"/>
-      <c r="F546" s="1"/>
-      <c r="G546" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="547" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A547" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B547" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="C547" s="3">
-        <v>45145</v>
-      </c>
-      <c r="D547" s="42" t="s">
+      <c r="E557" s="3"/>
+      <c r="F557" s="63"/>
+      <c r="G557" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B558" s="60" t="s">
+        <v>939</v>
+      </c>
+      <c r="C558" s="61">
+        <v>45190</v>
+      </c>
+      <c r="D558" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E547" s="3"/>
-      <c r="F547" s="1"/>
-      <c r="G547" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="548" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A548" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B548" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="C548" s="3">
-        <v>45145</v>
-      </c>
-      <c r="D548" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E548" s="3"/>
-      <c r="F548" s="1"/>
-      <c r="G548" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="549" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B549" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="C549" s="3">
-        <v>45146</v>
-      </c>
-      <c r="D549" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E549" s="3"/>
-      <c r="F549" s="1"/>
-      <c r="G549" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="550" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A550" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B550" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="C550" s="3">
-        <v>45145</v>
-      </c>
-      <c r="D550" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E550" s="3"/>
-      <c r="F550" s="1"/>
-      <c r="G550" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="551" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A551" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B551" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="C551" s="3">
-        <v>45145</v>
-      </c>
-      <c r="D551" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E551" s="3"/>
-      <c r="F551" s="1"/>
-      <c r="G551" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="552" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A552" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B552" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C552" s="3">
-        <v>45145</v>
-      </c>
-      <c r="D552" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E552" s="3"/>
-      <c r="F552" s="1"/>
-      <c r="G552" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="553" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A553" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B553" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="C553" s="3">
-        <v>45145</v>
-      </c>
-      <c r="D553" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E553" s="3"/>
-      <c r="F553" s="1"/>
-      <c r="G553" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="554" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A554" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B554" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="C554" s="3">
-        <v>45145</v>
-      </c>
-      <c r="D554" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E554" s="3"/>
-      <c r="F554" s="1"/>
-      <c r="G554" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="555" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A555" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="C555" s="3">
-        <v>45145</v>
-      </c>
-      <c r="D555" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E555" s="3"/>
-      <c r="F555" s="1"/>
-      <c r="G555" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="556" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="1"/>
-      <c r="B556" s="1"/>
-      <c r="C556" s="3"/>
-      <c r="D556" s="1"/>
-      <c r="E556" s="3"/>
-      <c r="F556" s="1"/>
-      <c r="G556" s="1"/>
-    </row>
-    <row r="557" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="1"/>
-      <c r="B557" s="1"/>
-      <c r="C557" s="3"/>
-      <c r="D557" s="1"/>
-      <c r="E557" s="3"/>
-      <c r="F557" s="1"/>
-      <c r="G557" s="1"/>
-    </row>
-    <row r="558" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A558" s="1"/>
-      <c r="B558" s="1"/>
-      <c r="C558" s="3"/>
-      <c r="D558" s="1"/>
       <c r="E558" s="3"/>
-      <c r="F558" s="1"/>
-      <c r="G558" s="1"/>
+      <c r="F558" s="63"/>
+      <c r="G558" s="41" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="559" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
@@ -19997,159 +20061,13 @@
       <c r="F957" s="1"/>
       <c r="G957" s="1"/>
     </row>
-    <row r="958" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A958" s="1"/>
-      <c r="B958" s="1"/>
-      <c r="C958" s="3"/>
-      <c r="D958" s="1"/>
-      <c r="E958" s="3"/>
-      <c r="F958" s="1"/>
-      <c r="G958" s="1"/>
-    </row>
-    <row r="959" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A959" s="1"/>
-      <c r="B959" s="1"/>
-      <c r="C959" s="3"/>
-      <c r="D959" s="1"/>
-      <c r="E959" s="3"/>
-      <c r="F959" s="1"/>
-      <c r="G959" s="1"/>
-    </row>
-    <row r="960" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A960" s="1"/>
-      <c r="B960" s="1"/>
-      <c r="C960" s="3"/>
-      <c r="D960" s="1"/>
-      <c r="E960" s="3"/>
-      <c r="F960" s="1"/>
-      <c r="G960" s="1"/>
-    </row>
-    <row r="961" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A961" s="1"/>
-      <c r="B961" s="1"/>
-      <c r="C961" s="3"/>
-      <c r="D961" s="1"/>
-      <c r="E961" s="3"/>
-      <c r="F961" s="1"/>
-      <c r="G961" s="1"/>
-    </row>
-    <row r="962" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A962" s="1"/>
-      <c r="B962" s="1"/>
-      <c r="C962" s="3"/>
-      <c r="D962" s="1"/>
-      <c r="E962" s="3"/>
-      <c r="F962" s="1"/>
-      <c r="G962" s="1"/>
-    </row>
-    <row r="963" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A963" s="1"/>
-      <c r="B963" s="1"/>
-      <c r="C963" s="3"/>
-      <c r="D963" s="1"/>
-      <c r="E963" s="3"/>
-      <c r="F963" s="1"/>
-      <c r="G963" s="1"/>
-    </row>
-    <row r="964" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A964" s="1"/>
-      <c r="B964" s="1"/>
-      <c r="C964" s="3"/>
-      <c r="D964" s="1"/>
-      <c r="E964" s="3"/>
-      <c r="F964" s="1"/>
-      <c r="G964" s="1"/>
-    </row>
-    <row r="965" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A965" s="1"/>
-      <c r="B965" s="1"/>
-      <c r="C965" s="3"/>
-      <c r="D965" s="1"/>
-      <c r="E965" s="3"/>
-      <c r="F965" s="1"/>
-      <c r="G965" s="1"/>
-    </row>
-    <row r="966" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A966" s="1"/>
-      <c r="B966" s="1"/>
-      <c r="C966" s="3"/>
-      <c r="D966" s="1"/>
-      <c r="E966" s="3"/>
-      <c r="F966" s="1"/>
-      <c r="G966" s="1"/>
-    </row>
-    <row r="967" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A967" s="1"/>
-      <c r="B967" s="1"/>
-      <c r="C967" s="3"/>
-      <c r="D967" s="1"/>
-      <c r="E967" s="3"/>
-      <c r="F967" s="1"/>
-      <c r="G967" s="1"/>
-    </row>
-    <row r="968" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A968" s="1"/>
-      <c r="B968" s="1"/>
-      <c r="C968" s="3"/>
-      <c r="D968" s="1"/>
-      <c r="E968" s="3"/>
-      <c r="F968" s="1"/>
-      <c r="G968" s="1"/>
-    </row>
-    <row r="969" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A969" s="1"/>
-      <c r="B969" s="1"/>
-      <c r="C969" s="3"/>
-      <c r="D969" s="1"/>
-      <c r="E969" s="3"/>
-      <c r="F969" s="1"/>
-      <c r="G969" s="1"/>
-    </row>
-    <row r="970" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A970" s="1"/>
-      <c r="B970" s="1"/>
-      <c r="C970" s="3"/>
-      <c r="D970" s="1"/>
-      <c r="E970" s="3"/>
-      <c r="F970" s="1"/>
-      <c r="G970" s="1"/>
-    </row>
-    <row r="971" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A971" s="1"/>
-      <c r="B971" s="1"/>
-      <c r="C971" s="3"/>
-      <c r="D971" s="1"/>
-      <c r="E971" s="3"/>
-      <c r="F971" s="1"/>
-      <c r="G971" s="1"/>
-    </row>
-    <row r="972" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A972" s="1"/>
-      <c r="B972" s="1"/>
-      <c r="C972" s="3"/>
-      <c r="D972" s="1"/>
-      <c r="E972" s="3"/>
-      <c r="F972" s="1"/>
-      <c r="G972" s="1"/>
-    </row>
-    <row r="973" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A973" s="1"/>
-      <c r="B973" s="1"/>
-      <c r="C973" s="3"/>
-      <c r="D973" s="1"/>
-      <c r="E973" s="3"/>
-      <c r="F973" s="1"/>
-      <c r="G973" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G540">
-    <sortCondition ref="C2:C540"/>
-    <sortCondition ref="B2:B540"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G558">
+    <sortCondition ref="C2:C558"/>
+    <sortCondition ref="B2:B558"/>
   </sortState>
-  <conditionalFormatting sqref="B521:C521">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>OR(#REF!="Ausente",#REF!="Ausente")</formula>
-    </cfRule>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CD77AB-7C70-4A4B-9604-774C404E8651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FED9552-DE60-2045-9550-85AADF3A4DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3794" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3813" uniqueCount="943">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2858,6 +2858,15 @@
   </si>
   <si>
     <t>Thais Maria Paranhos Silveira do Nascimento</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>RJ </t>
   </si>
 </sst>
 </file>
@@ -3291,7 +3300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3473,19 +3482,25 @@
     <xf numFmtId="0" fontId="51" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="51" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3747,7 +3762,7 @@
   <dimension ref="A1:G957"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A519" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A558" sqref="A558"/>
     </sheetView>
   </sheetViews>
@@ -11168,7 +11183,7 @@
       <c r="C323" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="D323" s="65" t="s">
+      <c r="D323" s="63" t="s">
         <v>2</v>
       </c>
       <c r="E323" s="6">
@@ -11283,7 +11298,7 @@
       <c r="C328" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="D328" s="65" t="s">
+      <c r="D328" s="63" t="s">
         <v>2</v>
       </c>
       <c r="E328" s="6">
@@ -13991,7 +14006,7 @@
       <c r="C446" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="D446" s="64" t="s">
+      <c r="D446" s="62" t="s">
         <v>2</v>
       </c>
       <c r="E446" s="6">
@@ -16110,363 +16125,401 @@
       </c>
     </row>
     <row r="540" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A540" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B540" s="60" t="s">
+      <c r="A540" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B540" s="66" t="s">
         <v>924</v>
       </c>
-      <c r="C540" s="61">
+      <c r="C540" s="67">
         <v>45090</v>
       </c>
-      <c r="D540" s="62" t="s">
+      <c r="D540" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E540" s="3"/>
-      <c r="F540" s="63"/>
-      <c r="G540" s="41" t="s">
+      <c r="F540" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G540" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="541" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A541" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B541" s="60" t="s">
+      <c r="A541" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B541" s="66" t="s">
         <v>925</v>
       </c>
-      <c r="C541" s="61">
+      <c r="C541" s="67">
         <v>45092</v>
       </c>
-      <c r="D541" s="62" t="s">
+      <c r="D541" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E541" s="3"/>
-      <c r="F541" s="63"/>
-      <c r="G541" s="41" t="s">
+      <c r="F541" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G541" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="542" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A542" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B542" s="60" t="s">
+      <c r="A542" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B542" s="66" t="s">
         <v>923</v>
       </c>
-      <c r="C542" s="61">
+      <c r="C542" s="67">
         <v>45093</v>
       </c>
-      <c r="D542" s="62" t="s">
+      <c r="D542" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E542" s="3"/>
-      <c r="F542" s="63"/>
-      <c r="G542" s="41" t="s">
+      <c r="F542" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G542" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="543" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A543" s="60" t="s">
+      <c r="A543" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="B543" s="60" t="s">
+      <c r="B543" s="66" t="s">
         <v>922</v>
       </c>
-      <c r="C543" s="61">
+      <c r="C543" s="67">
         <v>45096</v>
       </c>
-      <c r="D543" s="62" t="s">
+      <c r="D543" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E543" s="3"/>
-      <c r="F543" s="63"/>
-      <c r="G543" s="41" t="s">
+      <c r="F543" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="G543" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="544" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A544" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B544" s="60" t="s">
+      <c r="A544" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B544" s="66" t="s">
         <v>927</v>
       </c>
-      <c r="C544" s="61">
+      <c r="C544" s="67">
         <v>45096</v>
       </c>
-      <c r="D544" s="62" t="s">
+      <c r="D544" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E544" s="3"/>
-      <c r="F544" s="63"/>
-      <c r="G544" s="41" t="s">
+      <c r="F544" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G544" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="545" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A545" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B545" s="60" t="s">
+      <c r="A545" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B545" s="66" t="s">
         <v>926</v>
       </c>
-      <c r="C545" s="61">
+      <c r="C545" s="67">
         <v>45097</v>
       </c>
-      <c r="D545" s="62" t="s">
+      <c r="D545" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E545" s="3"/>
-      <c r="F545" s="63"/>
-      <c r="G545" s="41" t="s">
+      <c r="F545" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G545" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="546" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A546" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B546" s="60" t="s">
+      <c r="A546" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B546" s="66" t="s">
         <v>929</v>
       </c>
-      <c r="C546" s="61">
+      <c r="C546" s="67">
         <v>45117</v>
       </c>
-      <c r="D546" s="62" t="s">
+      <c r="D546" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E546" s="3"/>
-      <c r="F546" s="63"/>
-      <c r="G546" s="41" t="s">
+      <c r="F546" s="64" t="s">
+        <v>940</v>
+      </c>
+      <c r="G546" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="547" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A547" s="60" t="s">
+      <c r="A547" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="B547" s="60" t="s">
+      <c r="B547" s="66" t="s">
         <v>409</v>
       </c>
-      <c r="C547" s="61">
+      <c r="C547" s="67">
         <v>45128</v>
       </c>
-      <c r="D547" s="62" t="s">
+      <c r="D547" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E547" s="3"/>
-      <c r="F547" s="63"/>
-      <c r="G547" s="41" t="s">
+      <c r="F547" s="64" t="s">
+        <v>941</v>
+      </c>
+      <c r="G547" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="548" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A548" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B548" s="60" t="s">
+      <c r="A548" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B548" s="66" t="s">
         <v>932</v>
       </c>
-      <c r="C548" s="61">
+      <c r="C548" s="67">
         <v>45128</v>
       </c>
-      <c r="D548" s="62" t="s">
+      <c r="D548" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E548" s="3"/>
-      <c r="F548" s="63"/>
-      <c r="G548" s="41" t="s">
+      <c r="F548" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G548" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="549" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B549" s="60" t="s">
+      <c r="A549" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B549" s="66" t="s">
         <v>934</v>
       </c>
-      <c r="C549" s="61">
+      <c r="C549" s="67">
         <v>45133</v>
       </c>
-      <c r="D549" s="62" t="s">
+      <c r="D549" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E549" s="3"/>
-      <c r="F549" s="63"/>
-      <c r="G549" s="41" t="s">
+      <c r="F549" s="64" t="s">
+        <v>942</v>
+      </c>
+      <c r="G549" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="550" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A550" s="60" t="s">
+      <c r="A550" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="B550" s="60" t="s">
+      <c r="B550" s="66" t="s">
         <v>930</v>
       </c>
-      <c r="C550" s="61">
+      <c r="C550" s="67">
         <v>45145</v>
       </c>
-      <c r="D550" s="62" t="s">
+      <c r="D550" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E550" s="3"/>
-      <c r="F550" s="63"/>
-      <c r="G550" s="41" t="s">
+      <c r="F550" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G550" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="551" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A551" s="60" t="s">
+      <c r="A551" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="B551" s="60" t="s">
+      <c r="B551" s="66" t="s">
         <v>420</v>
       </c>
-      <c r="C551" s="61">
+      <c r="C551" s="67">
         <v>45145</v>
       </c>
-      <c r="D551" s="62" t="s">
+      <c r="D551" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E551" s="3"/>
-      <c r="F551" s="63"/>
-      <c r="G551" s="41" t="s">
+      <c r="F551" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G551" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="552" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A552" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B552" s="60" t="s">
+      <c r="A552" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B552" s="66" t="s">
         <v>928</v>
       </c>
-      <c r="C552" s="61">
+      <c r="C552" s="67">
         <v>45146</v>
       </c>
-      <c r="D552" s="62" t="s">
+      <c r="D552" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E552" s="3"/>
-      <c r="F552" s="63"/>
-      <c r="G552" s="41" t="s">
+      <c r="F552" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="G552" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="553" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A553" s="60" t="s">
+      <c r="A553" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="B553" s="60" t="s">
+      <c r="B553" s="66" t="s">
         <v>931</v>
       </c>
-      <c r="C553" s="61">
+      <c r="C553" s="67">
         <v>45146</v>
       </c>
-      <c r="D553" s="62" t="s">
+      <c r="D553" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E553" s="3"/>
-      <c r="F553" s="63"/>
-      <c r="G553" s="41" t="s">
+      <c r="F553" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G553" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="554" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A554" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B554" s="60" t="s">
+      <c r="A554" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B554" s="66" t="s">
         <v>936</v>
       </c>
-      <c r="C554" s="61">
+      <c r="C554" s="67">
         <v>45160</v>
       </c>
-      <c r="D554" s="62" t="s">
+      <c r="D554" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E554" s="3"/>
-      <c r="F554" s="63"/>
-      <c r="G554" s="41" t="s">
+      <c r="F554" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G554" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="555" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A555" s="60" t="s">
+      <c r="A555" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="B555" s="60" t="s">
+      <c r="B555" s="66" t="s">
         <v>935</v>
       </c>
-      <c r="C555" s="61">
+      <c r="C555" s="67">
         <v>45160</v>
       </c>
-      <c r="D555" s="62" t="s">
+      <c r="D555" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E555" s="3"/>
-      <c r="F555" s="63"/>
-      <c r="G555" s="41" t="s">
+      <c r="F555" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G555" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="556" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B556" s="60" t="s">
+      <c r="A556" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B556" s="66" t="s">
         <v>937</v>
       </c>
-      <c r="C556" s="61">
+      <c r="C556" s="67">
         <v>45161</v>
       </c>
-      <c r="D556" s="62" t="s">
+      <c r="D556" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E556" s="3"/>
-      <c r="F556" s="63"/>
-      <c r="G556" s="41" t="s">
+      <c r="F556" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G556" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="557" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B557" s="60" t="s">
+      <c r="A557" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B557" s="66" t="s">
         <v>938</v>
       </c>
-      <c r="C557" s="61">
+      <c r="C557" s="67">
         <v>45189</v>
       </c>
-      <c r="D557" s="62" t="s">
+      <c r="D557" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E557" s="3"/>
-      <c r="F557" s="63"/>
-      <c r="G557" s="41" t="s">
+      <c r="F557" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G557" s="65" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="558" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A558" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B558" s="60" t="s">
+      <c r="A558" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B558" s="66" t="s">
         <v>939</v>
       </c>
-      <c r="C558" s="61">
+      <c r="C558" s="67">
         <v>45190</v>
       </c>
-      <c r="D558" s="62" t="s">
+      <c r="D558" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E558" s="3"/>
-      <c r="F558" s="63"/>
-      <c r="G558" s="41" t="s">
+      <c r="F558" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G558" s="65" t="s">
         <v>14</v>
       </c>
     </row>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FED9552-DE60-2045-9550-85AADF3A4DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BDFD08-5014-6A47-8FE1-738639C17745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3813" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="943">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2873,11 +2873,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3300,24 +3307,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="50" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3326,34 +3348,22 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3365,25 +3375,25 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="52" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3395,13 +3405,13 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="51" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="50" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3413,16 +3423,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="52" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3476,31 +3486,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3762,7 +3760,7 @@
   <dimension ref="A1:G957"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A519" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A558" sqref="A558"/>
     </sheetView>
   </sheetViews>
@@ -12977,11 +12975,11 @@
       <c r="C401" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="D401" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E401" s="6" t="s">
-        <v>706</v>
+      <c r="D401" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E401" s="6">
+        <v>45344</v>
       </c>
       <c r="F401" s="5" t="s">
         <v>357</v>
@@ -16125,401 +16123,401 @@
       </c>
     </row>
     <row r="540" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A540" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B540" s="66" t="s">
+      <c r="A540" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B540" s="39" t="s">
         <v>924</v>
       </c>
-      <c r="C540" s="67">
+      <c r="C540" s="40">
         <v>45090</v>
       </c>
       <c r="D540" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E540" s="3"/>
-      <c r="F540" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G540" s="65" t="s">
+      <c r="F540" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G540" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="541" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A541" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B541" s="66" t="s">
+      <c r="A541" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B541" s="39" t="s">
         <v>925</v>
       </c>
-      <c r="C541" s="67">
+      <c r="C541" s="40">
         <v>45092</v>
       </c>
       <c r="D541" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E541" s="3"/>
-      <c r="F541" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G541" s="65" t="s">
+      <c r="F541" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G541" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="542" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A542" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B542" s="66" t="s">
+      <c r="A542" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B542" s="39" t="s">
         <v>923</v>
       </c>
-      <c r="C542" s="67">
+      <c r="C542" s="40">
         <v>45093</v>
       </c>
       <c r="D542" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E542" s="3"/>
-      <c r="F542" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G542" s="65" t="s">
+      <c r="F542" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G542" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="543" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A543" s="66" t="s">
+      <c r="A543" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="B543" s="66" t="s">
+      <c r="B543" s="39" t="s">
         <v>922</v>
       </c>
-      <c r="C543" s="67">
+      <c r="C543" s="40">
         <v>45096</v>
       </c>
       <c r="D543" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E543" s="3"/>
-      <c r="F543" s="64" t="s">
+      <c r="F543" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="G543" s="65" t="s">
+      <c r="G543" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="544" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A544" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B544" s="66" t="s">
+      <c r="A544" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B544" s="39" t="s">
         <v>927</v>
       </c>
-      <c r="C544" s="67">
+      <c r="C544" s="40">
         <v>45096</v>
       </c>
       <c r="D544" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E544" s="3"/>
-      <c r="F544" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G544" s="65" t="s">
+      <c r="F544" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G544" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="545" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A545" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B545" s="66" t="s">
+      <c r="A545" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B545" s="39" t="s">
         <v>926</v>
       </c>
-      <c r="C545" s="67">
+      <c r="C545" s="40">
         <v>45097</v>
       </c>
       <c r="D545" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E545" s="3"/>
-      <c r="F545" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G545" s="65" t="s">
+      <c r="F545" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G545" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="546" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A546" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B546" s="66" t="s">
+      <c r="A546" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B546" s="39" t="s">
         <v>929</v>
       </c>
-      <c r="C546" s="67">
+      <c r="C546" s="40">
         <v>45117</v>
       </c>
       <c r="D546" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E546" s="3"/>
-      <c r="F546" s="64" t="s">
+      <c r="F546" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="G546" s="65" t="s">
+      <c r="G546" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="547" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A547" s="66" t="s">
+      <c r="A547" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="B547" s="66" t="s">
+      <c r="B547" s="39" t="s">
         <v>409</v>
       </c>
-      <c r="C547" s="67">
+      <c r="C547" s="40">
         <v>45128</v>
       </c>
       <c r="D547" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E547" s="3"/>
-      <c r="F547" s="64" t="s">
+      <c r="F547" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="G547" s="65" t="s">
+      <c r="G547" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="548" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A548" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B548" s="66" t="s">
+      <c r="A548" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B548" s="39" t="s">
         <v>932</v>
       </c>
-      <c r="C548" s="67">
+      <c r="C548" s="40">
         <v>45128</v>
       </c>
       <c r="D548" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E548" s="3"/>
-      <c r="F548" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G548" s="65" t="s">
+      <c r="F548" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G548" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="549" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B549" s="66" t="s">
+      <c r="A549" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B549" s="39" t="s">
         <v>934</v>
       </c>
-      <c r="C549" s="67">
+      <c r="C549" s="40">
         <v>45133</v>
       </c>
       <c r="D549" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E549" s="3"/>
-      <c r="F549" s="64" t="s">
+      <c r="F549" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="G549" s="65" t="s">
+      <c r="G549" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="550" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A550" s="66" t="s">
+      <c r="A550" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="B550" s="66" t="s">
+      <c r="B550" s="39" t="s">
         <v>930</v>
       </c>
-      <c r="C550" s="67">
+      <c r="C550" s="40">
         <v>45145</v>
       </c>
       <c r="D550" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E550" s="3"/>
-      <c r="F550" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G550" s="65" t="s">
+      <c r="F550" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G550" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="551" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A551" s="66" t="s">
+      <c r="A551" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="B551" s="66" t="s">
+      <c r="B551" s="39" t="s">
         <v>420</v>
       </c>
-      <c r="C551" s="67">
+      <c r="C551" s="40">
         <v>45145</v>
       </c>
       <c r="D551" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E551" s="3"/>
-      <c r="F551" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G551" s="65" t="s">
+      <c r="F551" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G551" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="552" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A552" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B552" s="66" t="s">
+      <c r="A552" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B552" s="39" t="s">
         <v>928</v>
       </c>
-      <c r="C552" s="67">
+      <c r="C552" s="40">
         <v>45146</v>
       </c>
       <c r="D552" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E552" s="3"/>
-      <c r="F552" s="64" t="s">
+      <c r="F552" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G552" s="65" t="s">
+      <c r="G552" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="553" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A553" s="66" t="s">
+      <c r="A553" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="B553" s="66" t="s">
+      <c r="B553" s="39" t="s">
         <v>931</v>
       </c>
-      <c r="C553" s="67">
+      <c r="C553" s="40">
         <v>45146</v>
       </c>
       <c r="D553" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E553" s="3"/>
-      <c r="F553" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G553" s="65" t="s">
+      <c r="F553" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G553" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="554" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A554" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B554" s="66" t="s">
+      <c r="A554" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B554" s="39" t="s">
         <v>936</v>
       </c>
-      <c r="C554" s="67">
+      <c r="C554" s="40">
         <v>45160</v>
       </c>
       <c r="D554" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E554" s="3"/>
-      <c r="F554" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G554" s="65" t="s">
+      <c r="F554" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G554" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="555" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A555" s="66" t="s">
+      <c r="A555" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="B555" s="66" t="s">
+      <c r="B555" s="39" t="s">
         <v>935</v>
       </c>
-      <c r="C555" s="67">
+      <c r="C555" s="40">
         <v>45160</v>
       </c>
       <c r="D555" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E555" s="3"/>
-      <c r="F555" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G555" s="65" t="s">
+      <c r="F555" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G555" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="556" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B556" s="66" t="s">
+      <c r="A556" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B556" s="39" t="s">
         <v>937</v>
       </c>
-      <c r="C556" s="67">
+      <c r="C556" s="40">
         <v>45161</v>
       </c>
       <c r="D556" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E556" s="3"/>
-      <c r="F556" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G556" s="65" t="s">
+      <c r="F556" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G556" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="557" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B557" s="66" t="s">
+      <c r="A557" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B557" s="39" t="s">
         <v>938</v>
       </c>
-      <c r="C557" s="67">
+      <c r="C557" s="40">
         <v>45189</v>
       </c>
       <c r="D557" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E557" s="3"/>
-      <c r="F557" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G557" s="65" t="s">
+      <c r="F557" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G557" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="558" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A558" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B558" s="66" t="s">
+      <c r="A558" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B558" s="39" t="s">
         <v>939</v>
       </c>
-      <c r="C558" s="67">
+      <c r="C558" s="40">
         <v>45190</v>
       </c>
       <c r="D558" s="61" t="s">
         <v>1</v>
       </c>
       <c r="E558" s="3"/>
-      <c r="F558" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G558" s="65" t="s">
+      <c r="F558" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G558" s="41" t="s">
         <v>14</v>
       </c>
     </row>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BDFD08-5014-6A47-8FE1-738639C17745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0FC73A-C288-C249-827C-F5BBA51E2157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3811" uniqueCount="943">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2873,11 +2873,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3307,24 +3314,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="50" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3333,34 +3355,22 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3372,25 +3382,25 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="53" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="52" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3402,13 +3412,13 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="52" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="51" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3420,16 +3430,16 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="53" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="52" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3483,13 +3493,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15188,11 +15198,11 @@
       <c r="C498" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="D498" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E498" s="6" t="s">
-        <v>706</v>
+      <c r="D498" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E498" s="6">
+        <v>45363</v>
       </c>
       <c r="F498" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0FC73A-C288-C249-827C-F5BBA51E2157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804BF76D-3B82-2C44-B416-CDE708C67ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3811" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3807" uniqueCount="943">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2873,11 +2873,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3314,24 +3321,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="52" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="52" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3340,34 +3362,22 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3379,25 +3389,25 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="53" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3409,13 +3419,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="53" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="52" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3427,16 +3437,16 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="54" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="53" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3490,13 +3500,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11099,11 +11109,11 @@
       <c r="C319" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="D319" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E319" s="6" t="s">
-        <v>706</v>
+      <c r="D319" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E319" s="6">
+        <v>45282</v>
       </c>
       <c r="F319" s="5" t="s">
         <v>13</v>
@@ -13903,11 +13913,11 @@
       <c r="C441" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="D441" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E441" s="6" t="s">
-        <v>706</v>
+      <c r="D441" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E441" s="6">
+        <v>45328</v>
       </c>
       <c r="F441" s="5"/>
       <c r="G441" s="35" t="s">
@@ -14378,11 +14388,11 @@
       <c r="C462" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="D462" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E462" s="6" t="s">
-        <v>706</v>
+      <c r="D462" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E462" s="6">
+        <v>45327</v>
       </c>
       <c r="F462" s="5"/>
       <c r="G462" s="35" t="s">
@@ -14560,11 +14570,11 @@
       <c r="C470" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="D470" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E470" s="6" t="s">
-        <v>706</v>
+      <c r="D470" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E470" s="6">
+        <v>45331</v>
       </c>
       <c r="F470" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804BF76D-3B82-2C44-B416-CDE708C67ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A04EE5C-5311-6541-BD41-449E7CA4460D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3807" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3806" uniqueCount="943">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2873,11 +2873,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3321,42 +3335,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="52" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="54" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="52" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3365,46 +3397,34 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="56" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3413,16 +3433,16 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="55" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="53" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3431,19 +3451,19 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="56" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="54" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3494,16 +3514,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14229,8 +14249,8 @@
       <c r="C455" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="D455" s="5" t="s">
-        <v>6</v>
+      <c r="D455" s="67" t="s">
+        <v>5</v>
       </c>
       <c r="E455" s="6" t="s">
         <v>706</v>
@@ -14432,11 +14452,11 @@
       <c r="C464" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="D464" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E464" s="6" t="s">
-        <v>706</v>
+      <c r="D464" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E464" s="6">
+        <v>45337</v>
       </c>
       <c r="F464" s="5" t="s">
         <v>13</v>
@@ -14773,8 +14793,8 @@
       <c r="C479" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="D479" s="5" t="s">
-        <v>1</v>
+      <c r="D479" s="67" t="s">
+        <v>5</v>
       </c>
       <c r="E479" s="6" t="s">
         <v>706</v>
@@ -14840,8 +14860,8 @@
       <c r="C482" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="D482" s="5" t="s">
-        <v>435</v>
+      <c r="D482" s="67" t="s">
+        <v>5</v>
       </c>
       <c r="E482" s="6" t="s">
         <v>706</v>
@@ -15162,8 +15182,8 @@
       <c r="C496" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="D496" s="5" t="s">
-        <v>1</v>
+      <c r="D496" s="67" t="s">
+        <v>5</v>
       </c>
       <c r="E496" s="6" t="s">
         <v>706</v>
@@ -15388,8 +15408,8 @@
       <c r="C506" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="D506" s="5" t="s">
-        <v>6</v>
+      <c r="D506" s="67" t="s">
+        <v>5</v>
       </c>
       <c r="E506" s="6" t="s">
         <v>706</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A04EE5C-5311-6541-BD41-449E7CA4460D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8155623F-95F2-3B4F-A94B-F4C1BCF5658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Discentes" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Discentes!$A$1:$G$511</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Discentes!$A$1:$G$558</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3806" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4005" uniqueCount="977">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2867,13 +2867,115 @@
   </si>
   <si>
     <t>RJ </t>
+  </si>
+  <si>
+    <t>Lorena Rafaela Morais</t>
+  </si>
+  <si>
+    <t>Milena Conegundes Salvador de Souza</t>
+  </si>
+  <si>
+    <t>João Paulo Nascimento Reis e Silva Pereira</t>
+  </si>
+  <si>
+    <t>Patricia Ramos Videira de Figueiredo</t>
+  </si>
+  <si>
+    <t>Rubens Macau da Silva Francisco</t>
+  </si>
+  <si>
+    <t>Marcela Pinto Venâncio Lourenço da Silva</t>
+  </si>
+  <si>
+    <t>Paulo Victor Leandro da Silva Pinto</t>
+  </si>
+  <si>
+    <t>Jenipher Angel da Cruz</t>
+  </si>
+  <si>
+    <t>Sara Viana de Abreu Silva</t>
+  </si>
+  <si>
+    <t>Aline da Silva Bahia</t>
+  </si>
+  <si>
+    <t>Fernanda dos Santos Lima</t>
+  </si>
+  <si>
+    <t>Adryel Saint' Clair Linhares Beltrão</t>
+  </si>
+  <si>
+    <t>Andre Felipe da Silva Correa</t>
+  </si>
+  <si>
+    <t>Rayssa de Vilhena Moreira</t>
+  </si>
+  <si>
+    <t>Marcelly Bermudes de Carvalho</t>
+  </si>
+  <si>
+    <t>Daiane do Nascimento Camêlo</t>
+  </si>
+  <si>
+    <t>Thamiris Seippel de Araujo Brum</t>
+  </si>
+  <si>
+    <t>João Victor Santos Moreira</t>
+  </si>
+  <si>
+    <t>Milton Apolinário Dias Neto</t>
+  </si>
+  <si>
+    <t>Marcele Paganoto Garcia Rodrigues da Silva</t>
+  </si>
+  <si>
+    <t>Marcelo José Balbi Peixoto Ferreira</t>
+  </si>
+  <si>
+    <t>Ana Paula dos Santos Ramos</t>
+  </si>
+  <si>
+    <t>Darimberg Ferreira Pereira Jnior</t>
+  </si>
+  <si>
+    <t>Mariana de Almeida Pereira</t>
+  </si>
+  <si>
+    <t>Andreia Rosangela Oliveira de Moraes do Carmo</t>
+  </si>
+  <si>
+    <t>Fátima de Sousa Paiva Duarte</t>
+  </si>
+  <si>
+    <t>Veryslanny Lays da Silva Oliveira</t>
+  </si>
+  <si>
+    <t>Thais de Souza Horsth</t>
+  </si>
+  <si>
+    <t>Adrieli Borsoe Nunes Quevêdo</t>
+  </si>
+  <si>
+    <t>Thaís Ferreira de Andrade Lima</t>
+  </si>
+  <si>
+    <t>Mariana Rheded Mendes dos Anjos</t>
+  </si>
+  <si>
+    <t>Janaina dos Santos Sóstennes</t>
+  </si>
+  <si>
+    <t>Thainná Dias Nunes</t>
+  </si>
+  <si>
+    <t>Rubem Corrêa Barbosa Neto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3272,6 +3374,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3335,7 +3443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3541,11 +3649,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="57" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="57" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3583,9 +3716,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="stats3-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3800,8 +3933,8 @@
   <dimension ref="A1:G957"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A558" sqref="A558"/>
+      <pane ySplit="1" topLeftCell="A560" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A600" sqref="A600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16113,7 +16246,9 @@
       <c r="E537" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="F537" s="60"/>
+      <c r="F537" s="69" t="s">
+        <v>13</v>
+      </c>
       <c r="G537" s="41" t="s">
         <v>14</v>
       </c>
@@ -16562,382 +16697,862 @@
       </c>
     </row>
     <row r="559" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A559" s="1"/>
-      <c r="B559" s="1"/>
-      <c r="C559" s="3"/>
-      <c r="D559" s="1"/>
+      <c r="A559" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B559" s="70" t="s">
+        <v>943</v>
+      </c>
+      <c r="C559" s="71">
+        <v>45201</v>
+      </c>
+      <c r="D559" s="70" t="s">
+        <v>4</v>
+      </c>
       <c r="E559" s="3"/>
-      <c r="F559" s="1"/>
-      <c r="G559" s="1"/>
+      <c r="F559" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="G559" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="560" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A560" s="1"/>
-      <c r="B560" s="1"/>
-      <c r="C560" s="3"/>
-      <c r="D560" s="1"/>
+      <c r="A560" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B560" s="70" t="s">
+        <v>944</v>
+      </c>
+      <c r="C560" s="71">
+        <v>45281</v>
+      </c>
+      <c r="D560" s="70" t="s">
+        <v>435</v>
+      </c>
       <c r="E560" s="3"/>
-      <c r="F560" s="1"/>
-      <c r="G560" s="1"/>
+      <c r="F560" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G560" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="561" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="1"/>
-      <c r="B561" s="1"/>
-      <c r="C561" s="3"/>
-      <c r="D561" s="1"/>
+      <c r="A561" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B561" s="70" t="s">
+        <v>945</v>
+      </c>
+      <c r="C561" s="71">
+        <v>45281</v>
+      </c>
+      <c r="D561" s="70" t="s">
+        <v>4</v>
+      </c>
       <c r="E561" s="3"/>
-      <c r="F561" s="1"/>
-      <c r="G561" s="1"/>
+      <c r="F561" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G561" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="562" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A562" s="1"/>
-      <c r="B562" s="1"/>
-      <c r="C562" s="3"/>
-      <c r="D562" s="1"/>
+      <c r="A562" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B562" s="70" t="s">
+        <v>946</v>
+      </c>
+      <c r="C562" s="71">
+        <v>45281</v>
+      </c>
+      <c r="D562" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E562" s="3"/>
-      <c r="F562" s="1"/>
-      <c r="G562" s="1"/>
+      <c r="F562" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G562" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="563" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A563" s="1"/>
-      <c r="B563" s="1"/>
-      <c r="C563" s="3"/>
-      <c r="D563" s="1"/>
+      <c r="A563" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B563" s="70" t="s">
+        <v>947</v>
+      </c>
+      <c r="C563" s="71">
+        <v>45281</v>
+      </c>
+      <c r="D563" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E563" s="3"/>
-      <c r="F563" s="1"/>
-      <c r="G563" s="1"/>
+      <c r="F563" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G563" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="564" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A564" s="1"/>
-      <c r="B564" s="1"/>
-      <c r="C564" s="3"/>
-      <c r="D564" s="1"/>
+      <c r="A564" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B564" s="70" t="s">
+        <v>948</v>
+      </c>
+      <c r="C564" s="71">
+        <v>45281</v>
+      </c>
+      <c r="D564" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E564" s="3"/>
-      <c r="F564" s="1"/>
-      <c r="G564" s="1"/>
+      <c r="F564" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G564" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="565" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A565" s="1"/>
-      <c r="B565" s="1"/>
-      <c r="C565" s="3"/>
-      <c r="D565" s="1"/>
+      <c r="A565" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B565" s="70" t="s">
+        <v>949</v>
+      </c>
+      <c r="C565" s="71">
+        <v>45281</v>
+      </c>
+      <c r="D565" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E565" s="3"/>
-      <c r="F565" s="1"/>
-      <c r="G565" s="1"/>
+      <c r="F565" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G565" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="566" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A566" s="1"/>
-      <c r="B566" s="1"/>
-      <c r="C566" s="3"/>
-      <c r="D566" s="1"/>
+      <c r="A566" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B566" s="70" t="s">
+        <v>950</v>
+      </c>
+      <c r="C566" s="71">
+        <v>45282</v>
+      </c>
+      <c r="D566" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E566" s="3"/>
-      <c r="F566" s="1"/>
-      <c r="G566" s="1"/>
+      <c r="F566" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="G566" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="567" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A567" s="1"/>
-      <c r="B567" s="1"/>
-      <c r="C567" s="3"/>
-      <c r="D567" s="1"/>
+      <c r="A567" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B567" s="70" t="s">
+        <v>951</v>
+      </c>
+      <c r="C567" s="71">
+        <v>45282</v>
+      </c>
+      <c r="D567" s="70" t="s">
+        <v>435</v>
+      </c>
       <c r="E567" s="3"/>
-      <c r="F567" s="1"/>
-      <c r="G567" s="1"/>
+      <c r="F567" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G567" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="568" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A568" s="1"/>
-      <c r="B568" s="1"/>
-      <c r="C568" s="3"/>
-      <c r="D568" s="1"/>
+      <c r="A568" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B568" s="70" t="s">
+        <v>952</v>
+      </c>
+      <c r="C568" s="71">
+        <v>45282</v>
+      </c>
+      <c r="D568" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E568" s="3"/>
-      <c r="F568" s="1"/>
-      <c r="G568" s="1"/>
+      <c r="F568" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G568" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="569" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="1"/>
-      <c r="B569" s="1"/>
-      <c r="C569" s="3"/>
-      <c r="D569" s="1"/>
+      <c r="A569" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B569" s="70" t="s">
+        <v>953</v>
+      </c>
+      <c r="C569" s="71">
+        <v>45286</v>
+      </c>
+      <c r="D569" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E569" s="3"/>
-      <c r="F569" s="1"/>
-      <c r="G569" s="1"/>
+      <c r="F569" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G569" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="570" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A570" s="1"/>
-      <c r="B570" s="1"/>
-      <c r="C570" s="3"/>
-      <c r="D570" s="1"/>
+      <c r="A570" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B570" s="70" t="s">
+        <v>954</v>
+      </c>
+      <c r="C570" s="71">
+        <v>45287</v>
+      </c>
+      <c r="D570" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E570" s="3"/>
-      <c r="F570" s="1"/>
-      <c r="G570" s="1"/>
+      <c r="F570" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G570" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="571" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A571" s="1"/>
-      <c r="B571" s="1"/>
-      <c r="C571" s="3"/>
-      <c r="D571" s="1"/>
+      <c r="A571" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B571" s="70" t="s">
+        <v>955</v>
+      </c>
+      <c r="C571" s="71">
+        <v>45287</v>
+      </c>
+      <c r="D571" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E571" s="3"/>
-      <c r="F571" s="1"/>
-      <c r="G571" s="1"/>
+      <c r="F571" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G571" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="572" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A572" s="1"/>
-      <c r="B572" s="1"/>
-      <c r="C572" s="3"/>
-      <c r="D572" s="1"/>
+      <c r="A572" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B572" s="70" t="s">
+        <v>956</v>
+      </c>
+      <c r="C572" s="71">
+        <v>45287</v>
+      </c>
+      <c r="D572" s="70" t="s">
+        <v>4</v>
+      </c>
       <c r="E572" s="3"/>
-      <c r="F572" s="1"/>
-      <c r="G572" s="1"/>
+      <c r="F572" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G572" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="573" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A573" s="1"/>
-      <c r="B573" s="1"/>
-      <c r="C573" s="3"/>
-      <c r="D573" s="1"/>
+      <c r="A573" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B573" s="70" t="s">
+        <v>957</v>
+      </c>
+      <c r="C573" s="71">
+        <v>45287</v>
+      </c>
+      <c r="D573" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E573" s="3"/>
-      <c r="F573" s="1"/>
-      <c r="G573" s="1"/>
+      <c r="F573" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G573" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="574" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A574" s="1"/>
-      <c r="B574" s="1"/>
-      <c r="C574" s="3"/>
-      <c r="D574" s="1"/>
+      <c r="A574" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B574" s="70" t="s">
+        <v>958</v>
+      </c>
+      <c r="C574" s="71">
+        <v>45287</v>
+      </c>
+      <c r="D574" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E574" s="3"/>
-      <c r="F574" s="1"/>
-      <c r="G574" s="1"/>
+      <c r="F574" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G574" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="575" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="1"/>
-      <c r="B575" s="1"/>
-      <c r="C575" s="3"/>
-      <c r="D575" s="1"/>
+      <c r="A575" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B575" s="70" t="s">
+        <v>959</v>
+      </c>
+      <c r="C575" s="71">
+        <v>45293</v>
+      </c>
+      <c r="D575" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E575" s="3"/>
-      <c r="F575" s="1"/>
-      <c r="G575" s="1"/>
+      <c r="F575" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G575" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="576" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A576" s="1"/>
-      <c r="B576" s="1"/>
-      <c r="C576" s="3"/>
-      <c r="D576" s="1"/>
+      <c r="A576" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B576" s="70" t="s">
+        <v>960</v>
+      </c>
+      <c r="C576" s="71">
+        <v>45293</v>
+      </c>
+      <c r="D576" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E576" s="3"/>
-      <c r="F576" s="1"/>
-      <c r="G576" s="1"/>
+      <c r="F576" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G576" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="577" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A577" s="1"/>
-      <c r="B577" s="1"/>
-      <c r="C577" s="3"/>
-      <c r="D577" s="1"/>
+      <c r="A577" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B577" s="70" t="s">
+        <v>408</v>
+      </c>
+      <c r="C577" s="71">
+        <v>45294</v>
+      </c>
+      <c r="D577" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E577" s="3"/>
-      <c r="F577" s="1"/>
-      <c r="G577" s="1"/>
+      <c r="F577" s="70" t="s">
+        <v>359</v>
+      </c>
+      <c r="G577" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="578" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A578" s="1"/>
-      <c r="B578" s="1"/>
-      <c r="C578" s="3"/>
-      <c r="D578" s="1"/>
+      <c r="A578" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B578" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="C578" s="71">
+        <v>45294</v>
+      </c>
+      <c r="D578" s="70" t="s">
+        <v>4</v>
+      </c>
       <c r="E578" s="3"/>
-      <c r="F578" s="1"/>
-      <c r="G578" s="1"/>
+      <c r="F578" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G578" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="579" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A579" s="1"/>
-      <c r="B579" s="1"/>
-      <c r="C579" s="3"/>
-      <c r="D579" s="1"/>
+      <c r="A579" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B579" s="70" t="s">
+        <v>961</v>
+      </c>
+      <c r="C579" s="71">
+        <v>45294</v>
+      </c>
+      <c r="D579" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E579" s="3"/>
-      <c r="F579" s="1"/>
-      <c r="G579" s="1"/>
+      <c r="F579" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G579" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="580" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A580" s="1"/>
-      <c r="B580" s="1"/>
-      <c r="C580" s="3"/>
-      <c r="D580" s="1"/>
+      <c r="A580" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B580" s="70" t="s">
+        <v>962</v>
+      </c>
+      <c r="C580" s="71">
+        <v>45294</v>
+      </c>
+      <c r="D580" s="70" t="s">
+        <v>4</v>
+      </c>
       <c r="E580" s="3"/>
-      <c r="F580" s="1"/>
-      <c r="G580" s="1"/>
+      <c r="F580" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G580" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="581" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A581" s="1"/>
-      <c r="B581" s="1"/>
-      <c r="C581" s="3"/>
-      <c r="D581" s="1"/>
+      <c r="A581" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B581" s="70" t="s">
+        <v>391</v>
+      </c>
+      <c r="C581" s="71">
+        <v>45295</v>
+      </c>
+      <c r="D581" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E581" s="3"/>
-      <c r="F581" s="1"/>
-      <c r="G581" s="1"/>
+      <c r="F581" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G581" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="582" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A582" s="1"/>
-      <c r="B582" s="1"/>
-      <c r="C582" s="3"/>
-      <c r="D582" s="1"/>
+      <c r="A582" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B582" s="70" t="s">
+        <v>443</v>
+      </c>
+      <c r="C582" s="71">
+        <v>45295</v>
+      </c>
+      <c r="D582" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E582" s="3"/>
-      <c r="F582" s="1"/>
-      <c r="G582" s="1"/>
+      <c r="F582" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G582" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="583" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A583" s="1"/>
-      <c r="B583" s="1"/>
-      <c r="C583" s="3"/>
-      <c r="D583" s="1"/>
+      <c r="A583" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B583" s="70" t="s">
+        <v>963</v>
+      </c>
+      <c r="C583" s="71">
+        <v>45341</v>
+      </c>
+      <c r="D583" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E583" s="3"/>
-      <c r="F583" s="1"/>
-      <c r="G583" s="1"/>
+      <c r="F583" s="70"/>
+      <c r="G583" s="70"/>
     </row>
     <row r="584" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A584" s="1"/>
-      <c r="B584" s="1"/>
-      <c r="C584" s="3"/>
-      <c r="D584" s="1"/>
+      <c r="A584" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B584" s="70" t="s">
+        <v>964</v>
+      </c>
+      <c r="C584" s="71">
+        <v>45342</v>
+      </c>
+      <c r="D584" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E584" s="3"/>
-      <c r="F584" s="1"/>
-      <c r="G584" s="1"/>
+      <c r="F584" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G584" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="585" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A585" s="1"/>
-      <c r="B585" s="1"/>
-      <c r="C585" s="3"/>
-      <c r="D585" s="1"/>
+      <c r="A585" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B585" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="C585" s="71">
+        <v>45343</v>
+      </c>
+      <c r="D585" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E585" s="3"/>
-      <c r="F585" s="1"/>
-      <c r="G585" s="1"/>
+      <c r="F585" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G585" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="586" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="1"/>
-      <c r="B586" s="1"/>
-      <c r="C586" s="3"/>
-      <c r="D586" s="1"/>
+      <c r="A586" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B586" s="70" t="s">
+        <v>965</v>
+      </c>
+      <c r="C586" s="71">
+        <v>45344</v>
+      </c>
+      <c r="D586" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E586" s="3"/>
-      <c r="F586" s="1"/>
-      <c r="G586" s="1"/>
+      <c r="F586" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="G586" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="587" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="1"/>
-      <c r="B587" s="1"/>
-      <c r="C587" s="3"/>
-      <c r="D587" s="1"/>
+      <c r="A587" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B587" s="70" t="s">
+        <v>966</v>
+      </c>
+      <c r="C587" s="71">
+        <v>45344</v>
+      </c>
+      <c r="D587" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E587" s="3"/>
-      <c r="F587" s="1"/>
-      <c r="G587" s="1"/>
+      <c r="F587" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G587" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="588" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="1"/>
-      <c r="B588" s="1"/>
-      <c r="C588" s="3"/>
-      <c r="D588" s="1"/>
+      <c r="A588" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B588" s="70" t="s">
+        <v>967</v>
+      </c>
+      <c r="C588" s="71">
+        <v>45345</v>
+      </c>
+      <c r="D588" s="70" t="s">
+        <v>4</v>
+      </c>
       <c r="E588" s="3"/>
-      <c r="F588" s="1"/>
-      <c r="G588" s="1"/>
+      <c r="F588" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G588" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="589" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A589" s="1"/>
-      <c r="B589" s="1"/>
-      <c r="C589" s="3"/>
-      <c r="D589" s="1"/>
+      <c r="A589" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B589" s="70" t="s">
+        <v>524</v>
+      </c>
+      <c r="C589" s="71">
+        <v>45345</v>
+      </c>
+      <c r="D589" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E589" s="3"/>
-      <c r="F589" s="1"/>
-      <c r="G589" s="1"/>
+      <c r="F589" s="70"/>
+      <c r="G589" s="70"/>
     </row>
     <row r="590" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="1"/>
-      <c r="B590" s="1"/>
-      <c r="C590" s="3"/>
-      <c r="D590" s="1"/>
+      <c r="A590" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B590" s="70" t="s">
+        <v>968</v>
+      </c>
+      <c r="C590" s="71">
+        <v>45348</v>
+      </c>
+      <c r="D590" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E590" s="3"/>
-      <c r="F590" s="1"/>
-      <c r="G590" s="1"/>
+      <c r="F590" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G590" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="591" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A591" s="1"/>
-      <c r="B591" s="1"/>
-      <c r="C591" s="3"/>
-      <c r="D591" s="1"/>
+      <c r="A591" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B591" s="70" t="s">
+        <v>969</v>
+      </c>
+      <c r="C591" s="71">
+        <v>45350</v>
+      </c>
+      <c r="D591" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E591" s="3"/>
-      <c r="F591" s="1"/>
-      <c r="G591" s="1"/>
+      <c r="F591" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G591" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="592" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A592" s="1"/>
-      <c r="B592" s="1"/>
-      <c r="C592" s="3"/>
-      <c r="D592" s="1"/>
+      <c r="A592" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B592" s="70" t="s">
+        <v>970</v>
+      </c>
+      <c r="C592" s="71">
+        <v>45351</v>
+      </c>
+      <c r="D592" s="70" t="s">
+        <v>435</v>
+      </c>
       <c r="E592" s="3"/>
-      <c r="F592" s="1"/>
-      <c r="G592" s="1"/>
+      <c r="F592" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G592" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="593" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="1"/>
-      <c r="B593" s="1"/>
-      <c r="C593" s="3"/>
-      <c r="D593" s="1"/>
+      <c r="A593" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B593" s="70" t="s">
+        <v>446</v>
+      </c>
+      <c r="C593" s="71">
+        <v>45351</v>
+      </c>
+      <c r="D593" s="70" t="s">
+        <v>435</v>
+      </c>
       <c r="E593" s="3"/>
-      <c r="F593" s="1"/>
-      <c r="G593" s="1"/>
+      <c r="F593" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G593" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="594" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A594" s="1"/>
-      <c r="B594" s="1"/>
-      <c r="C594" s="3"/>
-      <c r="D594" s="1"/>
+      <c r="A594" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B594" s="70" t="s">
+        <v>971</v>
+      </c>
+      <c r="C594" s="71">
+        <v>45351</v>
+      </c>
+      <c r="D594" s="70" t="s">
+        <v>435</v>
+      </c>
       <c r="E594" s="3"/>
-      <c r="F594" s="1"/>
-      <c r="G594" s="1"/>
+      <c r="F594" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="G594" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="595" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A595" s="1"/>
-      <c r="B595" s="1"/>
-      <c r="C595" s="3"/>
-      <c r="D595" s="1"/>
+      <c r="A595" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B595" s="70" t="s">
+        <v>972</v>
+      </c>
+      <c r="C595" s="71">
+        <v>45351</v>
+      </c>
+      <c r="D595" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E595" s="3"/>
-      <c r="F595" s="1"/>
-      <c r="G595" s="1"/>
+      <c r="F595" s="70"/>
+      <c r="G595" s="70"/>
     </row>
     <row r="596" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A596" s="1"/>
-      <c r="B596" s="1"/>
-      <c r="C596" s="3"/>
-      <c r="D596" s="1"/>
+      <c r="A596" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B596" s="70" t="s">
+        <v>973</v>
+      </c>
+      <c r="C596" s="71">
+        <v>45356</v>
+      </c>
+      <c r="D596" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E596" s="3"/>
-      <c r="F596" s="1"/>
-      <c r="G596" s="1"/>
+      <c r="F596" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="G596" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="597" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A597" s="1"/>
-      <c r="B597" s="1"/>
-      <c r="C597" s="3"/>
-      <c r="D597" s="1"/>
+      <c r="A597" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B597" s="70" t="s">
+        <v>974</v>
+      </c>
+      <c r="C597" s="71">
+        <v>45357</v>
+      </c>
+      <c r="D597" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="E597" s="3"/>
-      <c r="F597" s="1"/>
-      <c r="G597" s="1"/>
+      <c r="F597" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="G597" s="70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="598" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A598" s="1"/>
-      <c r="B598" s="1"/>
-      <c r="C598" s="3"/>
-      <c r="D598" s="1"/>
+      <c r="A598" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B598" s="70" t="s">
+        <v>975</v>
+      </c>
+      <c r="C598" s="71">
+        <v>45362</v>
+      </c>
+      <c r="D598" s="70" t="s">
+        <v>435</v>
+      </c>
       <c r="E598" s="3"/>
-      <c r="F598" s="1"/>
-      <c r="G598" s="1"/>
+      <c r="F598" s="70"/>
+      <c r="G598" s="70"/>
     </row>
     <row r="599" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A599" s="1"/>
-      <c r="B599" s="1"/>
-      <c r="C599" s="3"/>
-      <c r="D599" s="1"/>
+      <c r="A599" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B599" s="70" t="s">
+        <v>976</v>
+      </c>
+      <c r="C599" s="71">
+        <v>45363</v>
+      </c>
+      <c r="D599" s="70" t="s">
+        <v>435</v>
+      </c>
       <c r="E599" s="3"/>
-      <c r="F599" s="1"/>
-      <c r="G599" s="1"/>
+      <c r="F599" s="70"/>
+      <c r="G599" s="70"/>
     </row>
     <row r="600" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A600" s="1"/>
-      <c r="B600" s="1"/>
-      <c r="C600" s="3"/>
-      <c r="D600" s="1"/>
+      <c r="A600" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B600" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="C600" s="72">
+        <v>45365</v>
+      </c>
+      <c r="D600" s="70" t="s">
+        <v>435</v>
+      </c>
       <c r="E600" s="3"/>
-      <c r="F600" s="1"/>
-      <c r="G600" s="1"/>
+      <c r="F600" s="73"/>
+      <c r="G600" s="73"/>
     </row>
     <row r="601" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
@@ -20157,7 +20772,10 @@
     <sortCondition ref="C2:C558"/>
     <sortCondition ref="B2:B558"/>
   </sortState>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B558 B601:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B559:B600">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8155623F-95F2-3B4F-A94B-F4C1BCF5658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ADFE7D-353A-9343-9858-BFDA195033A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4005" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4004" uniqueCount="977">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2975,11 +2975,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3445,22 +3452,37 @@
   </cellStyleXfs>
   <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="54" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="55" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="55" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3469,34 +3491,22 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3508,25 +3518,25 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="57" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="56" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3538,13 +3548,13 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="56" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="55" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3556,16 +3566,16 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="57" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="56" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3619,13 +3629,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3646,22 +3656,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="58" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="58" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="57" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="57" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14677,11 +14684,11 @@
       <c r="C468" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="D468" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E468" s="6" t="s">
-        <v>706</v>
+      <c r="D468" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E468" s="6">
+        <v>45328</v>
       </c>
       <c r="F468" s="5" t="s">
         <v>328</v>
@@ -16246,7 +16253,7 @@
       <c r="E537" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="F537" s="69" t="s">
+      <c r="F537" s="39" t="s">
         <v>13</v>
       </c>
       <c r="G537" s="41" t="s">
@@ -16697,862 +16704,862 @@
       </c>
     </row>
     <row r="559" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A559" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B559" s="70" t="s">
+      <c r="A559" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B559" s="69" t="s">
         <v>943</v>
       </c>
-      <c r="C559" s="71">
+      <c r="C559" s="70">
         <v>45201</v>
       </c>
-      <c r="D559" s="70" t="s">
+      <c r="D559" s="69" t="s">
         <v>4</v>
       </c>
       <c r="E559" s="3"/>
-      <c r="F559" s="70" t="s">
+      <c r="F559" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="G559" s="70" t="s">
+      <c r="G559" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="560" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A560" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B560" s="70" t="s">
+      <c r="A560" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B560" s="69" t="s">
         <v>944</v>
       </c>
-      <c r="C560" s="71">
+      <c r="C560" s="70">
         <v>45281</v>
       </c>
-      <c r="D560" s="70" t="s">
+      <c r="D560" s="69" t="s">
         <v>435</v>
       </c>
       <c r="E560" s="3"/>
-      <c r="F560" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G560" s="70" t="s">
+      <c r="F560" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G560" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="561" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B561" s="70" t="s">
+      <c r="A561" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B561" s="69" t="s">
         <v>945</v>
       </c>
-      <c r="C561" s="71">
+      <c r="C561" s="70">
         <v>45281</v>
       </c>
-      <c r="D561" s="70" t="s">
+      <c r="D561" s="69" t="s">
         <v>4</v>
       </c>
       <c r="E561" s="3"/>
-      <c r="F561" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G561" s="70" t="s">
+      <c r="F561" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G561" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="562" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A562" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B562" s="70" t="s">
+      <c r="A562" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B562" s="69" t="s">
         <v>946</v>
       </c>
-      <c r="C562" s="71">
+      <c r="C562" s="70">
         <v>45281</v>
       </c>
-      <c r="D562" s="70" t="s">
+      <c r="D562" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E562" s="3"/>
-      <c r="F562" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G562" s="70" t="s">
+      <c r="F562" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G562" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="563" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A563" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B563" s="70" t="s">
+      <c r="A563" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B563" s="69" t="s">
         <v>947</v>
       </c>
-      <c r="C563" s="71">
+      <c r="C563" s="70">
         <v>45281</v>
       </c>
-      <c r="D563" s="70" t="s">
+      <c r="D563" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E563" s="3"/>
-      <c r="F563" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G563" s="70" t="s">
+      <c r="F563" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G563" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="564" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A564" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B564" s="70" t="s">
+      <c r="A564" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B564" s="69" t="s">
         <v>948</v>
       </c>
-      <c r="C564" s="71">
+      <c r="C564" s="70">
         <v>45281</v>
       </c>
-      <c r="D564" s="70" t="s">
+      <c r="D564" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E564" s="3"/>
-      <c r="F564" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G564" s="70" t="s">
+      <c r="F564" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G564" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="565" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A565" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B565" s="70" t="s">
+      <c r="A565" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B565" s="69" t="s">
         <v>949</v>
       </c>
-      <c r="C565" s="71">
+      <c r="C565" s="70">
         <v>45281</v>
       </c>
-      <c r="D565" s="70" t="s">
+      <c r="D565" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E565" s="3"/>
-      <c r="F565" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G565" s="70" t="s">
+      <c r="F565" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G565" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="566" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A566" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B566" s="70" t="s">
+      <c r="A566" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B566" s="69" t="s">
         <v>950</v>
       </c>
-      <c r="C566" s="71">
+      <c r="C566" s="70">
         <v>45282</v>
       </c>
-      <c r="D566" s="70" t="s">
+      <c r="D566" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E566" s="3"/>
-      <c r="F566" s="70" t="s">
+      <c r="F566" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="G566" s="70" t="s">
+      <c r="G566" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="567" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A567" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B567" s="70" t="s">
+      <c r="A567" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B567" s="69" t="s">
         <v>951</v>
       </c>
-      <c r="C567" s="71">
+      <c r="C567" s="70">
         <v>45282</v>
       </c>
-      <c r="D567" s="70" t="s">
+      <c r="D567" s="69" t="s">
         <v>435</v>
       </c>
       <c r="E567" s="3"/>
-      <c r="F567" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G567" s="70" t="s">
+      <c r="F567" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G567" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="568" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A568" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B568" s="70" t="s">
+      <c r="A568" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B568" s="69" t="s">
         <v>952</v>
       </c>
-      <c r="C568" s="71">
+      <c r="C568" s="70">
         <v>45282</v>
       </c>
-      <c r="D568" s="70" t="s">
+      <c r="D568" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E568" s="3"/>
-      <c r="F568" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G568" s="70" t="s">
+      <c r="F568" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G568" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="569" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="70" t="s">
+      <c r="A569" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B569" s="70" t="s">
+      <c r="B569" s="69" t="s">
         <v>953</v>
       </c>
-      <c r="C569" s="71">
+      <c r="C569" s="70">
         <v>45286</v>
       </c>
-      <c r="D569" s="70" t="s">
+      <c r="D569" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E569" s="3"/>
-      <c r="F569" s="70" t="s">
+      <c r="F569" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G569" s="70" t="s">
+      <c r="G569" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="570" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A570" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B570" s="70" t="s">
+      <c r="A570" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B570" s="69" t="s">
         <v>954</v>
       </c>
-      <c r="C570" s="71">
+      <c r="C570" s="70">
         <v>45287</v>
       </c>
-      <c r="D570" s="70" t="s">
+      <c r="D570" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E570" s="3"/>
-      <c r="F570" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G570" s="70" t="s">
+      <c r="F570" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G570" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="571" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A571" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B571" s="70" t="s">
+      <c r="A571" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B571" s="69" t="s">
         <v>955</v>
       </c>
-      <c r="C571" s="71">
+      <c r="C571" s="70">
         <v>45287</v>
       </c>
-      <c r="D571" s="70" t="s">
+      <c r="D571" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E571" s="3"/>
-      <c r="F571" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G571" s="70" t="s">
+      <c r="F571" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G571" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="572" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A572" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B572" s="70" t="s">
+      <c r="A572" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B572" s="69" t="s">
         <v>956</v>
       </c>
-      <c r="C572" s="71">
+      <c r="C572" s="70">
         <v>45287</v>
       </c>
-      <c r="D572" s="70" t="s">
+      <c r="D572" s="69" t="s">
         <v>4</v>
       </c>
       <c r="E572" s="3"/>
-      <c r="F572" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G572" s="70" t="s">
+      <c r="F572" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G572" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="573" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A573" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B573" s="70" t="s">
+      <c r="A573" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B573" s="69" t="s">
         <v>957</v>
       </c>
-      <c r="C573" s="71">
+      <c r="C573" s="70">
         <v>45287</v>
       </c>
-      <c r="D573" s="70" t="s">
+      <c r="D573" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E573" s="3"/>
-      <c r="F573" s="70" t="s">
+      <c r="F573" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="G573" s="70" t="s">
+      <c r="G573" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="574" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A574" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B574" s="70" t="s">
+      <c r="A574" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B574" s="69" t="s">
         <v>958</v>
       </c>
-      <c r="C574" s="71">
+      <c r="C574" s="70">
         <v>45287</v>
       </c>
-      <c r="D574" s="70" t="s">
+      <c r="D574" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E574" s="3"/>
-      <c r="F574" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G574" s="70" t="s">
+      <c r="F574" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G574" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="575" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="70" t="s">
+      <c r="A575" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B575" s="70" t="s">
+      <c r="B575" s="69" t="s">
         <v>959</v>
       </c>
-      <c r="C575" s="71">
+      <c r="C575" s="70">
         <v>45293</v>
       </c>
-      <c r="D575" s="70" t="s">
+      <c r="D575" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E575" s="3"/>
-      <c r="F575" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G575" s="70" t="s">
+      <c r="F575" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G575" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="576" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A576" s="70" t="s">
+      <c r="A576" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B576" s="70" t="s">
+      <c r="B576" s="69" t="s">
         <v>960</v>
       </c>
-      <c r="C576" s="71">
+      <c r="C576" s="70">
         <v>45293</v>
       </c>
-      <c r="D576" s="70" t="s">
+      <c r="D576" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E576" s="3"/>
-      <c r="F576" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G576" s="70" t="s">
+      <c r="F576" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G576" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="577" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A577" s="70" t="s">
+      <c r="A577" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B577" s="70" t="s">
+      <c r="B577" s="69" t="s">
         <v>408</v>
       </c>
-      <c r="C577" s="71">
+      <c r="C577" s="70">
         <v>45294</v>
       </c>
-      <c r="D577" s="70" t="s">
+      <c r="D577" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E577" s="3"/>
-      <c r="F577" s="70" t="s">
+      <c r="F577" s="69" t="s">
         <v>359</v>
       </c>
-      <c r="G577" s="70" t="s">
+      <c r="G577" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="578" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A578" s="70" t="s">
+      <c r="A578" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B578" s="70" t="s">
+      <c r="B578" s="69" t="s">
         <v>397</v>
       </c>
-      <c r="C578" s="71">
+      <c r="C578" s="70">
         <v>45294</v>
       </c>
-      <c r="D578" s="70" t="s">
+      <c r="D578" s="69" t="s">
         <v>4</v>
       </c>
       <c r="E578" s="3"/>
-      <c r="F578" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G578" s="70" t="s">
+      <c r="F578" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G578" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="579" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A579" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B579" s="70" t="s">
+      <c r="A579" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B579" s="69" t="s">
         <v>961</v>
       </c>
-      <c r="C579" s="71">
+      <c r="C579" s="70">
         <v>45294</v>
       </c>
-      <c r="D579" s="70" t="s">
+      <c r="D579" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E579" s="3"/>
-      <c r="F579" s="70" t="s">
+      <c r="F579" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="G579" s="70" t="s">
+      <c r="G579" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="580" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A580" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B580" s="70" t="s">
+      <c r="A580" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B580" s="69" t="s">
         <v>962</v>
       </c>
-      <c r="C580" s="71">
+      <c r="C580" s="70">
         <v>45294</v>
       </c>
-      <c r="D580" s="70" t="s">
+      <c r="D580" s="69" t="s">
         <v>4</v>
       </c>
       <c r="E580" s="3"/>
-      <c r="F580" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G580" s="70" t="s">
+      <c r="F580" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G580" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="581" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A581" s="70" t="s">
+      <c r="A581" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B581" s="70" t="s">
+      <c r="B581" s="69" t="s">
         <v>391</v>
       </c>
-      <c r="C581" s="71">
+      <c r="C581" s="70">
         <v>45295</v>
       </c>
-      <c r="D581" s="70" t="s">
+      <c r="D581" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E581" s="3"/>
-      <c r="F581" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G581" s="70" t="s">
+      <c r="F581" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G581" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="582" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A582" s="70" t="s">
+      <c r="A582" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B582" s="70" t="s">
+      <c r="B582" s="69" t="s">
         <v>443</v>
       </c>
-      <c r="C582" s="71">
+      <c r="C582" s="70">
         <v>45295</v>
       </c>
-      <c r="D582" s="70" t="s">
+      <c r="D582" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E582" s="3"/>
-      <c r="F582" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G582" s="70" t="s">
+      <c r="F582" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G582" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="583" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A583" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B583" s="70" t="s">
+      <c r="A583" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B583" s="69" t="s">
         <v>963</v>
       </c>
-      <c r="C583" s="71">
+      <c r="C583" s="70">
         <v>45341</v>
       </c>
-      <c r="D583" s="70" t="s">
+      <c r="D583" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E583" s="3"/>
-      <c r="F583" s="70"/>
-      <c r="G583" s="70"/>
+      <c r="F583" s="69"/>
+      <c r="G583" s="69"/>
     </row>
     <row r="584" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A584" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B584" s="70" t="s">
+      <c r="A584" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B584" s="69" t="s">
         <v>964</v>
       </c>
-      <c r="C584" s="71">
+      <c r="C584" s="70">
         <v>45342</v>
       </c>
-      <c r="D584" s="70" t="s">
+      <c r="D584" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E584" s="3"/>
-      <c r="F584" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G584" s="70" t="s">
+      <c r="F584" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G584" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="585" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A585" s="70" t="s">
+      <c r="A585" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B585" s="70" t="s">
+      <c r="B585" s="69" t="s">
         <v>340</v>
       </c>
-      <c r="C585" s="71">
+      <c r="C585" s="70">
         <v>45343</v>
       </c>
-      <c r="D585" s="70" t="s">
+      <c r="D585" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E585" s="3"/>
-      <c r="F585" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G585" s="70" t="s">
+      <c r="F585" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G585" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="586" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B586" s="70" t="s">
+      <c r="A586" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B586" s="69" t="s">
         <v>965</v>
       </c>
-      <c r="C586" s="71">
+      <c r="C586" s="70">
         <v>45344</v>
       </c>
-      <c r="D586" s="70" t="s">
+      <c r="D586" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E586" s="3"/>
-      <c r="F586" s="70" t="s">
+      <c r="F586" s="69" t="s">
         <v>300</v>
       </c>
-      <c r="G586" s="70" t="s">
+      <c r="G586" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="587" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B587" s="70" t="s">
+      <c r="A587" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B587" s="69" t="s">
         <v>966</v>
       </c>
-      <c r="C587" s="71">
+      <c r="C587" s="70">
         <v>45344</v>
       </c>
-      <c r="D587" s="70" t="s">
+      <c r="D587" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E587" s="3"/>
-      <c r="F587" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G587" s="70" t="s">
+      <c r="F587" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G587" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="588" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B588" s="70" t="s">
+      <c r="A588" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B588" s="69" t="s">
         <v>967</v>
       </c>
-      <c r="C588" s="71">
+      <c r="C588" s="70">
         <v>45345</v>
       </c>
-      <c r="D588" s="70" t="s">
+      <c r="D588" s="69" t="s">
         <v>4</v>
       </c>
       <c r="E588" s="3"/>
-      <c r="F588" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G588" s="70" t="s">
+      <c r="F588" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G588" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="589" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A589" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B589" s="70" t="s">
+      <c r="A589" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B589" s="69" t="s">
         <v>524</v>
       </c>
-      <c r="C589" s="71">
+      <c r="C589" s="70">
         <v>45345</v>
       </c>
-      <c r="D589" s="70" t="s">
+      <c r="D589" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E589" s="3"/>
-      <c r="F589" s="70"/>
-      <c r="G589" s="70"/>
+      <c r="F589" s="69"/>
+      <c r="G589" s="69"/>
     </row>
     <row r="590" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B590" s="70" t="s">
+      <c r="A590" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B590" s="69" t="s">
         <v>968</v>
       </c>
-      <c r="C590" s="71">
+      <c r="C590" s="70">
         <v>45348</v>
       </c>
-      <c r="D590" s="70" t="s">
+      <c r="D590" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E590" s="3"/>
-      <c r="F590" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G590" s="70" t="s">
+      <c r="F590" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G590" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="591" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A591" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B591" s="70" t="s">
+      <c r="A591" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B591" s="69" t="s">
         <v>969</v>
       </c>
-      <c r="C591" s="71">
+      <c r="C591" s="70">
         <v>45350</v>
       </c>
-      <c r="D591" s="70" t="s">
+      <c r="D591" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E591" s="3"/>
-      <c r="F591" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G591" s="70" t="s">
+      <c r="F591" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G591" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="592" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A592" s="70" t="s">
+      <c r="A592" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B592" s="70" t="s">
+      <c r="B592" s="69" t="s">
         <v>970</v>
       </c>
-      <c r="C592" s="71">
+      <c r="C592" s="70">
         <v>45351</v>
       </c>
-      <c r="D592" s="70" t="s">
+      <c r="D592" s="69" t="s">
         <v>435</v>
       </c>
       <c r="E592" s="3"/>
-      <c r="F592" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G592" s="70" t="s">
+      <c r="F592" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G592" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="593" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="70" t="s">
+      <c r="A593" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B593" s="70" t="s">
+      <c r="B593" s="69" t="s">
         <v>446</v>
       </c>
-      <c r="C593" s="71">
+      <c r="C593" s="70">
         <v>45351</v>
       </c>
-      <c r="D593" s="70" t="s">
+      <c r="D593" s="69" t="s">
         <v>435</v>
       </c>
       <c r="E593" s="3"/>
-      <c r="F593" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G593" s="70" t="s">
+      <c r="F593" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G593" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="594" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A594" s="70" t="s">
+      <c r="A594" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B594" s="70" t="s">
+      <c r="B594" s="69" t="s">
         <v>971</v>
       </c>
-      <c r="C594" s="71">
+      <c r="C594" s="70">
         <v>45351</v>
       </c>
-      <c r="D594" s="70" t="s">
+      <c r="D594" s="69" t="s">
         <v>435</v>
       </c>
       <c r="E594" s="3"/>
-      <c r="F594" s="70" t="s">
+      <c r="F594" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G594" s="70" t="s">
+      <c r="G594" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="595" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A595" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B595" s="70" t="s">
+      <c r="A595" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B595" s="69" t="s">
         <v>972</v>
       </c>
-      <c r="C595" s="71">
+      <c r="C595" s="70">
         <v>45351</v>
       </c>
-      <c r="D595" s="70" t="s">
+      <c r="D595" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E595" s="3"/>
-      <c r="F595" s="70"/>
-      <c r="G595" s="70"/>
+      <c r="F595" s="69"/>
+      <c r="G595" s="69"/>
     </row>
     <row r="596" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A596" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B596" s="70" t="s">
+      <c r="A596" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B596" s="69" t="s">
         <v>973</v>
       </c>
-      <c r="C596" s="71">
+      <c r="C596" s="70">
         <v>45356</v>
       </c>
-      <c r="D596" s="70" t="s">
+      <c r="D596" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E596" s="3"/>
-      <c r="F596" s="70" t="s">
+      <c r="F596" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="G596" s="70" t="s">
+      <c r="G596" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="597" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A597" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B597" s="70" t="s">
+      <c r="A597" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B597" s="69" t="s">
         <v>974</v>
       </c>
-      <c r="C597" s="71">
+      <c r="C597" s="70">
         <v>45357</v>
       </c>
-      <c r="D597" s="70" t="s">
+      <c r="D597" s="69" t="s">
         <v>1</v>
       </c>
       <c r="E597" s="3"/>
-      <c r="F597" s="70" t="s">
+      <c r="F597" s="69" t="s">
         <v>300</v>
       </c>
-      <c r="G597" s="70" t="s">
+      <c r="G597" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="598" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A598" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B598" s="70" t="s">
+      <c r="A598" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B598" s="69" t="s">
         <v>975</v>
       </c>
-      <c r="C598" s="71">
+      <c r="C598" s="70">
         <v>45362</v>
       </c>
-      <c r="D598" s="70" t="s">
+      <c r="D598" s="69" t="s">
         <v>435</v>
       </c>
       <c r="E598" s="3"/>
-      <c r="F598" s="70"/>
-      <c r="G598" s="70"/>
+      <c r="F598" s="69"/>
+      <c r="G598" s="69"/>
     </row>
     <row r="599" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A599" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B599" s="70" t="s">
+      <c r="A599" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B599" s="69" t="s">
         <v>976</v>
       </c>
-      <c r="C599" s="71">
+      <c r="C599" s="70">
         <v>45363</v>
       </c>
-      <c r="D599" s="70" t="s">
+      <c r="D599" s="69" t="s">
         <v>435</v>
       </c>
       <c r="E599" s="3"/>
-      <c r="F599" s="70"/>
-      <c r="G599" s="70"/>
+      <c r="F599" s="69"/>
+      <c r="G599" s="69"/>
     </row>
     <row r="600" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A600" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B600" s="70" t="s">
+      <c r="A600" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B600" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="C600" s="72">
+      <c r="C600" s="71">
         <v>45365</v>
       </c>
-      <c r="D600" s="70" t="s">
+      <c r="D600" s="69" t="s">
         <v>435</v>
       </c>
       <c r="E600" s="3"/>
-      <c r="F600" s="73"/>
-      <c r="G600" s="73"/>
+      <c r="F600" s="72"/>
+      <c r="G600" s="72"/>
     </row>
     <row r="601" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ADFE7D-353A-9343-9858-BFDA195033A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB6EAAE-EA92-E549-84CE-9DCC6CFF1F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4004" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4003" uniqueCount="977">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2975,11 +2975,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3450,24 +3457,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="55" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="56" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="56" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="55" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3476,34 +3498,22 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3515,25 +3525,25 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="58" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="57" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3545,13 +3555,13 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="57" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="56" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3563,16 +3573,16 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="58" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="57" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3626,13 +3636,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3653,19 +3663,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="59" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="58" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="59" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="58" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13063,11 +13073,11 @@
       <c r="C397" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="D397" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E397" s="6" t="s">
-        <v>706</v>
+      <c r="D397" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E397" s="6">
+        <v>45434</v>
       </c>
       <c r="F397" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB6EAAE-EA92-E549-84CE-9DCC6CFF1F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F5049E-4D67-A548-AFF0-54628DB2F943}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Discentes" sheetId="9" r:id="rId1"/>
@@ -20,16 +20,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mgQ9nqKLvrWpez9cM4uC7QV2/i8gg=="/>
     </ext>
@@ -38,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4003" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4004" uniqueCount="977">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2975,11 +2965,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="60" x14ac:knownFonts="1">
+  <fonts count="63" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3457,42 +3468,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="56" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="59" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="59" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="56" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3501,49 +3533,43 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="61" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="58" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="60" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3555,13 +3581,16 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="57" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="61" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3571,15 +3600,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="58" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3627,7 +3647,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3636,10 +3659,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3654,6 +3674,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="62" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="62" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3661,18 +3693,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="59" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="59" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3950,8 +3970,8 @@
   <dimension ref="A1:G957"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A560" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A600" sqref="A600"/>
+      <pane ySplit="1" topLeftCell="A568" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A601" sqref="A601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13004,11 +13024,11 @@
       <c r="C394" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="D394" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E394" s="6" t="s">
-        <v>706</v>
+      <c r="D394" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E394" s="6">
+        <v>45401</v>
       </c>
       <c r="F394" s="5" t="s">
         <v>380</v>
@@ -14512,8 +14532,8 @@
       <c r="C460" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="D460" s="5" t="s">
-        <v>1</v>
+      <c r="D460" s="75" t="s">
+        <v>4</v>
       </c>
       <c r="E460" s="6" t="s">
         <v>706</v>
@@ -14853,11 +14873,11 @@
       <c r="C475" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="D475" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="E475" s="6" t="s">
-        <v>706</v>
+      <c r="D475" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E475" s="6">
+        <v>45385</v>
       </c>
       <c r="F475" s="5" t="s">
         <v>13</v>
@@ -17555,16 +17575,16 @@
       <c r="G599" s="69"/>
     </row>
     <row r="600" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A600" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B600" s="69" t="s">
+      <c r="A600" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B600" s="72" t="s">
         <v>163</v>
       </c>
       <c r="C600" s="71">
         <v>45365</v>
       </c>
-      <c r="D600" s="69" t="s">
+      <c r="D600" s="72" t="s">
         <v>435</v>
       </c>
       <c r="E600" s="3"/>
@@ -17572,13 +17592,21 @@
       <c r="G600" s="72"/>
     </row>
     <row r="601" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A601" s="1"/>
-      <c r="B601" s="1"/>
-      <c r="C601" s="3"/>
-      <c r="D601" s="1"/>
+      <c r="A601" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B601" s="72" t="s">
+        <v>468</v>
+      </c>
+      <c r="C601" s="71">
+        <v>45365</v>
+      </c>
+      <c r="D601" s="72" t="s">
+        <v>435</v>
+      </c>
       <c r="E601" s="3"/>
-      <c r="F601" s="1"/>
-      <c r="G601" s="1"/>
+      <c r="F601" s="72"/>
+      <c r="G601" s="72"/>
     </row>
     <row r="602" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
@@ -20785,14 +20813,14 @@
       <c r="G957" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G558">
+  <sortState ref="A2:G558">
     <sortCondition ref="C2:C558"/>
     <sortCondition ref="B2:B558"/>
   </sortState>
-  <conditionalFormatting sqref="B1:B558 B601:B1048576">
+  <conditionalFormatting sqref="B1:B558 B602:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B559:B600">
+  <conditionalFormatting sqref="B559:B601">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (ciencias)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F5049E-4D67-A548-AFF0-54628DB2F943}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A5A48A-0EF0-584D-A1BB-6C0B98A7A07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Discentes" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,17 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mgQ9nqKLvrWpez9cM4uC7QV2/i8gg=="/>
     </ext>
@@ -28,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4004" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4010" uniqueCount="979">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2959,6 +2970,12 @@
   </si>
   <si>
     <t>Rubem Corrêa Barbosa Neto</t>
+  </si>
+  <si>
+    <t>Bruno Perez Felix</t>
+  </si>
+  <si>
+    <t>Yasmin Oliveira de Freitas</t>
   </si>
 </sst>
 </file>
@@ -3970,8 +3987,8 @@
   <dimension ref="A1:G957"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A568" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A601" sqref="A601"/>
+      <pane ySplit="1" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A603" sqref="A603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17349,7 +17366,7 @@
         <v>45345</v>
       </c>
       <c r="D588" s="69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E588" s="3"/>
       <c r="F588" s="69" t="s">
@@ -17609,22 +17626,38 @@
       <c r="G601" s="72"/>
     </row>
     <row r="602" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A602" s="1"/>
-      <c r="B602" s="1"/>
-      <c r="C602" s="3"/>
-      <c r="D602" s="1"/>
+      <c r="A602" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B602" s="72" t="s">
+        <v>977</v>
+      </c>
+      <c r="C602" s="71">
+        <v>45383</v>
+      </c>
+      <c r="D602" s="72" t="s">
+        <v>435</v>
+      </c>
       <c r="E602" s="3"/>
-      <c r="F602" s="1"/>
-      <c r="G602" s="1"/>
+      <c r="F602" s="72"/>
+      <c r="G602" s="72"/>
     </row>
     <row r="603" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A603" s="1"/>
-      <c r="B603" s="1"/>
-      <c r="C603" s="3"/>
-      <c r="D603" s="1"/>
+      <c r="A603" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B603" s="72" t="s">
+        <v>978</v>
+      </c>
+      <c r="C603" s="71">
+        <v>45383</v>
+      </c>
+      <c r="D603" s="72" t="s">
+        <v>435</v>
+      </c>
       <c r="E603" s="3"/>
-      <c r="F603" s="1"/>
-      <c r="G603" s="1"/>
+      <c r="F603" s="72"/>
+      <c r="G603" s="72"/>
     </row>
     <row r="604" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
@@ -20813,14 +20846,14 @@
       <c r="G957" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G558">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G558">
     <sortCondition ref="C2:C558"/>
     <sortCondition ref="B2:B558"/>
   </sortState>
-  <conditionalFormatting sqref="B1:B558 B602:B1048576">
+  <conditionalFormatting sqref="B1:B558 B604:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B559:B601">
+  <conditionalFormatting sqref="B559:B603">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (ciencias)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A5A48A-0EF0-584D-A1BB-6C0B98A7A07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5FE8C0-65CE-7F4D-800D-790B64557E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4010" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="981">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2976,17 +2976,30 @@
   </si>
   <si>
     <t>Yasmin Oliveira de Freitas</t>
+  </si>
+  <si>
+    <t>Aroldo Caio de Araújo Barros</t>
+  </si>
+  <si>
+    <t>Isabelle de Oliveira Espindola</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3485,24 +3498,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="59" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="60" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="60" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="59" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3511,34 +3539,22 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3550,25 +3566,25 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="62" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="61" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3580,13 +3596,13 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="61" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="60" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3598,16 +3614,16 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="62" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="61" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3661,13 +3677,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3688,19 +3704,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="63" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="62" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="63" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="62" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3715,14 +3731,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3770,9 +3799,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="stats3-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3987,8 +4016,8 @@
   <dimension ref="A1:G957"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A603" sqref="A603"/>
+      <pane ySplit="1" topLeftCell="A579" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A604" sqref="A604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17660,22 +17689,38 @@
       <c r="G603" s="72"/>
     </row>
     <row r="604" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="1"/>
-      <c r="B604" s="1"/>
-      <c r="C604" s="3"/>
-      <c r="D604" s="1"/>
+      <c r="A604" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B604" s="72" t="s">
+        <v>979</v>
+      </c>
+      <c r="C604" s="71">
+        <v>45366</v>
+      </c>
+      <c r="D604" s="78" t="s">
+        <v>1</v>
+      </c>
       <c r="E604" s="3"/>
-      <c r="F604" s="1"/>
-      <c r="G604" s="1"/>
+      <c r="F604" s="79"/>
+      <c r="G604" s="79"/>
     </row>
     <row r="605" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A605" s="1"/>
-      <c r="B605" s="1"/>
-      <c r="C605" s="3"/>
-      <c r="D605" s="1"/>
+      <c r="A605" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B605" s="72" t="s">
+        <v>980</v>
+      </c>
+      <c r="C605" s="71">
+        <v>45369</v>
+      </c>
+      <c r="D605" s="78" t="s">
+        <v>1</v>
+      </c>
       <c r="E605" s="3"/>
-      <c r="F605" s="1"/>
-      <c r="G605" s="1"/>
+      <c r="F605" s="79"/>
+      <c r="G605" s="79"/>
     </row>
     <row r="606" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
@@ -20850,10 +20895,13 @@
     <sortCondition ref="C2:C558"/>
     <sortCondition ref="B2:B558"/>
   </sortState>
-  <conditionalFormatting sqref="B1:B558 B604:B1048576">
+  <conditionalFormatting sqref="B1:B558 B606:B1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B559:B603">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B559:B603">
+  <conditionalFormatting sqref="B604:B605">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (ciencias)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5FE8C0-65CE-7F4D-800D-790B64557E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81799325-5CCD-9A4D-82AD-164776815CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="981">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -4016,8 +4016,8 @@
   <dimension ref="A1:G957"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A579" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A604" sqref="A604"/>
+      <pane ySplit="1" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A605" sqref="A605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16102,10 +16102,10 @@
         <v>492</v>
       </c>
       <c r="D527" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E527" s="3" t="s">
-        <v>706</v>
+        <v>2</v>
+      </c>
+      <c r="E527" s="3">
+        <v>45475</v>
       </c>
       <c r="F527" s="39" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81799325-5CCD-9A4D-82AD-164776815CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48678B8D-D103-5443-BD9B-352D1C99CB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4014" uniqueCount="981">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2988,11 +2988,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="64" x14ac:knownFonts="1">
+  <fonts count="65" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3498,24 +3505,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="60" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="61" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="61" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="60" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3524,34 +3546,22 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3563,25 +3573,25 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="63" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="62" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3593,13 +3603,13 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="62" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="61" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3611,16 +3621,16 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="63" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="62" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3674,13 +3684,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3701,19 +3711,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="64" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="63" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="64" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="63" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3728,13 +3738,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4016,7 +4026,7 @@
   <dimension ref="A1:G957"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A571" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A605" sqref="A605"/>
     </sheetView>
   </sheetViews>
@@ -13185,11 +13195,11 @@
       <c r="C399" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="D399" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E399" s="6" t="s">
-        <v>706</v>
+      <c r="D399" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="E399" s="6">
+        <v>45433</v>
       </c>
       <c r="F399" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48678B8D-D103-5443-BD9B-352D1C99CB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5D352C-7A28-8944-BF73-DEF3BBE26757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4014" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4013" uniqueCount="981">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2988,11 +2988,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="65" x14ac:knownFonts="1">
+  <fonts count="66" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3505,24 +3512,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="61" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="62" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="62" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="61" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3531,34 +3553,22 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3570,25 +3580,25 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="64" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="63" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="43" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3600,13 +3610,13 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="63" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="62" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3618,16 +3628,16 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="64" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="63" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3681,13 +3691,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3708,19 +3718,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="64" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="65" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="64" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3735,13 +3745,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4026,7 +4036,7 @@
   <dimension ref="A1:G957"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A571" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A605" sqref="A605"/>
     </sheetView>
   </sheetViews>
@@ -14701,11 +14711,11 @@
       <c r="C465" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="D465" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E465" s="6" t="s">
-        <v>706</v>
+      <c r="D465" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="E465" s="6">
+        <v>45453</v>
       </c>
       <c r="F465" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5D352C-7A28-8944-BF73-DEF3BBE26757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A5A477-01C6-6442-8C1B-CEDD553A2820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4013" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="981">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -4036,8 +4036,8 @@
   <dimension ref="A1:G957"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A605" sqref="A605"/>
+      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C465" sqref="C465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14711,12 +14711,8 @@
       <c r="C465" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="D465" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="E465" s="6">
-        <v>45453</v>
-      </c>
+      <c r="D465" s="81"/>
+      <c r="E465" s="6"/>
       <c r="F465" s="5" t="s">
         <v>13</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A5A477-01C6-6442-8C1B-CEDD553A2820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19253D07-70F8-5D46-AB89-1B2324CC001B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4011" uniqueCount="981">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -4036,8 +4036,8 @@
   <dimension ref="A1:G957"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C465" sqref="C465"/>
+      <pane ySplit="1" topLeftCell="A571" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A605" sqref="A605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16208,10 +16208,10 @@
         <v>495</v>
       </c>
       <c r="D531" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E531" s="3" t="s">
-        <v>706</v>
+        <v>2</v>
+      </c>
+      <c r="E531" s="3">
+        <v>45488</v>
       </c>
       <c r="F531" s="39" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19253D07-70F8-5D46-AB89-1B2324CC001B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9577AF-7BE6-004A-9691-A6D8F5EF0E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4011" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4010" uniqueCount="981">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2988,11 +2988,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="66" x14ac:knownFonts="1">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3512,24 +3519,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="62" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="63" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="63" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="62" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3538,34 +3560,22 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3577,25 +3587,25 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="65" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="64" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="43" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3607,13 +3617,13 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="64" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="63" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3625,16 +3635,16 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="64" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3688,13 +3698,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3715,19 +3725,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="66" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="66" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="65" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3742,13 +3752,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4036,8 +4046,8 @@
   <dimension ref="A1:G957"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A571" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A605" sqref="A605"/>
+      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B474" sqref="B474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14912,11 +14922,11 @@
       <c r="C474" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="D474" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="E474" s="6" t="s">
-        <v>706</v>
+      <c r="D474" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E474" s="6">
+        <v>45527</v>
       </c>
       <c r="F474" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9577AF-7BE6-004A-9691-A6D8F5EF0E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FFBD8C-FB71-BA41-86B7-74CFEDDE2019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4010" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4009" uniqueCount="981">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2988,11 +2988,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="67" x14ac:knownFonts="1">
+  <fonts count="68" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3519,24 +3526,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="63" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="64" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="64" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="63" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3545,34 +3567,22 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3584,25 +3594,25 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="66" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="65" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3614,13 +3624,13 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="65" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="64" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3632,16 +3642,16 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="66" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3695,13 +3705,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3722,19 +3732,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="67" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="66" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="67" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="66" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3749,13 +3759,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4046,8 +4056,8 @@
   <dimension ref="A1:G957"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B474" sqref="B474"/>
+      <pane ySplit="1" topLeftCell="A571" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A605" sqref="A605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15240,11 +15250,11 @@
       <c r="C488" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="D488" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E488" s="6" t="s">
-        <v>706</v>
+      <c r="D488" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E488" s="6">
+        <v>45533</v>
       </c>
       <c r="F488" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FFBD8C-FB71-BA41-86B7-74CFEDDE2019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B330B0B7-D9AF-2443-A305-7259273C3C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4009" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4008" uniqueCount="981">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2988,11 +2988,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="68" x14ac:knownFonts="1">
+  <fonts count="69" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3526,24 +3533,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="64" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="65" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="64" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3552,34 +3574,22 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3591,25 +3601,25 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="67" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="66" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3621,13 +3631,13 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="66" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="65" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3639,16 +3649,16 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="67" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="66" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3702,13 +3712,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3729,19 +3739,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="68" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="67" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="68" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="67" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3756,13 +3766,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12075,11 +12085,11 @@
       <c r="C349" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="D349" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E349" s="6" t="s">
-        <v>706</v>
+      <c r="D349" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="E349" s="6">
+        <v>45565</v>
       </c>
       <c r="F349" s="5" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B330B0B7-D9AF-2443-A305-7259273C3C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2998F8C8-211F-5C42-93A8-0A58CFE2C919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="24920" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2988,11 +2988,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="69" x14ac:knownFonts="1">
+  <fonts count="70" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3533,24 +3540,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="65" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="66" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="66" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="65" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3559,34 +3581,22 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3598,25 +3608,25 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="68" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="67" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3628,13 +3638,13 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="67" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="66" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3646,16 +3656,16 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="68" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="67" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3709,13 +3719,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3736,19 +3746,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="69" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="68" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="69" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="68" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3763,13 +3773,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3784,7 +3794,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -16478,10 +16488,12 @@
       <c r="C542" s="40">
         <v>45093</v>
       </c>
-      <c r="D542" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="E542" s="3"/>
+      <c r="D542" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="E542" s="3">
+        <v>45562</v>
+      </c>
       <c r="F542" s="1" t="s">
         <v>13</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E17130-A5B8-EA49-90F9-D1455826B897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42C2180-A039-8543-B6AE-F603717700A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4097" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4095" uniqueCount="994">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -3134,7 +3134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3166,31 +3166,22 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3472,7 +3463,7 @@
   <dimension ref="A1:G919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A582" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A622" sqref="A622"/>
     </sheetView>
   </sheetViews>
@@ -14736,10 +14727,10 @@
         <v>704</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E491" s="5" t="s">
-        <v>706</v>
+        <v>2</v>
+      </c>
+      <c r="E491" s="5">
+        <v>45603</v>
       </c>
       <c r="F491" s="4" t="s">
         <v>71</v>
@@ -15167,10 +15158,10 @@
         <v>485</v>
       </c>
       <c r="D510" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E510" s="5" t="s">
-        <v>706</v>
+        <v>2</v>
+      </c>
+      <c r="E510" s="5">
+        <v>45586</v>
       </c>
       <c r="F510" s="4" t="s">
         <v>13</v>
@@ -15695,7 +15686,7 @@
       <c r="E533" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="F533" s="19"/>
+      <c r="F533" s="7"/>
       <c r="G533" s="7" t="s">
         <v>14</v>
       </c>
@@ -15760,7 +15751,7 @@
       <c r="E536" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="F536" s="19"/>
+      <c r="F536" s="7"/>
       <c r="G536" s="7" t="s">
         <v>14</v>
       </c>
@@ -15827,7 +15818,7 @@
       <c r="E539" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="F539" s="19"/>
+      <c r="F539" s="7"/>
       <c r="G539" s="7" t="s">
         <v>14</v>
       </c>
@@ -15843,9 +15834,11 @@
         <v>45090</v>
       </c>
       <c r="D540" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E540" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E540" s="6">
+        <v>45622</v>
+      </c>
       <c r="F540" s="7" t="s">
         <v>13</v>
       </c>
@@ -16171,1373 +16164,1373 @@
       </c>
     </row>
     <row r="556" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B556" s="15" t="s">
+      <c r="A556" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B556" s="13" t="s">
         <v>937</v>
       </c>
-      <c r="C556" s="16">
+      <c r="C556" s="14">
         <v>45161</v>
       </c>
-      <c r="D556" s="15" t="s">
+      <c r="D556" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E556" s="16"/>
-      <c r="F556" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G556" s="15" t="s">
+      <c r="E556" s="14"/>
+      <c r="F556" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G556" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="557" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B557" s="15" t="s">
+      <c r="A557" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B557" s="13" t="s">
         <v>938</v>
       </c>
-      <c r="C557" s="16">
+      <c r="C557" s="14">
         <v>45189</v>
       </c>
-      <c r="D557" s="15" t="s">
+      <c r="D557" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E557" s="16"/>
-      <c r="F557" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G557" s="15" t="s">
+      <c r="E557" s="14"/>
+      <c r="F557" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G557" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="558" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A558" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B558" s="15" t="s">
+      <c r="A558" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B558" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="C558" s="16">
+      <c r="C558" s="14">
         <v>45190</v>
       </c>
-      <c r="D558" s="15" t="s">
+      <c r="D558" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E558" s="16"/>
-      <c r="F558" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G558" s="15" t="s">
+      <c r="E558" s="14"/>
+      <c r="F558" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G558" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="559" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A559" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B559" s="15" t="s">
+      <c r="A559" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B559" s="13" t="s">
         <v>943</v>
       </c>
-      <c r="C559" s="16">
+      <c r="C559" s="14">
         <v>45201</v>
       </c>
-      <c r="D559" s="15" t="s">
+      <c r="D559" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E559" s="16"/>
-      <c r="F559" s="15" t="s">
+      <c r="E559" s="14"/>
+      <c r="F559" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="G559" s="15" t="s">
+      <c r="G559" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="560" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A560" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B560" s="15" t="s">
+      <c r="A560" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B560" s="13" t="s">
         <v>945</v>
       </c>
-      <c r="C560" s="16">
+      <c r="C560" s="14">
         <v>45281</v>
       </c>
-      <c r="D560" s="15" t="s">
+      <c r="D560" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E560" s="16"/>
-      <c r="F560" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G560" s="15" t="s">
+      <c r="E560" s="14"/>
+      <c r="F560" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G560" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="561" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B561" s="15" t="s">
+      <c r="A561" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B561" s="13" t="s">
         <v>948</v>
       </c>
-      <c r="C561" s="16">
+      <c r="C561" s="14">
         <v>45281</v>
       </c>
-      <c r="D561" s="15" t="s">
+      <c r="D561" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E561" s="16"/>
-      <c r="F561" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G561" s="15" t="s">
+      <c r="E561" s="14"/>
+      <c r="F561" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G561" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="562" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A562" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B562" s="15" t="s">
+      <c r="A562" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B562" s="13" t="s">
         <v>944</v>
       </c>
-      <c r="C562" s="16">
+      <c r="C562" s="14">
         <v>45281</v>
       </c>
-      <c r="D562" s="15" t="s">
+      <c r="D562" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="E562" s="16"/>
-      <c r="F562" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G562" s="15" t="s">
+      <c r="E562" s="14"/>
+      <c r="F562" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G562" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="563" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A563" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B563" s="15" t="s">
+      <c r="A563" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B563" s="13" t="s">
         <v>946</v>
       </c>
-      <c r="C563" s="16">
+      <c r="C563" s="14">
         <v>45281</v>
       </c>
-      <c r="D563" s="15" t="s">
+      <c r="D563" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E563" s="16"/>
-      <c r="F563" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G563" s="15" t="s">
+      <c r="E563" s="14"/>
+      <c r="F563" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G563" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="564" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A564" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B564" s="15" t="s">
+      <c r="A564" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B564" s="13" t="s">
         <v>949</v>
       </c>
-      <c r="C564" s="16">
+      <c r="C564" s="14">
         <v>45281</v>
       </c>
-      <c r="D564" s="15" t="s">
+      <c r="D564" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E564" s="16"/>
-      <c r="F564" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G564" s="15" t="s">
+      <c r="E564" s="14"/>
+      <c r="F564" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G564" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="565" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A565" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B565" s="15" t="s">
+      <c r="A565" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B565" s="13" t="s">
         <v>947</v>
       </c>
-      <c r="C565" s="16">
+      <c r="C565" s="14">
         <v>45281</v>
       </c>
-      <c r="D565" s="15" t="s">
+      <c r="D565" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E565" s="16"/>
-      <c r="F565" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G565" s="15" t="s">
+      <c r="E565" s="14"/>
+      <c r="F565" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G565" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="566" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A566" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B566" s="15" t="s">
+      <c r="A566" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B566" s="13" t="s">
         <v>952</v>
       </c>
-      <c r="C566" s="16">
+      <c r="C566" s="14">
         <v>45282</v>
       </c>
-      <c r="D566" s="15" t="s">
+      <c r="D566" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="E566" s="16"/>
-      <c r="F566" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G566" s="15" t="s">
+      <c r="E566" s="14"/>
+      <c r="F566" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G566" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="567" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A567" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B567" s="15" t="s">
+      <c r="A567" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B567" s="13" t="s">
         <v>950</v>
       </c>
-      <c r="C567" s="16">
+      <c r="C567" s="14">
         <v>45282</v>
       </c>
-      <c r="D567" s="15" t="s">
+      <c r="D567" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E567" s="16"/>
-      <c r="F567" s="15" t="s">
+      <c r="E567" s="14"/>
+      <c r="F567" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="G567" s="15" t="s">
+      <c r="G567" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="568" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A568" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B568" s="15" t="s">
+      <c r="A568" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B568" s="13" t="s">
         <v>951</v>
       </c>
-      <c r="C568" s="16">
+      <c r="C568" s="14">
         <v>45282</v>
       </c>
-      <c r="D568" s="15" t="s">
+      <c r="D568" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="E568" s="16"/>
-      <c r="F568" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G568" s="15" t="s">
+      <c r="E568" s="14"/>
+      <c r="F568" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G568" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="569" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="15" t="s">
+      <c r="A569" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B569" s="15" t="s">
+      <c r="B569" s="13" t="s">
         <v>953</v>
       </c>
-      <c r="C569" s="16">
+      <c r="C569" s="14">
         <v>45286</v>
       </c>
-      <c r="D569" s="15" t="s">
+      <c r="D569" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E569" s="16"/>
-      <c r="F569" s="15" t="s">
+      <c r="E569" s="14"/>
+      <c r="F569" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G569" s="15" t="s">
+      <c r="G569" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="570" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A570" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B570" s="15" t="s">
+      <c r="A570" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B570" s="13" t="s">
         <v>954</v>
       </c>
-      <c r="C570" s="16">
+      <c r="C570" s="14">
         <v>45287</v>
       </c>
-      <c r="D570" s="15" t="s">
+      <c r="D570" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E570" s="16"/>
-      <c r="F570" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G570" s="15" t="s">
+      <c r="E570" s="14"/>
+      <c r="F570" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G570" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="571" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A571" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B571" s="15" t="s">
+      <c r="A571" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B571" s="13" t="s">
         <v>955</v>
       </c>
-      <c r="C571" s="16">
+      <c r="C571" s="14">
         <v>45287</v>
       </c>
-      <c r="D571" s="15" t="s">
+      <c r="D571" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E571" s="16"/>
-      <c r="F571" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G571" s="15" t="s">
+      <c r="E571" s="14"/>
+      <c r="F571" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G571" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="572" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A572" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B572" s="15" t="s">
+      <c r="A572" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B572" s="13" t="s">
         <v>958</v>
       </c>
-      <c r="C572" s="16">
+      <c r="C572" s="14">
         <v>45287</v>
       </c>
-      <c r="D572" s="15" t="s">
+      <c r="D572" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E572" s="16"/>
-      <c r="F572" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G572" s="15" t="s">
+      <c r="E572" s="14"/>
+      <c r="F572" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G572" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="573" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A573" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B573" s="15" t="s">
+      <c r="A573" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B573" s="13" t="s">
         <v>957</v>
       </c>
-      <c r="C573" s="16">
+      <c r="C573" s="14">
         <v>45287</v>
       </c>
-      <c r="D573" s="15" t="s">
+      <c r="D573" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E573" s="16"/>
-      <c r="F573" s="15" t="s">
+      <c r="E573" s="14"/>
+      <c r="F573" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G573" s="15" t="s">
+      <c r="G573" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="574" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A574" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B574" s="15" t="s">
+      <c r="A574" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B574" s="13" t="s">
         <v>956</v>
       </c>
-      <c r="C574" s="16">
+      <c r="C574" s="14">
         <v>45287</v>
       </c>
-      <c r="D574" s="15" t="s">
+      <c r="D574" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E574" s="16"/>
-      <c r="F574" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G574" s="15" t="s">
+      <c r="E574" s="14"/>
+      <c r="F574" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G574" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="575" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="15" t="s">
+      <c r="A575" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B575" s="15" t="s">
+      <c r="B575" s="13" t="s">
         <v>960</v>
       </c>
-      <c r="C575" s="16">
+      <c r="C575" s="14">
         <v>45293</v>
       </c>
-      <c r="D575" s="15" t="s">
+      <c r="D575" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E575" s="16"/>
-      <c r="F575" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G575" s="15" t="s">
+      <c r="E575" s="14"/>
+      <c r="F575" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G575" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="576" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A576" s="15" t="s">
+      <c r="A576" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B576" s="15" t="s">
+      <c r="B576" s="13" t="s">
         <v>959</v>
       </c>
-      <c r="C576" s="16">
+      <c r="C576" s="14">
         <v>45293</v>
       </c>
-      <c r="D576" s="15" t="s">
+      <c r="D576" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E576" s="16"/>
-      <c r="F576" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G576" s="15" t="s">
+      <c r="E576" s="14"/>
+      <c r="F576" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G576" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="577" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A577" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B577" s="15" t="s">
+      <c r="A577" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B577" s="13" t="s">
         <v>962</v>
       </c>
-      <c r="C577" s="16">
+      <c r="C577" s="14">
         <v>45294</v>
       </c>
-      <c r="D577" s="15" t="s">
+      <c r="D577" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E577" s="16"/>
-      <c r="F577" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G577" s="15" t="s">
+      <c r="E577" s="14"/>
+      <c r="F577" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G577" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="578" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A578" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B578" s="15" t="s">
+      <c r="A578" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B578" s="13" t="s">
         <v>961</v>
       </c>
-      <c r="C578" s="16">
+      <c r="C578" s="14">
         <v>45294</v>
       </c>
-      <c r="D578" s="15" t="s">
+      <c r="D578" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="E578" s="16"/>
-      <c r="F578" s="15" t="s">
+      <c r="E578" s="14"/>
+      <c r="F578" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G578" s="15" t="s">
+      <c r="G578" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="579" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A579" s="15" t="s">
+      <c r="A579" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B579" s="15" t="s">
+      <c r="B579" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="C579" s="16">
+      <c r="C579" s="14">
         <v>45294</v>
       </c>
-      <c r="D579" s="15" t="s">
+      <c r="D579" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E579" s="16"/>
-      <c r="F579" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G579" s="15" t="s">
+      <c r="E579" s="14"/>
+      <c r="F579" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G579" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="580" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A580" s="15" t="s">
+      <c r="A580" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B580" s="15" t="s">
+      <c r="B580" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="C580" s="16">
+      <c r="C580" s="14">
         <v>45294</v>
       </c>
-      <c r="D580" s="15" t="s">
+      <c r="D580" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E580" s="16"/>
-      <c r="F580" s="15" t="s">
+      <c r="E580" s="14"/>
+      <c r="F580" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="G580" s="15" t="s">
+      <c r="G580" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="581" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A581" s="15" t="s">
+      <c r="A581" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B581" s="15" t="s">
+      <c r="B581" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="C581" s="16">
+      <c r="C581" s="14">
         <v>45295</v>
       </c>
-      <c r="D581" s="15" t="s">
+      <c r="D581" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E581" s="16"/>
-      <c r="F581" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G581" s="15" t="s">
+      <c r="E581" s="14"/>
+      <c r="F581" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G581" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="582" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A582" s="15" t="s">
+      <c r="A582" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B582" s="15" t="s">
+      <c r="B582" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="C582" s="16">
+      <c r="C582" s="14">
         <v>45295</v>
       </c>
-      <c r="D582" s="15" t="s">
+      <c r="D582" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E582" s="16"/>
-      <c r="F582" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G582" s="15" t="s">
+      <c r="E582" s="14"/>
+      <c r="F582" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G582" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="583" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A583" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B583" s="15" t="s">
+      <c r="A583" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B583" s="13" t="s">
         <v>963</v>
       </c>
-      <c r="C583" s="16">
+      <c r="C583" s="14">
         <v>45341</v>
       </c>
-      <c r="D583" s="15" t="s">
+      <c r="D583" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E583" s="16"/>
-      <c r="F583" s="15"/>
-      <c r="G583" s="15"/>
+      <c r="E583" s="14"/>
+      <c r="F583" s="13"/>
+      <c r="G583" s="13"/>
     </row>
     <row r="584" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A584" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B584" s="17" t="s">
+      <c r="A584" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B584" s="15" t="s">
         <v>964</v>
       </c>
-      <c r="C584" s="18">
+      <c r="C584" s="16">
         <v>45342</v>
       </c>
-      <c r="D584" s="17" t="s">
+      <c r="D584" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E584" s="18"/>
-      <c r="F584" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G584" s="17" t="s">
+      <c r="E584" s="16"/>
+      <c r="F584" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G584" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="585" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A585" s="13" t="s">
+      <c r="A585" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B585" s="13" t="s">
+      <c r="B585" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="C585" s="14">
+      <c r="C585" s="12">
         <v>45343</v>
       </c>
-      <c r="D585" s="13" t="s">
+      <c r="D585" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E585" s="14"/>
-      <c r="F585" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G585" s="13" t="s">
+      <c r="E585" s="12"/>
+      <c r="F585" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G585" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="586" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B586" s="13" t="s">
+      <c r="A586" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B586" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="C586" s="14">
+      <c r="C586" s="12">
         <v>45344</v>
       </c>
-      <c r="D586" s="13" t="s">
+      <c r="D586" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E586" s="14"/>
-      <c r="F586" s="13" t="s">
+      <c r="E586" s="12"/>
+      <c r="F586" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="G586" s="13" t="s">
+      <c r="G586" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="587" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B587" s="13" t="s">
+      <c r="A587" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B587" s="11" t="s">
         <v>965</v>
       </c>
-      <c r="C587" s="14">
+      <c r="C587" s="12">
         <v>45344</v>
       </c>
-      <c r="D587" s="13" t="s">
+      <c r="D587" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E587" s="14"/>
-      <c r="F587" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G587" s="13" t="s">
+      <c r="E587" s="12"/>
+      <c r="F587" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G587" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="588" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B588" s="13" t="s">
+      <c r="A588" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B588" s="11" t="s">
         <v>966</v>
       </c>
-      <c r="C588" s="14">
+      <c r="C588" s="12">
         <v>45345</v>
       </c>
-      <c r="D588" s="13" t="s">
+      <c r="D588" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E588" s="14"/>
-      <c r="F588" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G588" s="13" t="s">
+      <c r="E588" s="12"/>
+      <c r="F588" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G588" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="589" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A589" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B589" s="11" t="s">
+      <c r="A589" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B589" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C589" s="12">
+      <c r="C589" s="5">
         <v>45345</v>
       </c>
-      <c r="D589" s="11" t="s">
+      <c r="D589" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E589" s="12"/>
-      <c r="F589" s="11"/>
-      <c r="G589" s="11"/>
+      <c r="E589" s="5"/>
+      <c r="F589" s="4"/>
+      <c r="G589" s="4"/>
     </row>
     <row r="590" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B590" s="11" t="s">
+      <c r="A590" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B590" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="C590" s="12">
+      <c r="C590" s="5">
         <v>45348</v>
       </c>
-      <c r="D590" s="11" t="s">
+      <c r="D590" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E590" s="12"/>
-      <c r="F590" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G590" s="11" t="s">
+      <c r="E590" s="5"/>
+      <c r="F590" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G590" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="591" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A591" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B591" s="11" t="s">
+      <c r="A591" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B591" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="C591" s="12">
+      <c r="C591" s="5">
         <v>45350</v>
       </c>
-      <c r="D591" s="11" t="s">
+      <c r="D591" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E591" s="12"/>
-      <c r="F591" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G591" s="11" t="s">
+      <c r="E591" s="5"/>
+      <c r="F591" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G591" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="592" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A592" s="11" t="s">
+      <c r="A592" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B592" s="11" t="s">
+      <c r="B592" s="4" t="s">
         <v>970</v>
       </c>
-      <c r="C592" s="12">
+      <c r="C592" s="5">
         <v>45351</v>
       </c>
-      <c r="D592" s="11" t="s">
+      <c r="D592" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E592" s="12"/>
-      <c r="F592" s="11" t="s">
+      <c r="E592" s="5"/>
+      <c r="F592" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G592" s="11" t="s">
+      <c r="G592" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="593" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="11" t="s">
+      <c r="A593" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B593" s="11" t="s">
+      <c r="B593" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C593" s="12">
+      <c r="C593" s="5">
         <v>45351</v>
       </c>
-      <c r="D593" s="11" t="s">
+      <c r="D593" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E593" s="12"/>
-      <c r="F593" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G593" s="11" t="s">
+      <c r="E593" s="5"/>
+      <c r="F593" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G593" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="594" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A594" s="11" t="s">
+      <c r="A594" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B594" s="11" t="s">
+      <c r="B594" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="C594" s="12">
+      <c r="C594" s="5">
         <v>45351</v>
       </c>
-      <c r="D594" s="11" t="s">
+      <c r="D594" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E594" s="12"/>
-      <c r="F594" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G594" s="11" t="s">
+      <c r="E594" s="5"/>
+      <c r="F594" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G594" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="595" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A595" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B595" s="11" t="s">
+      <c r="A595" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B595" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="C595" s="12">
+      <c r="C595" s="5">
         <v>45351</v>
       </c>
-      <c r="D595" s="11" t="s">
+      <c r="D595" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E595" s="12"/>
-      <c r="F595" s="11"/>
-      <c r="G595" s="11"/>
+      <c r="E595" s="5"/>
+      <c r="F595" s="4"/>
+      <c r="G595" s="4"/>
     </row>
     <row r="596" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A596" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B596" s="11" t="s">
+      <c r="A596" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B596" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="C596" s="12">
+      <c r="C596" s="5">
         <v>45356</v>
       </c>
-      <c r="D596" s="11" t="s">
+      <c r="D596" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E596" s="12"/>
-      <c r="F596" s="11" t="s">
+      <c r="E596" s="5"/>
+      <c r="F596" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G596" s="11" t="s">
+      <c r="G596" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="597" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A597" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B597" s="11" t="s">
+      <c r="A597" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B597" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="C597" s="12">
+      <c r="C597" s="5">
         <v>45362</v>
       </c>
-      <c r="D597" s="11" t="s">
+      <c r="D597" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E597" s="12"/>
-      <c r="F597" s="11"/>
-      <c r="G597" s="11"/>
+      <c r="E597" s="5"/>
+      <c r="F597" s="4"/>
+      <c r="G597" s="4"/>
     </row>
     <row r="598" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A598" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B598" s="11" t="s">
+      <c r="A598" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B598" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="C598" s="12">
+      <c r="C598" s="5">
         <v>45363</v>
       </c>
-      <c r="D598" s="11" t="s">
+      <c r="D598" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E598" s="12"/>
-      <c r="F598" s="11"/>
-      <c r="G598" s="11"/>
+      <c r="E598" s="5"/>
+      <c r="F598" s="4"/>
+      <c r="G598" s="4"/>
     </row>
     <row r="599" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A599" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B599" s="13" t="s">
+      <c r="A599" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B599" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C599" s="14">
+      <c r="C599" s="12">
         <v>45365</v>
       </c>
-      <c r="D599" s="13" t="s">
+      <c r="D599" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="E599" s="14"/>
-      <c r="F599" s="13"/>
-      <c r="G599" s="13"/>
+      <c r="E599" s="12"/>
+      <c r="F599" s="11"/>
+      <c r="G599" s="11"/>
     </row>
     <row r="600" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A600" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B600" s="11" t="s">
+      <c r="A600" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B600" s="4" t="s">
         <v>978</v>
       </c>
-      <c r="C600" s="12">
+      <c r="C600" s="5">
         <v>45366</v>
       </c>
-      <c r="D600" s="11" t="s">
+      <c r="D600" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E600" s="12"/>
-      <c r="F600" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G600" s="11" t="s">
+      <c r="E600" s="5"/>
+      <c r="F600" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G600" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="601" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A601" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B601" s="11" t="s">
+      <c r="A601" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B601" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C601" s="12">
+      <c r="C601" s="5">
         <v>45366</v>
       </c>
-      <c r="D601" s="11" t="s">
+      <c r="D601" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E601" s="12"/>
-      <c r="F601" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G601" s="11" t="s">
+      <c r="E601" s="5"/>
+      <c r="F601" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G601" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="602" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A602" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B602" s="11" t="s">
+      <c r="A602" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B602" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="C602" s="12">
+      <c r="C602" s="5">
         <v>45369</v>
       </c>
-      <c r="D602" s="11" t="s">
+      <c r="D602" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E602" s="12"/>
-      <c r="F602" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G602" s="11" t="s">
+      <c r="E602" s="5"/>
+      <c r="F602" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G602" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="603" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A603" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B603" s="11" t="s">
+      <c r="A603" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B603" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="C603" s="12">
+      <c r="C603" s="5">
         <v>45379</v>
       </c>
-      <c r="D603" s="11" t="s">
+      <c r="D603" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E603" s="12"/>
-      <c r="F603" s="11" t="s">
+      <c r="E603" s="5"/>
+      <c r="F603" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G603" s="11" t="s">
+      <c r="G603" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="604" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B604" s="11" t="s">
+      <c r="A604" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B604" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="C604" s="12">
+      <c r="C604" s="5">
         <v>45385</v>
       </c>
-      <c r="D604" s="11" t="s">
+      <c r="D604" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E604" s="12"/>
-      <c r="F604" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G604" s="11" t="s">
+      <c r="E604" s="5"/>
+      <c r="F604" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G604" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="605" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A605" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B605" s="11" t="s">
+      <c r="A605" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B605" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="C605" s="12">
+      <c r="C605" s="5">
         <v>45462</v>
       </c>
-      <c r="D605" s="11" t="s">
+      <c r="D605" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E605" s="12"/>
-      <c r="F605" s="11" t="s">
+      <c r="E605" s="5"/>
+      <c r="F605" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G605" s="11" t="s">
+      <c r="G605" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="606" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A606" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B606" s="11" t="s">
+      <c r="A606" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B606" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="C606" s="12">
+      <c r="C606" s="5">
         <v>45462</v>
       </c>
-      <c r="D606" s="11" t="s">
+      <c r="D606" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E606" s="12"/>
-      <c r="F606" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G606" s="11" t="s">
+      <c r="E606" s="5"/>
+      <c r="F606" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G606" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="607" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A607" s="11" t="s">
+      <c r="A607" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B607" s="11" t="s">
+      <c r="B607" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="C607" s="12">
+      <c r="C607" s="5">
         <v>45462</v>
       </c>
-      <c r="D607" s="11" t="s">
+      <c r="D607" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E607" s="12"/>
-      <c r="F607" s="11"/>
-      <c r="G607" s="11"/>
+      <c r="E607" s="5"/>
+      <c r="F607" s="4"/>
+      <c r="G607" s="4"/>
     </row>
     <row r="608" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A608" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B608" s="11" t="s">
+      <c r="A608" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B608" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="C608" s="12">
+      <c r="C608" s="5">
         <v>45462</v>
       </c>
-      <c r="D608" s="11" t="s">
+      <c r="D608" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="E608" s="12"/>
-      <c r="F608" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G608" s="11" t="s">
+      <c r="E608" s="5"/>
+      <c r="F608" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G608" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="609" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A609" s="11" t="s">
+      <c r="A609" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B609" s="11" t="s">
+      <c r="B609" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="C609" s="12">
+      <c r="C609" s="5">
         <v>45462</v>
       </c>
-      <c r="D609" s="11" t="s">
+      <c r="D609" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E609" s="12"/>
-      <c r="F609" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G609" s="11" t="s">
+      <c r="E609" s="5"/>
+      <c r="F609" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G609" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="610" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A610" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B610" s="11" t="s">
+      <c r="A610" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B610" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="C610" s="12">
+      <c r="C610" s="5">
         <v>45463</v>
       </c>
-      <c r="D610" s="11" t="s">
+      <c r="D610" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E610" s="12"/>
-      <c r="F610" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G610" s="11" t="s">
+      <c r="E610" s="5"/>
+      <c r="F610" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G610" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="611" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A611" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B611" s="11" t="s">
+      <c r="A611" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B611" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="C611" s="12">
+      <c r="C611" s="5">
         <v>45463</v>
       </c>
-      <c r="D611" s="11" t="s">
+      <c r="D611" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="E611" s="12"/>
-      <c r="F611" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G611" s="11" t="s">
+      <c r="E611" s="5"/>
+      <c r="F611" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G611" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="612" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A612" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B612" s="11" t="s">
+      <c r="A612" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B612" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="C612" s="12">
+      <c r="C612" s="5">
         <v>45463</v>
       </c>
-      <c r="D612" s="11" t="s">
+      <c r="D612" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E612" s="12"/>
-      <c r="F612" s="11" t="s">
+      <c r="E612" s="5"/>
+      <c r="F612" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="G612" s="11" t="s">
+      <c r="G612" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="613" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A613" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B613" s="11" t="s">
+      <c r="A613" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B613" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="C613" s="12">
+      <c r="C613" s="5">
         <v>45467</v>
       </c>
-      <c r="D613" s="11" t="s">
+      <c r="D613" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E613" s="12"/>
-      <c r="F613" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G613" s="11" t="s">
+      <c r="E613" s="5"/>
+      <c r="F613" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G613" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="614" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B614" s="11" t="s">
+      <c r="A614" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B614" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C614" s="12">
+      <c r="C614" s="5">
         <v>45467</v>
       </c>
-      <c r="D614" s="11" t="s">
+      <c r="D614" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E614" s="12"/>
-      <c r="F614" s="11" t="s">
+      <c r="E614" s="5"/>
+      <c r="F614" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G614" s="11" t="s">
+      <c r="G614" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="615" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A615" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B615" s="11" t="s">
+      <c r="A615" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B615" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="C615" s="12">
+      <c r="C615" s="5">
         <v>45484</v>
       </c>
-      <c r="D615" s="11" t="s">
+      <c r="D615" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E615" s="12"/>
-      <c r="F615" s="11"/>
-      <c r="G615" s="11"/>
+      <c r="E615" s="5"/>
+      <c r="F615" s="4"/>
+      <c r="G615" s="4"/>
     </row>
     <row r="616" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A616" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B616" s="11" t="s">
+      <c r="A616" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B616" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="C616" s="12">
+      <c r="C616" s="5">
         <v>45490</v>
       </c>
-      <c r="D616" s="11" t="s">
+      <c r="D616" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="E616" s="12"/>
-      <c r="F616" s="11" t="s">
+      <c r="E616" s="5"/>
+      <c r="F616" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G616" s="11" t="s">
+      <c r="G616" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="617" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A617" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B617" s="11" t="s">
+      <c r="A617" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B617" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="C617" s="12">
+      <c r="C617" s="5">
         <v>45491</v>
       </c>
-      <c r="D617" s="11" t="s">
+      <c r="D617" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E617" s="12"/>
-      <c r="F617" s="11"/>
-      <c r="G617" s="11"/>
+      <c r="E617" s="5"/>
+      <c r="F617" s="4"/>
+      <c r="G617" s="4"/>
     </row>
     <row r="618" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A618" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B618" s="11" t="s">
+      <c r="A618" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B618" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="C618" s="12">
+      <c r="C618" s="5">
         <v>45495</v>
       </c>
-      <c r="D618" s="11" t="s">
+      <c r="D618" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E618" s="12"/>
-      <c r="F618" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G618" s="11" t="s">
+      <c r="E618" s="5"/>
+      <c r="F618" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G618" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="619" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A619" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B619" s="11" t="s">
+      <c r="A619" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B619" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="C619" s="12">
+      <c r="C619" s="5">
         <v>45498</v>
       </c>
-      <c r="D619" s="11" t="s">
+      <c r="D619" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E619" s="12"/>
-      <c r="F619" s="11" t="s">
+      <c r="E619" s="5"/>
+      <c r="F619" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G619" s="11" t="s">
+      <c r="G619" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="620" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A620" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B620" s="11" t="s">
+      <c r="A620" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B620" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="C620" s="12">
+      <c r="C620" s="5">
         <v>45516</v>
       </c>
-      <c r="D620" s="11" t="s">
+      <c r="D620" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E620" s="12"/>
-      <c r="F620" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G620" s="11" t="s">
+      <c r="E620" s="5"/>
+      <c r="F620" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G620" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="621" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A621" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B621" s="11" t="s">
+      <c r="A621" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B621" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="C621" s="12">
+      <c r="C621" s="5">
         <v>45520</v>
       </c>
-      <c r="D621" s="11" t="s">
+      <c r="D621" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E621" s="12"/>
-      <c r="F621" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G621" s="11" t="s">
+      <c r="E621" s="5"/>
+      <c r="F621" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G621" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="622" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A622" s="11" t="s">
+      <c r="A622" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B622" s="11" t="s">
+      <c r="B622" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C622" s="12">
+      <c r="C622" s="5">
         <v>45544</v>
       </c>
-      <c r="D622" s="11" t="s">
+      <c r="D622" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="E622" s="12"/>
-      <c r="F622" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G622" s="11" t="s">
+      <c r="E622" s="5"/>
+      <c r="F622" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G622" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -20225,14 +20218,14 @@
     <sortCondition ref="C2:C557"/>
     <sortCondition ref="B2:B557"/>
   </sortState>
-  <conditionalFormatting sqref="B585:B1048576 B1:B557">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="B558:B583">
+    <cfRule type="duplicateValues" dxfId="2" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B584">
     <cfRule type="duplicateValues" dxfId="1" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B558:B583">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+  <conditionalFormatting sqref="B585:B1048576 B1:B557">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42C2180-A039-8543-B6AE-F603717700A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7124BAF0-EB00-8344-AF42-37BF6A406542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4095" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4104" uniqueCount="996">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -3021,6 +3021,12 @@
   </si>
   <si>
     <t>Fabiana Amorim Marques da Silva</t>
+  </si>
+  <si>
+    <t>Ana Paula da Silva Farias Tietz</t>
+  </si>
+  <si>
+    <t>Bárbara Conceição dos Santos</t>
   </si>
 </sst>
 </file>
@@ -3052,7 +3058,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3063,6 +3069,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3134,7 +3146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3182,6 +3194,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3463,7 +3478,7 @@
   <dimension ref="A1:G919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A622" sqref="A622"/>
     </sheetView>
   </sheetViews>
@@ -17535,22 +17550,44 @@
       </c>
     </row>
     <row r="623" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A623" s="8"/>
-      <c r="B623" s="8"/>
-      <c r="C623" s="9"/>
-      <c r="D623" s="8"/>
+      <c r="A623" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B623" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="C623" s="9">
+        <v>45575</v>
+      </c>
+      <c r="D623" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="E623" s="9"/>
-      <c r="F623" s="8"/>
-      <c r="G623" s="8"/>
+      <c r="F623" s="17"/>
+      <c r="G623" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="624" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A624" s="7"/>
-      <c r="B624" s="7"/>
-      <c r="C624" s="6"/>
-      <c r="D624" s="7"/>
+      <c r="A624" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B624" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="C624" s="9">
+        <v>45575</v>
+      </c>
+      <c r="D624" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E624" s="6"/>
-      <c r="F624" s="7"/>
-      <c r="G624" s="7"/>
+      <c r="F624" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G624" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="625" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="7"/>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7124BAF0-EB00-8344-AF42-37BF6A406542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03516E0E-C8A3-1E4E-8608-38840AC5E2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4104" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4103" uniqueCount="996">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -3478,8 +3478,8 @@
   <dimension ref="A1:G919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A622" sqref="A622"/>
+      <pane ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A624" sqref="A624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10785,10 +10785,10 @@
         <v>654</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E318" s="5" t="s">
-        <v>706</v>
+        <v>2</v>
+      </c>
+      <c r="E318" s="5">
+        <v>45621</v>
       </c>
       <c r="F318" s="4" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03516E0E-C8A3-1E4E-8608-38840AC5E2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B5ED9B-9DC2-3D41-BAE4-E5B75739D489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15849,11 +15849,9 @@
         <v>45090</v>
       </c>
       <c r="D540" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E540" s="6">
-        <v>45622</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E540" s="6"/>
       <c r="F540" s="7" t="s">
         <v>13</v>
       </c>
@@ -15872,9 +15870,11 @@
         <v>45092</v>
       </c>
       <c r="D541" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E541" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E541" s="6">
+        <v>45629</v>
+      </c>
       <c r="F541" s="7" t="s">
         <v>13</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B5ED9B-9DC2-3D41-BAE4-E5B75739D489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B499A3E-16D4-004B-BB0D-9836B0ABD24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4103" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4101" uniqueCount="996">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -15150,10 +15150,10 @@
         <v>484</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E509" s="5" t="s">
-        <v>706</v>
+        <v>2</v>
+      </c>
+      <c r="E509" s="5">
+        <v>45698</v>
       </c>
       <c r="F509" s="4" t="s">
         <v>13</v>
@@ -15401,10 +15401,10 @@
         <v>488</v>
       </c>
       <c r="D520" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E520" s="6" t="s">
-        <v>706</v>
+        <v>2</v>
+      </c>
+      <c r="E520" s="6">
+        <v>45705</v>
       </c>
       <c r="F520" s="7" t="s">
         <v>13</v>
@@ -16294,9 +16294,11 @@
         <v>45281</v>
       </c>
       <c r="D561" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E561" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="E561" s="14">
+        <v>45755</v>
+      </c>
       <c r="F561" s="13" t="s">
         <v>13</v>
       </c>
@@ -16357,9 +16359,11 @@
         <v>45281</v>
       </c>
       <c r="D564" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E564" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="E564" s="14">
+        <v>45742</v>
+      </c>
       <c r="F564" s="13" t="s">
         <v>13</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42C2180-A039-8543-B6AE-F603717700A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B499A3E-16D4-004B-BB0D-9836B0ABD24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4095" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4101" uniqueCount="996">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -3021,6 +3021,12 @@
   </si>
   <si>
     <t>Fabiana Amorim Marques da Silva</t>
+  </si>
+  <si>
+    <t>Ana Paula da Silva Farias Tietz</t>
+  </si>
+  <si>
+    <t>Bárbara Conceição dos Santos</t>
   </si>
 </sst>
 </file>
@@ -3052,7 +3058,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3063,6 +3069,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3134,7 +3146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3182,6 +3194,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3463,8 +3478,8 @@
   <dimension ref="A1:G919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A622" sqref="A622"/>
+      <pane ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A624" sqref="A624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10770,10 +10785,10 @@
         <v>654</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E318" s="5" t="s">
-        <v>706</v>
+        <v>2</v>
+      </c>
+      <c r="E318" s="5">
+        <v>45621</v>
       </c>
       <c r="F318" s="4" t="s">
         <v>13</v>
@@ -15135,10 +15150,10 @@
         <v>484</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E509" s="5" t="s">
-        <v>706</v>
+        <v>2</v>
+      </c>
+      <c r="E509" s="5">
+        <v>45698</v>
       </c>
       <c r="F509" s="4" t="s">
         <v>13</v>
@@ -15386,10 +15401,10 @@
         <v>488</v>
       </c>
       <c r="D520" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E520" s="6" t="s">
-        <v>706</v>
+        <v>2</v>
+      </c>
+      <c r="E520" s="6">
+        <v>45705</v>
       </c>
       <c r="F520" s="7" t="s">
         <v>13</v>
@@ -15834,11 +15849,9 @@
         <v>45090</v>
       </c>
       <c r="D540" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E540" s="6">
-        <v>45622</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E540" s="6"/>
       <c r="F540" s="7" t="s">
         <v>13</v>
       </c>
@@ -15857,9 +15870,11 @@
         <v>45092</v>
       </c>
       <c r="D541" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E541" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E541" s="6">
+        <v>45629</v>
+      </c>
       <c r="F541" s="7" t="s">
         <v>13</v>
       </c>
@@ -16279,9 +16294,11 @@
         <v>45281</v>
       </c>
       <c r="D561" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E561" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="E561" s="14">
+        <v>45755</v>
+      </c>
       <c r="F561" s="13" t="s">
         <v>13</v>
       </c>
@@ -16342,9 +16359,11 @@
         <v>45281</v>
       </c>
       <c r="D564" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E564" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="E564" s="14">
+        <v>45742</v>
+      </c>
       <c r="F564" s="13" t="s">
         <v>13</v>
       </c>
@@ -17535,22 +17554,44 @@
       </c>
     </row>
     <row r="623" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A623" s="8"/>
-      <c r="B623" s="8"/>
-      <c r="C623" s="9"/>
-      <c r="D623" s="8"/>
+      <c r="A623" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B623" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="C623" s="9">
+        <v>45575</v>
+      </c>
+      <c r="D623" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="E623" s="9"/>
-      <c r="F623" s="8"/>
-      <c r="G623" s="8"/>
+      <c r="F623" s="17"/>
+      <c r="G623" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="624" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A624" s="7"/>
-      <c r="B624" s="7"/>
-      <c r="C624" s="6"/>
-      <c r="D624" s="7"/>
+      <c r="A624" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B624" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="C624" s="9">
+        <v>45575</v>
+      </c>
+      <c r="D624" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E624" s="6"/>
-      <c r="F624" s="7"/>
-      <c r="G624" s="7"/>
+      <c r="F624" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G624" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="625" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="7"/>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B499A3E-16D4-004B-BB0D-9836B0ABD24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCC174A-B2E7-5243-8294-AADABD94D4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4101" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="996">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -15378,10 +15378,10 @@
         <v>488</v>
       </c>
       <c r="D519" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E519" s="6" t="s">
-        <v>706</v>
+        <v>2</v>
+      </c>
+      <c r="E519" s="6">
+        <v>45708</v>
       </c>
       <c r="F519" s="7" t="s">
         <v>13</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCC174A-B2E7-5243-8294-AADABD94D4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16B9624-D310-D141-9231-BFFB5803638A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16899,9 +16899,11 @@
         <v>45348</v>
       </c>
       <c r="D590" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E590" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="E590" s="5">
+        <v>45786</v>
+      </c>
       <c r="F590" s="4" t="s">
         <v>13</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16B9624-D310-D141-9231-BFFB5803638A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E718D9-89C9-9448-A32F-2D1D1AC9AC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="1015">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -3027,6 +3027,63 @@
   </si>
   <si>
     <t>Bárbara Conceição dos Santos</t>
+  </si>
+  <si>
+    <t>Raymundo Washington Leal Jnior</t>
+  </si>
+  <si>
+    <t>Karla Cristina Leopoldino de Souza</t>
+  </si>
+  <si>
+    <t>Ana Carolina Fagundes Velten</t>
+  </si>
+  <si>
+    <t>Rafael Cotta de Souza</t>
+  </si>
+  <si>
+    <t>Douglas Rangel Santos</t>
+  </si>
+  <si>
+    <t>Fabiana Pinto Sardinha</t>
+  </si>
+  <si>
+    <t>Arthur Fernandes Gimenes</t>
+  </si>
+  <si>
+    <t>Maria Alice Guina Teixeira</t>
+  </si>
+  <si>
+    <t>Maria Cristina Silva de Souza Mattos</t>
+  </si>
+  <si>
+    <t>André Gomes Mendes Martins</t>
+  </si>
+  <si>
+    <t>Sandro de Oliveira Vitorino</t>
+  </si>
+  <si>
+    <t>David Serafim Bernardes</t>
+  </si>
+  <si>
+    <t>Douglas Barbosa Marques</t>
+  </si>
+  <si>
+    <t>Gabriel Bastos Lilargem</t>
+  </si>
+  <si>
+    <t>Matheus Oliveira de Azevedo</t>
+  </si>
+  <si>
+    <t>Pedro Henrique Perpetuo de Lima Silva</t>
+  </si>
+  <si>
+    <t>Vander Telles Padrão</t>
+  </si>
+  <si>
+    <t>Jorge Henrique Azoubel das Dores</t>
+  </si>
+  <si>
+    <t>Valdir Sathler Pereira</t>
   </si>
 </sst>
 </file>
@@ -3146,7 +3203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3197,6 +3254,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3478,8 +3538,8 @@
   <dimension ref="A1:G919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A624" sqref="A624"/>
+      <pane ySplit="1" topLeftCell="A614" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A647" sqref="A647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17596,211 +17656,487 @@
       </c>
     </row>
     <row r="625" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A625" s="7"/>
-      <c r="B625" s="7"/>
-      <c r="C625" s="6"/>
-      <c r="D625" s="7"/>
+      <c r="A625" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B625" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C625" s="6">
+        <v>45730</v>
+      </c>
+      <c r="D625" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E625" s="6"/>
-      <c r="F625" s="7"/>
-      <c r="G625" s="7"/>
+      <c r="F625" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G625" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="626" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A626" s="7"/>
-      <c r="B626" s="7"/>
-      <c r="C626" s="6"/>
-      <c r="D626" s="7"/>
+      <c r="A626" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B626" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="C626" s="6">
+        <v>45730</v>
+      </c>
+      <c r="D626" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E626" s="6"/>
-      <c r="F626" s="7"/>
-      <c r="G626" s="7"/>
+      <c r="F626" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G626" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="627" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A627" s="7"/>
-      <c r="B627" s="7"/>
-      <c r="C627" s="6"/>
-      <c r="D627" s="7"/>
+      <c r="A627" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B627" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="C627" s="6">
+        <v>45701</v>
+      </c>
+      <c r="D627" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E627" s="6"/>
-      <c r="F627" s="7"/>
-      <c r="G627" s="7"/>
+      <c r="F627" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G627" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="628" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A628" s="7"/>
-      <c r="B628" s="7"/>
-      <c r="C628" s="6"/>
-      <c r="D628" s="7"/>
+      <c r="A628" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B628" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="C628" s="6">
+        <v>45638</v>
+      </c>
+      <c r="D628" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E628" s="6"/>
-      <c r="F628" s="7"/>
-      <c r="G628" s="7"/>
+      <c r="F628" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G628" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="629" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A629" s="7"/>
-      <c r="B629" s="7"/>
-      <c r="C629" s="6"/>
-      <c r="D629" s="7"/>
+      <c r="A629" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B629" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="C629" s="6">
+        <v>45730</v>
+      </c>
+      <c r="D629" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E629" s="6"/>
-      <c r="F629" s="7"/>
-      <c r="G629" s="7"/>
+      <c r="F629" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G629" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="630" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A630" s="7"/>
-      <c r="B630" s="7"/>
-      <c r="C630" s="6"/>
-      <c r="D630" s="7"/>
+      <c r="A630" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B630" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C630" s="6">
+        <v>45733</v>
+      </c>
+      <c r="D630" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E630" s="6"/>
-      <c r="F630" s="7"/>
-      <c r="G630" s="7"/>
+      <c r="F630" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G630" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="631" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A631" s="7"/>
-      <c r="B631" s="7"/>
-      <c r="C631" s="6"/>
-      <c r="D631" s="7"/>
+      <c r="A631" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B631" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C631" s="6">
+        <v>45733</v>
+      </c>
+      <c r="D631" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E631" s="6"/>
-      <c r="F631" s="7"/>
-      <c r="G631" s="7"/>
+      <c r="F631" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G631" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="632" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A632" s="7"/>
-      <c r="B632" s="7"/>
-      <c r="C632" s="6"/>
-      <c r="D632" s="7"/>
+      <c r="A632" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B632" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C632" s="6">
+        <v>45649</v>
+      </c>
+      <c r="D632" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E632" s="6"/>
-      <c r="F632" s="7"/>
-      <c r="G632" s="7"/>
+      <c r="F632" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G632" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="633" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A633" s="7"/>
-      <c r="B633" s="7"/>
-      <c r="C633" s="6"/>
-      <c r="D633" s="7"/>
+      <c r="A633" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B633" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C633" s="6">
+        <v>45649</v>
+      </c>
+      <c r="D633" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E633" s="6"/>
-      <c r="F633" s="7"/>
-      <c r="G633" s="7"/>
+      <c r="F633" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G633" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="634" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A634" s="7"/>
-      <c r="B634" s="7"/>
-      <c r="C634" s="6"/>
-      <c r="D634" s="7"/>
+      <c r="A634" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B634" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C634" s="6">
+        <v>45639</v>
+      </c>
+      <c r="D634" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E634" s="6"/>
-      <c r="F634" s="7"/>
-      <c r="G634" s="7"/>
+      <c r="F634" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G634" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="635" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A635" s="7"/>
-      <c r="B635" s="7"/>
-      <c r="C635" s="6"/>
-      <c r="D635" s="7"/>
+      <c r="A635" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B635" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C635" s="6">
+        <v>45706</v>
+      </c>
+      <c r="D635" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E635" s="6"/>
-      <c r="F635" s="7"/>
-      <c r="G635" s="7"/>
+      <c r="F635" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G635" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="636" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A636" s="7"/>
-      <c r="B636" s="7"/>
-      <c r="C636" s="6"/>
-      <c r="D636" s="7"/>
+      <c r="A636" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B636" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C636" s="6">
+        <v>45708</v>
+      </c>
+      <c r="D636" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E636" s="6"/>
-      <c r="F636" s="7"/>
-      <c r="G636" s="7"/>
+      <c r="F636" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G636" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="637" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A637" s="7"/>
-      <c r="B637" s="7"/>
-      <c r="C637" s="6"/>
-      <c r="D637" s="7"/>
+      <c r="A637" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B637" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C637" s="6">
+        <v>45642</v>
+      </c>
+      <c r="D637" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E637" s="6"/>
-      <c r="F637" s="7"/>
-      <c r="G637" s="7"/>
+      <c r="F637" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G637" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="638" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A638" s="7"/>
-      <c r="B638" s="7"/>
-      <c r="C638" s="6"/>
-      <c r="D638" s="7"/>
+      <c r="A638" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B638" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C638" s="6">
+        <v>45638</v>
+      </c>
+      <c r="D638" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E638" s="6"/>
-      <c r="F638" s="7"/>
-      <c r="G638" s="7"/>
+      <c r="F638" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G638" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="639" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A639" s="7"/>
-      <c r="B639" s="7"/>
-      <c r="C639" s="6"/>
-      <c r="D639" s="7"/>
+      <c r="A639" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B639" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C639" s="6">
+        <v>45730</v>
+      </c>
+      <c r="D639" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E639" s="6"/>
-      <c r="F639" s="7"/>
-      <c r="G639" s="7"/>
+      <c r="F639" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G639" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="640" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A640" s="7"/>
-      <c r="B640" s="7"/>
-      <c r="C640" s="6"/>
-      <c r="D640" s="7"/>
+      <c r="A640" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B640" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C640" s="6">
+        <v>45642</v>
+      </c>
+      <c r="D640" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E640" s="6"/>
-      <c r="F640" s="7"/>
-      <c r="G640" s="7"/>
+      <c r="F640" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G640" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="641" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A641" s="7"/>
-      <c r="B641" s="7"/>
-      <c r="C641" s="6"/>
-      <c r="D641" s="7"/>
+      <c r="A641" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B641" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C641" s="6">
+        <v>45644</v>
+      </c>
+      <c r="D641" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E641" s="6"/>
-      <c r="F641" s="7"/>
-      <c r="G641" s="7"/>
+      <c r="F641" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G641" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="642" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A642" s="7"/>
-      <c r="B642" s="7"/>
-      <c r="C642" s="6"/>
-      <c r="D642" s="7"/>
+      <c r="A642" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B642" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C642" s="6">
+        <v>45656</v>
+      </c>
+      <c r="D642" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E642" s="6"/>
-      <c r="F642" s="7"/>
-      <c r="G642" s="7"/>
+      <c r="F642" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G642" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="643" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A643" s="7"/>
-      <c r="B643" s="7"/>
-      <c r="C643" s="6"/>
-      <c r="D643" s="7"/>
+      <c r="A643" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B643" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C643" s="6">
+        <v>45708</v>
+      </c>
+      <c r="D643" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E643" s="6"/>
-      <c r="F643" s="7"/>
-      <c r="G643" s="7"/>
+      <c r="F643" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G643" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="644" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A644" s="7"/>
-      <c r="B644" s="7"/>
-      <c r="C644" s="6"/>
-      <c r="D644" s="7"/>
+      <c r="A644" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B644" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C644" s="6">
+        <v>45730</v>
+      </c>
+      <c r="D644" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E644" s="6"/>
-      <c r="F644" s="7"/>
-      <c r="G644" s="7"/>
+      <c r="F644" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G644" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="645" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A645" s="7"/>
-      <c r="B645" s="7"/>
-      <c r="C645" s="6"/>
-      <c r="D645" s="7"/>
+      <c r="A645" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B645" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C645" s="6">
+        <v>45734</v>
+      </c>
+      <c r="D645" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E645" s="6"/>
-      <c r="F645" s="7"/>
-      <c r="G645" s="7"/>
+      <c r="F645" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G645" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="646" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A646" s="7"/>
-      <c r="B646" s="7"/>
-      <c r="C646" s="6"/>
-      <c r="D646" s="7"/>
+      <c r="A646" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B646" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C646" s="18">
+        <v>45740</v>
+      </c>
+      <c r="D646" s="7" t="s">
+        <v>435</v>
+      </c>
       <c r="E646" s="6"/>
-      <c r="F646" s="7"/>
-      <c r="G646" s="7"/>
+      <c r="F646" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G646" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="647" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A647" s="7"/>
-      <c r="B647" s="7"/>
-      <c r="C647" s="6"/>
-      <c r="D647" s="7"/>
+      <c r="A647" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B647" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C647" s="6">
+        <v>45734</v>
+      </c>
+      <c r="D647" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="E647" s="6"/>
-      <c r="F647" s="7"/>
-      <c r="G647" s="7"/>
+      <c r="F647" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G647" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="648" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="7"/>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E718D9-89C9-9448-A32F-2D1D1AC9AC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E0C908-3CB2-E246-94FF-44CB49494D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4338" uniqueCount="1019">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -3084,13 +3084,25 @@
   </si>
   <si>
     <t>Valdir Sathler Pereira</t>
+  </si>
+  <si>
+    <t>Raymundo Washington Leal Júnior</t>
+  </si>
+  <si>
+    <t>Andréia Gomes Mendes Martins</t>
+  </si>
+  <si>
+    <t>Otávio Wilson Vieira de Castro</t>
+  </si>
+  <si>
+    <t>Klaus Rambaldi Reisa da Silva</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3114,8 +3126,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3131,6 +3149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3203,7 +3227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3259,11 +3283,36 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3321,9 +3370,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="stats3-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3538,8 +3587,8 @@
   <dimension ref="A1:G919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A614" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A647" sqref="A647"/>
+      <pane ySplit="1" topLeftCell="A640" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A648" sqref="A648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18139,238 +18188,534 @@
       </c>
     </row>
     <row r="648" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A648" s="7"/>
-      <c r="B648" s="7"/>
-      <c r="C648" s="6"/>
-      <c r="D648" s="7"/>
-      <c r="E648" s="6"/>
-      <c r="F648" s="7"/>
-      <c r="G648" s="7"/>
+      <c r="A648" s="22"/>
+      <c r="B648" s="22"/>
+      <c r="C648" s="23"/>
+      <c r="D648" s="22"/>
+      <c r="E648" s="23"/>
+      <c r="F648" s="22"/>
+      <c r="G648" s="22"/>
     </row>
     <row r="649" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A649" s="7"/>
-      <c r="B649" s="7"/>
-      <c r="C649" s="6"/>
-      <c r="D649" s="7"/>
+      <c r="A649" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B649" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="C649" s="20">
+        <v>45642</v>
+      </c>
+      <c r="D649" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E649" s="6"/>
-      <c r="F649" s="7"/>
-      <c r="G649" s="7"/>
+      <c r="F649" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G649" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="650" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A650" s="7"/>
-      <c r="B650" s="7"/>
-      <c r="C650" s="6"/>
-      <c r="D650" s="7"/>
+      <c r="A650" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B650" s="19" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C650" s="20">
+        <v>45730</v>
+      </c>
+      <c r="D650" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="E650" s="6"/>
-      <c r="F650" s="7"/>
-      <c r="G650" s="7"/>
+      <c r="F650" s="21"/>
+      <c r="G650" s="21"/>
     </row>
     <row r="651" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A651" s="7"/>
-      <c r="B651" s="7"/>
-      <c r="C651" s="6"/>
-      <c r="D651" s="7"/>
+      <c r="A651" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B651" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="C651" s="20">
+        <v>45730</v>
+      </c>
+      <c r="D651" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E651" s="6"/>
-      <c r="F651" s="7"/>
-      <c r="G651" s="7"/>
+      <c r="F651" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G651" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="652" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A652" s="7"/>
-      <c r="B652" s="7"/>
-      <c r="C652" s="6"/>
-      <c r="D652" s="7"/>
+      <c r="A652" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B652" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="C652" s="20">
+        <v>45730</v>
+      </c>
+      <c r="D652" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E652" s="6"/>
-      <c r="F652" s="7"/>
-      <c r="G652" s="7"/>
+      <c r="F652" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G652" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="653" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A653" s="7"/>
-      <c r="B653" s="7"/>
-      <c r="C653" s="6"/>
-      <c r="D653" s="7"/>
+      <c r="A653" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B653" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="C653" s="20">
+        <v>45733</v>
+      </c>
+      <c r="D653" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E653" s="6"/>
-      <c r="F653" s="7"/>
-      <c r="G653" s="7"/>
+      <c r="F653" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G653" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="654" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A654" s="7"/>
-      <c r="B654" s="7"/>
-      <c r="C654" s="6"/>
-      <c r="D654" s="7"/>
+      <c r="A654" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B654" s="19" t="s">
+        <v>999</v>
+      </c>
+      <c r="C654" s="20">
+        <v>45733</v>
+      </c>
+      <c r="D654" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E654" s="6"/>
-      <c r="F654" s="7"/>
-      <c r="G654" s="7"/>
+      <c r="F654" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G654" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="655" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A655" s="7"/>
-      <c r="B655" s="7"/>
-      <c r="C655" s="6"/>
-      <c r="D655" s="7"/>
+      <c r="A655" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B655" s="19" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C655" s="20">
+        <v>45736</v>
+      </c>
+      <c r="D655" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E655" s="6"/>
-      <c r="F655" s="7"/>
-      <c r="G655" s="7"/>
+      <c r="F655" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G655" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="656" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A656" s="7"/>
-      <c r="B656" s="7"/>
-      <c r="C656" s="6"/>
-      <c r="D656" s="7"/>
+      <c r="A656" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B656" s="19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C656" s="20">
+        <v>45638</v>
+      </c>
+      <c r="D656" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E656" s="6"/>
-      <c r="F656" s="7"/>
-      <c r="G656" s="7"/>
+      <c r="F656" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G656" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="657" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A657" s="7"/>
-      <c r="B657" s="7"/>
-      <c r="C657" s="6"/>
-      <c r="D657" s="7"/>
+      <c r="A657" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B657" s="19" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C657" s="20">
+        <v>45638</v>
+      </c>
+      <c r="D657" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E657" s="6"/>
-      <c r="F657" s="7"/>
-      <c r="G657" s="7"/>
+      <c r="F657" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G657" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="658" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A658" s="7"/>
-      <c r="B658" s="7"/>
-      <c r="C658" s="6"/>
-      <c r="D658" s="7"/>
+      <c r="A658" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B658" s="19" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C658" s="20">
+        <v>45639</v>
+      </c>
+      <c r="D658" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E658" s="6"/>
-      <c r="F658" s="7"/>
-      <c r="G658" s="7"/>
+      <c r="F658" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G658" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="659" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A659" s="7"/>
-      <c r="B659" s="7"/>
-      <c r="C659" s="6"/>
-      <c r="D659" s="7"/>
+      <c r="A659" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B659" s="19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C659" s="20">
+        <v>45642</v>
+      </c>
+      <c r="D659" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E659" s="6"/>
-      <c r="F659" s="7"/>
-      <c r="G659" s="7"/>
+      <c r="F659" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G659" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="660" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A660" s="7"/>
-      <c r="B660" s="7"/>
-      <c r="C660" s="6"/>
-      <c r="D660" s="7"/>
+      <c r="A660" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B660" s="19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C660" s="20">
+        <v>45644</v>
+      </c>
+      <c r="D660" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E660" s="6"/>
-      <c r="F660" s="7"/>
-      <c r="G660" s="7"/>
+      <c r="F660" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G660" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="661" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A661" s="7"/>
-      <c r="B661" s="7"/>
-      <c r="C661" s="6"/>
-      <c r="D661" s="7"/>
+      <c r="A661" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B661" s="19" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C661" s="20">
+        <v>45649</v>
+      </c>
+      <c r="D661" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E661" s="6"/>
-      <c r="F661" s="7"/>
-      <c r="G661" s="7"/>
+      <c r="F661" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G661" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="662" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A662" s="7"/>
-      <c r="B662" s="7"/>
-      <c r="C662" s="6"/>
-      <c r="D662" s="7"/>
+      <c r="A662" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B662" s="19" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C662" s="20">
+        <v>45649</v>
+      </c>
+      <c r="D662" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E662" s="6"/>
-      <c r="F662" s="7"/>
-      <c r="G662" s="7"/>
+      <c r="F662" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G662" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="663" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A663" s="7"/>
-      <c r="B663" s="7"/>
-      <c r="C663" s="6"/>
-      <c r="D663" s="7"/>
+      <c r="A663" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B663" s="19" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C663" s="20">
+        <v>45656</v>
+      </c>
+      <c r="D663" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E663" s="6"/>
-      <c r="F663" s="7"/>
-      <c r="G663" s="7"/>
+      <c r="F663" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G663" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="664" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A664" s="7"/>
-      <c r="B664" s="7"/>
-      <c r="C664" s="6"/>
-      <c r="D664" s="7"/>
+      <c r="A664" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B664" s="19" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C664" s="20">
+        <v>45701</v>
+      </c>
+      <c r="D664" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="E664" s="6"/>
-      <c r="F664" s="7"/>
-      <c r="G664" s="7"/>
+      <c r="F664" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G664" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="665" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A665" s="7"/>
-      <c r="B665" s="7"/>
-      <c r="C665" s="6"/>
-      <c r="D665" s="7"/>
+      <c r="A665" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B665" s="19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C665" s="20">
+        <v>45701</v>
+      </c>
+      <c r="D665" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E665" s="6"/>
-      <c r="F665" s="7"/>
-      <c r="G665" s="7"/>
+      <c r="F665" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G665" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="666" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A666" s="7"/>
-      <c r="B666" s="7"/>
-      <c r="C666" s="6"/>
-      <c r="D666" s="7"/>
+      <c r="A666" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B666" s="19" t="s">
+        <v>997</v>
+      </c>
+      <c r="C666" s="20">
+        <v>45706</v>
+      </c>
+      <c r="D666" s="19" t="s">
+        <v>435</v>
+      </c>
       <c r="E666" s="6"/>
-      <c r="F666" s="7"/>
-      <c r="G666" s="7"/>
+      <c r="F666" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G666" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="667" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A667" s="7"/>
-      <c r="B667" s="7"/>
-      <c r="C667" s="6"/>
-      <c r="D667" s="7"/>
+      <c r="A667" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B667" s="19" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C667" s="20">
+        <v>45708</v>
+      </c>
+      <c r="D667" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E667" s="6"/>
-      <c r="F667" s="7"/>
-      <c r="G667" s="7"/>
+      <c r="F667" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G667" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="668" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A668" s="7"/>
-      <c r="B668" s="7"/>
-      <c r="C668" s="6"/>
-      <c r="D668" s="7"/>
+      <c r="A668" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B668" s="19" t="s">
+        <v>998</v>
+      </c>
+      <c r="C668" s="20">
+        <v>45708</v>
+      </c>
+      <c r="D668" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E668" s="6"/>
-      <c r="F668" s="7"/>
-      <c r="G668" s="7"/>
+      <c r="F668" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G668" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="669" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A669" s="7"/>
-      <c r="B669" s="7"/>
-      <c r="C669" s="6"/>
-      <c r="D669" s="7"/>
+      <c r="A669" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B669" s="19" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C669" s="20">
+        <v>45730</v>
+      </c>
+      <c r="D669" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E669" s="6"/>
-      <c r="F669" s="7"/>
-      <c r="G669" s="7"/>
+      <c r="F669" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G669" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="670" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A670" s="7"/>
-      <c r="B670" s="7"/>
-      <c r="C670" s="6"/>
-      <c r="D670" s="7"/>
+      <c r="A670" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B670" s="19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C670" s="20">
+        <v>45730</v>
+      </c>
+      <c r="D670" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E670" s="6"/>
-      <c r="F670" s="7"/>
-      <c r="G670" s="7"/>
+      <c r="F670" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G670" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="671" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A671" s="7"/>
-      <c r="B671" s="7"/>
-      <c r="C671" s="6"/>
-      <c r="D671" s="7"/>
+      <c r="A671" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B671" s="19" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C671" s="20">
+        <v>45734</v>
+      </c>
+      <c r="D671" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E671" s="6"/>
-      <c r="F671" s="7"/>
-      <c r="G671" s="7"/>
+      <c r="F671" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G671" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="672" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A672" s="7"/>
-      <c r="B672" s="7"/>
-      <c r="C672" s="6"/>
-      <c r="D672" s="7"/>
+      <c r="A672" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B672" s="19" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C672" s="20">
+        <v>45734</v>
+      </c>
+      <c r="D672" s="19" t="s">
+        <v>435</v>
+      </c>
       <c r="E672" s="6"/>
-      <c r="F672" s="7"/>
-      <c r="G672" s="7"/>
+      <c r="F672" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G672" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="673" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A673" s="7"/>
-      <c r="B673" s="7"/>
-      <c r="C673" s="6"/>
-      <c r="D673" s="7"/>
+      <c r="A673" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B673" s="19" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C673" s="20">
+        <v>45740</v>
+      </c>
+      <c r="D673" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="E673" s="6"/>
-      <c r="F673" s="7"/>
-      <c r="G673" s="7"/>
+      <c r="F673" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G673" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="674" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="7"/>
@@ -20598,13 +20943,16 @@
     <sortCondition ref="B2:B557"/>
   </sortState>
   <conditionalFormatting sqref="B558:B583">
-    <cfRule type="duplicateValues" dxfId="2" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B584">
-    <cfRule type="duplicateValues" dxfId="1" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B585:B1048576 B1:B557">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="B585:B648 B1:B557 B674:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B649:B673">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B83790-074B-CE4C-B546-577A07A4A06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3BEE41-8CB3-FE4D-B989-B97C52A89D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2276,8 +2276,8 @@
   <dimension ref="A1:G919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A615" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A655" sqref="A655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12022,9 +12022,11 @@
         <v>44419</v>
       </c>
       <c r="D437" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E437" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E437" s="6">
+        <v>45772</v>
+      </c>
       <c r="F437" s="5" t="s">
         <v>219</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3BEE41-8CB3-FE4D-B989-B97C52A89D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB845151-451D-584B-8AD5-6A80E0F546A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11588,9 +11588,11 @@
         <v>44260</v>
       </c>
       <c r="D417" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E417" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E417" s="6">
+        <v>45779</v>
+      </c>
       <c r="F417" s="5" t="s">
         <v>50</v>
       </c>
@@ -12988,9 +12990,11 @@
         <v>44788</v>
       </c>
       <c r="D483" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E483" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E483" s="6">
+        <v>45729</v>
+      </c>
       <c r="F483" s="5" t="s">
         <v>13</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB845151-451D-584B-8AD5-6A80E0F546A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED0DE2C-2877-C748-8452-8D26BC9C0339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13695,9 +13695,11 @@
         <v>44915</v>
       </c>
       <c r="D516" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E516" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E516" s="6">
+        <v>45803</v>
+      </c>
       <c r="F516" s="5" t="s">
         <v>13</v>
       </c>
@@ -14145,9 +14147,11 @@
         <v>45008</v>
       </c>
       <c r="D538" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E538" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E538" s="6">
+        <v>45797</v>
+      </c>
       <c r="F538" s="5" t="s">
         <v>13</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED0DE2C-2877-C748-8452-8D26BC9C0339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CBB0A8-F010-0A4C-ACB7-59F2CA7F0495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10509,9 +10509,11 @@
         <v>44055</v>
       </c>
       <c r="D368" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E368" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E368" s="6">
+        <v>45806</v>
+      </c>
       <c r="F368" s="5" t="s">
         <v>13</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CBB0A8-F010-0A4C-ACB7-59F2CA7F0495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BE5318-C302-1A43-AD90-AE23D4838036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11634,9 +11634,11 @@
         <v>44261</v>
       </c>
       <c r="D419" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E419" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E419" s="6">
+        <v>45832</v>
+      </c>
       <c r="F419" s="5" t="s">
         <v>33</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BE5318-C302-1A43-AD90-AE23D4838036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8588FE1-F8A4-2F43-A0C9-7DF44CD2BFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2276,8 +2276,8 @@
   <dimension ref="A1:G919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A615" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A655" sqref="A655"/>
+      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A440" sqref="A440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12095,9 +12095,11 @@
         <v>44419</v>
       </c>
       <c r="D440" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E440" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E440" s="6">
+        <v>45841</v>
+      </c>
       <c r="F440" s="5" t="s">
         <v>13</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8588FE1-F8A4-2F43-A0C9-7DF44CD2BFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39D6F33-ECB7-204A-893E-1816FBC24BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="680" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Discentes" sheetId="9" r:id="rId1"/>
@@ -2276,8 +2276,8 @@
   <dimension ref="A1:G919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A440" sqref="A440"/>
+      <pane ySplit="1" topLeftCell="A615" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A655" sqref="A655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11984,9 +11984,11 @@
         <v>44350</v>
       </c>
       <c r="D435" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E435" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E435" s="6">
+        <v>45870</v>
+      </c>
       <c r="F435" s="5" t="s">
         <v>13</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39D6F33-ECB7-204A-893E-1816FBC24BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A4C051-1B4E-AC4B-9C36-84746D8F8E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13959,9 +13959,11 @@
         <v>44974</v>
       </c>
       <c r="D528" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E528" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E528" s="6">
+        <v>45819</v>
+      </c>
       <c r="F528" s="5" t="s">
         <v>13</v>
       </c>
@@ -14556,9 +14558,11 @@
         <v>45189</v>
       </c>
       <c r="D557" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E557" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E557" s="6">
+        <v>45884</v>
+      </c>
       <c r="F557" s="5" t="s">
         <v>13</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A4C051-1B4E-AC4B-9C36-84746D8F8E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F05CDD4-6C96-7E47-9989-88A6A131FF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Discentes" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Discentes!$A$1:$G$622</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Discentes!$A$1:$G$655</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3204" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="616">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -1884,6 +1884,9 @@
   </si>
   <si>
     <t>Data Matrícula</t>
+  </si>
+  <si>
+    <t>FOrmado</t>
   </si>
 </sst>
 </file>
@@ -11506,9 +11509,11 @@
         <v>44259</v>
       </c>
       <c r="D413" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E413" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E413" s="6">
+        <v>45916</v>
+      </c>
       <c r="F413" s="5" t="s">
         <v>33</v>
       </c>
@@ -14516,9 +14521,11 @@
         <v>45160</v>
       </c>
       <c r="D555" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E555" s="6"/>
+        <v>615</v>
+      </c>
+      <c r="E555" s="6">
+        <v>45989</v>
+      </c>
       <c r="F555" s="5" t="s">
         <v>13</v>
       </c>
@@ -15575,11 +15582,15 @@
         <v>45383</v>
       </c>
       <c r="D606" s="5" t="s">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="E606" s="6"/>
-      <c r="F606" s="5"/>
-      <c r="G606" s="5"/>
+      <c r="F606" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G606" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="607" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="5" t="s">
@@ -18427,7 +18438,7 @@
     <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:G622" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <autoFilter ref="A1:G655" xr:uid="{00000000-0001-0000-0800-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G622">
       <sortCondition ref="C2:C622"/>
       <sortCondition ref="B2:B622"/>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F05CDD4-6C96-7E47-9989-88A6A131FF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3D43F3-8E8C-544C-831A-B672042C8A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2279,8 +2279,8 @@
   <dimension ref="A1:G919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A615" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A655" sqref="A655"/>
+      <pane ySplit="1" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G443" sqref="G443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12167,9 +12167,11 @@
         <v>44419</v>
       </c>
       <c r="D443" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E443" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E443" s="6">
+        <v>45947</v>
+      </c>
       <c r="F443" s="5" t="s">
         <v>13</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3D43F3-8E8C-544C-831A-B672042C8A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010D5AEB-2D1B-3C44-BE71-F05798626892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="680" windowWidth="27740" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="680" windowWidth="27740" windowHeight="9580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Discentes" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="636">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -1887,6 +1887,66 @@
   </si>
   <si>
     <t>FOrmado</t>
+  </si>
+  <si>
+    <t>Rodrigo de Almeida Hoffert Pinto</t>
+  </si>
+  <si>
+    <t>Eduarda Dalagno Sbeghen</t>
+  </si>
+  <si>
+    <t>Nielza Moreira de Souza</t>
+  </si>
+  <si>
+    <t>Claudio David de Souza Oliveira</t>
+  </si>
+  <si>
+    <t>Lidia Santos Coutinho</t>
+  </si>
+  <si>
+    <t>Alanna Martins Soares de Palma</t>
+  </si>
+  <si>
+    <t>Fabrício Pessanha Quintanilha</t>
+  </si>
+  <si>
+    <t>Juliana Pessanha de Freitas</t>
+  </si>
+  <si>
+    <t>Leonardo Jacinto de Paula</t>
+  </si>
+  <si>
+    <t>Fernando Gomes de Lacerda</t>
+  </si>
+  <si>
+    <t>Luis Henrique Faria Martins</t>
+  </si>
+  <si>
+    <t>Luan Gameleira Bastos</t>
+  </si>
+  <si>
+    <t>Helena Loures Paes</t>
+  </si>
+  <si>
+    <t>João Vitor Almeida da Silva Bispo</t>
+  </si>
+  <si>
+    <t>Matheus Souto Rodrigues</t>
+  </si>
+  <si>
+    <t>Ramon Isidorio da Silva</t>
+  </si>
+  <si>
+    <t>Vinicius Henrique Ferreira Monteiro</t>
+  </si>
+  <si>
+    <t>Ana Carolina Oliveira Faria Falcão</t>
+  </si>
+  <si>
+    <t>Eriberto Alvares</t>
+  </si>
+  <si>
+    <t>Ariane Aversa Lessa</t>
   </si>
 </sst>
 </file>
@@ -1991,7 +2051,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2019,12 +2079,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{0B994284-E167-D14C-9C75-CB66973B77E8}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2062,9 +2141,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="stats3-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2279,8 +2358,8 @@
   <dimension ref="A1:G919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G443" sqref="G443"/>
+      <pane ySplit="1" topLeftCell="A670" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F656" sqref="F656:F676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16608,193 +16687,403 @@
       </c>
     </row>
     <row r="656" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A656" s="5"/>
-      <c r="B656" s="5"/>
-      <c r="C656" s="6"/>
-      <c r="D656" s="5"/>
+      <c r="A656" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B656" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="C656" s="12">
+        <v>45852</v>
+      </c>
+      <c r="D656" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="E656" s="6"/>
-      <c r="F656" s="5"/>
-      <c r="G656" s="5"/>
+      <c r="F656" s="13"/>
+      <c r="G656" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="657" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A657" s="5"/>
-      <c r="B657" s="5"/>
-      <c r="C657" s="6"/>
-      <c r="D657" s="5"/>
+      <c r="A657" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B657" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="C657" s="12">
+        <v>45852</v>
+      </c>
+      <c r="D657" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="E657" s="6"/>
-      <c r="F657" s="5"/>
-      <c r="G657" s="5"/>
+      <c r="F657" s="13"/>
+      <c r="G657" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="658" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A658" s="5"/>
-      <c r="B658" s="5"/>
-      <c r="C658" s="6"/>
-      <c r="D658" s="5"/>
+      <c r="A658" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B658" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C658" s="12">
+        <v>45852</v>
+      </c>
+      <c r="D658" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="E658" s="6"/>
-      <c r="F658" s="5"/>
-      <c r="G658" s="5"/>
+      <c r="F658" s="13"/>
+      <c r="G658" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="659" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A659" s="5"/>
-      <c r="B659" s="5"/>
-      <c r="C659" s="6"/>
-      <c r="D659" s="5"/>
+      <c r="A659" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B659" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="C659" s="12">
+        <v>45852</v>
+      </c>
+      <c r="D659" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="E659" s="6"/>
-      <c r="F659" s="5"/>
-      <c r="G659" s="5"/>
+      <c r="F659" s="13"/>
+      <c r="G659" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="660" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A660" s="5"/>
-      <c r="B660" s="5"/>
-      <c r="C660" s="6"/>
-      <c r="D660" s="5"/>
+      <c r="A660" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B660" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="C660" s="12">
+        <v>45861</v>
+      </c>
+      <c r="D660" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="E660" s="6"/>
-      <c r="F660" s="5"/>
-      <c r="G660" s="5"/>
+      <c r="F660" s="13"/>
+      <c r="G660" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="661" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A661" s="5"/>
-      <c r="B661" s="5"/>
-      <c r="C661" s="6"/>
-      <c r="D661" s="5"/>
+      <c r="A661" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B661" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="C661" s="12">
+        <v>45868</v>
+      </c>
+      <c r="D661" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="E661" s="6"/>
-      <c r="F661" s="5"/>
-      <c r="G661" s="5"/>
+      <c r="F661" s="13"/>
+      <c r="G661" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="662" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A662" s="5"/>
-      <c r="B662" s="5"/>
-      <c r="C662" s="6"/>
-      <c r="D662" s="5"/>
+      <c r="A662" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B662" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C662" s="12">
+        <v>45869</v>
+      </c>
+      <c r="D662" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="E662" s="6"/>
-      <c r="F662" s="5"/>
-      <c r="G662" s="5"/>
+      <c r="F662" s="13"/>
+      <c r="G662" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="663" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A663" s="5"/>
-      <c r="B663" s="5"/>
-      <c r="C663" s="6"/>
-      <c r="D663" s="5"/>
+      <c r="A663" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B663" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="C663" s="12">
+        <v>45880</v>
+      </c>
+      <c r="D663" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="E663" s="6"/>
-      <c r="F663" s="5"/>
-      <c r="G663" s="5"/>
+      <c r="F663" s="13"/>
+      <c r="G663" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="664" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A664" s="5"/>
-      <c r="B664" s="5"/>
-      <c r="C664" s="6"/>
-      <c r="D664" s="5"/>
+      <c r="A664" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B664" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="C664" s="12">
+        <v>45883</v>
+      </c>
+      <c r="D664" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="E664" s="6"/>
-      <c r="F664" s="5"/>
-      <c r="G664" s="5"/>
+      <c r="F664" s="13"/>
+      <c r="G664" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="665" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A665" s="5"/>
-      <c r="B665" s="5"/>
-      <c r="C665" s="6"/>
-      <c r="D665" s="5"/>
+      <c r="A665" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B665" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="C665" s="12">
+        <v>45883</v>
+      </c>
+      <c r="D665" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="E665" s="6"/>
-      <c r="F665" s="5"/>
-      <c r="G665" s="5"/>
+      <c r="F665" s="13"/>
+      <c r="G665" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="666" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A666" s="5"/>
-      <c r="B666" s="5"/>
-      <c r="C666" s="6"/>
-      <c r="D666" s="5"/>
+      <c r="A666" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B666" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="C666" s="12">
+        <v>45909</v>
+      </c>
+      <c r="D666" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="E666" s="6"/>
-      <c r="F666" s="5"/>
-      <c r="G666" s="5"/>
+      <c r="F666" s="13"/>
+      <c r="G666" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="667" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A667" s="5"/>
-      <c r="B667" s="5"/>
-      <c r="C667" s="6"/>
-      <c r="D667" s="5"/>
+      <c r="A667" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B667" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="C667" s="12">
+        <v>45911</v>
+      </c>
+      <c r="D667" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="E667" s="6"/>
-      <c r="F667" s="5"/>
-      <c r="G667" s="5"/>
+      <c r="F667" s="13"/>
+      <c r="G667" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="668" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A668" s="5"/>
-      <c r="B668" s="5"/>
-      <c r="C668" s="6"/>
-      <c r="D668" s="5"/>
+      <c r="A668" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B668" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="C668" s="12">
+        <v>45868</v>
+      </c>
+      <c r="D668" s="11" t="s">
+        <v>435</v>
+      </c>
       <c r="E668" s="6"/>
-      <c r="F668" s="5"/>
-      <c r="G668" s="5"/>
+      <c r="F668" s="13"/>
+      <c r="G668" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="669" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A669" s="5"/>
-      <c r="B669" s="5"/>
-      <c r="C669" s="6"/>
-      <c r="D669" s="5"/>
+      <c r="A669" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B669" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="C669" s="12">
+        <v>45868</v>
+      </c>
+      <c r="D669" s="11" t="s">
+        <v>435</v>
+      </c>
       <c r="E669" s="6"/>
-      <c r="F669" s="5"/>
-      <c r="G669" s="5"/>
+      <c r="F669" s="13"/>
+      <c r="G669" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="670" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A670" s="5"/>
-      <c r="B670" s="5"/>
-      <c r="C670" s="6"/>
-      <c r="D670" s="5"/>
+      <c r="A670" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B670" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="C670" s="12">
+        <v>45869</v>
+      </c>
+      <c r="D670" s="11" t="s">
+        <v>435</v>
+      </c>
       <c r="E670" s="6"/>
-      <c r="F670" s="5"/>
-      <c r="G670" s="5"/>
+      <c r="F670" s="13"/>
+      <c r="G670" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="671" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A671" s="5"/>
-      <c r="B671" s="5"/>
-      <c r="C671" s="6"/>
-      <c r="D671" s="5"/>
+      <c r="A671" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B671" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="C671" s="12">
+        <v>45869</v>
+      </c>
+      <c r="D671" s="11" t="s">
+        <v>435</v>
+      </c>
       <c r="E671" s="6"/>
-      <c r="F671" s="5"/>
-      <c r="G671" s="5"/>
+      <c r="F671" s="13"/>
+      <c r="G671" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="672" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A672" s="5"/>
-      <c r="B672" s="5"/>
-      <c r="C672" s="6"/>
-      <c r="D672" s="5"/>
+      <c r="A672" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B672" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="C672" s="12">
+        <v>45909</v>
+      </c>
+      <c r="D672" s="11" t="s">
+        <v>435</v>
+      </c>
       <c r="E672" s="6"/>
-      <c r="F672" s="5"/>
-      <c r="G672" s="5"/>
+      <c r="F672" s="13"/>
+      <c r="G672" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="673" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A673" s="5"/>
-      <c r="B673" s="5"/>
-      <c r="C673" s="6"/>
-      <c r="D673" s="5"/>
+      <c r="A673" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B673" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="C673" s="12">
+        <v>45909</v>
+      </c>
+      <c r="D673" s="11" t="s">
+        <v>435</v>
+      </c>
       <c r="E673" s="6"/>
-      <c r="F673" s="5"/>
-      <c r="G673" s="5"/>
+      <c r="F673" s="13"/>
+      <c r="G673" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="674" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A674" s="5"/>
-      <c r="B674" s="5"/>
-      <c r="C674" s="6"/>
-      <c r="D674" s="5"/>
+      <c r="A674" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B674" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C674" s="12">
+        <v>45909</v>
+      </c>
+      <c r="D674" s="11" t="s">
+        <v>435</v>
+      </c>
       <c r="E674" s="6"/>
-      <c r="F674" s="5"/>
-      <c r="G674" s="5"/>
+      <c r="F674" s="13"/>
+      <c r="G674" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="675" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A675" s="5"/>
-      <c r="B675" s="5"/>
-      <c r="C675" s="6"/>
-      <c r="D675" s="5"/>
+      <c r="A675" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B675" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="C675" s="12">
+        <v>45909</v>
+      </c>
+      <c r="D675" s="11" t="s">
+        <v>435</v>
+      </c>
       <c r="E675" s="6"/>
-      <c r="F675" s="5"/>
-      <c r="G675" s="5"/>
+      <c r="F675" s="13"/>
+      <c r="G675" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="676" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A676" s="5"/>
-      <c r="B676" s="5"/>
-      <c r="C676" s="6"/>
-      <c r="D676" s="5"/>
+      <c r="A676" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B676" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="C676" s="12">
+        <v>45911</v>
+      </c>
+      <c r="D676" s="11" t="s">
+        <v>435</v>
+      </c>
       <c r="E676" s="6"/>
-      <c r="F676" s="5"/>
-      <c r="G676" s="5"/>
+      <c r="F676" s="13"/>
+      <c r="G676" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="677" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="5"/>
@@ -18450,7 +18739,10 @@
     <sortCondition ref="C2:C557"/>
     <sortCondition ref="B2:B557"/>
   </sortState>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B655 B677:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B656:B676">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010D5AEB-2D1B-3C44-BE71-F05798626892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBA2F97-3159-0746-A306-EC29580B5FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="27740" windowHeight="9580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="635">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -1884,9 +1884,6 @@
   </si>
   <si>
     <t>Data Matrícula</t>
-  </si>
-  <si>
-    <t>FOrmado</t>
   </si>
   <si>
     <t>Rodrigo de Almeida Hoffert Pinto</t>
@@ -2358,8 +2355,8 @@
   <dimension ref="A1:G919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A670" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F656" sqref="F656:F676"/>
+      <pane ySplit="1" topLeftCell="A663" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A676" sqref="A676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14581,9 +14578,11 @@
         <v>45160</v>
       </c>
       <c r="D554" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E554" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E554" s="6">
+        <v>45951</v>
+      </c>
       <c r="F554" s="5" t="s">
         <v>13</v>
       </c>
@@ -14602,7 +14601,7 @@
         <v>45160</v>
       </c>
       <c r="D555" s="5" t="s">
-        <v>615</v>
+        <v>2</v>
       </c>
       <c r="E555" s="6">
         <v>45989</v>
@@ -16691,7 +16690,7 @@
         <v>11</v>
       </c>
       <c r="B656" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C656" s="12">
         <v>45852</v>
@@ -16710,7 +16709,7 @@
         <v>11</v>
       </c>
       <c r="B657" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C657" s="12">
         <v>45852</v>
@@ -16729,7 +16728,7 @@
         <v>11</v>
       </c>
       <c r="B658" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C658" s="12">
         <v>45852</v>
@@ -16748,7 +16747,7 @@
         <v>11</v>
       </c>
       <c r="B659" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C659" s="12">
         <v>45852</v>
@@ -16767,7 +16766,7 @@
         <v>11</v>
       </c>
       <c r="B660" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C660" s="12">
         <v>45861</v>
@@ -16786,7 +16785,7 @@
         <v>11</v>
       </c>
       <c r="B661" s="11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C661" s="12">
         <v>45868</v>
@@ -16805,7 +16804,7 @@
         <v>11</v>
       </c>
       <c r="B662" s="11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C662" s="12">
         <v>45869</v>
@@ -16824,7 +16823,7 @@
         <v>11</v>
       </c>
       <c r="B663" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C663" s="12">
         <v>45880</v>
@@ -16843,7 +16842,7 @@
         <v>11</v>
       </c>
       <c r="B664" s="11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C664" s="12">
         <v>45883</v>
@@ -16862,7 +16861,7 @@
         <v>11</v>
       </c>
       <c r="B665" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C665" s="12">
         <v>45883</v>
@@ -16881,7 +16880,7 @@
         <v>11</v>
       </c>
       <c r="B666" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C666" s="12">
         <v>45909</v>
@@ -16919,7 +16918,7 @@
         <v>11</v>
       </c>
       <c r="B668" s="11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C668" s="12">
         <v>45868</v>
@@ -16938,7 +16937,7 @@
         <v>11</v>
       </c>
       <c r="B669" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C669" s="12">
         <v>45868</v>
@@ -16957,7 +16956,7 @@
         <v>11</v>
       </c>
       <c r="B670" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C670" s="12">
         <v>45869</v>
@@ -16976,7 +16975,7 @@
         <v>11</v>
       </c>
       <c r="B671" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C671" s="12">
         <v>45869</v>
@@ -16995,7 +16994,7 @@
         <v>11</v>
       </c>
       <c r="B672" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C672" s="12">
         <v>45909</v>
@@ -17014,7 +17013,7 @@
         <v>11</v>
       </c>
       <c r="B673" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C673" s="12">
         <v>45909</v>
@@ -17033,7 +17032,7 @@
         <v>11</v>
       </c>
       <c r="B674" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C674" s="12">
         <v>45909</v>
@@ -17052,7 +17051,7 @@
         <v>11</v>
       </c>
       <c r="B675" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C675" s="12">
         <v>45909</v>
@@ -17071,7 +17070,7 @@
         <v>11</v>
       </c>
       <c r="B676" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C676" s="12">
         <v>45911</v>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326A1612-9FD4-4F45-A769-180A9D68CF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A19A740-D21E-074F-93D3-3092699259FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="660" windowWidth="29380" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="660" windowWidth="29360" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Discentes" sheetId="9" r:id="rId1"/>
@@ -2342,17 +2342,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{0B994284-E167-D14C-9C75-CB66973B77E8}"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2400,9 +2390,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="stats3-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2617,8 +2607,8 @@
   <dimension ref="A1:G919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A386" sqref="A386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11246,9 +11236,11 @@
         <v>639</v>
       </c>
       <c r="D386" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E386" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E386" s="6">
+        <v>45994</v>
+      </c>
       <c r="F386" s="10" t="s">
         <v>300</v>
       </c>
@@ -19076,10 +19068,10 @@
     <sortCondition ref="B2:B557"/>
   </sortState>
   <conditionalFormatting sqref="B1:B655 B678:B1048576 C677">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B656:B676">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A19A740-D21E-074F-93D3-3092699259FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DF146C-50A0-1F45-B142-48DF32004F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="660" windowWidth="29360" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2607,8 +2607,8 @@
   <dimension ref="A1:G919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A386" sqref="A386"/>
+      <pane ySplit="1" topLeftCell="A496" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A519" sqref="A519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14088,9 +14088,11 @@
         <v>650</v>
       </c>
       <c r="D518" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E518" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E518" s="6">
+        <v>46006</v>
+      </c>
       <c r="F518" s="10" t="s">
         <v>13</v>
       </c>
@@ -14109,9 +14111,11 @@
         <v>651</v>
       </c>
       <c r="D519" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E519" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E519" s="6">
+        <v>46007</v>
+      </c>
       <c r="F519" s="10" t="s">
         <v>13</v>
       </c>
@@ -14559,9 +14563,11 @@
         <v>665</v>
       </c>
       <c r="D541" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E541" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E541" s="6">
+        <v>46006</v>
+      </c>
       <c r="F541" s="10" t="s">
         <v>13</v>
       </c>
@@ -15157,9 +15163,11 @@
         <v>45287</v>
       </c>
       <c r="D569" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E569" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="E569" s="6">
+        <v>45992</v>
+      </c>
       <c r="F569" s="10" t="s">
         <v>13</v>
       </c>
@@ -15304,9 +15312,11 @@
         <v>673</v>
       </c>
       <c r="D576" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E576" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E576" s="6">
+        <v>46013</v>
+      </c>
       <c r="F576" s="10" t="s">
         <v>71</v>
       </c>
@@ -15531,9 +15541,11 @@
         <v>678</v>
       </c>
       <c r="D587" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E587" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E587" s="6">
+        <v>46007</v>
+      </c>
       <c r="F587" s="10" t="s">
         <v>13</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DF146C-50A0-1F45-B142-48DF32004F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10378E68-6ACF-3843-BC33-1938BD55FF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="660" windowWidth="29360" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2607,8 +2607,8 @@
   <dimension ref="A1:G919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A496" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A519" sqref="A519"/>
+      <pane ySplit="1" topLeftCell="A634" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A679" sqref="A679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14300,9 +14300,11 @@
         <v>657</v>
       </c>
       <c r="D528" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E528" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E528" s="6">
+        <v>46063</v>
+      </c>
       <c r="F528" s="10" t="s">
         <v>13</v>
       </c>
@@ -16016,9 +16018,11 @@
         <v>689</v>
       </c>
       <c r="D610" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E610" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E610" s="6">
+        <v>46062</v>
+      </c>
       <c r="F610" s="10" t="s">
         <v>13</v>
       </c>

--- a/docs/PPG/Discentes.xlsx
+++ b/docs/PPG/Discentes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10378E68-6ACF-3843-BC33-1938BD55FF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FCEA5C-EC91-FB45-B2A8-8EE1D9B48B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="660" windowWidth="29360" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="660" windowWidth="29380" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Discentes" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3436" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3492" uniqueCount="734">
   <si>
     <t>Pré-inscrito</t>
   </si>
@@ -2193,6 +2193,54 @@
   </si>
   <si>
     <t>07/10/2025</t>
+  </si>
+  <si>
+    <t>Moana Cabral de Castro Mattos</t>
+  </si>
+  <si>
+    <t>Yasmin Carvalho Heiderick</t>
+  </si>
+  <si>
+    <t>Paula Grace Rezende da Ballesté</t>
+  </si>
+  <si>
+    <t>Laura dos Santos Jeremias</t>
+  </si>
+  <si>
+    <t>Fabricio da Silva Mendanha</t>
+  </si>
+  <si>
+    <t>Alex da Silva Ramos</t>
+  </si>
+  <si>
+    <t>Andressa de Melo Martins</t>
+  </si>
+  <si>
+    <t>Ricardo Luis Fonseca Dias</t>
+  </si>
+  <si>
+    <t>Bruno Araújo Ribeiro</t>
+  </si>
+  <si>
+    <t>Roberto Freire Ferreira</t>
+  </si>
+  <si>
+    <t>22/12/2025</t>
+  </si>
+  <si>
+    <t>13/02/2026</t>
+  </si>
+  <si>
+    <t>12/12/2025</t>
+  </si>
+  <si>
+    <t>16/12/2025</t>
+  </si>
+  <si>
+    <t>18/12/2025</t>
+  </si>
+  <si>
+    <t>12/02/2026</t>
   </si>
 </sst>
 </file>
@@ -2342,7 +2390,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{0B994284-E167-D14C-9C75-CB66973B77E8}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2390,9 +2458,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="stats3-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2607,8 +2675,8 @@
   <dimension ref="A1:G919"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A634" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A679" sqref="A679"/>
+      <pane ySplit="1" topLeftCell="A657" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A690" sqref="A690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17457,103 +17525,215 @@
       <c r="G679" s="5"/>
     </row>
     <row r="680" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A680" s="5"/>
-      <c r="B680" s="5"/>
-      <c r="C680" s="6"/>
-      <c r="D680" s="5"/>
+      <c r="A680" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B680" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C680" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="D680" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E680" s="6"/>
-      <c r="F680" s="5"/>
-      <c r="G680" s="5"/>
+      <c r="F680" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G680" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="681" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A681" s="5"/>
-      <c r="B681" s="5"/>
-      <c r="C681" s="6"/>
-      <c r="D681" s="5"/>
+      <c r="A681" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B681" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="C681" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="D681" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E681" s="6"/>
-      <c r="F681" s="5"/>
-      <c r="G681" s="5"/>
+      <c r="F681" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G681" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="682" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A682" s="5"/>
-      <c r="B682" s="5"/>
-      <c r="C682" s="6"/>
-      <c r="D682" s="5"/>
+      <c r="A682" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B682" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="C682" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="D682" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E682" s="6"/>
-      <c r="F682" s="5"/>
-      <c r="G682" s="5"/>
+      <c r="F682" s="10"/>
+      <c r="G682" s="10"/>
     </row>
     <row r="683" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A683" s="5"/>
-      <c r="B683" s="5"/>
-      <c r="C683" s="6"/>
-      <c r="D683" s="5"/>
+      <c r="A683" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B683" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C683" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="D683" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E683" s="6"/>
-      <c r="F683" s="5"/>
-      <c r="G683" s="5"/>
+      <c r="F683" s="10"/>
+      <c r="G683" s="10"/>
     </row>
     <row r="684" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A684" s="5"/>
-      <c r="B684" s="5"/>
-      <c r="C684" s="6"/>
-      <c r="D684" s="5"/>
+      <c r="A684" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B684" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="C684" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="D684" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E684" s="6"/>
-      <c r="F684" s="5"/>
-      <c r="G684" s="5"/>
+      <c r="F684" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G684" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="685" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A685" s="5"/>
-      <c r="B685" s="5"/>
-      <c r="C685" s="6"/>
-      <c r="D685" s="5"/>
+      <c r="A685" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B685" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="C685" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="D685" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E685" s="6"/>
-      <c r="F685" s="5"/>
-      <c r="G685" s="5"/>
+      <c r="F685" s="10"/>
+      <c r="G685" s="10"/>
     </row>
     <row r="686" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A686" s="5"/>
-      <c r="B686" s="5"/>
-      <c r="C686" s="6"/>
-      <c r="D686" s="5"/>
+      <c r="A686" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B686" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="C686" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="D686" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E686" s="6"/>
-      <c r="F686" s="5"/>
-      <c r="G686" s="5"/>
+      <c r="F686" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G686" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="687" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A687" s="5"/>
-      <c r="B687" s="5"/>
-      <c r="C687" s="6"/>
-      <c r="D687" s="5"/>
+      <c r="A687" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B687" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="C687" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="D687" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E687" s="6"/>
-      <c r="F687" s="5"/>
-      <c r="G687" s="5"/>
+      <c r="F687" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G687" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="688" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A688" s="5"/>
-      <c r="B688" s="5"/>
-      <c r="C688" s="6"/>
-      <c r="D688" s="5"/>
+      <c r="A688" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B688" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="C688" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="D688" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E688" s="6"/>
-      <c r="F688" s="5"/>
-      <c r="G688" s="5"/>
+      <c r="F688" s="10"/>
+      <c r="G688" s="10"/>
     </row>
     <row r="689" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A689" s="5"/>
-      <c r="B689" s="5"/>
-      <c r="C689" s="6"/>
-      <c r="D689" s="5"/>
+      <c r="A689" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B689" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="C689" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="D689" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E689" s="6"/>
-      <c r="F689" s="5"/>
-      <c r="G689" s="5"/>
+      <c r="F689" s="10"/>
+      <c r="G689" s="10"/>
     </row>
     <row r="690" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A690" s="5"/>
-      <c r="B690" s="5"/>
-      <c r="C690" s="6"/>
-      <c r="D690" s="5"/>
+      <c r="A690" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B690" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C690" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="D690" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E690" s="6"/>
-      <c r="F690" s="5"/>
-      <c r="G690" s="5"/>
+      <c r="F690" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G690" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="691" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="5"/>
@@ -19083,11 +19263,8 @@
     <sortCondition ref="C2:C557"/>
     <sortCondition ref="B2:B557"/>
   </sortState>
-  <conditionalFormatting sqref="B1:B655 B678:B1048576 C677">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B656:B676">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
